--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bp51/Development/GTRI/Android/gpssample/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5D1A55-AF8A-AD4A-BD6E-E77EBD8AD484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="13_ncr:1_{6C5D1A55-AF8A-AD4A-BD6E-E77EBD8AD484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908854B0-2612-4738-96F8-4662D79889A9}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="6840" windowWidth="28040" windowHeight="17440" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="276">
-  <si>
-    <t>GPSSample</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="834">
   <si>
     <t>Settings</t>
   </si>
@@ -864,13 +861,1708 @@
   </si>
   <si>
     <t>manage_enumeration_areas</t>
+  </si>
+  <si>
+    <t>GPSSample::en</t>
+  </si>
+  <si>
+    <t>GPSSample::es</t>
+  </si>
+  <si>
+    <t>GPSSample::fr</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t>12 heures (AM/PM)</t>
+  </si>
+  <si>
+    <t>24 heures</t>
+  </si>
+  <si>
+    <t>Texte</t>
+  </si>
+  <si>
+    <t>Superviseur</t>
+  </si>
+  <si>
+    <t>Recenseur</t>
+  </si>
+  <si>
+    <t>Administrateur</t>
+  </si>
+  <si>
+    <t>Nombre del estudio</t>
+  </si>
+  <si>
+    <t>Nombre del campo</t>
+  </si>
+  <si>
+    <t>Campos de enumeración</t>
+  </si>
+  <si>
+    <t>Ingrese el nombre de la configuración</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>Guardar</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Enumeración</t>
+  </si>
+  <si>
+    <t>Clientes conectados</t>
+  </si>
+  <si>
+    <t>Crear punto de acceso</t>
+  </si>
+  <si>
+    <t>Crear servidor</t>
+  </si>
+  <si>
+    <t>Crear código QR</t>
+  </si>
+  <si>
+    <t>Configuración recibida</t>
+  </si>
+  <si>
+    <t>Metros / Kilómetros</t>
+  </si>
+  <si>
+    <t>Pies / Millas</t>
+  </si>
+  <si>
+    <t>12 horas (AM/PM)</t>
+  </si>
+  <si>
+    <t>24 horas</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>Mayor que o igual</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Muestreo aleatorio simple</t>
+  </si>
+  <si>
+    <t>Muestreo por conglomerados</t>
+  </si>
+  <si>
+    <t>Subconjuntos: pueden superponerse</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Enumerador</t>
+  </si>
+  <si>
+    <t>Topógrafo</t>
+  </si>
+  <si>
+    <t>Configuraciones</t>
+  </si>
+  <si>
+    <t>Segundo nombre del padre</t>
+  </si>
+  <si>
+    <t>El nombre de tu mascota favorita</t>
+  </si>
+  <si>
+    <t>Mes de nacimiento</t>
+  </si>
+  <si>
+    <t>Comida favorita</t>
+  </si>
+  <si>
+    <t>Otra pregunta</t>
+  </si>
+  <si>
+    <t>Escanear código QR</t>
+  </si>
+  <si>
+    <t>Crear configuración</t>
+  </si>
+  <si>
+    <t>Eliminar configuración</t>
+  </si>
+  <si>
+    <t>Editar configuración</t>
+  </si>
+  <si>
+    <t>Crear estudio</t>
+  </si>
+  <si>
+    <t>Eliminar estudio</t>
+  </si>
+  <si>
+    <t>Crear campo</t>
+  </si>
+  <si>
+    <t>Administrar áreas de enumeración</t>
+  </si>
+  <si>
+    <t>Administrar estudios</t>
+  </si>
+  <si>
+    <t>Administrar muestras</t>
+  </si>
+  <si>
+    <t>Crear muestra</t>
+  </si>
+  <si>
+    <t>Eliminar muestra</t>
+  </si>
+  <si>
+    <t>Administrar supervisores</t>
+  </si>
+  <si>
+    <t>Pantalla de inicio</t>
+  </si>
+  <si>
+    <t>Crear filtro</t>
+  </si>
+  <si>
+    <t>Crear regla</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Operador</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>Regla</t>
+  </si>
+  <si>
+    <t>Conector</t>
+  </si>
+  <si>
+    <t>Ingrese el nombre del filtro</t>
+  </si>
+  <si>
+    <t>Método de muestreo</t>
+  </si>
+  <si>
+    <t>Nombre del filtro</t>
+  </si>
+  <si>
+    <t>Nombre de la regla</t>
+  </si>
+  <si>
+    <t>Tamaño total de la muestra en todos los conglomerados</t>
+  </si>
+  <si>
+    <t>Tamaño de la muestra</t>
+  </si>
+  <si>
+    <t>Estudios</t>
+  </si>
+  <si>
+    <t>Áreas de enumeración</t>
+  </si>
+  <si>
+    <t>Código de barras detectado</t>
+  </si>
+  <si>
+    <t>Cambiar rol</t>
+  </si>
+  <si>
+    <t>Ingrese su nombre de usuario</t>
+  </si>
+  <si>
+    <t>Tipo de campo</t>
+  </si>
+  <si>
+    <t>Registro de administrador</t>
+  </si>
+  <si>
+    <t>Vuelva a ingresar su PIN</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t>Finalizar</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Ingrese el nombre del estudio</t>
+  </si>
+  <si>
+    <t>Ingrese el nombre del campo</t>
+  </si>
+  <si>
+    <t>Unidades preferidas</t>
+  </si>
+  <si>
+    <t>Formato de fecha</t>
+  </si>
+  <si>
+    <t>Administrar enumeradores</t>
+  </si>
+  <si>
+    <t>Generar muestra</t>
+  </si>
+  <si>
+    <t>Recoger muestras</t>
+  </si>
+  <si>
+    <t>Definir campos de enumeración</t>
+  </si>
+  <si>
+    <t>Definir área de enumeración</t>
+  </si>
+  <si>
+    <t>Definir método de muestreo</t>
+  </si>
+  <si>
+    <t>Eliminar campo</t>
+  </si>
+  <si>
+    <t>Administrar este estudio</t>
+  </si>
+  <si>
+    <t>Administrar estudio</t>
+  </si>
+  <si>
+    <t>Administrar configuración</t>
+  </si>
+  <si>
+    <t>Administrar configuraciones</t>
+  </si>
+  <si>
+    <t>Generar código QR</t>
+  </si>
+  <si>
+    <t>Générer un code QR</t>
+  </si>
+  <si>
+    <t>Créer un filtre</t>
+  </si>
+  <si>
+    <t>Créer une règle</t>
+  </si>
+  <si>
+    <t>Entrez le nom de la règle</t>
+  </si>
+  <si>
+    <t>Champ</t>
+  </si>
+  <si>
+    <t>Opérateur de fonction</t>
+  </si>
+  <si>
+    <t>Entrez la valeur</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>Filtres</t>
+  </si>
+  <si>
+    <t>Règle</t>
+  </si>
+  <si>
+    <t>Connecteur</t>
+  </si>
+  <si>
+    <t>Méthode d'échantillonnage</t>
+  </si>
+  <si>
+    <t>Entrez le nom du filtre</t>
+  </si>
+  <si>
+    <t>Taille de l'échantillon</t>
+  </si>
+  <si>
+    <t>Nom du filtre</t>
+  </si>
+  <si>
+    <t>Nom de la règle</t>
+  </si>
+  <si>
+    <t>Taille totale de l'échantillon dans tous les clusters</t>
+  </si>
+  <si>
+    <t>Gérer les études</t>
+  </si>
+  <si>
+    <t>Gérer les échantillons</t>
+  </si>
+  <si>
+    <t>Supprimer l'échantillon</t>
+  </si>
+  <si>
+    <t>Créer un échantillon</t>
+  </si>
+  <si>
+    <t>Gérer les superviseurs</t>
+  </si>
+  <si>
+    <t>Écran d'accueil</t>
+  </si>
+  <si>
+    <t>Gérer les zones de dénombrement</t>
+  </si>
+  <si>
+    <t>Se déconnecter</t>
+  </si>
+  <si>
+    <t>Écran précédent</t>
+  </si>
+  <si>
+    <t>Écran suivant</t>
+  </si>
+  <si>
+    <t>Directrice</t>
+  </si>
+  <si>
+    <t>Énumération</t>
+  </si>
+  <si>
+    <t>Clients connectés</t>
+  </si>
+  <si>
+    <t>Créer un hotspot</t>
+  </si>
+  <si>
+    <t>Créer un serveur</t>
+  </si>
+  <si>
+    <t>Créer un code QR</t>
+  </si>
+  <si>
+    <t>Se connecter au hotspot</t>
+  </si>
+  <si>
+    <t>Enregistrement de l'appareil</t>
+  </si>
+  <si>
+    <t>Envoi de la commande</t>
+  </si>
+  <si>
+    <t>Envoi de données d'énumération</t>
+  </si>
+  <si>
+    <t>Réception de données</t>
+  </si>
+  <si>
+    <t>Configuration reçue</t>
+  </si>
+  <si>
+    <t>Nom de jeune fille de la mère</t>
+  </si>
+  <si>
+    <t>Nom d'animal de compagnie préféré</t>
+  </si>
+  <si>
+    <t>4 derniers chiffres du numéro de téléphone portable</t>
+  </si>
+  <si>
+    <t>Nourriture favorite</t>
+  </si>
+  <si>
+    <t>Mois de naissance</t>
+  </si>
+  <si>
+    <t>Mètres / Kilomètres</t>
+  </si>
+  <si>
+    <t>Pieds / Miles</t>
+  </si>
+  <si>
+    <t>Autre question</t>
+  </si>
+  <si>
+    <t>Case à cocher</t>
+  </si>
+  <si>
+    <t>Question déroulante</t>
+  </si>
+  <si>
+    <t>Égal</t>
+  </si>
+  <si>
+    <t>Inégal</t>
+  </si>
+  <si>
+    <t>Moins que</t>
+  </si>
+  <si>
+    <t>Plus grand que</t>
+  </si>
+  <si>
+    <t>Meilleur que ou égal</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>PAS</t>
+  </si>
+  <si>
+    <t>Échantillonnage aléatoire simple</t>
+  </si>
+  <si>
+    <t>Sous-ensembles : peuvent se chevaucher</t>
+  </si>
+  <si>
+    <t>Strates : mutuellement exclusives</t>
+  </si>
+  <si>
+    <t>Échantillonnage en grappes</t>
+  </si>
+  <si>
+    <t>Arpenteur</t>
+  </si>
+  <si>
+    <t>Vous n'avez aucune configuration</t>
+  </si>
+  <si>
+    <t>Vous n'avez pas d'études pour cette configuration</t>
+  </si>
+  <si>
+    <t>Collecteur de données</t>
+  </si>
+  <si>
+    <t>Scanner le code QR</t>
+  </si>
+  <si>
+    <t>Continuer avec l'étude existante</t>
+  </si>
+  <si>
+    <t>Connexion administrateur</t>
+  </si>
+  <si>
+    <t>Connexion du superviseur</t>
+  </si>
+  <si>
+    <t>Connexion du collecteur de données</t>
+  </si>
+  <si>
+    <t>Inscription administrateur</t>
+  </si>
+  <si>
+    <t>Inscription du superviseur</t>
+  </si>
+  <si>
+    <t>Inscription du collecteur de données</t>
+  </si>
+  <si>
+    <t>Saisissez votre code PIN</t>
+  </si>
+  <si>
+    <t>Saisissez à nouveau votre code PIN</t>
+  </si>
+  <si>
+    <t>Annuler</t>
+  </si>
+  <si>
+    <t>Finir</t>
+  </si>
+  <si>
+    <t>Sauvegarder</t>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>É</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cran précédent</t>
+    </r>
+  </si>
+  <si>
+    <t>Sélectionnez votre rôle</t>
+  </si>
+  <si>
+    <t>S'inscrire</t>
+  </si>
+  <si>
+    <t>S'identifier</t>
+  </si>
+  <si>
+    <t>Non enregistré? S'inscrire!</t>
+  </si>
+  <si>
+    <t>Entrez votre nom</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Question PIN oublié</t>
+  </si>
+  <si>
+    <t>Réponse PIN oublié</t>
+  </si>
+  <si>
+    <t>Créer une configuration</t>
+  </si>
+  <si>
+    <t>Supprimer la configuration</t>
+  </si>
+  <si>
+    <t>Modifier la configuration</t>
+  </si>
+  <si>
+    <t>Créer une étude</t>
+  </si>
+  <si>
+    <t>Modifier l'étude</t>
+  </si>
+  <si>
+    <t>Créer un champ</t>
+  </si>
+  <si>
+    <t>Supprimer l'étude</t>
+  </si>
+  <si>
+    <t>Nom de configuration</t>
+  </si>
+  <si>
+    <t>Nom de l'étude</t>
+  </si>
+  <si>
+    <t>Nom du champ</t>
+  </si>
+  <si>
+    <t>Champs d'énumération</t>
+  </si>
+  <si>
+    <t>Entrez le nom de la configuration</t>
+  </si>
+  <si>
+    <t>Type de champ</t>
+  </si>
+  <si>
+    <t>Saisir le texte de l'élément de la case à cocher</t>
+  </si>
+  <si>
+    <t>Saisir le texte de l'élément déroulant</t>
+  </si>
+  <si>
+    <t>AJOUTER UN AUTRE</t>
+  </si>
+  <si>
+    <t>Gérer cette étude</t>
+  </si>
+  <si>
+    <t>Gérer l'étude</t>
+  </si>
+  <si>
+    <t>Gérer la configuration</t>
+  </si>
+  <si>
+    <t>Gérer les configurations</t>
+  </si>
+  <si>
+    <t>Supprimer le champ</t>
+  </si>
+  <si>
+    <t>Entrez le nom de l'étude</t>
+  </si>
+  <si>
+    <t>Entrez le nom du champ</t>
+  </si>
+  <si>
+    <t>Unités préférées</t>
+  </si>
+  <si>
+    <t>Format de date</t>
+  </si>
+  <si>
+    <t>Format horaire</t>
+  </si>
+  <si>
+    <t>Gérer les enquêteurs</t>
+  </si>
+  <si>
+    <t>Collecter les énumérations</t>
+  </si>
+  <si>
+    <t>Générer un échantillon</t>
+  </si>
+  <si>
+    <t>Recueillir des échantillons</t>
+  </si>
+  <si>
+    <t>Précision GPS souhaitée</t>
+  </si>
+  <si>
+    <t>Entrez la précision GPS souhaitée</t>
+  </si>
+  <si>
+    <t>Définir les champs d'énumération</t>
+  </si>
+  <si>
+    <t>Définir la zone de dénombrement</t>
+  </si>
+  <si>
+    <t>Définir la méthode d'échantillonnage</t>
+  </si>
+  <si>
+    <t>Études</t>
+  </si>
+  <si>
+    <t>Zones de dénombrement</t>
+  </si>
+  <si>
+    <t>Changer de rôle</t>
+  </si>
+  <si>
+    <t>Entrez votre nom d'utilisateur</t>
+  </si>
+  <si>
+    <t>Deuxième prénom de votre père</t>
+  </si>
+  <si>
+    <t>Code-barres détecté</t>
+  </si>
+  <si>
+    <t>Le scanner de code est annulé.</t>
+  </si>
+  <si>
+    <t>L'autorisation de caméra n'est pas accordée.</t>
+  </si>
+  <si>
+    <t>Le nom de l'application n'est pas défini.</t>
+  </si>
+  <si>
+    <t>Échec de la numérisation du code :</t>
+  </si>
+  <si>
+    <t>GPSSample::pt</t>
+  </si>
+  <si>
+    <t>Configurações</t>
+  </si>
+  <si>
+    <t>Sair</t>
+  </si>
+  <si>
+    <t>Enumeração</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Não igual</t>
+  </si>
+  <si>
+    <t>Seguinte</t>
+  </si>
+  <si>
+    <t>Anterior</t>
+  </si>
+  <si>
+    <t>Clientes ligados</t>
+  </si>
+  <si>
+    <t>Criar ponto de acesso</t>
+  </si>
+  <si>
+    <t>Criar servidor</t>
+  </si>
+  <si>
+    <t>Criar código QR</t>
+  </si>
+  <si>
+    <t>Registar dispositivo</t>
+  </si>
+  <si>
+    <t>Enviar dados de enumeração</t>
+  </si>
+  <si>
+    <t>Configuração recebida</t>
+  </si>
+  <si>
+    <t>Nome do meio do pai</t>
+  </si>
+  <si>
+    <t>Nome de solteira da mãe</t>
+  </si>
+  <si>
+    <t>Últimos 4 dígitos do número de telemóvel</t>
+  </si>
+  <si>
+    <t>Mês de nascimento</t>
+  </si>
+  <si>
+    <t>Outra pergunta</t>
+  </si>
+  <si>
+    <t>Pés / Milhas</t>
+  </si>
+  <si>
+    <t>Menor que</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>Amostragem aleatória simples</t>
+  </si>
+  <si>
+    <t>Amostragem por conglomerados</t>
+  </si>
+  <si>
+    <t>Subconjuntos: Podem sobrepor-se</t>
+  </si>
+  <si>
+    <t>Estratos: Mutuamente exclusivos</t>
+  </si>
+  <si>
+    <t>Não tem nenhuma configuração</t>
+  </si>
+  <si>
+    <t>Não existem estudos para esta configuração</t>
+  </si>
+  <si>
+    <t>Coletor de dados</t>
+  </si>
+  <si>
+    <t>Ler código QR</t>
+  </si>
+  <si>
+    <t>Continuar com o estudo existente</t>
+  </si>
+  <si>
+    <t>Registo do administrador</t>
+  </si>
+  <si>
+    <t>Registo do supervisor</t>
+  </si>
+  <si>
+    <t>Registo do coletor de dados</t>
+  </si>
+  <si>
+    <t>Terminar</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Seleccione a sua função</t>
+  </si>
+  <si>
+    <t>Inscrever-se</t>
+  </si>
+  <si>
+    <t>Não está registado?  Registe-se!</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Pergunta sobre o PIN esquecido</t>
+  </si>
+  <si>
+    <t>Resposta ao PIN esquecido</t>
+  </si>
+  <si>
+    <t>Criar configuração</t>
+  </si>
+  <si>
+    <t>Eliminar configuração</t>
+  </si>
+  <si>
+    <t>Editar configuração</t>
+  </si>
+  <si>
+    <t>Criar estudo</t>
+  </si>
+  <si>
+    <t>Editar estudo</t>
+  </si>
+  <si>
+    <t>Eliminar estudo</t>
+  </si>
+  <si>
+    <t>Criar campo</t>
+  </si>
+  <si>
+    <t>Nome da configuração</t>
+  </si>
+  <si>
+    <t>Nome do estudo</t>
+  </si>
+  <si>
+    <t>Nome do campo</t>
+  </si>
+  <si>
+    <t>Campos de enumeração</t>
+  </si>
+  <si>
+    <t>Formato de data</t>
+  </si>
+  <si>
+    <t>Formato da hora</t>
+  </si>
+  <si>
+    <t>Gerir enumeradores</t>
+  </si>
+  <si>
+    <t>Gerar amostra</t>
+  </si>
+  <si>
+    <t>Precisão GPS pretendida</t>
+  </si>
+  <si>
+    <t>Definir campos de enumeração</t>
+  </si>
+  <si>
+    <t>Definir área de enumeração</t>
+  </si>
+  <si>
+    <t>Definir método de amostragem</t>
+  </si>
+  <si>
+    <t>Estudos</t>
+  </si>
+  <si>
+    <t>Áreas de enumeração</t>
+  </si>
+  <si>
+    <t>A permissão da câmara não é concedida.</t>
+  </si>
+  <si>
+    <t>O nome da aplicação não está definido.</t>
+  </si>
+  <si>
+    <t>Falha na leitura do código:</t>
+  </si>
+  <si>
+    <t>Alterar função</t>
+  </si>
+  <si>
+    <t>ADICIONAR OUTRO</t>
+  </si>
+  <si>
+    <t>Gerir este estudo</t>
+  </si>
+  <si>
+    <t>Gerir a configuração</t>
+  </si>
+  <si>
+    <t>Gerir configurações</t>
+  </si>
+  <si>
+    <t>Gerar código QR</t>
+  </si>
+  <si>
+    <t>Criar filtro</t>
+  </si>
+  <si>
+    <t>Criar regra</t>
+  </si>
+  <si>
+    <t>Regra</t>
+  </si>
+  <si>
+    <t>Método de amostragem</t>
+  </si>
+  <si>
+    <t>Tamanho da amostra</t>
+  </si>
+  <si>
+    <t>Nome do filtro</t>
+  </si>
+  <si>
+    <t>Nome da regra</t>
+  </si>
+  <si>
+    <t>Gerir estudos</t>
+  </si>
+  <si>
+    <t>Criar amostra</t>
+  </si>
+  <si>
+    <t>Eliminar amostra</t>
+  </si>
+  <si>
+    <t>Gerir supervisores</t>
+  </si>
+  <si>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Gerir áreas de enumeração</t>
+  </si>
+  <si>
+    <t>GPSSample::ru</t>
+  </si>
+  <si>
+    <t>Сбор перечислений</t>
+  </si>
+  <si>
+    <t>Генерировать выборку</t>
+  </si>
+  <si>
+    <t>Сбор образцов</t>
+  </si>
+  <si>
+    <t>Желаемая точность GPS</t>
+  </si>
+  <si>
+    <t>Введите желаемую точность GPS</t>
+  </si>
+  <si>
+    <t>Определить поля перечисления</t>
+  </si>
+  <si>
+    <t>Определить область перечисления</t>
+  </si>
+  <si>
+    <t>Определить метод отбора проб</t>
+  </si>
+  <si>
+    <t>Исследования</t>
+  </si>
+  <si>
+    <t>Области перечисления</t>
+  </si>
+  <si>
+    <t>Обнаружен штрих-код</t>
+  </si>
+  <si>
+    <t>Сканер кодов отменен.</t>
+  </si>
+  <si>
+    <t>Разрешение камеры не выдано.</t>
+  </si>
+  <si>
+    <t>Не задано имя приложения.</t>
+  </si>
+  <si>
+    <t>Не удалось отсканировать код:</t>
+  </si>
+  <si>
+    <t>Настройки</t>
+  </si>
+  <si>
+    <t>Изменить роль</t>
+  </si>
+  <si>
+    <t>Введите имя пользователя</t>
+  </si>
+  <si>
+    <t>Тип поля</t>
+  </si>
+  <si>
+    <t>Введите текст элемента флажка</t>
+  </si>
+  <si>
+    <t>Введите текст элемента выпадающего списка</t>
+  </si>
+  <si>
+    <t>ДОБАВИТЬ ДРУГОЕ</t>
+  </si>
+  <si>
+    <t>Удалить поле</t>
+  </si>
+  <si>
+    <t>Управление исследованием</t>
+  </si>
+  <si>
+    <t>Управление конфигурацией</t>
+  </si>
+  <si>
+    <t>Управление конфигурациями</t>
+  </si>
+  <si>
+    <t>Генерировать QR-код</t>
+  </si>
+  <si>
+    <t>Создать фильтр</t>
+  </si>
+  <si>
+    <t>Создать правило</t>
+  </si>
+  <si>
+    <t>Введите имя правила</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Оператор</t>
+  </si>
+  <si>
+    <t>Введите значение</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Фильтры</t>
+  </si>
+  <si>
+    <t>Правило</t>
+  </si>
+  <si>
+    <t>Коннектор</t>
+  </si>
+  <si>
+    <t>Метод выборки</t>
+  </si>
+  <si>
+    <t>Введите имя фильтра</t>
+  </si>
+  <si>
+    <t>Размер выборки</t>
+  </si>
+  <si>
+    <t>Имя фильтра</t>
+  </si>
+  <si>
+    <t>Имя правила</t>
+  </si>
+  <si>
+    <t>Общий размер выборки по всем кластерам</t>
+  </si>
+  <si>
+    <t>Управление исследованиями</t>
+  </si>
+  <si>
+    <t>Управление выборками</t>
+  </si>
+  <si>
+    <t>Создать выборку</t>
+  </si>
+  <si>
+    <t>Удалить образец</t>
+  </si>
+  <si>
+    <t>Управление супервизорами</t>
+  </si>
+  <si>
+    <t>Главная</t>
+  </si>
+  <si>
+    <t>Управление участками переписи</t>
+  </si>
+  <si>
+    <t>Выйти из системы</t>
+  </si>
+  <si>
+    <t>Следующий</t>
+  </si>
+  <si>
+    <t>Предыдущий</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Перечисление</t>
+  </si>
+  <si>
+    <t>Подключенные клиенты</t>
+  </si>
+  <si>
+    <t>Создать точку доступа</t>
+  </si>
+  <si>
+    <t>Создать сервер</t>
+  </si>
+  <si>
+    <t>Создать QR-код</t>
+  </si>
+  <si>
+    <t>Подключение к точке доступа</t>
+  </si>
+  <si>
+    <t>Регистрация устройства</t>
+  </si>
+  <si>
+    <t>Отправка команды</t>
+  </si>
+  <si>
+    <t>Отправка данных перечисления</t>
+  </si>
+  <si>
+    <t>Получение данных</t>
+  </si>
+  <si>
+    <t>Полученная конфигурация</t>
+  </si>
+  <si>
+    <t>Отчество отца</t>
+  </si>
+  <si>
+    <t>Девичья фамилия матери</t>
+  </si>
+  <si>
+    <t>Имя любимого домашнего животного</t>
+  </si>
+  <si>
+    <t>Последние 4 цифры номера мобильного телефона</t>
+  </si>
+  <si>
+    <t>Любимая еда</t>
+  </si>
+  <si>
+    <t>Месяц рождения</t>
+  </si>
+  <si>
+    <t>Другой вопрос</t>
+  </si>
+  <si>
+    <t>Метры / километры</t>
+  </si>
+  <si>
+    <t>Футы / Мили</t>
+  </si>
+  <si>
+    <t>12 часов (AM/PM)</t>
+  </si>
+  <si>
+    <t>24 часа</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>Число</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Флажок</t>
+  </si>
+  <si>
+    <t>Выпадающий</t>
+  </si>
+  <si>
+    <t>Равно</t>
+  </si>
+  <si>
+    <t>БольшеТан</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <t>ИЛИ</t>
+  </si>
+  <si>
+    <t>НЕ</t>
+  </si>
+  <si>
+    <t>Простая случайная выборка</t>
+  </si>
+  <si>
+    <t>Кластерная выборка</t>
+  </si>
+  <si>
+    <t>Подмножества: Могут пересекаться</t>
+  </si>
+  <si>
+    <t>Страты: Взаимоисключающие</t>
+  </si>
+  <si>
+    <t>Администратор</t>
+  </si>
+  <si>
+    <t>Руководитель</t>
+  </si>
+  <si>
+    <t>Перечислитель</t>
+  </si>
+  <si>
+    <t>Геодезист</t>
+  </si>
+  <si>
+    <t>Конфигурации</t>
+  </si>
+  <si>
+    <t>У вас нет конфигураций</t>
+  </si>
+  <si>
+    <t>У вас нет исследований для этой конфигурации</t>
+  </si>
+  <si>
+    <t>Сборщик данных</t>
+  </si>
+  <si>
+    <t>Сканирование QR-кода</t>
+  </si>
+  <si>
+    <t>Продолжить существующее исследование</t>
+  </si>
+  <si>
+    <t>Вход администратора</t>
+  </si>
+  <si>
+    <t>Администратор Войти</t>
+  </si>
+  <si>
+    <t>Сборщик данных Войти</t>
+  </si>
+  <si>
+    <t>Администратор Зарегистрироваться</t>
+  </si>
+  <si>
+    <t>Администратор Регистрация</t>
+  </si>
+  <si>
+    <t>Регистрация сборщика данных</t>
+  </si>
+  <si>
+    <t>Введите PIN-код</t>
+  </si>
+  <si>
+    <t>Повторный ввод PIN-кода</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>Отменить</t>
+  </si>
+  <si>
+    <t>Завершить</t>
+  </si>
+  <si>
+    <t>Сохранить</t>
+  </si>
+  <si>
+    <t>Готово</t>
+  </si>
+  <si>
+    <t>Выберите свою роль</t>
+  </si>
+  <si>
+    <t>Администратор Выберите роль</t>
+  </si>
+  <si>
+    <t>Супервайзер Выберите роль</t>
+  </si>
+  <si>
+    <t>Войти</t>
+  </si>
+  <si>
+    <t>Зарегистрироваться</t>
+  </si>
+  <si>
+    <t>Не зарегистрированы?  Зарегистрируйтесь!</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Введите Ваше имя</t>
+  </si>
+  <si>
+    <t>Вопрос о PIN-коде</t>
+  </si>
+  <si>
+    <t>Забыли ответ PIN</t>
+  </si>
+  <si>
+    <t>Введите ответ</t>
+  </si>
+  <si>
+    <t>Создать конфигурацию</t>
+  </si>
+  <si>
+    <t>Удалить конфигурацию</t>
+  </si>
+  <si>
+    <t>Редактировать конфигурацию</t>
+  </si>
+  <si>
+    <t>Создать исследование</t>
+  </si>
+  <si>
+    <t>Редактировать исследование</t>
+  </si>
+  <si>
+    <t>Удалить исследование</t>
+  </si>
+  <si>
+    <t>Создать поле</t>
+  </si>
+  <si>
+    <t>Имя конфигурации</t>
+  </si>
+  <si>
+    <t>Имя исследования</t>
+  </si>
+  <si>
+    <t>Имя поля</t>
+  </si>
+  <si>
+    <t>Поля перечисления</t>
+  </si>
+  <si>
+    <t>Введите имя конфигурации</t>
+  </si>
+  <si>
+    <t>Введите имя исследования</t>
+  </si>
+  <si>
+    <t>Введите имя поля</t>
+  </si>
+  <si>
+    <t>Предпочитаемые единицы</t>
+  </si>
+  <si>
+    <t>Формат даты</t>
+  </si>
+  <si>
+    <t>Формат времени</t>
+  </si>
+  <si>
+    <t>Управление счетчиками</t>
+  </si>
+  <si>
+    <t>Configuración</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Siguiente</t>
+  </si>
+  <si>
+    <t>Conectar al punto de acceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrando dispositivo </t>
+  </si>
+  <si>
+    <t>Enviando comando</t>
+  </si>
+  <si>
+    <t>Enviando datos de enumeración</t>
+  </si>
+  <si>
+    <t>No igual</t>
+  </si>
+  <si>
+    <t>Mayor que</t>
+  </si>
+  <si>
+    <t>Encuestador</t>
+  </si>
+  <si>
+    <t>No tiene ninguna configuración</t>
+  </si>
+  <si>
+    <t>Inicio de sesión de administrador</t>
+  </si>
+  <si>
+    <t>​​Inicio de sesión de supervisor</t>
+  </si>
+  <si>
+    <t>Inicio de sesión de recolector de datos</t>
+  </si>
+  <si>
+    <t>Registro de supervisor</t>
+  </si>
+  <si>
+    <t>Registro de recolector de datos</t>
+  </si>
+  <si>
+    <t>Ingrese su PIN</t>
+  </si>
+  <si>
+    <t>Atrás</t>
+  </si>
+  <si>
+    <t>Registrarse</t>
+  </si>
+  <si>
+    <t>Ingrese su nombre</t>
+  </si>
+  <si>
+    <t>Ingrese su respuesta</t>
+  </si>
+  <si>
+    <t>Recibiendo datos</t>
+  </si>
+  <si>
+    <t>Apellido de soltera de la madre</t>
+  </si>
+  <si>
+    <t>Recolector de datos</t>
+  </si>
+  <si>
+    <t>Formato de hora</t>
+  </si>
+  <si>
+    <t>Recoger enumeraciones</t>
+  </si>
+  <si>
+    <t>Ingrese el nombre de la regla</t>
+  </si>
+  <si>
+    <t>Ingrese valor</t>
+  </si>
+  <si>
+    <t>Conectar-se a um ponto de acesso</t>
+  </si>
+  <si>
+    <t>Comando de envio</t>
+  </si>
+  <si>
+    <t>Recebendo dados</t>
+  </si>
+  <si>
+    <t>Nome do animal de estimação favorito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metros / Quilômetros </t>
+  </si>
+  <si>
+    <t>Caixa de seleção</t>
+  </si>
+  <si>
+    <t>Lista suspensa</t>
+  </si>
+  <si>
+    <t>Maior que</t>
+  </si>
+  <si>
+    <t>Maior ou igual a</t>
+  </si>
+  <si>
+    <t>Configuração</t>
+  </si>
+  <si>
+    <t>Login do Administrador</t>
+  </si>
+  <si>
+    <t>Login do Supervisor</t>
+  </si>
+  <si>
+    <t>Login do coletor de dados</t>
+  </si>
+  <si>
+    <t>Digite seu PIN</t>
+  </si>
+  <si>
+    <t>Digite novamente seu PIN</t>
+  </si>
+  <si>
+    <t>Voltar</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Insira seu nome</t>
+  </si>
+  <si>
+    <t>Insira sua resposta</t>
+  </si>
+  <si>
+    <t>Insirar nome da configuração</t>
+  </si>
+  <si>
+    <t>Insirar nome do estudo</t>
+  </si>
+  <si>
+    <t>Insirar o nome do campo</t>
+  </si>
+  <si>
+    <t>Coletar enumerações</t>
+  </si>
+  <si>
+    <t>Coletar amostras</t>
+  </si>
+  <si>
+    <t>Insirar a precisão GPS pretendida</t>
+  </si>
+  <si>
+    <t>Scanner de código é cancelado.</t>
+  </si>
+  <si>
+    <t>Insirar o seu Nome de Utilizador</t>
+  </si>
+  <si>
+    <t>Insirar o texto do item da caixa de seleção</t>
+  </si>
+  <si>
+    <t>Insirar o texto do item da lista suspensa</t>
+  </si>
+  <si>
+    <t>Gerir estudo</t>
+  </si>
+  <si>
+    <t>Insirar nome da regra</t>
+  </si>
+  <si>
+    <t>Insirar valor</t>
+  </si>
+  <si>
+    <t>Insirar nome do filtro</t>
+  </si>
+  <si>
+    <t>Tamanho total da amostra em todos os conglomerados</t>
+  </si>
+  <si>
+    <t>Gerir amostras</t>
+  </si>
+  <si>
+    <t>Administrador - Selecionar função</t>
+  </si>
+  <si>
+    <t>Supervisor - Selecionar função</t>
+  </si>
+  <si>
+    <t>Administrateur - Sélectionner un rôle</t>
+  </si>
+  <si>
+    <t>Superviseur - Sélectionner un rôle</t>
+  </si>
+  <si>
+    <t>Últimas 4 cifras del número de celular</t>
+  </si>
+  <si>
+    <t>Casilla de chequeo</t>
+  </si>
+  <si>
+    <t>Menú de opciones</t>
+  </si>
+  <si>
+    <t>Estratos: Mutuamente excluyentes</t>
+  </si>
+  <si>
+    <t>No tienes ningún estudio para esta configuración</t>
+  </si>
+  <si>
+    <t>Continuar el estudio existente</t>
+  </si>
+  <si>
+    <t>Anular</t>
+  </si>
+  <si>
+    <t>Grabar</t>
+  </si>
+  <si>
+    <t>Selecciona su rol</t>
+  </si>
+  <si>
+    <t>¿No estás registrado? ¡Regístrate!</t>
+  </si>
+  <si>
+    <t>Se olvidó la pregunta del PIN</t>
+  </si>
+  <si>
+    <t>Se olvidó la respuesta del PIN</t>
+  </si>
+  <si>
+    <t>Modificar estudio</t>
+  </si>
+  <si>
+    <t>Nombre de la configuración</t>
+  </si>
+  <si>
+    <t>Precisión deseada de GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese la precisión deseada de GPS </t>
+  </si>
+  <si>
+    <t>El escáner del código fue anulado</t>
+  </si>
+  <si>
+    <t>Permiso de cámara no otorgado</t>
+  </si>
+  <si>
+    <t>Nombre de la aplicación no fue establecido</t>
+  </si>
+  <si>
+    <t>Error en escanear el código:</t>
+  </si>
+  <si>
+    <t>Ingrese el texto del elemento de la casilla de chequeo</t>
+  </si>
+  <si>
+    <t>Ingrese el texto del elemento del menú de opciones</t>
+  </si>
+  <si>
+    <t>SUMA OTRO</t>
+  </si>
+  <si>
+    <t>Administrador - selecciona rol</t>
+  </si>
+  <si>
+    <t>Supervisor - selecciona rol</t>
+  </si>
+  <si>
+    <t>Saisissez votre réponse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -882,6 +2574,25 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -907,10 +2618,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,1219 +2938,3304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B135" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="63.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.08203125" customWidth="1"/>
+    <col min="5" max="5" width="41.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" t="s">
+        <v>769</v>
+      </c>
+      <c r="F12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E14" t="s">
+        <v>770</v>
+      </c>
+      <c r="F14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E15" t="s">
+        <v>524</v>
+      </c>
+      <c r="F15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" t="s">
+        <v>771</v>
+      </c>
+      <c r="F16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" t="s">
+        <v>525</v>
+      </c>
+      <c r="F17" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" t="s">
+        <v>505</v>
+      </c>
+      <c r="E18" t="s">
+        <v>526</v>
+      </c>
+      <c r="F18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D19" t="s">
+        <v>417</v>
+      </c>
+      <c r="E19" t="s">
+        <v>527</v>
+      </c>
+      <c r="F19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E20" t="s">
+        <v>772</v>
+      </c>
+      <c r="F20" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" t="s">
+        <v>528</v>
+      </c>
+      <c r="F21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" t="s">
+        <v>530</v>
+      </c>
+      <c r="F24" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" t="s">
+        <v>773</v>
+      </c>
+      <c r="F25" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E26" t="s">
+        <v>531</v>
+      </c>
+      <c r="F26" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>515</v>
+      </c>
+      <c r="F31" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D32" t="s">
+        <v>425</v>
+      </c>
+      <c r="E32" t="s">
+        <v>774</v>
+      </c>
+      <c r="F32" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E33" t="s">
+        <v>775</v>
+      </c>
+      <c r="F33" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>427</v>
+      </c>
+      <c r="E34" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E35" t="s">
+        <v>516</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D36" t="s">
+        <v>429</v>
+      </c>
+      <c r="E36" t="s">
+        <v>532</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D37" t="s">
+        <v>430</v>
+      </c>
+      <c r="E37" t="s">
+        <v>776</v>
+      </c>
+      <c r="F37" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" t="s">
+        <v>431</v>
+      </c>
+      <c r="E38" t="s">
+        <v>777</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="s">
+        <v>432</v>
+      </c>
+      <c r="E39" t="s">
+        <v>533</v>
+      </c>
+      <c r="F39" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" t="s">
+        <v>433</v>
+      </c>
+      <c r="E40" t="s">
+        <v>433</v>
+      </c>
+      <c r="F40" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D41" t="s">
+        <v>434</v>
+      </c>
+      <c r="E41" t="s">
+        <v>534</v>
+      </c>
+      <c r="F41" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" t="s">
+        <v>435</v>
+      </c>
+      <c r="E42" t="s">
+        <v>535</v>
+      </c>
+      <c r="F42" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" t="s">
+        <v>438</v>
+      </c>
+      <c r="E43" t="s">
+        <v>536</v>
+      </c>
+      <c r="F43" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" t="s">
+        <v>436</v>
+      </c>
+      <c r="E44" t="s">
+        <v>537</v>
+      </c>
+      <c r="F44" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D45" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" t="s">
+        <v>538</v>
+      </c>
+      <c r="F45" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" t="s">
+        <v>314</v>
+      </c>
+      <c r="F46" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D48" t="s">
+        <v>284</v>
+      </c>
+      <c r="E48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D49" t="s">
+        <v>439</v>
+      </c>
+      <c r="E49" t="s">
+        <v>316</v>
+      </c>
+      <c r="F49" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="C50" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>778</v>
+      </c>
+      <c r="F50" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D51" t="s">
+        <v>440</v>
+      </c>
+      <c r="E51" t="s">
+        <v>539</v>
+      </c>
+      <c r="F51" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D52" t="s">
+        <v>441</v>
+      </c>
+      <c r="E52" t="s">
+        <v>540</v>
+      </c>
+      <c r="F52" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="C53" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D53" t="s">
+        <v>442</v>
+      </c>
+      <c r="E53" t="s">
+        <v>541</v>
+      </c>
+      <c r="F53" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="C54" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D54" t="s">
+        <v>443</v>
+      </c>
+      <c r="E54" t="s">
+        <v>542</v>
+      </c>
+      <c r="F54" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="C55" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D55" t="s">
+        <v>444</v>
+      </c>
+      <c r="E55" t="s">
+        <v>543</v>
+      </c>
+      <c r="F55" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D56" t="s">
+        <v>445</v>
+      </c>
+      <c r="E56" t="s">
+        <v>779</v>
+      </c>
+      <c r="F56" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D57" t="s">
+        <v>446</v>
+      </c>
+      <c r="E57" t="s">
+        <v>780</v>
+      </c>
+      <c r="F57" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="C58" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D58" t="s">
+        <v>447</v>
+      </c>
+      <c r="E58" t="s">
+        <v>781</v>
+      </c>
+      <c r="F58" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="C59" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D59" t="s">
+        <v>448</v>
+      </c>
+      <c r="E59" t="s">
+        <v>544</v>
+      </c>
+      <c r="F59" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="C60" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D60" t="s">
+        <v>449</v>
+      </c>
+      <c r="E60" t="s">
+        <v>545</v>
+      </c>
+      <c r="F60" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="C61" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="D61" t="s">
+        <v>450</v>
+      </c>
+      <c r="E61" t="s">
+        <v>546</v>
+      </c>
+      <c r="F61" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="C62" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D62" t="s">
+        <v>451</v>
+      </c>
+      <c r="E62" t="s">
+        <v>782</v>
+      </c>
+      <c r="F62" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="C63" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E63" t="s">
+        <v>783</v>
+      </c>
+      <c r="F63" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="C64" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D64" t="s">
+        <v>457</v>
+      </c>
+      <c r="E64" t="s">
+        <v>784</v>
+      </c>
+      <c r="F64" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="C65" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D65" t="s">
+        <v>453</v>
+      </c>
+      <c r="E65" t="s">
+        <v>359</v>
+      </c>
+      <c r="F65" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="C66" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D66" t="s">
+        <v>454</v>
+      </c>
+      <c r="E66" t="s">
+        <v>547</v>
+      </c>
+      <c r="F66" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="C67" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="D67" t="s">
+        <v>455</v>
+      </c>
+      <c r="E67" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="C68" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" t="s">
+        <v>456</v>
+      </c>
+      <c r="E68" t="s">
+        <v>548</v>
+      </c>
+      <c r="F68" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="C69" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D69" t="s">
+        <v>458</v>
+      </c>
+      <c r="E69" t="s">
+        <v>549</v>
+      </c>
+      <c r="F69" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="C70" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D70" t="s">
+        <v>806</v>
+      </c>
+      <c r="E70" t="s">
+        <v>804</v>
+      </c>
+      <c r="F70" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="C71" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D71" t="s">
+        <v>807</v>
+      </c>
+      <c r="E71" t="s">
+        <v>805</v>
+      </c>
+      <c r="F71" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="C72" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" t="s">
+        <v>460</v>
+      </c>
+      <c r="E72" t="s">
+        <v>785</v>
+      </c>
+      <c r="F72" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D73" t="s">
+        <v>459</v>
+      </c>
+      <c r="E73" t="s">
+        <v>550</v>
+      </c>
+      <c r="F73" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D74" t="s">
+        <v>402</v>
+      </c>
+      <c r="E74" t="s">
+        <v>513</v>
+      </c>
+      <c r="F74" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D75" t="s">
+        <v>461</v>
+      </c>
+      <c r="E75" t="s">
+        <v>551</v>
+      </c>
+      <c r="F75" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="C76" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" t="s">
+        <v>463</v>
+      </c>
+      <c r="E76" t="s">
+        <v>552</v>
+      </c>
+      <c r="F76" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="C77" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D77" t="s">
+        <v>462</v>
+      </c>
+      <c r="E77" t="s">
+        <v>786</v>
+      </c>
+      <c r="F77" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="C78" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E78" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="C79" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D79" t="s">
+        <v>464</v>
+      </c>
+      <c r="E79" t="s">
+        <v>553</v>
+      </c>
+      <c r="F79" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="C80" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="D80" t="s">
+        <v>465</v>
+      </c>
+      <c r="E80" t="s">
+        <v>554</v>
+      </c>
+      <c r="F80" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="C81" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D81" t="s">
+        <v>833</v>
+      </c>
+      <c r="E81" t="s">
+        <v>787</v>
+      </c>
+      <c r="F81" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="C82" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D82" t="s">
+        <v>466</v>
+      </c>
+      <c r="E82" t="s">
+        <v>555</v>
+      </c>
+      <c r="F82" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="C83" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" t="s">
+        <v>467</v>
+      </c>
+      <c r="E83" t="s">
+        <v>556</v>
+      </c>
+      <c r="F83" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="C84" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" t="s">
+        <v>468</v>
+      </c>
+      <c r="E84" t="s">
+        <v>557</v>
+      </c>
+      <c r="F84" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="C85" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" t="s">
+        <v>469</v>
+      </c>
+      <c r="E85" t="s">
+        <v>558</v>
+      </c>
+      <c r="F85" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="C86" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D86" t="s">
+        <v>470</v>
+      </c>
+      <c r="E86" t="s">
+        <v>559</v>
+      </c>
+      <c r="F86" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="C87" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D87" t="s">
+        <v>472</v>
+      </c>
+      <c r="E87" t="s">
+        <v>560</v>
+      </c>
+      <c r="F87" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="C88" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" t="s">
+        <v>471</v>
+      </c>
+      <c r="E88" t="s">
+        <v>561</v>
+      </c>
+      <c r="F88" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="C89" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="D89" t="s">
+        <v>473</v>
+      </c>
+      <c r="E89" t="s">
+        <v>562</v>
+      </c>
+      <c r="F89" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" t="s">
+        <v>474</v>
+      </c>
+      <c r="E90" t="s">
+        <v>563</v>
+      </c>
+      <c r="F90" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="C91" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" t="s">
+        <v>475</v>
+      </c>
+      <c r="E91" t="s">
+        <v>564</v>
+      </c>
+      <c r="F91" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="C92" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" t="s">
+        <v>476</v>
+      </c>
+      <c r="E92" t="s">
+        <v>565</v>
+      </c>
+      <c r="F92" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="C93" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D93" t="s">
+        <v>477</v>
+      </c>
+      <c r="E93" t="s">
+        <v>788</v>
+      </c>
+      <c r="F93" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="C94" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D94" t="s">
+        <v>487</v>
+      </c>
+      <c r="E94" t="s">
+        <v>789</v>
+      </c>
+      <c r="F94" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="C95" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D95" t="s">
+        <v>488</v>
+      </c>
+      <c r="E95" t="s">
+        <v>790</v>
+      </c>
+      <c r="F95" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="C96" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D96" t="s">
+        <v>489</v>
+      </c>
+      <c r="E96" t="s">
+        <v>364</v>
+      </c>
+      <c r="F96" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="C97" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" t="s">
+        <v>490</v>
+      </c>
+      <c r="E97" t="s">
+        <v>566</v>
+      </c>
+      <c r="F97" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D98" t="s">
+        <v>491</v>
+      </c>
+      <c r="E98" t="s">
+        <v>567</v>
+      </c>
+      <c r="F98" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="C99" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D99" t="s">
+        <v>492</v>
+      </c>
+      <c r="E99" t="s">
+        <v>568</v>
+      </c>
+      <c r="F99" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="C100" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D100" t="s">
+        <v>493</v>
+      </c>
+      <c r="E100" t="s">
+        <v>791</v>
+      </c>
+      <c r="F100" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="C101" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D101" t="s">
+        <v>494</v>
+      </c>
+      <c r="E101" t="s">
+        <v>569</v>
+      </c>
+      <c r="F101" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="C102" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D102" t="s">
+        <v>495</v>
+      </c>
+      <c r="E102" t="s">
+        <v>792</v>
+      </c>
+      <c r="F102" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="C103" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D103" t="s">
+        <v>496</v>
+      </c>
+      <c r="E103" t="s">
+        <v>570</v>
+      </c>
+      <c r="F103" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="C104" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="D104" t="s">
+        <v>497</v>
+      </c>
+      <c r="E104" t="s">
+        <v>793</v>
+      </c>
+      <c r="F104" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+      <c r="C105" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D105" t="s">
+        <v>498</v>
+      </c>
+      <c r="E105" t="s">
+        <v>571</v>
+      </c>
+      <c r="F105" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="C106" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D106" t="s">
+        <v>499</v>
+      </c>
+      <c r="E106" t="s">
+        <v>572</v>
+      </c>
+      <c r="F106" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="C107" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D107" t="s">
+        <v>500</v>
+      </c>
+      <c r="E107" t="s">
+        <v>573</v>
+      </c>
+      <c r="F107" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="C108" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D108" t="s">
+        <v>501</v>
+      </c>
+      <c r="E108" t="s">
+        <v>574</v>
+      </c>
+      <c r="F108" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+      <c r="C109" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D109" t="s">
+        <v>502</v>
+      </c>
+      <c r="E109" t="s">
+        <v>575</v>
+      </c>
+      <c r="F109" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+      <c r="C110" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D110" t="s">
+        <v>506</v>
+      </c>
+      <c r="E110" t="s">
+        <v>353</v>
+      </c>
+      <c r="F110" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="C111" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D111" t="s">
+        <v>507</v>
+      </c>
+      <c r="E111" t="s">
+        <v>794</v>
+      </c>
+      <c r="F111" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+      <c r="C112" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="D112" t="s">
+        <v>508</v>
+      </c>
+      <c r="E112" t="s">
+        <v>576</v>
+      </c>
+      <c r="F112" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="C113" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D113" t="s">
+        <v>509</v>
+      </c>
+      <c r="E113" t="s">
+        <v>577</v>
+      </c>
+      <c r="F113" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+      <c r="C114" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="D114" t="s">
+        <v>510</v>
+      </c>
+      <c r="E114" t="s">
+        <v>578</v>
+      </c>
+      <c r="F114" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D115" t="s">
+        <v>279</v>
+      </c>
+      <c r="E115" t="s">
+        <v>512</v>
+      </c>
+      <c r="F115" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+      <c r="C116" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D116" t="s">
+        <v>503</v>
+      </c>
+      <c r="E116" t="s">
+        <v>579</v>
+      </c>
+      <c r="F116" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="C117" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D117" t="s">
+        <v>504</v>
+      </c>
+      <c r="E117" t="s">
+        <v>795</v>
+      </c>
+      <c r="F117" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+      <c r="C118" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D118" t="s">
+        <v>478</v>
+      </c>
+      <c r="E118" t="s">
+        <v>356</v>
+      </c>
+      <c r="F118" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="C119" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D119" t="s">
+        <v>479</v>
+      </c>
+      <c r="E119" t="s">
+        <v>796</v>
+      </c>
+      <c r="F119" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="C120" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D120" t="s">
+        <v>480</v>
+      </c>
+      <c r="E120" t="s">
+        <v>797</v>
+      </c>
+      <c r="F120" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="C121" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D121" t="s">
+        <v>481</v>
+      </c>
+      <c r="E121" t="s">
+        <v>580</v>
+      </c>
+      <c r="F121" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="C122" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" t="s">
+        <v>372</v>
+      </c>
+      <c r="F122" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="C123" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D123" t="s">
+        <v>482</v>
+      </c>
+      <c r="E123" t="s">
+        <v>581</v>
+      </c>
+      <c r="F123" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="C124" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D124" t="s">
+        <v>483</v>
+      </c>
+      <c r="E124" t="s">
+        <v>798</v>
+      </c>
+      <c r="F124" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="C125" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" t="s">
+        <v>484</v>
+      </c>
+      <c r="E125" t="s">
+        <v>582</v>
+      </c>
+      <c r="F125" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+      <c r="C126" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D126" t="s">
+        <v>485</v>
+      </c>
+      <c r="E126" t="s">
+        <v>583</v>
+      </c>
+      <c r="F126" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+      <c r="C127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" t="s">
+        <v>378</v>
+      </c>
+      <c r="E127" t="s">
+        <v>584</v>
+      </c>
+      <c r="F127" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+      <c r="C128" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D128" t="s">
+        <v>379</v>
+      </c>
+      <c r="E128" t="s">
+        <v>585</v>
+      </c>
+      <c r="F128" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+      <c r="C129" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D129" t="s">
+        <v>380</v>
+      </c>
+      <c r="E129" t="s">
+        <v>586</v>
+      </c>
+      <c r="F129" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+      <c r="C130" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D130" t="s">
+        <v>381</v>
+      </c>
+      <c r="E130" t="s">
+        <v>799</v>
+      </c>
+      <c r="F130" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="C131" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D131" t="s">
+        <v>382</v>
+      </c>
+      <c r="E131" t="s">
+        <v>339</v>
+      </c>
+      <c r="F131" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="C132" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D132" t="s">
+        <v>383</v>
+      </c>
+      <c r="E132" t="s">
+        <v>340</v>
+      </c>
+      <c r="F132" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="C133" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D133" t="s">
+        <v>384</v>
+      </c>
+      <c r="E133" t="s">
+        <v>800</v>
+      </c>
+      <c r="F133" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="C134" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D134" t="s">
+        <v>385</v>
+      </c>
+      <c r="E134" t="s">
+        <v>341</v>
+      </c>
+      <c r="F134" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="C135" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D135" t="s">
+        <v>386</v>
+      </c>
+      <c r="E135" t="s">
+        <v>342</v>
+      </c>
+      <c r="F135" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+      <c r="C136" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D136" t="s">
+        <v>387</v>
+      </c>
+      <c r="E136" t="s">
+        <v>587</v>
+      </c>
+      <c r="F136" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="C137" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137" t="s">
+        <v>388</v>
+      </c>
+      <c r="E137" t="s">
+        <v>344</v>
+      </c>
+      <c r="F137" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+      <c r="C138" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D138" t="s">
+        <v>389</v>
+      </c>
+      <c r="E138" t="s">
+        <v>588</v>
+      </c>
+      <c r="F138" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+      <c r="C139" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D139" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139" t="s">
+        <v>801</v>
+      </c>
+      <c r="F139" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+      <c r="C140" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D140" t="s">
+        <v>391</v>
+      </c>
+      <c r="E140" t="s">
+        <v>589</v>
+      </c>
+      <c r="F140" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+      <c r="C141" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D141" t="s">
+        <v>392</v>
+      </c>
+      <c r="E141" t="s">
+        <v>590</v>
+      </c>
+      <c r="F141" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+      <c r="C142" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D142" t="s">
+        <v>393</v>
+      </c>
+      <c r="E142" t="s">
+        <v>591</v>
+      </c>
+      <c r="F142" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+      <c r="C143" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D143" t="s">
+        <v>394</v>
+      </c>
+      <c r="E143" t="s">
+        <v>802</v>
+      </c>
+      <c r="F143" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+      <c r="C144" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D144" t="s">
+        <v>395</v>
+      </c>
+      <c r="E144" t="s">
+        <v>592</v>
+      </c>
+      <c r="F144" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+      <c r="C145" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D145" t="s">
+        <v>396</v>
+      </c>
+      <c r="E145" t="s">
+        <v>803</v>
+      </c>
+      <c r="F145" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="C146" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D146" t="s">
+        <v>398</v>
+      </c>
+      <c r="E146" t="s">
+        <v>593</v>
+      </c>
+      <c r="F146" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+      <c r="C147" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D147" t="s">
+        <v>397</v>
+      </c>
+      <c r="E147" t="s">
+        <v>594</v>
+      </c>
+      <c r="F147" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
+      <c r="C148" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D148" t="s">
+        <v>399</v>
+      </c>
+      <c r="E148" t="s">
+        <v>595</v>
+      </c>
+      <c r="F148" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+      <c r="C149" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D149" t="s">
+        <v>400</v>
+      </c>
+      <c r="E149" t="s">
+        <v>596</v>
+      </c>
+      <c r="F149" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>145</v>
+      <c r="C150" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D150" t="s">
+        <v>401</v>
+      </c>
+      <c r="E150" t="s">
+        <v>597</v>
+      </c>
+      <c r="F150" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8be6a489b436af36cb92f29085c3c08">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c1592365447f698e441c0cbf70562a" ns2:_="" ns3:_="">
+    <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <xsd:import namespace="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9353dbe8-8260-4ccf-8219-3d2995e6fa15" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6e0cf07b-8188-4b76-8f54-3cda03d37414" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ac7a555a-1de2-4586-a23d-cc6b80efef41}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6e0cf07b-8188-4b76-8f54-3cda03d37414">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C30A135-2C3F-4204-8766-0B8E815003D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="13_ncr:1_{6C5D1A55-AF8A-AD4A-BD6E-E77EBD8AD484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908854B0-2612-4738-96F8-4662D79889A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F85288-E786-0049-8E7B-130AE9127998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="31360" windowHeight="15620" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="835">
   <si>
     <t>Settings</t>
   </si>
@@ -525,9 +525,6 @@
   </si>
   <si>
     <t>forgot_pin_questions</t>
-  </si>
-  <si>
-    <t>distance_format</t>
   </si>
   <si>
     <t>time_format</t>
@@ -2556,6 +2553,12 @@
   </si>
   <si>
     <t>Saisissez votre réponse</t>
+  </si>
+  <si>
+    <t>distance_formats</t>
+  </si>
+  <si>
+    <t>time_formats</t>
   </si>
 </sst>
 </file>
@@ -2618,10 +2621,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2940,1567 +2942,1567 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B135" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.08203125" customWidth="1"/>
-    <col min="5" max="5" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>741</v>
+      <c r="C2" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>742</v>
+      <c r="C3" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>743</v>
+      <c r="C4" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="D4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>518</v>
+      <c r="C5" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>292</v>
+      <c r="C6" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>293</v>
+      <c r="C7" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>294</v>
+      <c r="C8" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F8" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>295</v>
+      <c r="C9" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F9" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>296</v>
+      <c r="C10" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F10" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>297</v>
+      <c r="C11" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F11" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>156</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>744</v>
+      <c r="C12" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F12" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>157</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>745</v>
+      <c r="C13" s="2" t="s">
+        <v>744</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>158</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>746</v>
+      <c r="C14" s="2" t="s">
+        <v>745</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F14" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>747</v>
+      <c r="C15" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="D15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>160</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>762</v>
+      <c r="C16" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="D16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F16" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>298</v>
+      <c r="C17" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F17" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>318</v>
+      <c r="C18" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F18" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>763</v>
+      <c r="C19" s="2" t="s">
+        <v>762</v>
       </c>
       <c r="D19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F19" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>162</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>319</v>
+      <c r="C20" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F20" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>808</v>
+      <c r="C21" s="2" t="s">
+        <v>807</v>
       </c>
       <c r="D21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F21" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>321</v>
+      <c r="C22" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F22" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>162</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>320</v>
+      <c r="C23" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="D23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F23" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>162</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>322</v>
+      <c r="C24" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F24" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>163</v>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>833</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>299</v>
+      <c r="C25" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="D25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F25" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>163</v>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>833</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>300</v>
+      <c r="C26" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F26" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>164</v>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>834</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>301</v>
+      <c r="C27" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F27" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>164</v>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>834</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>302</v>
+      <c r="C28" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F28" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>165</v>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>164</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>303</v>
+      <c r="C29" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>165</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>164</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>304</v>
+      <c r="C30" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>165</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>164</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>305</v>
+      <c r="C31" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F31" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>164</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>809</v>
+      <c r="C32" s="2" t="s">
+        <v>808</v>
       </c>
       <c r="D32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F32" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>165</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>164</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>810</v>
+      <c r="C33" s="2" t="s">
+        <v>809</v>
       </c>
       <c r="D33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E33" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F33" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>166</v>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>165</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>306</v>
+      <c r="C34" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F34" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>166</v>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>165</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>748</v>
+      <c r="C35" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>166</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>165</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>532</v>
+      <c r="C36" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="D36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>166</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>749</v>
+      <c r="C37" s="2" t="s">
+        <v>748</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F37" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>166</v>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>307</v>
+      <c r="C38" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>167</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>166</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>309</v>
+      <c r="C39" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F39" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>167</v>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>308</v>
+      <c r="C40" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="D40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F40" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>167</v>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>166</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>310</v>
+      <c r="C41" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F41" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>168</v>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>167</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>311</v>
+      <c r="C42" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="D42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F42" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>168</v>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>167</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>312</v>
+      <c r="C43" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F43" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>168</v>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>167</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>313</v>
+      <c r="C44" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="D44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F44" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>168</v>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>811</v>
+      <c r="C45" s="2" t="s">
+        <v>810</v>
       </c>
       <c r="D45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F45" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>169</v>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>168</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>314</v>
+      <c r="C46" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="D46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F46" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>170</v>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
       <c r="F47" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" t="s">
+        <v>314</v>
+      </c>
+      <c r="F48" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D49" t="s">
+        <v>438</v>
+      </c>
+      <c r="E49" t="s">
         <v>315</v>
       </c>
-      <c r="D48" t="s">
-        <v>284</v>
-      </c>
-      <c r="E48" t="s">
-        <v>315</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>174</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D49" t="s">
-        <v>439</v>
-      </c>
-      <c r="E49" t="s">
-        <v>316</v>
-      </c>
-      <c r="F49" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>317</v>
+      <c r="C50" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D50" t="s">
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F50" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>176</v>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>175</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>751</v>
+      <c r="C51" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="D51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E51" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F51" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>177</v>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>176</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>812</v>
+      <c r="C52" s="2" t="s">
+        <v>811</v>
       </c>
       <c r="D52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E52" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>178</v>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>177</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>764</v>
+      <c r="C53" s="2" t="s">
+        <v>763</v>
       </c>
       <c r="D53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E53" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F53" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>179</v>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>178</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>323</v>
+      <c r="C54" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F54" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>180</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>179</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>813</v>
+      <c r="C55" s="2" t="s">
+        <v>812</v>
       </c>
       <c r="D55" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E55" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F55" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>181</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>180</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>752</v>
+      <c r="C56" s="2" t="s">
+        <v>751</v>
       </c>
       <c r="D56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E56" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F56" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>182</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>181</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>753</v>
+      <c r="C57" s="2" t="s">
+        <v>752</v>
       </c>
       <c r="D57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E57" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F57" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>183</v>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>182</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>754</v>
+      <c r="C58" s="2" t="s">
+        <v>753</v>
       </c>
       <c r="D58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E58" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F58" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>184</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>183</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>357</v>
+      <c r="C59" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E59" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F59" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>185</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>184</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>755</v>
+      <c r="C60" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="D60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F60" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>186</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>185</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>756</v>
+      <c r="C61" s="2" t="s">
+        <v>755</v>
       </c>
       <c r="D61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F61" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>187</v>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>186</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>757</v>
+      <c r="C62" s="2" t="s">
+        <v>756</v>
       </c>
       <c r="D62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E62" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F62" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>188</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>358</v>
+      <c r="C63" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E63" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F63" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>189</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>188</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>758</v>
+      <c r="C64" s="2" t="s">
+        <v>757</v>
       </c>
       <c r="D64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E64" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F64" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>190</v>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>189</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>814</v>
+      <c r="C65" s="2" t="s">
+        <v>813</v>
       </c>
       <c r="D65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F65" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>191</v>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>190</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>360</v>
+      <c r="C66" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="D66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E66" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F66" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>192</v>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>191</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>815</v>
+      <c r="C67" s="2" t="s">
+        <v>814</v>
       </c>
       <c r="D67" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F67" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>193</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>192</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>290</v>
+      <c r="C68" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E68" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F68" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>194</v>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>193</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>816</v>
+      <c r="C69" s="2" t="s">
+        <v>815</v>
       </c>
       <c r="D69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E69" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F69" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>195</v>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>194</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>831</v>
+      <c r="C70" s="2" t="s">
+        <v>830</v>
       </c>
       <c r="D70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E70" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F70" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>196</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>195</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>832</v>
+      <c r="C71" s="2" t="s">
+        <v>831</v>
       </c>
       <c r="D71" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E71" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F71" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>197</v>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>196</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>361</v>
+      <c r="C72" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E72" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F72" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>198</v>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>197</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>759</v>
+      <c r="C73" s="2" t="s">
+        <v>758</v>
       </c>
       <c r="D73" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E73" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F73" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>199</v>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>198</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>742</v>
+      <c r="C74" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="D74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F74" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>200</v>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>199</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>817</v>
+      <c r="C75" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="D75" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E75" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F75" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>201</v>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>200</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>278</v>
+      <c r="C76" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="D76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F76" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>202</v>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>201</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>760</v>
+      <c r="C77" s="2" t="s">
+        <v>759</v>
       </c>
       <c r="D77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E77" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F77" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>203</v>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>202</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4513,1444 +4515,1444 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>204</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>203</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>818</v>
+      <c r="C79" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F79" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>205</v>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>204</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>819</v>
+      <c r="C80" s="2" t="s">
+        <v>818</v>
       </c>
       <c r="D80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F80" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>206</v>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>205</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>761</v>
+      <c r="C81" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="D81" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E81" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F81" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>207</v>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>206</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>324</v>
+      <c r="C82" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F82" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>208</v>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>207</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>325</v>
+      <c r="C83" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D83" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E83" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F83" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>209</v>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>208</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>326</v>
+      <c r="C84" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E84" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F84" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>210</v>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>209</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>327</v>
+      <c r="C85" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="D85" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E85" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F85" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>211</v>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>210</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>820</v>
+      <c r="C86" s="2" t="s">
+        <v>819</v>
       </c>
       <c r="D86" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E86" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F86" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>212</v>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>211</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>328</v>
+      <c r="C87" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E87" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F87" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>213</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>212</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>329</v>
+      <c r="C88" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D88" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E88" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F88" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>214</v>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>213</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>821</v>
+      <c r="C89" s="2" t="s">
+        <v>820</v>
       </c>
       <c r="D89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E89" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F89" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>215</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>214</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>286</v>
+      <c r="C90" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="D90" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E90" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F90" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>216</v>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>215</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>287</v>
+      <c r="C91" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D91" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E91" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F91" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>217</v>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>216</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>288</v>
+      <c r="C92" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D92" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E92" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F92" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
-        <v>218</v>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>217</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>289</v>
+      <c r="C93" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E93" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F93" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>219</v>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>218</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>362</v>
+      <c r="C94" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="D94" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E94" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F94" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>220</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>219</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>363</v>
+      <c r="C95" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D95" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F95" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>221</v>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>220</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>364</v>
+      <c r="C96" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="D96" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F96" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
-        <v>222</v>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>221</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>365</v>
+      <c r="C97" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E97" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F97" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>164</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>163</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>765</v>
+      <c r="C98" s="2" t="s">
+        <v>764</v>
       </c>
       <c r="D98" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E98" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F98" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
-        <v>223</v>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>222</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>366</v>
+      <c r="C99" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="D99" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E99" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F99" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>224</v>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>223</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>766</v>
+      <c r="C100" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="D100" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E100" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F100" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>225</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>224</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>367</v>
+      <c r="C101" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E101" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F101" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>226</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>225</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>368</v>
+      <c r="C102" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="D102" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E102" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F102" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>227</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>226</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>822</v>
+      <c r="C103" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="D103" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E103" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F103" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>228</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>227</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>823</v>
+      <c r="C104" s="2" t="s">
+        <v>822</v>
       </c>
       <c r="D104" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E104" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F104" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>229</v>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>228</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>369</v>
+      <c r="C105" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="D105" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E105" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F105" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>230</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>229</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>370</v>
+      <c r="C106" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="D106" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E106" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F106" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>231</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>230</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>371</v>
+      <c r="C107" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="D107" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E107" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F107" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>232</v>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>231</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>351</v>
+      <c r="C108" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="D108" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E108" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F108" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
-        <v>233</v>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>232</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>352</v>
+      <c r="C109" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="D109" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E109" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F109" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>234</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>233</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>353</v>
+      <c r="C110" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E110" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F110" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
-        <v>235</v>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>234</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>824</v>
+      <c r="C111" s="2" t="s">
+        <v>823</v>
       </c>
       <c r="D111" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E111" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F111" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>236</v>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>235</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>825</v>
+      <c r="C112" s="2" t="s">
+        <v>824</v>
       </c>
       <c r="D112" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E112" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F112" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>237</v>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>236</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>826</v>
+      <c r="C113" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="D113" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F113" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>238</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>237</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>827</v>
+      <c r="C114" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="D114" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E114" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F114" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>239</v>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>238</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>741</v>
+      <c r="C115" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="D115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F115" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>240</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>239</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>354</v>
+      <c r="C116" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="D116" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E116" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F116" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>241</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>240</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>355</v>
+      <c r="C117" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E117" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F117" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>242</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>241</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>356</v>
+      <c r="C118" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E118" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F118" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
-        <v>243</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>242</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>828</v>
+      <c r="C119" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="D119" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E119" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F119" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>244</v>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>243</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>829</v>
+      <c r="C120" s="2" t="s">
+        <v>828</v>
       </c>
       <c r="D120" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E120" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F120" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>245</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>244</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>830</v>
+      <c r="C121" s="2" t="s">
+        <v>829</v>
       </c>
       <c r="D121" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E121" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F121" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>246</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>245</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>372</v>
+      <c r="C122" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="D122" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E122" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F122" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>247</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>246</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>373</v>
+      <c r="C123" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D123" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E123" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F123" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>248</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>247</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>374</v>
+      <c r="C124" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="D124" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E124" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F124" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>249</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>248</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>375</v>
+      <c r="C125" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D125" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E125" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F125" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>250</v>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>249</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>376</v>
+      <c r="C126" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="D126" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F126" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>251</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>250</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D127" t="s">
         <v>377</v>
       </c>
-      <c r="D127" t="s">
-        <v>378</v>
-      </c>
       <c r="E127" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F127" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>252</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>251</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>337</v>
+      <c r="C128" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D128" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E128" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F128" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
-        <v>253</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>252</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>338</v>
+      <c r="C129" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D129" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E129" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F129" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>254</v>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>253</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>767</v>
+      <c r="C130" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="D130" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E130" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F130" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
-        <v>255</v>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>254</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>339</v>
+      <c r="C131" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="D131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F131" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
-        <v>256</v>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>255</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>340</v>
+      <c r="C132" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="D132" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E132" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F132" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
-        <v>257</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>256</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>768</v>
+      <c r="C133" s="2" t="s">
+        <v>767</v>
       </c>
       <c r="D133" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E133" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F133" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>258</v>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>257</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>341</v>
+      <c r="C134" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="D134" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F134" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
-        <v>259</v>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>258</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>342</v>
+      <c r="C135" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="D135" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E135" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F135" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>260</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>259</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>343</v>
+      <c r="C136" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="D136" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E136" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F136" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
-        <v>261</v>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>260</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>344</v>
+      <c r="C137" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="D137" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E137" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F137" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>262</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>261</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>346</v>
+      <c r="C138" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="D138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E138" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F138" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
-        <v>263</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>262</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>345</v>
+      <c r="C139" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="D139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E139" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F139" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>264</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>263</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>350</v>
+      <c r="C140" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="D140" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E140" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F140" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
-        <v>265</v>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>264</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>347</v>
+      <c r="C141" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D141" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E141" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F141" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
-        <v>266</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>265</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>348</v>
+      <c r="C142" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="D142" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E142" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F142" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
-        <v>267</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>266</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>349</v>
+      <c r="C143" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E143" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F143" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>268</v>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>267</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>331</v>
+      <c r="C144" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D144" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E144" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F144" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
-        <v>269</v>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>268</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>332</v>
+      <c r="C145" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D145" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E145" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F145" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>270</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>269</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>333</v>
+      <c r="C146" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D146" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E146" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F146" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
-        <v>271</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>270</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>334</v>
+      <c r="C147" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="D147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E147" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F147" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>272</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>271</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>335</v>
+      <c r="C148" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="D148" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E148" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F148" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
-        <v>273</v>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>272</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>336</v>
+      <c r="C149" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="D149" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E149" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F149" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
-        <v>274</v>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>273</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>330</v>
+      <c r="C150" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="D150" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E150" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F150" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -5960,26 +5962,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8be6a489b436af36cb92f29085c3c08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c1592365447f698e441c0cbf70562a" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -6196,10 +6178,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C30A135-2C3F-4204-8766-0B8E815003D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6222,20 +6235,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C30A135-2C3F-4204-8766-0B8E815003D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bp51\Development\gpssample\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F85288-E786-0049-8E7B-130AE9127998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="31360" windowHeight="15620" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="6375" yWindow="765" windowWidth="21600" windowHeight="13185" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="910">
   <si>
     <t>Settings</t>
   </si>
@@ -2559,6 +2557,231 @@
   </si>
   <si>
     <t>time_formats</t>
+  </si>
+  <si>
+    <t>please_confirm</t>
+  </si>
+  <si>
+    <t>import_enumeration</t>
+  </si>
+  <si>
+    <t>export_configuration</t>
+  </si>
+  <si>
+    <t>delete_study_message</t>
+  </si>
+  <si>
+    <t>delete_field_message</t>
+  </si>
+  <si>
+    <t>delete_rule_message</t>
+  </si>
+  <si>
+    <t>delete_team_message</t>
+  </si>
+  <si>
+    <t>delete_configuration_message</t>
+  </si>
+  <si>
+    <t>delete_household_message</t>
+  </si>
+  <si>
+    <t>create_field_rule_message</t>
+  </si>
+  <si>
+    <t>create_rule_filter_message</t>
+  </si>
+  <si>
+    <t>select_import_method_message</t>
+  </si>
+  <si>
+    <t>select_export_message</t>
+  </si>
+  <si>
+    <t>clear_selections_message</t>
+  </si>
+  <si>
+    <t>team_name_message</t>
+  </si>
+  <si>
+    <t>configuration_documents_message</t>
+  </si>
+  <si>
+    <t>delete_enum_area_message</t>
+  </si>
+  <si>
+    <t>no_study_ea</t>
+  </si>
+  <si>
+    <t>filename_export_message</t>
+  </si>
+  <si>
+    <t>import_failed</t>
+  </si>
+  <si>
+    <t>select_task</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>qr_code</t>
+  </si>
+  <si>
+    <t>file_system</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>enter_name</t>
+  </si>
+  <si>
+    <t>desired_gps_position</t>
+  </si>
+  <si>
+    <t>import_configuration</t>
+  </si>
+  <si>
+    <t>select_import_method</t>
+  </si>
+  <si>
+    <t>select_configuration</t>
+  </si>
+  <si>
+    <t>export_enum_data</t>
+  </si>
+  <si>
+    <t>enum_saved_doc</t>
+  </si>
+  <si>
+    <t>config_saved_doc</t>
+  </si>
+  <si>
+    <t>location_not_found</t>
+  </si>
+  <si>
+    <t>nobody_home</t>
+  </si>
+  <si>
+    <t>home_not_exist</t>
+  </si>
+  <si>
+    <t>reason_incomplete</t>
+  </si>
+  <si>
+    <t>Oops! Please select a reason for incomplete</t>
+  </si>
+  <si>
+    <t>Home does not exist</t>
+  </si>
+  <si>
+    <t>The configuration has been saved to the Documents directory.</t>
+  </si>
+  <si>
+    <t>Enumeration data has been saved to the Documents directory.</t>
+  </si>
+  <si>
+    <t>Export Enumeration Data</t>
+  </si>
+  <si>
+    <t>Select a configuration</t>
+  </si>
+  <si>
+    <t>Select an import method</t>
+  </si>
+  <si>
+    <t>Import Configuration</t>
+  </si>
+  <si>
+    <t>Please enter the minimum desired GPS precision</t>
+  </si>
+  <si>
+    <t>Please enter a name</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>File System</t>
+  </si>
+  <si>
+    <t>QR Code</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Select a task</t>
+  </si>
+  <si>
+    <t>Oops! The import failed.  Please try again.</t>
+  </si>
+  <si>
+    <t>You do not have a study associated with this EA.</t>
+  </si>
+  <si>
+    <t>Enter a file name for the export</t>
+  </si>
+  <si>
+    <t>Are you sure you want to permanently delete Enumeration Area</t>
+  </si>
+  <si>
+    <t>You must enter a team name</t>
+  </si>
+  <si>
+    <t>Are you sure you want clear all selections?</t>
+  </si>
+  <si>
+    <t>Select an export method</t>
+  </si>
+  <si>
+    <t>You must create at least one rule before you can create a filter</t>
+  </si>
+  <si>
+    <t>You must create at least one field before you can create a rule</t>
+  </si>
+  <si>
+    <t>Are you sure you want to permanently delete this household?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to permanently delete this configuration?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to permanently delete this team?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to permanently delete this rule?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to permanently delete this field?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to permanently delete this study?</t>
+  </si>
+  <si>
+    <t>Export Configuration</t>
+  </si>
+  <si>
+    <t>Import Enumeration Data</t>
+  </si>
+  <si>
+    <t>Please Confirm</t>
+  </si>
+  <si>
+    <t>&gt;Location not found</t>
   </si>
 </sst>
 </file>
@@ -2621,11 +2844,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2940,22 +3169,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="48.375" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -2975,7 +3204,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -2995,7 +3224,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3015,7 +3244,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3035,7 +3264,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -3055,7 +3284,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -3075,7 +3304,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -3095,7 +3324,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -3115,7 +3344,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -3135,7 +3364,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3155,7 +3384,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -3175,7 +3404,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -3195,7 +3424,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -3215,7 +3444,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -3235,7 +3464,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -3255,7 +3484,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -3275,7 +3504,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -3295,7 +3524,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -3315,7 +3544,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3335,7 +3564,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -3355,7 +3584,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -3375,7 +3604,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -3395,7 +3624,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -3415,7 +3644,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -3435,7 +3664,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -3455,7 +3684,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -3475,7 +3704,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -3495,7 +3724,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -3515,7 +3744,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -3535,7 +3764,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -3555,7 +3784,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -3575,7 +3804,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3595,7 +3824,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -3615,7 +3844,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -3635,7 +3864,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -3655,7 +3884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -3675,7 +3904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -3695,7 +3924,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -3715,7 +3944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -3735,7 +3964,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -3755,7 +3984,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -3775,7 +4004,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -3795,7 +4024,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -3815,7 +4044,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -3835,7 +4064,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -3855,7 +4084,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -3875,7 +4104,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -3895,7 +4124,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -3915,7 +4144,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -3935,7 +4164,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -3955,7 +4184,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -3975,7 +4204,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -3995,7 +4224,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -4015,7 +4244,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -4035,7 +4264,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -4055,7 +4284,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -4075,7 +4304,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -4095,7 +4324,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -4115,7 +4344,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -4135,7 +4364,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -4155,7 +4384,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -4175,7 +4404,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -4195,7 +4424,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -4215,7 +4444,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -4235,7 +4464,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -4255,7 +4484,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -4275,7 +4504,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -4295,7 +4524,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -4315,7 +4544,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -4335,7 +4564,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -4355,7 +4584,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -4375,7 +4604,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -4395,7 +4624,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -4415,7 +4644,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -4435,7 +4664,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -4455,7 +4684,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -4475,7 +4704,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -4495,7 +4724,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -4515,7 +4744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -4535,7 +4764,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -4555,7 +4784,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -4575,7 +4804,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -4595,7 +4824,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -4615,7 +4844,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -4635,7 +4864,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -4655,7 +4884,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -4675,7 +4904,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -4695,7 +4924,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -4715,7 +4944,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -4735,7 +4964,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -4755,7 +4984,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -4775,7 +5004,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -4795,7 +5024,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -4815,7 +5044,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -4835,7 +5064,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -4855,7 +5084,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -4875,7 +5104,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -4895,7 +5124,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -4915,7 +5144,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -4935,7 +5164,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -4955,7 +5184,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -4975,7 +5204,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -4995,7 +5224,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -5015,7 +5244,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -5035,7 +5264,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -5055,7 +5284,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -5075,7 +5304,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -5095,7 +5324,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -5115,7 +5344,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -5135,7 +5364,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -5155,7 +5384,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -5175,7 +5404,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -5195,7 +5424,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -5215,7 +5444,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -5235,7 +5464,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -5255,7 +5484,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -5275,7 +5504,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -5295,7 +5524,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -5315,7 +5544,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -5335,7 +5564,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -5355,7 +5584,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -5375,7 +5604,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -5395,7 +5624,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -5415,7 +5644,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -5435,7 +5664,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -5455,7 +5684,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -5475,7 +5704,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -5495,7 +5724,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -5515,7 +5744,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -5535,7 +5764,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -5555,7 +5784,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -5575,7 +5804,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -5595,7 +5824,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -5615,7 +5844,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -5635,7 +5864,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -5655,7 +5884,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -5675,7 +5904,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -5695,7 +5924,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -5715,7 +5944,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -5735,7 +5964,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -5755,7 +5984,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -5775,7 +6004,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -5795,7 +6024,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -5815,7 +6044,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -5835,7 +6064,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -5855,7 +6084,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -5875,7 +6104,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -5895,7 +6124,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -5915,7 +6144,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -5935,7 +6164,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -5953,6 +6182,318 @@
       </c>
       <c r="F150" t="s">
         <v>647</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -5962,6 +6503,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8be6a489b436af36cb92f29085c3c08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c1592365447f698e441c0cbf70562a" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -6178,17 +6730,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6199,6 +6740,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C30A135-2C3F-4204-8766-0B8E815003D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6217,23 +6775,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
   <ds:schemaRefs>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bp51\Development\gpssample\translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6649869-17D5-489F-8C38-0413CBF145B2}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="765" windowWidth="21600" windowHeight="13185" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1052">
   <si>
     <t>Settings</t>
   </si>
@@ -2783,14 +2783,447 @@
   <si>
     <t>&gt;Location not found</t>
   </si>
+  <si>
+    <t>Importar datos de enumeración</t>
+  </si>
+  <si>
+    <t>Exportar configuración</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar permanentemente este estudio?</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar permanentemente este campo?</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar permanentemente esta regla?</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar permanentemente este equipo?</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar permanentemente esta configuración?</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar permanentemente este hogar?</t>
+  </si>
+  <si>
+    <t>Debe crear al menos un campo antes de poder crear una regla</t>
+  </si>
+  <si>
+    <t>Debe crear al menos una regla antes de poder crear un filtro</t>
+  </si>
+  <si>
+    <t>Seleccione un método de importación</t>
+  </si>
+  <si>
+    <t>Seleccione un método de exportación</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea borrar todas las selecciones?</t>
+  </si>
+  <si>
+    <t>Debe introducir un nombre de equipo</t>
+  </si>
+  <si>
+    <t>La configuración se ha guardado en el directorio Documentos.</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea borrar permanentemente el Área de Enumeración?</t>
+  </si>
+  <si>
+    <t>Introduzca un nombre de archivo para la exportación</t>
+  </si>
+  <si>
+    <t>¡Ups! La importación ha fallado.  Vuelva a intentarlo.</t>
+  </si>
+  <si>
+    <t>Seleccione una tarea</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Código QR</t>
+  </si>
+  <si>
+    <t>Sistema de archivos</t>
+  </si>
+  <si>
+    <t>Encuesta</t>
+  </si>
+  <si>
+    <t>Sin definir</t>
+  </si>
+  <si>
+    <t>Configuración de importación</t>
+  </si>
+  <si>
+    <t>Seleccione una configuración</t>
+  </si>
+  <si>
+    <t>Exportar datos de enumeración</t>
+  </si>
+  <si>
+    <t>Los datos de enumeración se han guardado en el directorio Documentos.</t>
+  </si>
+  <si>
+    <t>&gt;Localización no encontrada</t>
+  </si>
+  <si>
+    <t>¡Oops! Por favor, seleccione una razón para incompleto</t>
+  </si>
+  <si>
+    <t>Importer les données d'énumération</t>
+  </si>
+  <si>
+    <t>Exporter la configuration</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer définitivement cette étude ?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer définitivement ce champ ?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer définitivement cette règle ?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer définitivement cette équipe ?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer définitivement cette configuration ?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer définitivement ce ménage ?</t>
+  </si>
+  <si>
+    <t>Vous devez créer au moins un champ avant de pouvoir créer une règle.</t>
+  </si>
+  <si>
+    <t>Vous devez créer au moins une règle avant de pouvoir créer un filtre</t>
+  </si>
+  <si>
+    <t>Sélectionner une méthode d'importation</t>
+  </si>
+  <si>
+    <t>Sélectionnez une méthode d'exportation</t>
+  </si>
+  <si>
+    <t>Etes-vous sûr de vouloir effacer toutes les sélections ?</t>
+  </si>
+  <si>
+    <t>Vous devez saisir un nom d'équipe</t>
+  </si>
+  <si>
+    <t>La configuration a été sauvegardée dans le répertoire Documents.</t>
+  </si>
+  <si>
+    <t>Etes-vous sûr de vouloir supprimer définitivement la zone de dénombrement ?</t>
+  </si>
+  <si>
+    <t>Vous n'avez pas d'étude associée à cette zone de dénombrement.</t>
+  </si>
+  <si>
+    <t>Entrez un nom de fichier pour l'exportation</t>
+  </si>
+  <si>
+    <t>Oups ! L'importation a échoué.  Veuillez réessayer.</t>
+  </si>
+  <si>
+    <t>Sélectionner une tâche</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Code QR</t>
+  </si>
+  <si>
+    <t>Système de fichiers</t>
+  </si>
+  <si>
+    <t>Enquête</t>
+  </si>
+  <si>
+    <t>Non défini</t>
+  </si>
+  <si>
+    <t>Veuillez saisir un nom</t>
+  </si>
+  <si>
+    <t>Veuillez saisir la précision GPS minimale souhaitée</t>
+  </si>
+  <si>
+    <t>Configuration de l'importation</t>
+  </si>
+  <si>
+    <t>Sélectionnez une méthode d'importation</t>
+  </si>
+  <si>
+    <t>Sélectionner une configuration</t>
+  </si>
+  <si>
+    <t>Exporter les données de dénombrement</t>
+  </si>
+  <si>
+    <t>Les données d'énumération ont été sauvegardées dans le répertoire Documents.</t>
+  </si>
+  <si>
+    <t>&gt;La configuration a été sauvegardée dans le répertoire Documents.</t>
+  </si>
+  <si>
+    <t>Le domicile n'existe pas</t>
+  </si>
+  <si>
+    <t>Oups ! Veuillez sélectionner une raison pour l'incomplétude</t>
+  </si>
+  <si>
+    <t>Importar dados de enumeração</t>
+  </si>
+  <si>
+    <t>Exportar configuração</t>
+  </si>
+  <si>
+    <t>A configuração foi guardada no diretório Documentos.</t>
+  </si>
+  <si>
+    <t>Oops! A importação falhou.  Por favor, tente novamente.</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sistema de ficheiros</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
+  </si>
+  <si>
+    <t>Configuração de importação</t>
+  </si>
+  <si>
+    <t>Exportar dados de enumeração</t>
+  </si>
+  <si>
+    <t>Os dados de enumeração foram guardados no diretório Documentos.</t>
+  </si>
+  <si>
+    <t>&gt;Localização não encontrada</t>
+  </si>
+  <si>
+    <t>Пожалуйста, подтвердите</t>
+  </si>
+  <si>
+    <t>Импорт данных перечисления</t>
+  </si>
+  <si>
+    <t>Экспорт конфигурации</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите безвозвратно удалить это исследование?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите безвозвратно удалить это поле?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите навсегда удалить это правило?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите навсегда удалить эту команду?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите навсегда удалить эту конфигурацию?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите навсегда удалить это домохозяйство?</t>
+  </si>
+  <si>
+    <t>Перед созданием правила необходимо создать хотя бы одно поле</t>
+  </si>
+  <si>
+    <t>Перед созданием фильтра необходимо создать хотя бы одно правило</t>
+  </si>
+  <si>
+    <t>Выберите метод импорта</t>
+  </si>
+  <si>
+    <t>Выберите метод экспорта</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите снять все выделения?</t>
+  </si>
+  <si>
+    <t>Необходимо ввести имя команды</t>
+  </si>
+  <si>
+    <t>Конфигурация была сохранена в директории Documents.</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите навсегда удалить область пересчета</t>
+  </si>
+  <si>
+    <t>У вас нет исследования, связанного с этим экспертом.</t>
+  </si>
+  <si>
+    <t>Введите имя файла для экспорта</t>
+  </si>
+  <si>
+    <t>Упс! Импорт не удался.  Пожалуйста, попробуйте еще раз.</t>
+  </si>
+  <si>
+    <t>Выберите задачу</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>QR-код</t>
+  </si>
+  <si>
+    <t>Файловая система</t>
+  </si>
+  <si>
+    <t>Опрос</t>
+  </si>
+  <si>
+    <t>Неопределенный</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите имя</t>
+  </si>
+  <si>
+    <t>Введите минимальную желаемую точность GPS</t>
+  </si>
+  <si>
+    <t>Конфигурация импорта</t>
+  </si>
+  <si>
+    <t>Выберите конфигурацию</t>
+  </si>
+  <si>
+    <t>Экспорт данных переписи</t>
+  </si>
+  <si>
+    <t>Данные переписи были сохранены в директории Documents.</t>
+  </si>
+  <si>
+    <t>Конфигурация была сохранена в каталог Documents.</t>
+  </si>
+  <si>
+    <t>&gt;Местонахождение не найдено</t>
+  </si>
+  <si>
+    <t>Дом не существует</t>
+  </si>
+  <si>
+    <t>Упс! Пожалуйста, выберите причину неполного заполнения</t>
+  </si>
+  <si>
+    <t>Por favor, confirme</t>
+  </si>
+  <si>
+    <t>No tiene ningún estudio asociado a esta Área de Enumeración.</t>
+  </si>
+  <si>
+    <t>Por favor, introduzca un nombre</t>
+  </si>
+  <si>
+    <t>Por favor, introduzca la precisión GPS mínima deseada</t>
+  </si>
+  <si>
+    <t>SVP, veuillez confirmer</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja eliminar permanentemente este estudo?</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja eliminar permanentemente este campo?</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja eliminar permanentemente esta regra?</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja eliminar permanentemente esta equipa?</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja eliminar permanentemente esta configuração?</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja eliminar permanentemente este agregado familiar?</t>
+  </si>
+  <si>
+    <t>Você deve criar pelo menos um campo antes de criar uma regra</t>
+  </si>
+  <si>
+    <t>Selecione um método de importação</t>
+  </si>
+  <si>
+    <t>Selecione um método de exportação</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja apagar todas as selecções?</t>
+  </si>
+  <si>
+    <t>Você deve inserir um nome de equipe</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que deseja eliminar permanentemente a Área de Enumeração</t>
+  </si>
+  <si>
+    <t>Não tem um estudo associado a esta Área de Enumeração.</t>
+  </si>
+  <si>
+    <t>Insira um nome de ficheiro para a exportação</t>
+  </si>
+  <si>
+    <t>Selecione uma tarefa</t>
+  </si>
+  <si>
+    <t>Questionário</t>
+  </si>
+  <si>
+    <t>Por favor, insira um nome</t>
+  </si>
+  <si>
+    <t>Por favor, insira a precisão GPS mínima pretendida</t>
+  </si>
+  <si>
+    <t>Selecione uma configuração</t>
+  </si>
+  <si>
+    <t>Oops! Por favor, seleccione um razão para incompleto</t>
+  </si>
+  <si>
+    <t>O agregado familiar não existe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La hogar no existe </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2824,12 +3257,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2844,17 +3283,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3171,20 +3612,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="C174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="48.375" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3204,7 +3645,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3224,7 +3665,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3244,7 +3685,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3264,7 +3705,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -3284,7 +3725,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -3304,7 +3745,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -3324,7 +3765,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -3344,7 +3785,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -3364,7 +3805,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3384,7 +3825,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -3404,7 +3845,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -3424,7 +3865,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -3444,7 +3885,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -3464,7 +3905,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -3484,7 +3925,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -3504,7 +3945,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -3524,7 +3965,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -3544,7 +3985,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3564,7 +4005,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -3584,7 +4025,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -3604,7 +4045,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -3624,7 +4065,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -3644,7 +4085,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -3664,7 +4105,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -3684,7 +4125,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -3704,7 +4145,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -3724,7 +4165,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -3744,7 +4185,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -3764,7 +4205,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -3784,7 +4225,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -3804,7 +4245,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3824,7 +4265,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -3844,7 +4285,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -3864,7 +4305,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -3884,7 +4325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -3904,7 +4345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -3924,7 +4365,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -3944,7 +4385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -3964,7 +4405,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -3984,7 +4425,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -4004,7 +4445,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4024,7 +4465,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -4044,7 +4485,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -4064,7 +4505,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -4084,7 +4525,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -4104,7 +4545,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -4124,7 +4565,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -4144,7 +4585,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -4164,7 +4605,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -4184,7 +4625,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -4204,7 +4645,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -4224,7 +4665,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -4244,7 +4685,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -4264,7 +4705,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -4284,7 +4725,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -4304,7 +4745,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -4324,7 +4765,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -4344,7 +4785,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -4364,7 +4805,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -4384,7 +4825,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -4404,7 +4845,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -4424,7 +4865,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -4444,7 +4885,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -4464,7 +4905,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -4484,7 +4925,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -4504,7 +4945,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -4524,7 +4965,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -4544,7 +4985,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -4564,7 +5005,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -4584,7 +5025,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -4604,7 +5045,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -4624,7 +5065,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -4644,7 +5085,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -4664,7 +5105,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -4684,7 +5125,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -4704,7 +5145,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -4724,7 +5165,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -4744,7 +5185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -4764,7 +5205,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -4784,7 +5225,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -4804,7 +5245,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -4824,7 +5265,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -4844,7 +5285,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -4864,7 +5305,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -4884,7 +5325,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -4904,7 +5345,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -4924,7 +5365,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -4944,7 +5385,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -4964,7 +5405,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -4984,7 +5425,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5004,7 +5445,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -5024,7 +5465,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5044,7 +5485,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -5064,7 +5505,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -5084,7 +5525,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -5104,7 +5545,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -5124,7 +5565,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -5144,7 +5585,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -5164,7 +5605,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -5184,7 +5625,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -5204,7 +5645,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -5224,7 +5665,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -5244,7 +5685,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -5264,7 +5705,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -5284,7 +5725,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -5304,7 +5745,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -5324,7 +5765,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -5344,7 +5785,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -5364,7 +5805,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -5384,7 +5825,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -5404,7 +5845,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -5424,7 +5865,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -5444,7 +5885,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -5464,7 +5905,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -5484,7 +5925,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -5504,7 +5945,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -5524,7 +5965,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -5544,7 +5985,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -5564,7 +6005,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -5584,7 +6025,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -5604,7 +6045,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -5624,7 +6065,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -5644,7 +6085,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -5664,7 +6105,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -5684,7 +6125,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -5704,7 +6145,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -5724,7 +6165,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -5744,7 +6185,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -5764,7 +6205,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -5784,7 +6225,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -5804,7 +6245,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -5824,7 +6265,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -5844,7 +6285,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -5864,7 +6305,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -5884,7 +6325,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -5904,7 +6345,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -5924,7 +6365,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -5944,7 +6385,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -5964,7 +6405,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -5984,7 +6425,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -6004,7 +6445,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -6024,7 +6465,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -6044,7 +6485,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -6064,7 +6505,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -6084,7 +6525,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -6104,7 +6545,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -6124,7 +6565,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -6144,7 +6585,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -6164,7 +6605,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -6184,316 +6625,784 @@
         <v>647</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>835</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F151" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>836</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>910</v>
+      </c>
+      <c r="D152" t="s">
+        <v>940</v>
+      </c>
+      <c r="E152" t="s">
+        <v>976</v>
+      </c>
+      <c r="F152" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>837</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>911</v>
+      </c>
+      <c r="D153" t="s">
+        <v>941</v>
+      </c>
+      <c r="E153" t="s">
+        <v>977</v>
+      </c>
+      <c r="F153" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>838</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>912</v>
+      </c>
+      <c r="D154" t="s">
+        <v>942</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F154" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>839</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>913</v>
+      </c>
+      <c r="D155" t="s">
+        <v>943</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F155" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>840</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>914</v>
+      </c>
+      <c r="D156" t="s">
+        <v>944</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F156" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>841</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>915</v>
+      </c>
+      <c r="D157" t="s">
+        <v>945</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F157" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>842</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>916</v>
+      </c>
+      <c r="D158" t="s">
+        <v>946</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F158" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>843</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>917</v>
+      </c>
+      <c r="D159" t="s">
+        <v>947</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F159" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>844</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>918</v>
+      </c>
+      <c r="D160" t="s">
+        <v>948</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F160" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>845</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>919</v>
+      </c>
+      <c r="D161" t="s">
+        <v>949</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F161" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>846</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>920</v>
+      </c>
+      <c r="D162" t="s">
+        <v>950</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F162" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>847</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>921</v>
+      </c>
+      <c r="D163" t="s">
+        <v>951</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>848</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>922</v>
+      </c>
+      <c r="D164" t="s">
+        <v>952</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>849</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>923</v>
+      </c>
+      <c r="D165" t="s">
+        <v>953</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>850</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>924</v>
+      </c>
+      <c r="D166" t="s">
+        <v>954</v>
+      </c>
+      <c r="E166" t="s">
+        <v>978</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>851</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>925</v>
+      </c>
+      <c r="D167" t="s">
+        <v>955</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>852</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D168" t="s">
+        <v>956</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>853</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>926</v>
+      </c>
+      <c r="D169" t="s">
+        <v>957</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>854</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>927</v>
+      </c>
+      <c r="D170" t="s">
+        <v>958</v>
+      </c>
+      <c r="E170" t="s">
+        <v>979</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>855</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>928</v>
+      </c>
+      <c r="D171" t="s">
+        <v>959</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="6" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>929</v>
+      </c>
+      <c r="D172" t="s">
+        <v>960</v>
+      </c>
+      <c r="E172" t="s">
+        <v>980</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>857</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>888</v>
+      </c>
+      <c r="D173" t="s">
+        <v>961</v>
+      </c>
+      <c r="E173" t="s">
+        <v>981</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>858</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>930</v>
+      </c>
+      <c r="D174" t="s">
+        <v>962</v>
+      </c>
+      <c r="E174" t="s">
+        <v>930</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>859</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>931</v>
+      </c>
+      <c r="D175" t="s">
+        <v>963</v>
+      </c>
+      <c r="E175" t="s">
+        <v>982</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>860</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>932</v>
+      </c>
+      <c r="D176" t="s">
+        <v>964</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>861</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>933</v>
+      </c>
+      <c r="D177" t="s">
+        <v>965</v>
+      </c>
+      <c r="E177" t="s">
+        <v>983</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>862</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D178" t="s">
+        <v>966</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>863</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D179" t="s">
+        <v>967</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>864</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>934</v>
+      </c>
+      <c r="D180" t="s">
+        <v>968</v>
+      </c>
+      <c r="E180" t="s">
+        <v>984</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>865</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>920</v>
+      </c>
+      <c r="D181" t="s">
+        <v>969</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F181" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>866</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>935</v>
+      </c>
+      <c r="D182" t="s">
+        <v>970</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>867</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>935</v>
+      </c>
+      <c r="D183" t="s">
+        <v>970</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>868</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>936</v>
+      </c>
+      <c r="D184" t="s">
+        <v>971</v>
+      </c>
+      <c r="E184" t="s">
+        <v>985</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>869</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>937</v>
+      </c>
+      <c r="D185" t="s">
+        <v>972</v>
+      </c>
+      <c r="E185" t="s">
+        <v>986</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>870</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>924</v>
+      </c>
+      <c r="D186" t="s">
+        <v>954</v>
+      </c>
+      <c r="E186" t="s">
+        <v>978</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>871</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>938</v>
+      </c>
+      <c r="D187" t="s">
+        <v>973</v>
+      </c>
+      <c r="E187" t="s">
+        <v>987</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>872</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D188" t="s">
+        <v>974</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>873</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>874</v>
+      </c>
+      <c r="C189" t="s">
+        <v>939</v>
+      </c>
+      <c r="D189" t="s">
+        <v>975</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -6503,19 +7412,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8be6a489b436af36cb92f29085c3c08">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c1592365447f698e441c0cbf70562a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
     <xsd:import namespace="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
     <xsd:element name="properties">
@@ -6535,6 +7433,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6587,6 +7487,16 @@
     <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6730,6 +7640,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6740,24 +7661,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C30A135-2C3F-4204-8766-0B8E815003D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -6775,6 +7679,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
   <ds:schemaRefs>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bp51/Development/GTRI/Android/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6649869-17D5-489F-8C38-0413CBF145B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF2040-1CB0-8C40-9A9B-AB703C33B5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29220" windowHeight="18960" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1083">
   <si>
     <t>Settings</t>
   </si>
@@ -3208,6 +3208,99 @@
   </si>
   <si>
     <t xml:space="preserve">La hogar no existe </t>
+  </si>
+  <si>
+    <t>enter_enum_area_name</t>
+  </si>
+  <si>
+    <t>select_enumeration</t>
+  </si>
+  <si>
+    <t>select_time</t>
+  </si>
+  <si>
+    <t>select_date</t>
+  </si>
+  <si>
+    <t>your_pin_is</t>
+  </si>
+  <si>
+    <t>incorrect_answer_message</t>
+  </si>
+  <si>
+    <t>enter_other_question</t>
+  </si>
+  <si>
+    <t>reenter_pin</t>
+  </si>
+  <si>
+    <t>enter_pin</t>
+  </si>
+  <si>
+    <t>other_question</t>
+  </si>
+  <si>
+    <t>enter_answer</t>
+  </si>
+  <si>
+    <t>pin_not_match</t>
+  </si>
+  <si>
+    <t>enter_file_name</t>
+  </si>
+  <si>
+    <t>pin_incorrect</t>
+  </si>
+  <si>
+    <t>config_not_found</t>
+  </si>
+  <si>
+    <t>missing_parameter_rule</t>
+  </si>
+  <si>
+    <t>Fatal! Missing required parameter: role</t>
+  </si>
+  <si>
+    <t>Fatal! Config not found.</t>
+  </si>
+  <si>
+    <t>The current PIN is incorrect</t>
+  </si>
+  <si>
+    <t>You must enter a file name</t>
+  </si>
+  <si>
+    <t>The PIN's do not match</t>
+  </si>
+  <si>
+    <t>Please enter an answer.</t>
+  </si>
+  <si>
+    <t>Please enter a PIN</t>
+  </si>
+  <si>
+    <t>Please re-enter the PIN</t>
+  </si>
+  <si>
+    <t>Enter Other Question</t>
+  </si>
+  <si>
+    <t>Oops! Incorrect answer.  Please try again.</t>
+  </si>
+  <si>
+    <t>Your PIN is:</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Select Time</t>
+  </si>
+  <si>
+    <t>Select an Enumeration</t>
+  </si>
+  <si>
+    <t>Enter the Enumeration Area name</t>
   </si>
 </sst>
 </file>
@@ -3283,12 +3376,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3296,6 +3389,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3610,22 +3707,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3645,7 +3742,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3665,7 +3762,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3685,7 +3782,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3705,7 +3802,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -3725,7 +3822,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -3745,7 +3842,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -3765,7 +3862,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -3785,7 +3882,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -3805,7 +3902,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3825,7 +3922,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -3845,7 +3942,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -3865,7 +3962,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -3885,7 +3982,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -3905,7 +4002,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -3925,7 +4022,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -3945,7 +4042,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -3965,7 +4062,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -3985,7 +4082,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -4005,7 +4102,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -4025,7 +4122,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -4045,7 +4142,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4065,7 +4162,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -4085,7 +4182,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -4105,7 +4202,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -4125,7 +4222,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -4145,7 +4242,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -4165,7 +4262,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -4185,7 +4282,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -4205,7 +4302,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -4225,7 +4322,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -4245,7 +4342,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -4265,7 +4362,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -4285,7 +4382,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -4305,7 +4402,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -4325,7 +4422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -4345,7 +4442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -4365,7 +4462,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -4385,7 +4482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4405,7 +4502,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -4425,7 +4522,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -4445,7 +4542,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4465,7 +4562,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -4485,7 +4582,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -4505,7 +4602,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -4525,7 +4622,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -4545,7 +4642,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -4565,7 +4662,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -4585,7 +4682,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -4605,7 +4702,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -4625,7 +4722,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -4645,7 +4742,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -4665,7 +4762,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -4685,7 +4782,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -4705,7 +4802,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -4725,7 +4822,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -4745,7 +4842,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -4765,7 +4862,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -4785,7 +4882,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -4805,7 +4902,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -4825,7 +4922,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -4845,7 +4942,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -4865,7 +4962,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -4885,7 +4982,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -4905,7 +5002,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -4925,7 +5022,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -4945,7 +5042,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -4965,7 +5062,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -4985,7 +5082,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -5005,7 +5102,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -5025,7 +5122,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -5045,7 +5142,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5065,7 +5162,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5085,7 +5182,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -5105,7 +5202,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -5125,7 +5222,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -5145,7 +5242,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -5165,7 +5262,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -5185,7 +5282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -5205,7 +5302,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -5225,7 +5322,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -5245,7 +5342,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -5265,7 +5362,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -5285,7 +5382,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5305,7 +5402,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -5325,7 +5422,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -5345,7 +5442,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -5365,7 +5462,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -5385,7 +5482,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -5405,7 +5502,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5425,7 +5522,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5445,7 +5542,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -5465,7 +5562,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5485,7 +5582,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -5505,7 +5602,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -5525,7 +5622,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -5545,7 +5642,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -5565,7 +5662,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -5585,7 +5682,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -5605,7 +5702,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -5625,7 +5722,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -5645,7 +5742,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -5665,7 +5762,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -5685,7 +5782,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -5705,7 +5802,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -5725,7 +5822,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -5745,7 +5842,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -5765,7 +5862,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -5785,7 +5882,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -5805,7 +5902,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -5825,7 +5922,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -5845,7 +5942,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -5865,7 +5962,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -5885,7 +5982,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -5905,7 +6002,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -5925,7 +6022,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -5945,7 +6042,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -5965,7 +6062,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -5985,7 +6082,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -6005,7 +6102,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6025,7 +6122,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -6045,7 +6142,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -6065,7 +6162,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -6085,7 +6182,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6105,7 +6202,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6125,7 +6222,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -6145,7 +6242,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -6165,7 +6262,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -6185,7 +6282,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -6205,7 +6302,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -6225,7 +6322,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -6245,7 +6342,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -6265,7 +6362,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -6285,7 +6382,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -6305,7 +6402,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6325,7 +6422,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -6345,7 +6442,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -6365,7 +6462,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -6385,7 +6482,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -6405,7 +6502,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -6425,7 +6522,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -6445,7 +6542,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -6465,7 +6562,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -6485,7 +6582,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -6505,7 +6602,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -6525,7 +6622,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -6545,7 +6642,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -6565,7 +6662,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -6585,7 +6682,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -6605,7 +6702,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -6625,7 +6722,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>835</v>
       </c>
@@ -6645,7 +6742,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>836</v>
       </c>
@@ -6665,7 +6762,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>837</v>
       </c>
@@ -6685,7 +6782,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>838</v>
       </c>
@@ -6705,7 +6802,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>839</v>
       </c>
@@ -6725,7 +6822,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>840</v>
       </c>
@@ -6745,7 +6842,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>841</v>
       </c>
@@ -6765,7 +6862,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>842</v>
       </c>
@@ -6785,7 +6882,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>843</v>
       </c>
@@ -6805,7 +6902,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>844</v>
       </c>
@@ -6825,7 +6922,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>845</v>
       </c>
@@ -6845,7 +6942,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>846</v>
       </c>
@@ -6865,7 +6962,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>847</v>
       </c>
@@ -6885,7 +6982,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>848</v>
       </c>
@@ -6905,7 +7002,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>849</v>
       </c>
@@ -6925,7 +7022,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>850</v>
       </c>
@@ -6945,7 +7042,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>851</v>
       </c>
@@ -6965,7 +7062,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>852</v>
       </c>
@@ -6985,7 +7082,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>853</v>
       </c>
@@ -7005,7 +7102,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>854</v>
       </c>
@@ -7025,7 +7122,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>855</v>
       </c>
@@ -7045,7 +7142,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>856</v>
       </c>
@@ -7065,7 +7162,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>857</v>
       </c>
@@ -7085,7 +7182,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>858</v>
       </c>
@@ -7105,7 +7202,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>859</v>
       </c>
@@ -7125,7 +7222,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>860</v>
       </c>
@@ -7145,7 +7242,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>861</v>
       </c>
@@ -7165,7 +7262,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>862</v>
       </c>
@@ -7185,7 +7282,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>863</v>
       </c>
@@ -7205,7 +7302,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>864</v>
       </c>
@@ -7225,7 +7322,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>865</v>
       </c>
@@ -7245,7 +7342,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>866</v>
       </c>
@@ -7265,7 +7362,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>867</v>
       </c>
@@ -7285,7 +7382,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>868</v>
       </c>
@@ -7305,7 +7402,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>869</v>
       </c>
@@ -7325,7 +7422,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>870</v>
       </c>
@@ -7345,7 +7442,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>871</v>
       </c>
@@ -7365,7 +7462,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>872</v>
       </c>
@@ -7385,7 +7482,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>873</v>
       </c>
@@ -7403,6 +7500,134 @@
       </c>
       <c r="F189" t="s">
         <v>1024</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -7412,6 +7637,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -7640,41 +7885,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7697,9 +7911,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bp51/Development/GTRI/Android/gpssample/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF2040-1CB0-8C40-9A9B-AB703C33B5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C4F6107-097C-4E77-850B-4866395B689B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="29220" windowHeight="18960" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1143">
   <si>
     <t>Settings</t>
   </si>
@@ -3213,103 +3213,290 @@
     <t>enter_enum_area_name</t>
   </si>
   <si>
+    <t>Enter the Enumeration Area name</t>
+  </si>
+  <si>
     <t>select_enumeration</t>
   </si>
   <si>
+    <t>Select an Enumeration Area</t>
+  </si>
+  <si>
     <t>select_time</t>
   </si>
   <si>
+    <t>Select Time</t>
+  </si>
+  <si>
     <t>select_date</t>
   </si>
   <si>
+    <t>Select Date</t>
+  </si>
+  <si>
     <t>your_pin_is</t>
   </si>
   <si>
+    <t>Your PIN is:</t>
+  </si>
+  <si>
     <t>incorrect_answer_message</t>
   </si>
   <si>
+    <t>Oops! Incorrect answer.  Please try again.</t>
+  </si>
+  <si>
     <t>enter_other_question</t>
   </si>
   <si>
+    <t>Enter Other Question</t>
+  </si>
+  <si>
     <t>reenter_pin</t>
   </si>
   <si>
+    <t>Please re-enter the PIN</t>
+  </si>
+  <si>
     <t>enter_pin</t>
   </si>
   <si>
+    <t>Please enter a PIN</t>
+  </si>
+  <si>
     <t>other_question</t>
   </si>
   <si>
     <t>enter_answer</t>
   </si>
   <si>
+    <t>Please enter an answer.</t>
+  </si>
+  <si>
     <t>pin_not_match</t>
   </si>
   <si>
+    <t>The PIN's do not match</t>
+  </si>
+  <si>
     <t>enter_file_name</t>
   </si>
   <si>
+    <t>You must enter a file name</t>
+  </si>
+  <si>
     <t>pin_incorrect</t>
   </si>
   <si>
+    <t>The current PIN is incorrect</t>
+  </si>
+  <si>
     <t>config_not_found</t>
   </si>
   <si>
     <t>missing_parameter_rule</t>
   </si>
   <si>
-    <t>Fatal! Missing required parameter: role</t>
-  </si>
-  <si>
-    <t>Fatal! Config not found.</t>
-  </si>
-  <si>
-    <t>The current PIN is incorrect</t>
-  </si>
-  <si>
-    <t>You must enter a file name</t>
-  </si>
-  <si>
-    <t>The PIN's do not match</t>
-  </si>
-  <si>
-    <t>Please enter an answer.</t>
-  </si>
-  <si>
-    <t>Please enter a PIN</t>
-  </si>
-  <si>
-    <t>Please re-enter the PIN</t>
-  </si>
-  <si>
-    <t>Enter Other Question</t>
-  </si>
-  <si>
-    <t>Oops! Incorrect answer.  Please try again.</t>
-  </si>
-  <si>
-    <t>Your PIN is:</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Select Time</t>
-  </si>
-  <si>
-    <t>Select an Enumeration</t>
-  </si>
-  <si>
-    <t>Enter the Enumeration Area name</t>
+    <t>Fatal! Configuration not found.</t>
+  </si>
+  <si>
+    <t>Introduzca el nombre del área de enumeración</t>
+  </si>
+  <si>
+    <t>Seleccione un Área de Enumeración</t>
+  </si>
+  <si>
+    <t>Seleccione la hora</t>
+  </si>
+  <si>
+    <t>Seleccione la fecha</t>
+  </si>
+  <si>
+    <t>Su PIN es</t>
+  </si>
+  <si>
+    <t>¡Uy! Respuesta incorrecta.  Por favor, inténtelo de nuevo.</t>
+  </si>
+  <si>
+    <t>Introduzca otra pregunta</t>
+  </si>
+  <si>
+    <t>Vuelva a introducir el PIN</t>
+  </si>
+  <si>
+    <t>Por favor, introduzca un PIN</t>
+  </si>
+  <si>
+    <t>Por favor, introduzca una respuesta.</t>
+  </si>
+  <si>
+    <t>Los PIN no coinciden</t>
+  </si>
+  <si>
+    <t>Debe introducir un nombre de archivo</t>
+  </si>
+  <si>
+    <t>El PIN actual es incorrecto</t>
+  </si>
+  <si>
+    <t>Fallo Configuración no encontrada.</t>
+  </si>
+  <si>
+    <t>Saisir le nom de la zone d'énumération</t>
+  </si>
+  <si>
+    <t>Sélectionner l'heure</t>
+  </si>
+  <si>
+    <t>Sélectionnez la date</t>
+  </si>
+  <si>
+    <t>Votre code PIN est :</t>
+  </si>
+  <si>
+    <t>Oups ! Réponse incorrecte.  Veuillez réessayer.</t>
+  </si>
+  <si>
+    <t>Saisir une autre question</t>
+  </si>
+  <si>
+    <t>Veuillez saisir à nouveau le code PIN</t>
+  </si>
+  <si>
+    <t>Veuillez saisir un code PIN</t>
+  </si>
+  <si>
+    <t>Veuillez saisir une réponse.</t>
+  </si>
+  <si>
+    <t>Les codes PIN ne correspondent pas</t>
+  </si>
+  <si>
+    <t>Vous devez saisir un nom de fichier</t>
+  </si>
+  <si>
+    <t>Le code PIN actuel est incorrect</t>
+  </si>
+  <si>
+    <t>Erreur fatale ! La configuration n'a pas été trouvée.</t>
+  </si>
+  <si>
+    <t>Sélectionner une zone d'énumération</t>
+  </si>
+  <si>
+    <t>O seu PIN é:</t>
+  </si>
+  <si>
+    <t>Oops! Resposta incorrecta.  Por favor, tente novamente.</t>
+  </si>
+  <si>
+    <t>Os PIN's não coincidem</t>
+  </si>
+  <si>
+    <t>O PIN atual está incorreto</t>
+  </si>
+  <si>
+    <t>Fatal! Configuração não encontrada.</t>
+  </si>
+  <si>
+    <t>Введите название области перечисления</t>
+  </si>
+  <si>
+    <t>Выберите область пересчета</t>
+  </si>
+  <si>
+    <t>Выберите время</t>
+  </si>
+  <si>
+    <t>Выберите дату</t>
+  </si>
+  <si>
+    <t>Ваш PIN-код:</t>
+  </si>
+  <si>
+    <t>Oops! Неправильный ответ.  Пожалуйста, попробуйте еще раз.</t>
+  </si>
+  <si>
+    <t>Введите другой вопрос</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите PIN-код повторно</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите PIN-код</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите ответ.</t>
+  </si>
+  <si>
+    <t>PIN-коды не совпадают</t>
+  </si>
+  <si>
+    <t>Необходимо ввести имя файла</t>
+  </si>
+  <si>
+    <t>Текущий PIN-код неверен</t>
+  </si>
+  <si>
+    <t>Fatal! Конфигурация не найдена.</t>
+  </si>
+  <si>
+    <t>Insira o nome da área de enumeração</t>
+  </si>
+  <si>
+    <t>Selecione uma área de enumeração</t>
+  </si>
+  <si>
+    <t>Selecione a hora</t>
+  </si>
+  <si>
+    <t>Selecione a data</t>
+  </si>
+  <si>
+    <t>Insira outra pergunta</t>
+  </si>
+  <si>
+    <t>Volte a insirar o PIN</t>
+  </si>
+  <si>
+    <t>Por favor, insira um PIN</t>
+  </si>
+  <si>
+    <t>Por favor, insira uma resposta.</t>
+  </si>
+  <si>
+    <t>Tem de insirar um nome de ficheiro</t>
+  </si>
+  <si>
+    <t>Fatal! Parâmetro obrigatório em falta: regra</t>
+  </si>
+  <si>
+    <t>Fatal! Missing required parameter: rule</t>
+  </si>
+  <si>
+    <t>¡Fatal! Falta el parámetro requerido: regla</t>
+  </si>
+  <si>
+    <t>Fatal ! Paramètre requis manquant : règle</t>
+  </si>
+  <si>
+    <t>Fatal! Отсутствует необходимый параметр: правило</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3350,7 +3537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3360,6 +3547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3376,23 +3569,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3709,20 +3903,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
   <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="D190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3742,7 +3936,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3762,7 +3956,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3782,7 +3976,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3802,7 +3996,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -3822,7 +4016,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -3842,7 +4036,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -3862,7 +4056,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -3882,7 +4076,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -3902,7 +4096,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3922,7 +4116,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -3942,7 +4136,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -3962,7 +4156,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -3982,7 +4176,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4002,7 +4196,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4022,7 +4216,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4042,7 +4236,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4062,7 +4256,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4082,7 +4276,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -4102,7 +4296,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -4122,7 +4316,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -4142,7 +4336,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4162,7 +4356,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -4182,7 +4376,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -4202,7 +4396,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -4222,7 +4416,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -4242,7 +4436,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -4262,7 +4456,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -4282,7 +4476,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -4302,7 +4496,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -4322,7 +4516,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -4342,7 +4536,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -4362,7 +4556,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -4382,7 +4576,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -4402,7 +4596,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -4422,7 +4616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -4442,7 +4636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -4462,7 +4656,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -4482,7 +4676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4502,7 +4696,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -4522,7 +4716,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -4542,7 +4736,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4562,7 +4756,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -4582,7 +4776,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -4602,7 +4796,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -4622,7 +4816,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -4642,7 +4836,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -4662,7 +4856,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -4682,7 +4876,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -4702,7 +4896,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -4722,7 +4916,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -4742,7 +4936,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -4762,7 +4956,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -4782,7 +4976,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -4802,7 +4996,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -4822,7 +5016,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -4842,7 +5036,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -4862,7 +5056,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -4882,7 +5076,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -4902,7 +5096,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -4922,7 +5116,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -4942,7 +5136,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -4962,7 +5156,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -4982,7 +5176,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -5002,7 +5196,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -5022,7 +5216,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5042,7 +5236,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5062,7 +5256,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5082,7 +5276,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -5102,7 +5296,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -5122,7 +5316,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -5142,7 +5336,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5162,7 +5356,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5182,7 +5376,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -5202,7 +5396,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -5222,7 +5416,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -5242,7 +5436,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -5262,7 +5456,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -5282,7 +5476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -5302,7 +5496,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -5322,7 +5516,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -5342,7 +5536,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -5362,7 +5556,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -5382,7 +5576,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5402,7 +5596,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -5422,7 +5616,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -5442,7 +5636,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -5462,7 +5656,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -5482,7 +5676,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -5502,7 +5696,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5522,7 +5716,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5542,7 +5736,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -5562,7 +5756,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5582,7 +5776,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -5602,7 +5796,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -5622,7 +5816,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -5642,7 +5836,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -5662,7 +5856,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -5682,7 +5876,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -5702,7 +5896,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -5722,7 +5916,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -5742,7 +5936,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -5762,7 +5956,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -5782,7 +5976,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -5802,7 +5996,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -5822,7 +6016,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -5842,7 +6036,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -5862,7 +6056,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -5882,7 +6076,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -5902,7 +6096,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -5922,7 +6116,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -5942,7 +6136,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -5962,7 +6156,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -5982,7 +6176,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6002,7 +6196,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -6022,7 +6216,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6042,7 +6236,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -6062,7 +6256,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -6082,7 +6276,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -6102,7 +6296,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6122,7 +6316,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -6142,7 +6336,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -6162,7 +6356,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -6182,7 +6376,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6202,7 +6396,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6222,7 +6416,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -6242,7 +6436,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -6262,7 +6456,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -6282,7 +6476,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -6302,7 +6496,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -6322,7 +6516,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -6342,7 +6536,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -6362,7 +6556,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -6382,7 +6576,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -6402,7 +6596,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6422,7 +6616,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -6442,7 +6636,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -6462,7 +6656,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -6482,7 +6676,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -6502,7 +6696,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -6522,7 +6716,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -6542,7 +6736,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -6562,7 +6756,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -6582,7 +6776,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -6602,7 +6796,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -6622,7 +6816,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -6642,7 +6836,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -6662,7 +6856,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -6682,7 +6876,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -6702,7 +6896,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -6722,7 +6916,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>835</v>
       </c>
@@ -6742,7 +6936,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>836</v>
       </c>
@@ -6762,7 +6956,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>837</v>
       </c>
@@ -6782,7 +6976,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>838</v>
       </c>
@@ -6802,7 +6996,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>839</v>
       </c>
@@ -6822,7 +7016,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>840</v>
       </c>
@@ -6842,7 +7036,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>841</v>
       </c>
@@ -6862,7 +7056,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>842</v>
       </c>
@@ -6882,7 +7076,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>843</v>
       </c>
@@ -6902,7 +7096,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>844</v>
       </c>
@@ -6922,7 +7116,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>845</v>
       </c>
@@ -6942,7 +7136,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>846</v>
       </c>
@@ -6962,7 +7156,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>847</v>
       </c>
@@ -6982,7 +7176,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>848</v>
       </c>
@@ -7002,7 +7196,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>849</v>
       </c>
@@ -7022,7 +7216,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>850</v>
       </c>
@@ -7042,7 +7236,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>851</v>
       </c>
@@ -7062,7 +7256,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>852</v>
       </c>
@@ -7082,7 +7276,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>853</v>
       </c>
@@ -7102,7 +7296,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>854</v>
       </c>
@@ -7122,7 +7316,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>855</v>
       </c>
@@ -7142,7 +7336,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>856</v>
       </c>
@@ -7162,7 +7356,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>857</v>
       </c>
@@ -7182,7 +7376,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>858</v>
       </c>
@@ -7202,7 +7396,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>859</v>
       </c>
@@ -7222,7 +7416,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>860</v>
       </c>
@@ -7242,7 +7436,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>861</v>
       </c>
@@ -7262,7 +7456,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>862</v>
       </c>
@@ -7282,7 +7476,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>863</v>
       </c>
@@ -7302,7 +7496,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>864</v>
       </c>
@@ -7322,7 +7516,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>865</v>
       </c>
@@ -7342,7 +7536,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>866</v>
       </c>
@@ -7362,7 +7556,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>867</v>
       </c>
@@ -7382,7 +7576,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>868</v>
       </c>
@@ -7402,7 +7596,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>869</v>
       </c>
@@ -7422,7 +7616,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>870</v>
       </c>
@@ -7442,7 +7636,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>871</v>
       </c>
@@ -7462,7 +7656,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>872</v>
       </c>
@@ -7475,14 +7669,14 @@
       <c r="D188" t="s">
         <v>974</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E188" s="10" t="s">
         <v>1050</v>
       </c>
       <c r="F188" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>873</v>
       </c>
@@ -7502,132 +7696,324 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C190" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B191" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" t="s">
+        <v>321</v>
+      </c>
+      <c r="D199" t="s">
+        <v>423</v>
+      </c>
+      <c r="E199" t="s">
+        <v>529</v>
+      </c>
+      <c r="F199" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B204" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="8" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B192" s="9" t="s">
+      <c r="C204" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="8" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="8" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="9" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="9" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="9" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="9" t="s">
-        <v>1067</v>
-      </c>
       <c r="B205" s="9" t="s">
-        <v>1068</v>
+        <v>1139</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -7637,15 +8023,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
@@ -7656,7 +8033,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -7885,24 +8262,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
     <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -7910,7 +8288,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7927,4 +8305,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bp51/Development/GTRI/Android/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C4F6107-097C-4E77-850B-4866395B689B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C287E5D-3523-B64C-A54B-1FF0FDB33A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="23360" windowHeight="17440" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1149">
   <si>
     <t>Settings</t>
   </si>
@@ -3481,6 +3481,24 @@
   </si>
   <si>
     <t>Fatal! Отсутствует необходимый параметр: правило</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>wifi_disabled</t>
+  </si>
+  <si>
+    <t>WiFi disabled</t>
+  </si>
+  <si>
+    <t>wifi_disabled_message</t>
+  </si>
+  <si>
+    <t>WiFi is disabled. Please make sure Wifi is turned on</t>
   </si>
 </sst>
 </file>
@@ -3569,12 +3587,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3582,9 +3600,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -3901,22 +3916,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3936,7 +3951,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3956,7 +3971,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3976,7 +3991,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3996,7 +4011,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -4016,7 +4031,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4036,7 +4051,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4056,7 +4071,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4076,7 +4091,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4096,7 +4111,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4116,7 +4131,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4136,7 +4151,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4156,7 +4171,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4176,7 +4191,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4196,7 +4211,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4216,7 +4231,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4236,7 +4251,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4256,7 +4271,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4276,7 +4291,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -4296,7 +4311,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -4316,7 +4331,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -4336,7 +4351,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4356,7 +4371,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -4376,7 +4391,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -4396,7 +4411,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -4416,7 +4431,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -4436,7 +4451,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -4456,7 +4471,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -4476,7 +4491,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -4496,7 +4511,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -4516,7 +4531,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -4536,7 +4551,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -4556,7 +4571,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -4596,7 +4611,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -4616,7 +4631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -4636,7 +4651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -4656,7 +4671,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -4676,7 +4691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4696,7 +4711,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -4716,7 +4731,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -4736,7 +4751,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4756,7 +4771,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -4776,7 +4791,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -4796,7 +4811,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -4816,7 +4831,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -4836,7 +4851,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -4856,7 +4871,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -4876,7 +4891,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -4896,7 +4911,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -4916,7 +4931,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -4936,7 +4951,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -4956,7 +4971,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -4976,7 +4991,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -4996,7 +5011,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5016,7 +5031,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5036,7 +5051,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5056,7 +5071,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -5076,7 +5091,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -5096,7 +5111,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5136,7 +5151,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -5156,7 +5171,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5176,7 +5191,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -5196,7 +5211,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -5216,7 +5231,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5236,7 +5251,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5256,7 +5271,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5276,7 +5291,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -5296,7 +5311,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -5316,7 +5331,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -5336,7 +5351,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5356,7 +5371,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5376,7 +5391,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -5396,7 +5411,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -5416,7 +5431,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -5436,7 +5451,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -5456,7 +5471,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -5476,7 +5491,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -5496,7 +5511,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -5516,7 +5531,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -5536,7 +5551,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -5556,7 +5571,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -5576,7 +5591,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5596,7 +5611,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -5616,7 +5631,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -5636,7 +5651,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -5656,7 +5671,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -5676,7 +5691,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -5696,7 +5711,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5716,7 +5731,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5736,7 +5751,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -5756,7 +5771,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5776,7 +5791,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -5796,7 +5811,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -5816,7 +5831,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -5836,7 +5851,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -5856,7 +5871,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -5876,7 +5891,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -5896,7 +5911,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -5916,7 +5931,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -5936,7 +5951,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -5956,7 +5971,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -5976,7 +5991,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -5996,7 +6011,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -6016,7 +6031,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -6036,7 +6051,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -6056,7 +6071,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -6076,7 +6091,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -6096,7 +6111,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6116,7 +6131,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6136,7 +6151,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -6156,7 +6171,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -6176,7 +6191,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6196,7 +6211,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -6216,7 +6231,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6236,7 +6251,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -6256,7 +6271,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -6276,7 +6291,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -6296,7 +6311,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6316,7 +6331,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -6336,7 +6351,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -6356,7 +6371,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -6376,7 +6391,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6396,7 +6411,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6416,7 +6431,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -6436,7 +6451,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -6456,7 +6471,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -6476,7 +6491,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -6496,7 +6511,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -6516,7 +6531,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -6536,7 +6551,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -6556,7 +6571,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -6576,7 +6591,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -6596,7 +6611,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6616,7 +6631,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -6656,7 +6671,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -6676,7 +6691,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -6696,7 +6711,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -6716,7 +6731,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -6736,7 +6751,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -6756,7 +6771,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -6776,7 +6791,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -6796,7 +6811,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -6816,7 +6831,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -6836,7 +6851,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -6856,7 +6871,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -6876,7 +6891,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -6896,7 +6911,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -6916,7 +6931,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>835</v>
       </c>
@@ -6936,7 +6951,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>836</v>
       </c>
@@ -6956,7 +6971,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>837</v>
       </c>
@@ -6976,7 +6991,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>838</v>
       </c>
@@ -6996,7 +7011,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>839</v>
       </c>
@@ -7016,7 +7031,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>840</v>
       </c>
@@ -7036,7 +7051,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>841</v>
       </c>
@@ -7056,7 +7071,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>842</v>
       </c>
@@ -7076,7 +7091,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>843</v>
       </c>
@@ -7096,7 +7111,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>844</v>
       </c>
@@ -7116,7 +7131,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>845</v>
       </c>
@@ -7136,7 +7151,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>846</v>
       </c>
@@ -7156,7 +7171,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>847</v>
       </c>
@@ -7176,7 +7191,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>848</v>
       </c>
@@ -7196,7 +7211,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>849</v>
       </c>
@@ -7216,7 +7231,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>850</v>
       </c>
@@ -7236,7 +7251,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>851</v>
       </c>
@@ -7256,7 +7271,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>852</v>
       </c>
@@ -7276,7 +7291,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>853</v>
       </c>
@@ -7296,7 +7311,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>854</v>
       </c>
@@ -7316,7 +7331,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>855</v>
       </c>
@@ -7336,7 +7351,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>856</v>
       </c>
@@ -7356,7 +7371,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>857</v>
       </c>
@@ -7376,7 +7391,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>858</v>
       </c>
@@ -7396,7 +7411,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>859</v>
       </c>
@@ -7416,7 +7431,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>860</v>
       </c>
@@ -7436,7 +7451,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>861</v>
       </c>
@@ -7456,7 +7471,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>862</v>
       </c>
@@ -7476,7 +7491,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>863</v>
       </c>
@@ -7496,7 +7511,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>864</v>
       </c>
@@ -7516,7 +7531,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>865</v>
       </c>
@@ -7536,7 +7551,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>866</v>
       </c>
@@ -7556,7 +7571,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>867</v>
       </c>
@@ -7576,7 +7591,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>868</v>
       </c>
@@ -7596,7 +7611,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>869</v>
       </c>
@@ -7616,7 +7631,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>870</v>
       </c>
@@ -7636,7 +7651,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>871</v>
       </c>
@@ -7656,7 +7671,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>872</v>
       </c>
@@ -7669,14 +7684,14 @@
       <c r="D188" t="s">
         <v>974</v>
       </c>
-      <c r="E188" s="10" t="s">
+      <c r="E188" s="9" t="s">
         <v>1050</v>
       </c>
       <c r="F188" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>873</v>
       </c>
@@ -7696,8 +7711,8 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="8" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="B190" t="s">
@@ -7716,8 +7731,8 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="8" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
         <v>1054</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -7736,8 +7751,8 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="8" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
         <v>1056</v>
       </c>
       <c r="B192" t="s">
@@ -7756,8 +7771,8 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="8" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
         <v>1058</v>
       </c>
       <c r="B193" t="s">
@@ -7776,8 +7791,8 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="8" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
         <v>1060</v>
       </c>
       <c r="B194" t="s">
@@ -7796,8 +7811,8 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="8" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
         <v>1062</v>
       </c>
       <c r="B195" t="s">
@@ -7816,8 +7831,8 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="8" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
         <v>1064</v>
       </c>
       <c r="B196" t="s">
@@ -7836,7 +7851,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1066</v>
       </c>
@@ -7856,8 +7871,8 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="8" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
         <v>1068</v>
       </c>
       <c r="B198" t="s">
@@ -7876,7 +7891,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1070</v>
       </c>
@@ -7896,7 +7911,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1071</v>
       </c>
@@ -7916,7 +7931,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1073</v>
       </c>
@@ -7936,7 +7951,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1075</v>
       </c>
@@ -7956,7 +7971,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1077</v>
       </c>
@@ -7976,7 +7991,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1079</v>
       </c>
@@ -7996,11 +8011,11 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1080</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>1139</v>
       </c>
       <c r="C205" t="s">
@@ -8014,6 +8029,30 @@
       </c>
       <c r="F205" t="s">
         <v>1142</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1148</v>
       </c>
     </row>
   </sheetData>
@@ -8034,6 +8073,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -8262,15 +8310,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
@@ -8289,6 +8328,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8305,12 +8352,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bp51/Development/GTRI/Android/gpssample/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bp51\Development\gpssample\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C287E5D-3523-B64C-A54B-1FF0FDB33A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA195EB-6FB8-4BB5-B2B7-0D2F3F07D16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="23360" windowHeight="17440" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="3735" yWindow="975" windowWidth="21600" windowHeight="13185" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1163">
   <si>
     <t>Settings</t>
   </si>
@@ -3499,6 +3499,48 @@
   </si>
   <si>
     <t>WiFi is disabled. Please make sure Wifi is turned on</t>
+  </si>
+  <si>
+    <t>additional_info</t>
+  </si>
+  <si>
+    <t>Additional Info</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>does_not_exist</t>
+  </si>
+  <si>
+    <t>Does not exist</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>oops</t>
+  </si>
+  <si>
+    <t>Oops!</t>
+  </si>
+  <si>
+    <t>field_is_required</t>
+  </si>
+  <si>
+    <t>field is required</t>
   </si>
 </sst>
 </file>
@@ -3587,7 +3629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3602,6 +3644,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3916,22 +3961,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.375" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3951,7 +3996,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3971,7 +4016,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3991,7 +4036,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4011,7 +4056,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -4031,7 +4076,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4051,7 +4096,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4071,7 +4116,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4091,7 +4136,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4111,7 +4156,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4131,7 +4176,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4151,7 +4196,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4171,7 +4216,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4191,7 +4236,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4211,7 +4256,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4231,7 +4276,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4251,7 +4296,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4271,7 +4316,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4291,7 +4336,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -4311,7 +4356,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -4331,7 +4376,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -4351,7 +4396,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4371,7 +4416,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -4391,7 +4436,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -4411,7 +4456,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -4431,7 +4476,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -4451,7 +4496,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -4471,7 +4516,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -4491,7 +4536,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -4511,7 +4556,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -4531,7 +4576,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -4551,7 +4596,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -4571,7 +4616,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -4591,7 +4636,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -4611,7 +4656,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -4631,7 +4676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -4651,7 +4696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -4671,7 +4716,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -4691,7 +4736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4711,7 +4756,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -4731,7 +4776,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -4751,7 +4796,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4771,7 +4816,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -4791,7 +4836,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -4811,7 +4856,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -4831,7 +4876,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -4851,7 +4896,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -4871,7 +4916,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -4891,7 +4936,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -4911,7 +4956,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -4931,7 +4976,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -4951,7 +4996,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -4971,7 +5016,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -4991,7 +5036,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -5011,7 +5056,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5031,7 +5076,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5051,7 +5096,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5071,7 +5116,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -5091,7 +5136,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -5111,7 +5156,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5131,7 +5176,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5151,7 +5196,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -5171,7 +5216,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5191,7 +5236,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -5211,7 +5256,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -5231,7 +5276,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5251,7 +5296,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5271,7 +5316,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5291,7 +5336,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -5311,7 +5356,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -5331,7 +5376,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -5351,7 +5396,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5371,7 +5416,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5391,7 +5436,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -5411,7 +5456,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -5431,7 +5476,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -5451,7 +5496,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -5471,7 +5516,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -5491,7 +5536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -5511,7 +5556,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -5531,7 +5576,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -5551,7 +5596,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -5571,7 +5616,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -5591,7 +5636,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5611,7 +5656,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -5631,7 +5676,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -5651,7 +5696,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -5671,7 +5716,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -5691,7 +5736,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -5711,7 +5756,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5731,7 +5776,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5751,7 +5796,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -5771,7 +5816,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5791,7 +5836,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -5811,7 +5856,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -5831,7 +5876,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -5851,7 +5896,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -5871,7 +5916,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -5891,7 +5936,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -5911,7 +5956,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -5931,7 +5976,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -5951,7 +5996,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -5971,7 +6016,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -5991,7 +6036,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -6011,7 +6056,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -6031,7 +6076,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -6051,7 +6096,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -6071,7 +6116,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -6091,7 +6136,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -6111,7 +6156,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6131,7 +6176,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6151,7 +6196,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -6171,7 +6216,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -6191,7 +6236,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6211,7 +6256,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -6231,7 +6276,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6251,7 +6296,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -6271,7 +6316,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -6291,7 +6336,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -6311,7 +6356,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6331,7 +6376,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -6351,7 +6396,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -6371,7 +6416,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -6391,7 +6436,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6411,7 +6456,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6431,7 +6476,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -6451,7 +6496,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -6471,7 +6516,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -6491,7 +6536,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -6511,7 +6556,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -6531,7 +6576,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -6551,7 +6596,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -6571,7 +6616,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -6591,7 +6636,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -6611,7 +6656,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6631,7 +6676,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -6651,7 +6696,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -6671,7 +6716,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -6691,7 +6736,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -6711,7 +6756,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -6731,7 +6776,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -6751,7 +6796,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -6771,7 +6816,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -6791,7 +6836,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -6811,7 +6856,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -6831,7 +6876,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -6851,7 +6896,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -6871,7 +6916,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -6891,7 +6936,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -6911,7 +6956,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -6931,7 +6976,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>835</v>
       </c>
@@ -6951,7 +6996,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>836</v>
       </c>
@@ -6971,7 +7016,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>837</v>
       </c>
@@ -6991,7 +7036,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>838</v>
       </c>
@@ -7011,7 +7056,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>839</v>
       </c>
@@ -7031,7 +7076,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>840</v>
       </c>
@@ -7051,7 +7096,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>841</v>
       </c>
@@ -7071,7 +7116,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>842</v>
       </c>
@@ -7091,7 +7136,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>843</v>
       </c>
@@ -7111,7 +7156,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>844</v>
       </c>
@@ -7131,7 +7176,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>845</v>
       </c>
@@ -7151,7 +7196,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>846</v>
       </c>
@@ -7171,7 +7216,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>847</v>
       </c>
@@ -7191,7 +7236,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>848</v>
       </c>
@@ -7211,7 +7256,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>849</v>
       </c>
@@ -7231,7 +7276,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>850</v>
       </c>
@@ -7251,7 +7296,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>851</v>
       </c>
@@ -7271,7 +7316,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>852</v>
       </c>
@@ -7291,7 +7336,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>853</v>
       </c>
@@ -7311,7 +7356,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>854</v>
       </c>
@@ -7331,7 +7376,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>855</v>
       </c>
@@ -7351,7 +7396,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>856</v>
       </c>
@@ -7371,7 +7416,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>857</v>
       </c>
@@ -7391,7 +7436,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>858</v>
       </c>
@@ -7411,7 +7456,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>859</v>
       </c>
@@ -7431,7 +7476,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>860</v>
       </c>
@@ -7451,7 +7496,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>861</v>
       </c>
@@ -7471,7 +7516,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>862</v>
       </c>
@@ -7491,7 +7536,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>863</v>
       </c>
@@ -7511,7 +7556,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>864</v>
       </c>
@@ -7531,7 +7576,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>865</v>
       </c>
@@ -7551,7 +7596,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>866</v>
       </c>
@@ -7571,7 +7616,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>867</v>
       </c>
@@ -7591,7 +7636,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>868</v>
       </c>
@@ -7611,7 +7656,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>869</v>
       </c>
@@ -7631,7 +7676,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>870</v>
       </c>
@@ -7651,7 +7696,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>871</v>
       </c>
@@ -7671,7 +7716,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>872</v>
       </c>
@@ -7691,7 +7736,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>873</v>
       </c>
@@ -7711,7 +7756,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>1052</v>
       </c>
@@ -7731,7 +7776,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>1054</v>
       </c>
@@ -7751,7 +7796,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>1056</v>
       </c>
@@ -7771,7 +7816,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>1058</v>
       </c>
@@ -7791,7 +7836,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>1060</v>
       </c>
@@ -7811,7 +7856,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>1062</v>
       </c>
@@ -7831,7 +7876,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>1064</v>
       </c>
@@ -7851,7 +7896,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1066</v>
       </c>
@@ -7871,7 +7916,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>1068</v>
       </c>
@@ -7891,7 +7936,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1070</v>
       </c>
@@ -7911,7 +7956,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1071</v>
       </c>
@@ -7931,7 +7976,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1073</v>
       </c>
@@ -7951,7 +7996,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1075</v>
       </c>
@@ -7971,7 +8016,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1077</v>
       </c>
@@ -7991,7 +8036,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1079</v>
       </c>
@@ -8011,7 +8056,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1080</v>
       </c>
@@ -8031,7 +8076,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1143</v>
       </c>
@@ -8039,7 +8084,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1145</v>
       </c>
@@ -8047,12 +8092,68 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1147</v>
       </c>
       <c r="B208" t="s">
         <v>1148</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -8062,6 +8163,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
@@ -8070,15 +8180,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8311,6 +8412,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8323,14 +8432,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
     <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bp51\Development\gpssample\translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA195EB-6FB8-4BB5-B2B7-0D2F3F07D16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4947A2B9-1EBA-41F7-8890-8CF53CA605AC}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="975" windowWidth="21600" windowHeight="13185" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1197">
   <si>
     <t>Settings</t>
   </si>
@@ -3501,6 +3501,33 @@
     <t>WiFi is disabled. Please make sure Wifi is turned on</t>
   </si>
   <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>WiFi désactivé</t>
+  </si>
+  <si>
+    <t>WiFi desativado</t>
+  </si>
+  <si>
+    <t>WiFi отключен</t>
+  </si>
+  <si>
+    <t>Le WiFi est désactivé. Veuillez vous assurer que le Wifi est activé</t>
+  </si>
+  <si>
+    <t>O WiFi está desativado. Certifique-se de que o Wi-Fi está ativado</t>
+  </si>
+  <si>
+    <t>WiFi отключен. Пожалуйста, убедитесь, что WiFi включен</t>
+  </si>
+  <si>
+    <t>WiFi desactivado</t>
+  </si>
+  <si>
+    <t>El WiFi está desactivado. Por favor, asegúrese de que el Wifi está activado</t>
+  </si>
+  <si>
     <t>additional_info</t>
   </si>
   <si>
@@ -3541,6 +3568,81 @@
   </si>
   <si>
     <t>field is required</t>
+  </si>
+  <si>
+    <t>Información adicional</t>
+  </si>
+  <si>
+    <t>Incompleto</t>
+  </si>
+  <si>
+    <t>No existe</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>¡Vaya!</t>
+  </si>
+  <si>
+    <t>campo obligatorio</t>
+  </si>
+  <si>
+    <t>Informations complémentaires</t>
+  </si>
+  <si>
+    <t>Incomplet</t>
+  </si>
+  <si>
+    <t>N'existe pas</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Notes (en anglais)</t>
+  </si>
+  <si>
+    <t>Oups !</t>
+  </si>
+  <si>
+    <t>le champ est obligatoire</t>
+  </si>
+  <si>
+    <t>Informações adicionais</t>
+  </si>
+  <si>
+    <t>Não existe</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>o campo é obrigatório</t>
+  </si>
+  <si>
+    <t>Дополнительная информация</t>
+  </si>
+  <si>
+    <t>Неполный</t>
+  </si>
+  <si>
+    <t>Не существует</t>
+  </si>
+  <si>
+    <t>Другое</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>Упс!</t>
+  </si>
+  <si>
+    <t>поле обязательно для заполнения</t>
   </si>
 </sst>
 </file>
@@ -3629,12 +3731,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3642,6 +3744,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3963,20 +4068,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView tabSelected="1" topLeftCell="C199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209:F215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="48.375" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3996,7 +4101,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -4016,7 +4121,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4036,7 +4141,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4056,7 +4161,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -4076,7 +4181,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4096,7 +4201,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4116,7 +4221,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4136,7 +4241,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4156,7 +4261,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4176,7 +4281,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4196,7 +4301,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4216,7 +4321,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4236,7 +4341,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4256,7 +4361,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4276,7 +4381,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4296,7 +4401,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4316,7 +4421,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4336,7 +4441,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -4356,7 +4461,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -4376,7 +4481,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -4396,7 +4501,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4416,7 +4521,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -4436,7 +4541,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -4456,7 +4561,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -4476,7 +4581,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -4496,7 +4601,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -4516,7 +4621,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -4536,7 +4641,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -4556,7 +4661,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -4576,7 +4681,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -4596,7 +4701,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -4616,7 +4721,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -4636,7 +4741,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -4656,7 +4761,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -4676,7 +4781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -4696,7 +4801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -4716,7 +4821,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -4736,7 +4841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4756,7 +4861,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -4776,7 +4881,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -4796,7 +4901,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4816,7 +4921,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -4836,7 +4941,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -4856,7 +4961,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -4876,7 +4981,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -4896,7 +5001,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -4916,7 +5021,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -4936,7 +5041,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -4956,7 +5061,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -4976,7 +5081,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -4996,7 +5101,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -5016,7 +5121,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -5036,7 +5141,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -5056,7 +5161,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5076,7 +5181,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5096,7 +5201,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5116,7 +5221,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -5136,7 +5241,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -5156,7 +5261,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5176,7 +5281,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5196,7 +5301,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -5216,7 +5321,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5236,7 +5341,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -5256,7 +5361,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -5276,7 +5381,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5296,7 +5401,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5316,7 +5421,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5336,7 +5441,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -5356,7 +5461,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -5376,7 +5481,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -5396,7 +5501,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5416,7 +5521,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5436,7 +5541,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -5456,7 +5561,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -5476,7 +5581,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -5496,7 +5601,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -5516,7 +5621,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -5536,7 +5641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -5556,7 +5661,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -5576,7 +5681,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -5596,7 +5701,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -5616,7 +5721,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -5636,7 +5741,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5656,7 +5761,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -5676,7 +5781,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -5696,7 +5801,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -5716,7 +5821,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -5736,7 +5841,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -5756,7 +5861,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5776,7 +5881,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5796,7 +5901,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -5816,7 +5921,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5836,7 +5941,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -5856,7 +5961,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -5876,7 +5981,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -5896,7 +6001,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -5916,7 +6021,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -5936,7 +6041,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -5956,7 +6061,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -5976,7 +6081,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -5996,7 +6101,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -6016,7 +6121,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -6036,7 +6141,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -6056,7 +6161,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -6076,7 +6181,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -6096,7 +6201,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -6116,7 +6221,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -6136,7 +6241,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -6156,7 +6261,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6176,7 +6281,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6196,7 +6301,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -6216,7 +6321,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -6236,7 +6341,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6256,7 +6361,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -6276,7 +6381,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6296,7 +6401,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -6316,7 +6421,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -6336,7 +6441,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -6356,7 +6461,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6376,7 +6481,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -6396,7 +6501,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -6416,7 +6521,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -6436,7 +6541,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6456,7 +6561,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6476,7 +6581,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -6496,7 +6601,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -6516,7 +6621,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -6536,7 +6641,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -6556,7 +6661,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -6576,7 +6681,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -6596,7 +6701,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -6616,7 +6721,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -6636,7 +6741,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -6656,7 +6761,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6676,7 +6781,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -6696,7 +6801,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -6716,7 +6821,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -6736,7 +6841,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -6756,7 +6861,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -6776,7 +6881,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -6796,7 +6901,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -6816,7 +6921,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -6836,7 +6941,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -6856,7 +6961,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -6876,7 +6981,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -6896,7 +7001,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -6916,7 +7021,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -6936,7 +7041,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -6956,7 +7061,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -6976,7 +7081,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>835</v>
       </c>
@@ -6996,7 +7101,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>836</v>
       </c>
@@ -7016,7 +7121,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>837</v>
       </c>
@@ -7036,7 +7141,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>838</v>
       </c>
@@ -7056,7 +7161,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>839</v>
       </c>
@@ -7076,7 +7181,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>840</v>
       </c>
@@ -7096,7 +7201,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>841</v>
       </c>
@@ -7116,7 +7221,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>842</v>
       </c>
@@ -7136,7 +7241,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>843</v>
       </c>
@@ -7156,7 +7261,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>844</v>
       </c>
@@ -7176,7 +7281,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>845</v>
       </c>
@@ -7196,7 +7301,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>846</v>
       </c>
@@ -7216,7 +7321,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>847</v>
       </c>
@@ -7236,7 +7341,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>848</v>
       </c>
@@ -7256,7 +7361,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>849</v>
       </c>
@@ -7276,7 +7381,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>850</v>
       </c>
@@ -7296,7 +7401,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>851</v>
       </c>
@@ -7316,7 +7421,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>852</v>
       </c>
@@ -7336,7 +7441,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>853</v>
       </c>
@@ -7356,7 +7461,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>854</v>
       </c>
@@ -7376,7 +7481,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>855</v>
       </c>
@@ -7396,7 +7501,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>856</v>
       </c>
@@ -7416,7 +7521,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>857</v>
       </c>
@@ -7436,7 +7541,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>858</v>
       </c>
@@ -7456,7 +7561,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>859</v>
       </c>
@@ -7476,7 +7581,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>860</v>
       </c>
@@ -7496,7 +7601,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>861</v>
       </c>
@@ -7516,7 +7621,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>862</v>
       </c>
@@ -7536,7 +7641,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>863</v>
       </c>
@@ -7556,7 +7661,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>864</v>
       </c>
@@ -7576,7 +7681,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>865</v>
       </c>
@@ -7596,7 +7701,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>866</v>
       </c>
@@ -7616,7 +7721,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>867</v>
       </c>
@@ -7636,7 +7741,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>868</v>
       </c>
@@ -7656,7 +7761,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>869</v>
       </c>
@@ -7676,7 +7781,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>870</v>
       </c>
@@ -7696,7 +7801,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>871</v>
       </c>
@@ -7716,7 +7821,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>872</v>
       </c>
@@ -7729,14 +7834,14 @@
       <c r="D188" t="s">
         <v>974</v>
       </c>
-      <c r="E188" s="9" t="s">
+      <c r="E188" s="10" t="s">
         <v>1050</v>
       </c>
       <c r="F188" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>873</v>
       </c>
@@ -7756,8 +7861,8 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
         <v>1052</v>
       </c>
       <c r="B190" t="s">
@@ -7776,8 +7881,8 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="8" t="s">
         <v>1054</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -7796,8 +7901,8 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
         <v>1056</v>
       </c>
       <c r="B192" t="s">
@@ -7816,8 +7921,8 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="8" t="s">
         <v>1058</v>
       </c>
       <c r="B193" t="s">
@@ -7836,8 +7941,8 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
         <v>1060</v>
       </c>
       <c r="B194" t="s">
@@ -7856,8 +7961,8 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
         <v>1062</v>
       </c>
       <c r="B195" t="s">
@@ -7876,8 +7981,8 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
         <v>1064</v>
       </c>
       <c r="B196" t="s">
@@ -7896,7 +8001,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1066</v>
       </c>
@@ -7916,8 +8021,8 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="B198" t="s">
@@ -7936,7 +8041,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1070</v>
       </c>
@@ -7956,7 +8061,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1071</v>
       </c>
@@ -7976,7 +8081,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1073</v>
       </c>
@@ -7996,7 +8101,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1075</v>
       </c>
@@ -8016,7 +8121,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1077</v>
       </c>
@@ -8036,7 +8141,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1079</v>
       </c>
@@ -8056,11 +8161,11 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1080</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="9" t="s">
         <v>1139</v>
       </c>
       <c r="C205" t="s">
@@ -8076,84 +8181,204 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>1143</v>
       </c>
       <c r="B206" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1145</v>
       </c>
       <c r="B207" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1147</v>
       </c>
       <c r="B208" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1158</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="10" t="s">
-        <v>1153</v>
+        <v>1161</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="11" t="s">
+        <v>1162</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>1155</v>
+        <v>1164</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="10" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="10" t="s">
-        <v>1159</v>
+        <v>1165</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="11" t="s">
+        <v>1168</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1169</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>1161</v>
+        <v>1170</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1162</v>
+        <v>1171</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1196</v>
       </c>
     </row>
   </sheetData>
@@ -8163,15 +8388,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
@@ -8182,7 +8398,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -8411,32 +8627,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8453,4 +8670,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4947A2B9-1EBA-41F7-8890-8CF53CA605AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B73F7C-35A1-4E40-9EAA-53F8CEB12804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28300" windowHeight="14580" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1191">
   <si>
     <t>Settings</t>
   </si>
@@ -2667,9 +2667,6 @@
     <t>location_not_found</t>
   </si>
   <si>
-    <t>nobody_home</t>
-  </si>
-  <si>
     <t>home_not_exist</t>
   </si>
   <si>
@@ -2781,9 +2778,6 @@
     <t>Please Confirm</t>
   </si>
   <si>
-    <t>&gt;Location not found</t>
-  </si>
-  <si>
     <t>Importar datos de enumeración</t>
   </si>
   <si>
@@ -2868,9 +2862,6 @@
     <t>Los datos de enumeración se han guardado en el directorio Documentos.</t>
   </si>
   <si>
-    <t>&gt;Localización no encontrada</t>
-  </si>
-  <si>
     <t>¡Oops! Por favor, seleccione una razón para incompleto</t>
   </si>
   <si>
@@ -2973,9 +2964,6 @@
     <t>Les données d'énumération ont été sauvegardées dans le répertoire Documents.</t>
   </si>
   <si>
-    <t>&gt;La configuration a été sauvegardée dans le répertoire Documents.</t>
-  </si>
-  <si>
     <t>Le domicile n'existe pas</t>
   </si>
   <si>
@@ -3015,9 +3003,6 @@
     <t>Os dados de enumeração foram guardados no diretório Documentos.</t>
   </si>
   <si>
-    <t>&gt;Localização não encontrada</t>
-  </si>
-  <si>
     <t>Пожалуйста, подтвердите</t>
   </si>
   <si>
@@ -3118,9 +3103,6 @@
   </si>
   <si>
     <t>Конфигурация была сохранена в каталог Documents.</t>
-  </si>
-  <si>
-    <t>&gt;Местонахождение не найдено</t>
   </si>
   <si>
     <t>Дом не существует</t>
@@ -3731,12 +3713,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3744,9 +3726,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4066,22 +4045,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209:F215"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187:XFD187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -4101,7 +4080,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -4121,7 +4100,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4141,7 +4120,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4161,7 +4140,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -4181,7 +4160,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4201,7 +4180,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4221,7 +4200,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4241,7 +4220,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4261,7 +4240,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4281,7 +4260,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4301,7 +4280,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4321,7 +4300,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4341,7 +4320,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4361,7 +4340,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4381,7 +4360,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4401,7 +4380,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4421,7 +4400,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4441,7 +4420,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -4461,7 +4440,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -4481,7 +4460,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -4501,7 +4480,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4521,7 +4500,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -4541,7 +4520,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -4561,7 +4540,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -4581,7 +4560,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -4601,7 +4580,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -4621,7 +4600,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -4641,7 +4620,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -4661,7 +4640,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -4681,7 +4660,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -4701,7 +4680,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -4721,7 +4700,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -4741,7 +4720,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -4761,7 +4740,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -4781,7 +4760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -4801,7 +4780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -4821,7 +4800,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -4841,7 +4820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4861,7 +4840,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -4881,7 +4860,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -4901,7 +4880,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4921,7 +4900,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -4941,7 +4920,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -4961,7 +4940,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -4981,7 +4960,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -5001,7 +4980,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -5021,7 +5000,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5041,7 +5020,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -5061,7 +5040,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -5081,7 +5060,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -5101,7 +5080,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -5121,7 +5100,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -5141,7 +5120,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -5161,7 +5140,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5181,7 +5160,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5201,7 +5180,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5221,7 +5200,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -5241,7 +5220,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -5261,7 +5240,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5281,7 +5260,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5301,7 +5280,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -5321,7 +5300,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5341,7 +5320,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -5361,7 +5340,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -5381,7 +5360,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5401,7 +5380,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5421,7 +5400,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5441,7 +5420,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -5461,7 +5440,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -5481,7 +5460,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -5501,7 +5480,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5521,7 +5500,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5541,7 +5520,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -5561,7 +5540,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -5581,7 +5560,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -5601,7 +5580,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -5621,7 +5600,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -5641,7 +5620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -5661,7 +5640,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -5681,7 +5660,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -5701,7 +5680,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -5721,7 +5700,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -5741,7 +5720,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5761,7 +5740,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -5781,7 +5760,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -5801,7 +5780,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -5821,7 +5800,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -5841,7 +5820,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -5861,7 +5840,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5881,7 +5860,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5901,7 +5880,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -5921,7 +5900,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5941,7 +5920,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -5961,7 +5940,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -5981,7 +5960,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -6001,7 +5980,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -6021,7 +6000,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -6041,7 +6020,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -6061,7 +6040,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -6081,7 +6060,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -6101,7 +6080,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -6121,7 +6100,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -6141,7 +6120,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -6161,7 +6140,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -6181,7 +6160,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -6201,7 +6180,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -6221,7 +6200,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -6241,7 +6220,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -6261,7 +6240,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6281,7 +6260,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6301,7 +6280,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -6321,7 +6300,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -6341,7 +6320,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6361,7 +6340,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -6381,7 +6360,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6401,7 +6380,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -6421,7 +6400,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -6441,7 +6420,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -6461,7 +6440,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6481,7 +6460,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -6501,7 +6480,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -6521,7 +6500,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -6541,7 +6520,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6561,7 +6540,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6581,7 +6560,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -6601,7 +6580,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -6621,7 +6600,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -6641,7 +6620,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -6661,7 +6640,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -6681,7 +6660,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -6701,7 +6680,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -6721,7 +6700,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -6741,7 +6720,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -6761,7 +6740,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6781,7 +6760,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -6801,7 +6780,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -6821,7 +6800,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -6841,7 +6820,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -6861,7 +6840,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -6881,7 +6860,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -6901,7 +6880,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -6921,7 +6900,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -6941,7 +6920,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -6961,7 +6940,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -6981,7 +6960,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -7001,7 +6980,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -7021,7 +7000,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -7041,7 +7020,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -7061,7 +7040,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -7081,1304 +7060,1284 @@
         <v>647</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>835</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C151" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D151" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E151" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F151" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>836</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C152" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D152" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E152" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F152" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>837</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C153" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D153" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E153" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F153" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>838</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C154" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D154" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E154" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F154" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>839</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C155" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D155" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E155" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F155" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>840</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C156" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D156" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E156" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="F156" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>841</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C157" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D157" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E157" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F157" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>842</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C158" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D158" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E158" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F158" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>843</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C159" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D159" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E159" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F159" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>844</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C160" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D160" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E160" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F160" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>845</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C161" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D161" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E161" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F161" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>846</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C162" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D162" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E162" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F162" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>847</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C163" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D163" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E163" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="F163" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>848</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C164" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D164" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E164" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F164" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>849</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C165" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D165" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E165" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="F165" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>850</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C166" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D166" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E166" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F166" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>851</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C167" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D167" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E167" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F167" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>852</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C168" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D168" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E168" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="F168" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>853</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C169" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D169" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E169" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F169" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>854</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C170" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D170" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E170" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F170" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>855</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C171" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D171" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E171" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F171" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>856</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C172" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D172" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E172" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F172" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>857</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C173" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D173" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E173" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F173" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>858</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C174" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D174" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E174" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F174" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>859</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C175" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D175" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E175" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F175" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>860</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C176" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D176" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E176" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F176" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>861</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C177" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D177" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E177" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F177" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>862</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C178" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D178" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E178" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F178" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>863</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C179" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D179" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E179" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F179" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>864</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C180" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D180" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E180" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F180" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>865</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C181" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D181" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E181" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F181" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>866</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C182" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D182" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E182" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F182" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>867</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C183" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D183" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E183" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F183" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>868</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C184" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D184" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E184" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F184" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>869</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C185" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D185" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E185" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F185" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>870</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C186" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D186" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E186" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F186" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>871</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="C187" t="s">
-        <v>938</v>
+        <v>874</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>1045</v>
       </c>
       <c r="D187" t="s">
-        <v>973</v>
-      </c>
-      <c r="E187" t="s">
-        <v>987</v>
+        <v>970</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>1044</v>
       </c>
       <c r="F187" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>872</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="C188" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="C188" t="s">
+        <v>936</v>
+      </c>
+      <c r="D188" t="s">
+        <v>971</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B191" t="s">
         <v>1051</v>
       </c>
-      <c r="D188" t="s">
-        <v>974</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="C189" t="s">
-        <v>939</v>
-      </c>
-      <c r="D189" t="s">
-        <v>975</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="8" t="s">
+      <c r="C191" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B192" t="s">
         <v>1053</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C192" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C195" t="s">
         <v>1082</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D195" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D196" t="s">
         <v>1096</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E196" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E197" t="s">
         <v>1129</v>
       </c>
-      <c r="F190" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="8" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="F197" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" t="s">
+        <v>321</v>
+      </c>
+      <c r="D198" t="s">
+        <v>423</v>
+      </c>
+      <c r="E198" t="s">
+        <v>529</v>
+      </c>
+      <c r="F198" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E199" t="s">
         <v>1130</v>
       </c>
-      <c r="F191" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="F199" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E201" t="s">
         <v>1131</v>
       </c>
-      <c r="F192" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="8" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="F201" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E204" t="s">
         <v>1132</v>
       </c>
-      <c r="F193" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="8" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B199" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" t="s">
-        <v>321</v>
-      </c>
-      <c r="D199" t="s">
-        <v>423</v>
-      </c>
-      <c r="E199" t="s">
-        <v>529</v>
-      </c>
-      <c r="F199" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="F204" t="s">
         <v>1136</v>
       </c>
-      <c r="F200" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E202" t="s">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>1137</v>
       </c>
-      <c r="F202" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>1139</v>
+      <c r="B205" t="s">
+        <v>1138</v>
       </c>
       <c r="C205" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D205" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E205" t="s">
         <v>1138</v>
       </c>
       <c r="F205" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B206" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C206" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="D206" t="s">
         <v>1144</v>
       </c>
       <c r="E206" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F206" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F207" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C207" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="10" t="s">
         <v>1156</v>
       </c>
-      <c r="D207" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="B210" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D208" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="2" t="s">
+      <c r="C210" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B211" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C211" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C214" t="s">
         <v>1172</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D214" t="s">
         <v>1179</v>
       </c>
-      <c r="E209" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="E214" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F214" t="s">
         <v>1190</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="11" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E211" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F211" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A213" s="11" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="11" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1196</v>
       </c>
     </row>
   </sheetData>
@@ -8388,17 +8347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -8627,6 +8575,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8637,23 +8596,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8672,6 +8614,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
   <ds:schemaRefs>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bp51/Development/GTRI/Android/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B73F7C-35A1-4E40-9EAA-53F8CEB12804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC904763-88F9-E943-B3C1-C781713A3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28300" windowHeight="14580" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="26180" windowHeight="21340" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1257">
   <si>
     <t>Settings</t>
   </si>
@@ -3625,6 +3625,204 @@
   </si>
   <si>
     <t>поле обязательно для заполнения</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>connected</t>
+  </si>
+  <si>
+    <t>forgot_pin</t>
+  </si>
+  <si>
+    <t>reset_pin</t>
+  </si>
+  <si>
+    <t>personally_identifiable</t>
+  </si>
+  <si>
+    <t>integer_only</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>simple_random</t>
+  </si>
+  <si>
+    <t>cluster_sampling</t>
+  </si>
+  <si>
+    <t>subset_overlap</t>
+  </si>
+  <si>
+    <t>strata_exclusive</t>
+  </si>
+  <si>
+    <t>numberhouseholds</t>
+  </si>
+  <si>
+    <t>percenthouseholds</t>
+  </si>
+  <si>
+    <t>percenttotal</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>not_equal</t>
+  </si>
+  <si>
+    <t>less_than</t>
+  </si>
+  <si>
+    <t>greater_than</t>
+  </si>
+  <si>
+    <t>greater_than_equal</t>
+  </si>
+  <si>
+    <t>add_condition</t>
+  </si>
+  <si>
+    <t>select_rule</t>
+  </si>
+  <si>
+    <t>teams</t>
+  </si>
+  <si>
+    <t>select_location</t>
+  </si>
+  <si>
+    <t>current_location</t>
+  </si>
+  <si>
+    <t>new_location</t>
+  </si>
+  <si>
+    <t>tap_the_map</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>reason_incomplete_label</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>duplicate_warning</t>
+  </si>
+  <si>
+    <t>missing_team</t>
+  </si>
+  <si>
+    <t>Configuration is missing a Team definition</t>
+  </si>
+  <si>
+    <t>Warning!</t>
+  </si>
+  <si>
+    <t>Reason Incomplete</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Tap on the map to add a new location</t>
+  </si>
+  <si>
+    <t>New Location</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Select Location</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Select Rule</t>
+  </si>
+  <si>
+    <t>Add Condition&lt;</t>
+  </si>
+  <si>
+    <t>Greater Than Or Equal</t>
+  </si>
+  <si>
+    <t>Greater Than</t>
+  </si>
+  <si>
+    <t>Less Than</t>
+  </si>
+  <si>
+    <t>Not Equal</t>
+  </si>
+  <si>
+    <t>% of total population</t>
+  </si>
+  <si>
+    <t>% of all Households</t>
+  </si>
+  <si>
+    <t># of Households</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Integer Only</t>
+  </si>
+  <si>
+    <t>Personally Identifiable Information</t>
+  </si>
+  <si>
+    <t>Reset PIN</t>
+  </si>
+  <si>
+    <t>Forgot PIN</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>Adding this new location is extremely close to an existing location.  Are you sure that you want to add it?</t>
   </si>
 </sst>
 </file>
@@ -3713,7 +3911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3731,6 +3929,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4045,10 +4247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:XFD187"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8338,6 +8540,310 @@
       </c>
       <c r="F214" t="s">
         <v>1190</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="12" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="12" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -8576,6 +9082,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
@@ -8584,15 +9099,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8615,6 +9121,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -8629,12 +9143,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bp51/Development/GTRI/Android/gpssample/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC904763-88F9-E943-B3C1-C781713A3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94C01BCC-C716-4FFB-A927-4FEEDFECA3FC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="26180" windowHeight="21340" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1373">
   <si>
     <t>Settings</t>
   </si>
@@ -1215,9 +1215,6 @@
     <t>Nom de la règle</t>
   </si>
   <si>
-    <t>Taille totale de l'échantillon dans tous les clusters</t>
-  </si>
-  <si>
     <t>Gérer les études</t>
   </si>
   <si>
@@ -1248,9 +1245,6 @@
     <t>Écran suivant</t>
   </si>
   <si>
-    <t>Directrice</t>
-  </si>
-  <si>
     <t>Énumération</t>
   </si>
   <si>
@@ -1278,24 +1272,9 @@
     <t>Envoi de données d'énumération</t>
   </si>
   <si>
-    <t>Réception de données</t>
-  </si>
-  <si>
     <t>Configuration reçue</t>
   </si>
   <si>
-    <t>Nom de jeune fille de la mère</t>
-  </si>
-  <si>
-    <t>Nom d'animal de compagnie préféré</t>
-  </si>
-  <si>
-    <t>4 derniers chiffres du numéro de téléphone portable</t>
-  </si>
-  <si>
-    <t>Nourriture favorite</t>
-  </si>
-  <si>
     <t>Mois de naissance</t>
   </si>
   <si>
@@ -1320,15 +1299,9 @@
     <t>Inégal</t>
   </si>
   <si>
-    <t>Moins que</t>
-  </si>
-  <si>
     <t>Plus grand que</t>
   </si>
   <si>
-    <t>Meilleur que ou égal</t>
-  </si>
-  <si>
     <t>ET</t>
   </si>
   <si>
@@ -1362,24 +1335,12 @@
     <t>Collecteur de données</t>
   </si>
   <si>
-    <t>Scanner le code QR</t>
-  </si>
-  <si>
-    <t>Continuer avec l'étude existante</t>
-  </si>
-  <si>
-    <t>Connexion administrateur</t>
-  </si>
-  <si>
     <t>Connexion du superviseur</t>
   </si>
   <si>
     <t>Connexion du collecteur de données</t>
   </si>
   <si>
-    <t>Inscription administrateur</t>
-  </si>
-  <si>
     <t>Inscription du superviseur</t>
   </si>
   <si>
@@ -1392,16 +1353,7 @@
     <t>Saisissez à nouveau votre code PIN</t>
   </si>
   <si>
-    <t>Annuler</t>
-  </si>
-  <si>
     <t>Finir</t>
-  </si>
-  <si>
-    <t>Sauvegarder</t>
-  </si>
-  <si>
-    <t>Fait</t>
   </si>
   <si>
     <r>
@@ -1434,21 +1386,12 @@
     <t>S'identifier</t>
   </si>
   <si>
-    <t>Non enregistré? S'inscrire!</t>
-  </si>
-  <si>
     <t>Entrez votre nom</t>
   </si>
   <si>
     <t>Nom</t>
   </si>
   <si>
-    <t>Question PIN oublié</t>
-  </si>
-  <si>
-    <t>Réponse PIN oublié</t>
-  </si>
-  <si>
     <t>Créer une configuration</t>
   </si>
   <si>
@@ -1470,9 +1413,6 @@
     <t>Supprimer l'étude</t>
   </si>
   <si>
-    <t>Nom de configuration</t>
-  </si>
-  <si>
     <t>Nom de l'étude</t>
   </si>
   <si>
@@ -1518,12 +1458,6 @@
     <t>Entrez le nom du champ</t>
   </si>
   <si>
-    <t>Unités préférées</t>
-  </si>
-  <si>
-    <t>Format de date</t>
-  </si>
-  <si>
     <t>Format horaire</t>
   </si>
   <si>
@@ -1536,9 +1470,6 @@
     <t>Générer un échantillon</t>
   </si>
   <si>
-    <t>Recueillir des échantillons</t>
-  </si>
-  <si>
     <t>Précision GPS souhaitée</t>
   </si>
   <si>
@@ -1560,9 +1491,6 @@
     <t>Zones de dénombrement</t>
   </si>
   <si>
-    <t>Changer de rôle</t>
-  </si>
-  <si>
     <t>Entrez votre nom d'utilisateur</t>
   </si>
   <si>
@@ -1575,15 +1503,9 @@
     <t>Le scanner de code est annulé.</t>
   </si>
   <si>
-    <t>L'autorisation de caméra n'est pas accordée.</t>
-  </si>
-  <si>
     <t>Le nom de l'application n'est pas défini.</t>
   </si>
   <si>
-    <t>Échec de la numérisation du code :</t>
-  </si>
-  <si>
     <t>GPSSample::pt</t>
   </si>
   <si>
@@ -2469,12 +2391,6 @@
     <t>Supervisor - Selecionar função</t>
   </si>
   <si>
-    <t>Administrateur - Sélectionner un rôle</t>
-  </si>
-  <si>
-    <t>Superviseur - Sélectionner un rôle</t>
-  </si>
-  <si>
     <t>Últimas 4 cifras del número de celular</t>
   </si>
   <si>
@@ -2667,6 +2583,9 @@
     <t>location_not_found</t>
   </si>
   <si>
+    <t>nobody_home</t>
+  </si>
+  <si>
     <t>home_not_exist</t>
   </si>
   <si>
@@ -2778,6 +2697,9 @@
     <t>Please Confirm</t>
   </si>
   <si>
+    <t>&gt;Location not found</t>
+  </si>
+  <si>
     <t>Importar datos de enumeración</t>
   </si>
   <si>
@@ -2862,15 +2784,12 @@
     <t>Los datos de enumeración se han guardado en el directorio Documentos.</t>
   </si>
   <si>
+    <t>&gt;Localización no encontrada</t>
+  </si>
+  <si>
     <t>¡Oops! Por favor, seleccione una razón para incompleto</t>
   </si>
   <si>
-    <t>Importer les données d'énumération</t>
-  </si>
-  <si>
-    <t>Exporter la configuration</t>
-  </si>
-  <si>
     <t>Êtes-vous sûr de vouloir supprimer définitivement cette étude ?</t>
   </si>
   <si>
@@ -2895,9 +2814,6 @@
     <t>Vous devez créer au moins une règle avant de pouvoir créer un filtre</t>
   </si>
   <si>
-    <t>Sélectionner une méthode d'importation</t>
-  </si>
-  <si>
     <t>Sélectionnez une méthode d'exportation</t>
   </si>
   <si>
@@ -2922,9 +2838,6 @@
     <t>Oups ! L'importation a échoué.  Veuillez réessayer.</t>
   </si>
   <si>
-    <t>Sélectionner une tâche</t>
-  </si>
-  <si>
     <t>Oui</t>
   </si>
   <si>
@@ -2964,6 +2877,9 @@
     <t>Les données d'énumération ont été sauvegardées dans le répertoire Documents.</t>
   </si>
   <si>
+    <t>&gt;La configuration a été sauvegardée dans le répertoire Documents.</t>
+  </si>
+  <si>
     <t>Le domicile n'existe pas</t>
   </si>
   <si>
@@ -3003,6 +2919,9 @@
     <t>Os dados de enumeração foram guardados no diretório Documentos.</t>
   </si>
   <si>
+    <t>&gt;Localização não encontrada</t>
+  </si>
+  <si>
     <t>Пожалуйста, подтвердите</t>
   </si>
   <si>
@@ -3105,6 +3024,9 @@
     <t>Конфигурация была сохранена в каталог Documents.</t>
   </si>
   <si>
+    <t>&gt;Местонахождение не найдено</t>
+  </si>
+  <si>
     <t>Дом не существует</t>
   </si>
   <si>
@@ -3123,9 +3045,6 @@
     <t>Por favor, introduzca la precisión GPS mínima deseada</t>
   </si>
   <si>
-    <t>SVP, veuillez confirmer</t>
-  </si>
-  <si>
     <t>Tem a certeza de que deseja eliminar permanentemente este estudo?</t>
   </si>
   <si>
@@ -3639,24 +3558,45 @@
     <t>connected</t>
   </si>
   <si>
+    <t>Connected</t>
+  </si>
+  <si>
     <t>forgot_pin</t>
   </si>
   <si>
+    <t>Forgot PIN</t>
+  </si>
+  <si>
     <t>reset_pin</t>
   </si>
   <si>
+    <t>Reset PIN</t>
+  </si>
+  <si>
     <t>personally_identifiable</t>
   </si>
   <si>
+    <t>Personally Identifiable Information</t>
+  </si>
+  <si>
     <t>integer_only</t>
   </si>
   <si>
+    <t>Integer Only</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
+    <t>Required</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -3666,9 +3606,15 @@
     <t>fields</t>
   </si>
   <si>
+    <t>Fields</t>
+  </si>
+  <si>
     <t>rules</t>
   </si>
   <si>
+    <t>Rules</t>
+  </si>
+  <si>
     <t>simple_random</t>
   </si>
   <si>
@@ -3684,152 +3630,554 @@
     <t>numberhouseholds</t>
   </si>
   <si>
+    <t># of Households</t>
+  </si>
+  <si>
     <t>percenthouseholds</t>
   </si>
   <si>
+    <t>% of all Households</t>
+  </si>
+  <si>
     <t>percenttotal</t>
   </si>
   <si>
+    <t>% of total population</t>
+  </si>
+  <si>
     <t>equal</t>
   </si>
   <si>
     <t>not_equal</t>
   </si>
   <si>
+    <t>Not Equal</t>
+  </si>
+  <si>
     <t>less_than</t>
   </si>
   <si>
+    <t>Less Than</t>
+  </si>
+  <si>
     <t>greater_than</t>
   </si>
   <si>
+    <t>Greater Than</t>
+  </si>
+  <si>
     <t>greater_than_equal</t>
   </si>
   <si>
+    <t>Greater Than Or Equal</t>
+  </si>
+  <si>
     <t>add_condition</t>
   </si>
   <si>
     <t>select_rule</t>
   </si>
   <si>
+    <t>Select Rule</t>
+  </si>
+  <si>
     <t>teams</t>
   </si>
   <si>
+    <t>Teams</t>
+  </si>
+  <si>
     <t>select_location</t>
   </si>
   <si>
+    <t>Select Location</t>
+  </si>
+  <si>
     <t>current_location</t>
   </si>
   <si>
+    <t>Current</t>
+  </si>
+  <si>
     <t>new_location</t>
   </si>
   <si>
+    <t>New Location</t>
+  </si>
+  <si>
     <t>tap_the_map</t>
   </si>
   <si>
+    <t>Tap on the map to add a new location</t>
+  </si>
+  <si>
     <t>complete</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>reason_incomplete_label</t>
   </si>
   <si>
+    <t>Reason Incomplete</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>Warning!</t>
+  </si>
+  <si>
     <t>duplicate_warning</t>
   </si>
   <si>
+    <t>Adding this new location is extremely close to an existing location.  Are you sure that you want to add it?</t>
+  </si>
+  <si>
     <t>missing_team</t>
   </si>
   <si>
     <t>Configuration is missing a Team definition</t>
   </si>
   <si>
-    <t>Warning!</t>
-  </si>
-  <si>
-    <t>Reason Incomplete</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Tap on the map to add a new location</t>
-  </si>
-  <si>
-    <t>New Location</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Select Location</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Select Rule</t>
-  </si>
-  <si>
-    <t>Add Condition&lt;</t>
-  </si>
-  <si>
-    <t>Greater Than Or Equal</t>
-  </si>
-  <si>
-    <t>Greater Than</t>
-  </si>
-  <si>
-    <t>Less Than</t>
-  </si>
-  <si>
-    <t>Not Equal</t>
-  </si>
-  <si>
-    <t>% of total population</t>
-  </si>
-  <si>
-    <t>% of all Households</t>
-  </si>
-  <si>
-    <t># of Households</t>
-  </si>
-  <si>
-    <t>Rules</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Integer Only</t>
-  </si>
-  <si>
-    <t>Personally Identifiable Information</t>
-  </si>
-  <si>
-    <t>Reset PIN</t>
-  </si>
-  <si>
-    <t>Forgot PIN</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>Adding this new location is extremely close to an existing location.  Are you sure that you want to add it?</t>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Подключено</t>
+  </si>
+  <si>
+    <t>Забыл PIN-код</t>
+  </si>
+  <si>
+    <t>Сбросить PIN-код</t>
+  </si>
+  <si>
+    <t>Персональная информация</t>
+  </si>
+  <si>
+    <t>Только целое число</t>
+  </si>
+  <si>
+    <t>Требуется</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Выпадающий список</t>
+  </si>
+  <si>
+    <t>Поля</t>
+  </si>
+  <si>
+    <t>Правила</t>
+  </si>
+  <si>
+    <t># домохозяйств</t>
+  </si>
+  <si>
+    <t>% от всех домохозяйств</t>
+  </si>
+  <si>
+    <t>% от общей численности населения</t>
+  </si>
+  <si>
+    <t>Равные</t>
+  </si>
+  <si>
+    <t>Не равны</t>
+  </si>
+  <si>
+    <t>Меньше</t>
+  </si>
+  <si>
+    <t>Больше чем</t>
+  </si>
+  <si>
+    <t>Больше, чем или равно</t>
+  </si>
+  <si>
+    <t>Выберите правило</t>
+  </si>
+  <si>
+    <t>Команды</t>
+  </si>
+  <si>
+    <t>Выбрать местоположение</t>
+  </si>
+  <si>
+    <t>Текущее</t>
+  </si>
+  <si>
+    <t>Новое местоположение</t>
+  </si>
+  <si>
+    <t>Нажмите на карту, чтобы добавить новое местоположение</t>
+  </si>
+  <si>
+    <t>Причина незавершенности</t>
+  </si>
+  <si>
+    <t>Внимание!</t>
+  </si>
+  <si>
+    <t>Добавление нового местоположения происходит очень близко к существующему местоположению.  Вы уверены, что хотите добавить его?</t>
+  </si>
+  <si>
+    <t>В конфигурации отсутствует определение команды</t>
+  </si>
+  <si>
+    <t>Ligado</t>
+  </si>
+  <si>
+    <t>Esqueci-me do PIN</t>
+  </si>
+  <si>
+    <t>Informações de identificação pessoal</t>
+  </si>
+  <si>
+    <t>Necessário</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Regras</t>
+  </si>
+  <si>
+    <t># Número de agregados familiares</t>
+  </si>
+  <si>
+    <t>% de todos os agregados familiares</t>
+  </si>
+  <si>
+    <t>% da população total</t>
+  </si>
+  <si>
+    <t>Maior que ou igual</t>
+  </si>
+  <si>
+    <t>Adicionar condição&lt;</t>
+  </si>
+  <si>
+    <t>Selecionar regra</t>
+  </si>
+  <si>
+    <t>Equipas</t>
+  </si>
+  <si>
+    <t>Selecionar localização</t>
+  </si>
+  <si>
+    <t>Atual</t>
+  </si>
+  <si>
+    <t>Nova localização</t>
+  </si>
+  <si>
+    <t>Toque no mapa para adicionar uma nova localização</t>
+  </si>
+  <si>
+    <t>Aviso!</t>
+  </si>
+  <si>
+    <t>A adição desta nova localização é extremamente próxima de uma localização existente.  Tem a certeza de que pretende adicioná-la?</t>
+  </si>
+  <si>
+    <t>A configuração não tem uma definição de Equipa</t>
+  </si>
+  <si>
+    <t>Conectado</t>
+  </si>
+  <si>
+    <t>PIN olvidado</t>
+  </si>
+  <si>
+    <t>Restablecer PIN</t>
+  </si>
+  <si>
+    <t>Información personal identificable</t>
+  </si>
+  <si>
+    <t>Sólo números enteros</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>Reglas</t>
+  </si>
+  <si>
+    <t>Subconjuntos: Pueden solaparse</t>
+  </si>
+  <si>
+    <t># de hogares</t>
+  </si>
+  <si>
+    <t>% de todos los hogares</t>
+  </si>
+  <si>
+    <t>% de la población total</t>
+  </si>
+  <si>
+    <t>No iguales</t>
+  </si>
+  <si>
+    <t>Seleccionar regla</t>
+  </si>
+  <si>
+    <t>Equipos</t>
+  </si>
+  <si>
+    <t>Seleccionar ubicación</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Nueva ubicación</t>
+  </si>
+  <si>
+    <t>Pulse en el mapa para añadir una nueva ubicación</t>
+  </si>
+  <si>
+    <t>Completar</t>
+  </si>
+  <si>
+    <t>Advertencia</t>
+  </si>
+  <si>
+    <t>Añadir esta nueva ubicación está extremadamente cerca de una ubicación existente.  ¿Está seguro de que desea añadirla?</t>
+  </si>
+  <si>
+    <t>A la configuración le falta una definición de Equipo</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Connecté</t>
+  </si>
+  <si>
+    <t>PIN oublié</t>
+  </si>
+  <si>
+    <t>Réinitialiser le code PIN</t>
+  </si>
+  <si>
+    <t>Informations personnelles identifiables</t>
+  </si>
+  <si>
+    <t>Nombre entier seulement</t>
+  </si>
+  <si>
+    <t>Obligatoire</t>
+  </si>
+  <si>
+    <t>Sous-ensembles : Peuvent se chevaucher</t>
+  </si>
+  <si>
+    <t>Strates : Exclusivité mutuelle</t>
+  </si>
+  <si>
+    <t>% de tous les ménages</t>
+  </si>
+  <si>
+    <t>% de la population totale</t>
+  </si>
+  <si>
+    <t>Egaux</t>
+  </si>
+  <si>
+    <t>Non égaux</t>
+  </si>
+  <si>
+    <t>Inférieur à</t>
+  </si>
+  <si>
+    <t>Supérieur à</t>
+  </si>
+  <si>
+    <t>Supérieur ou égal</t>
+  </si>
+  <si>
+    <t>Équipes</t>
+  </si>
+  <si>
+    <t>Actuel</t>
+  </si>
+  <si>
+    <t>Nouveau lieu</t>
+  </si>
+  <si>
+    <t>Tapez sur la carte pour ajouter un nouveau lieu</t>
+  </si>
+  <si>
+    <t>Complet</t>
+  </si>
+  <si>
+    <t>Motif Incomplet</t>
+  </si>
+  <si>
+    <t>Attention !</t>
+  </si>
+  <si>
+    <t>L'ajout de ce nouveau lieu est extrêmement proche d'un lieu existant.  Êtes-vous sûr de vouloir l'ajouter ?</t>
+  </si>
+  <si>
+    <t>Il manque une définition d'équipe à la configuration</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Réception des données</t>
+  </si>
+  <si>
+    <t>Nom de jeune fille de votre mère</t>
+  </si>
+  <si>
+    <t>Nom de votre animal de compagnie préféré</t>
+  </si>
+  <si>
+    <t>4 derniers chiffre de votre numéro de téléphone portable</t>
+  </si>
+  <si>
+    <t>Votre aliment/nourriture favorit(e)</t>
+  </si>
+  <si>
+    <t>Plus petit que</t>
+  </si>
+  <si>
+    <t>Plus grand ou égal à</t>
+  </si>
+  <si>
+    <t>Scannez le code QR</t>
+  </si>
+  <si>
+    <t>Continuez avec l'étude existante</t>
+  </si>
+  <si>
+    <t>Connexion de l'administrateur</t>
+  </si>
+  <si>
+    <t>Inscription de l'administrateur</t>
+  </si>
+  <si>
+    <t>Sauvegardez</t>
+  </si>
+  <si>
+    <t>Annulez</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Administrateur - Sélectionnez un rôle</t>
+  </si>
+  <si>
+    <t>Superviseur - Sélectionnez un rôle</t>
+  </si>
+  <si>
+    <t>Pas enregistré? S'inscrire!</t>
+  </si>
+  <si>
+    <t>Question liée au PIN oubliée?</t>
+  </si>
+  <si>
+    <t>Réponse liée au PIN oubliée?</t>
+  </si>
+  <si>
+    <t>Nom de la configuration</t>
+  </si>
+  <si>
+    <t>Unités de préférence</t>
+  </si>
+  <si>
+    <t>Format de la date</t>
+  </si>
+  <si>
+    <t>Recueillir les échantillons</t>
+  </si>
+  <si>
+    <t>L'autorisation pour la caméra n'est pas accordée.</t>
+  </si>
+  <si>
+    <t>Changement de rôle</t>
+  </si>
+  <si>
+    <t>Taille totale de l'échantillon pour toutes les grappes</t>
+  </si>
+  <si>
+    <t>SVP, confirmez</t>
+  </si>
+  <si>
+    <t>Importez les données d'énumération</t>
+  </si>
+  <si>
+    <t>Exportez la configuration</t>
+  </si>
+  <si>
+    <t>Sélectionnez une tâche</t>
+  </si>
+  <si>
+    <t>L'heure</t>
+  </si>
+  <si>
+    <t>La date</t>
+  </si>
+  <si>
+    <t>Les Champs</t>
+  </si>
+  <si>
+    <t>Les Règles</t>
+  </si>
+  <si>
+    <t>Sélectionnez une règle</t>
+  </si>
+  <si>
+    <t>Sélectionnez le lieu</t>
+  </si>
+  <si>
+    <t>Le code QR n'a pas été scanné:</t>
+  </si>
+  <si>
+    <t>#  de ménages</t>
+  </si>
+  <si>
+    <t>Add Condition</t>
+  </si>
+  <si>
+    <t>Añadir condición</t>
+  </si>
+  <si>
+    <t>Ajoutez une condition</t>
+  </si>
+  <si>
+    <t>Добавить условие</t>
+  </si>
+  <si>
+    <t>Razón Incompleto</t>
+  </si>
+  <si>
+    <t>Redefinir PIN</t>
+  </si>
+  <si>
+    <t>Apenas números inteiros</t>
+  </si>
+  <si>
+    <t>Razão Incompleto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3878,8 +4226,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3898,6 +4252,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3911,12 +4277,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3924,15 +4290,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4247,22 +4623,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -4276,13 +4652,13 @@
         <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -4290,19 +4666,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="D2" t="s">
         <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4310,19 +4686,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E3" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4330,19 +4706,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="F4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -4350,19 +4726,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="F5" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4373,16 +4749,16 @@
         <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>404</v>
+        <v>1326</v>
       </c>
       <c r="E6" t="s">
         <v>291</v>
       </c>
       <c r="F6" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4393,16 +4769,16 @@
         <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="F7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4413,16 +4789,16 @@
         <v>293</v>
       </c>
       <c r="D8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="F8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4433,16 +4809,16 @@
         <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E9" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="F9" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4453,16 +4829,16 @@
         <v>295</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="F10" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4473,16 +4849,16 @@
         <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="F11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4490,19 +4866,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="F12" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4510,19 +4886,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E13" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="F13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4530,19 +4906,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="D14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E14" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="F14" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4550,19 +4926,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="D15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="F15" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4570,19 +4946,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="D16" t="s">
-        <v>414</v>
+        <v>1327</v>
       </c>
       <c r="E16" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="F16" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4593,16 +4969,16 @@
         <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E17" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="F17" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4613,16 +4989,16 @@
         <v>317</v>
       </c>
       <c r="D18" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="E18" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="F18" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -4630,19 +5006,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>1328</v>
       </c>
       <c r="E19" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -4653,16 +5029,16 @@
         <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>417</v>
+        <v>1329</v>
       </c>
       <c r="E20" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="F20" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -4670,19 +5046,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="D21" t="s">
-        <v>418</v>
+        <v>1330</v>
       </c>
       <c r="E21" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="F21" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4693,16 +5069,16 @@
         <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>419</v>
+        <v>1331</v>
       </c>
       <c r="E22" t="s">
         <v>320</v>
       </c>
       <c r="F22" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -4713,16 +5089,16 @@
         <v>319</v>
       </c>
       <c r="D23" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E23" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="F23" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -4733,18 +5109,18 @@
         <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E24" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="F24" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -4753,18 +5129,18 @@
         <v>298</v>
       </c>
       <c r="D25" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="F25" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -4773,18 +5149,18 @@
         <v>299</v>
       </c>
       <c r="D26" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E26" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="F26" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -4799,12 +5175,12 @@
         <v>300</v>
       </c>
       <c r="F27" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -4819,10 +5195,10 @@
         <v>301</v>
       </c>
       <c r="F28" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -4839,10 +5215,10 @@
         <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -4859,10 +5235,10 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -4876,13 +5252,13 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="F31" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -4890,19 +5266,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="D32" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E32" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="F32" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -4910,19 +5286,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="D33" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E33" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="F33" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -4933,16 +5309,16 @@
         <v>305</v>
       </c>
       <c r="D34" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E34" t="s">
         <v>305</v>
       </c>
       <c r="F34" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -4950,19 +5326,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="D35" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E35" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -4970,19 +5346,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="D36" t="s">
-        <v>428</v>
+        <v>1332</v>
       </c>
       <c r="E36" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -4990,19 +5366,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="D37" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E37" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="F37" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -5013,16 +5389,16 @@
         <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>430</v>
+        <v>1333</v>
       </c>
       <c r="E38" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -5033,16 +5409,16 @@
         <v>308</v>
       </c>
       <c r="D39" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E39" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="F39" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -5053,16 +5429,16 @@
         <v>307</v>
       </c>
       <c r="D40" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E40" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F40" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -5073,16 +5449,16 @@
         <v>309</v>
       </c>
       <c r="D41" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E41" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="F41" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -5093,16 +5469,16 @@
         <v>310</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E42" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="F42" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -5113,16 +5489,16 @@
         <v>311</v>
       </c>
       <c r="D43" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E43" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="F43" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -5133,16 +5509,16 @@
         <v>312</v>
       </c>
       <c r="D44" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E44" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="F44" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -5150,19 +5526,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="D45" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E45" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="F45" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -5179,10 +5555,10 @@
         <v>313</v>
       </c>
       <c r="F46" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -5199,10 +5575,10 @@
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5219,10 +5595,10 @@
         <v>314</v>
       </c>
       <c r="F48" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -5230,19 +5606,19 @@
         <v>173</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="D49" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E49" t="s">
         <v>315</v>
       </c>
       <c r="F49" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -5256,13 +5632,13 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="F50" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -5270,19 +5646,19 @@
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="D51" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E51" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="F51" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -5290,19 +5666,19 @@
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="D52" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E52" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="F52" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -5310,19 +5686,19 @@
         <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="D53" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E53" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="F53" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -5333,16 +5709,16 @@
         <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>442</v>
+        <v>1334</v>
       </c>
       <c r="E54" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="F54" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5350,19 +5726,19 @@
         <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="D55" t="s">
-        <v>443</v>
+        <v>1335</v>
       </c>
       <c r="E55" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="F55" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5370,19 +5746,19 @@
         <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="D56" t="s">
-        <v>444</v>
+        <v>1336</v>
       </c>
       <c r="E56" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="F56" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5390,19 +5766,19 @@
         <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="D57" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E57" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="F57" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -5410,19 +5786,19 @@
         <v>54</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="D58" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E58" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="F58" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -5433,16 +5809,16 @@
         <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>447</v>
+        <v>1337</v>
       </c>
       <c r="E59" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="F59" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5450,19 +5826,19 @@
         <v>56</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="D60" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="E60" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="F60" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5470,19 +5846,19 @@
         <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="D61" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="E61" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="F61" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -5490,19 +5866,19 @@
         <v>58</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="D62" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="E62" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="F62" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5513,16 +5889,16 @@
         <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E63" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="F63" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -5530,19 +5906,19 @@
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D64" t="s">
+        <v>440</v>
+      </c>
+      <c r="E64" t="s">
         <v>757</v>
       </c>
-      <c r="D64" t="s">
-        <v>456</v>
-      </c>
-      <c r="E64" t="s">
-        <v>783</v>
-      </c>
       <c r="F64" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -5550,19 +5926,19 @@
         <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="D65" t="s">
-        <v>452</v>
+        <v>1339</v>
       </c>
       <c r="E65" t="s">
         <v>358</v>
       </c>
       <c r="F65" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5573,16 +5949,16 @@
         <v>359</v>
       </c>
       <c r="D66" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="E66" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="F66" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5590,19 +5966,19 @@
         <v>63</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
       <c r="D67" t="s">
-        <v>454</v>
+        <v>1338</v>
       </c>
       <c r="E67" t="s">
         <v>290</v>
       </c>
       <c r="F67" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5613,16 +5989,16 @@
         <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>455</v>
+        <v>1340</v>
       </c>
       <c r="E68" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="F68" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -5630,19 +6006,19 @@
         <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="D69" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="E69" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="F69" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -5650,19 +6026,19 @@
         <v>66</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="D70" t="s">
-        <v>805</v>
+        <v>1341</v>
       </c>
       <c r="E70" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
       <c r="F70" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -5670,19 +6046,19 @@
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>831</v>
+        <v>803</v>
       </c>
       <c r="D71" t="s">
-        <v>806</v>
+        <v>1342</v>
       </c>
       <c r="E71" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="F71" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5693,16 +6069,16 @@
         <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="E72" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="F72" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5710,19 +6086,19 @@
         <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="D73" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E73" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="F73" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -5730,19 +6106,19 @@
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="D74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E74" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="F74" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -5750,19 +6126,19 @@
         <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="D75" t="s">
-        <v>460</v>
+        <v>1343</v>
       </c>
       <c r="E75" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="F75" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -5773,16 +6149,16 @@
         <v>277</v>
       </c>
       <c r="D76" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="E76" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="F76" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -5790,19 +6166,19 @@
         <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D77" t="s">
+        <v>444</v>
+      </c>
+      <c r="E77" t="s">
         <v>759</v>
       </c>
-      <c r="D77" t="s">
-        <v>461</v>
-      </c>
-      <c r="E77" t="s">
-        <v>785</v>
-      </c>
       <c r="F77" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -5822,7 +6198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -5830,19 +6206,19 @@
         <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D79" t="s">
-        <v>463</v>
+        <v>789</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>1344</v>
       </c>
       <c r="E79" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="F79" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -5850,19 +6226,19 @@
         <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D80" t="s">
-        <v>464</v>
+        <v>790</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>1345</v>
       </c>
       <c r="E80" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="F80" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -5870,19 +6246,19 @@
         <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D81" t="s">
+        <v>804</v>
+      </c>
+      <c r="E81" t="s">
         <v>760</v>
       </c>
-      <c r="D81" t="s">
-        <v>832</v>
-      </c>
-      <c r="E81" t="s">
-        <v>786</v>
-      </c>
       <c r="F81" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -5893,16 +6269,16 @@
         <v>323</v>
       </c>
       <c r="D82" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="E82" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="F82" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -5913,16 +6289,16 @@
         <v>324</v>
       </c>
       <c r="D83" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E83" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="F83" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -5933,16 +6309,16 @@
         <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="E84" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="F84" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -5953,16 +6329,16 @@
         <v>326</v>
       </c>
       <c r="D85" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="E85" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="F85" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -5970,19 +6346,19 @@
         <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>819</v>
+        <v>791</v>
       </c>
       <c r="D86" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="E86" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="F86" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -5993,16 +6369,16 @@
         <v>327</v>
       </c>
       <c r="D87" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="E87" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="F87" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -6013,16 +6389,16 @@
         <v>328</v>
       </c>
       <c r="D88" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="E88" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="F88" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -6030,19 +6406,19 @@
         <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="D89" t="s">
-        <v>472</v>
+        <v>1346</v>
       </c>
       <c r="E89" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="F89" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -6053,16 +6429,16 @@
         <v>285</v>
       </c>
       <c r="D90" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="E90" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="F90" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -6073,16 +6449,16 @@
         <v>286</v>
       </c>
       <c r="D91" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E91" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="F91" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -6093,16 +6469,16 @@
         <v>287</v>
       </c>
       <c r="D92" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="E92" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="F92" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -6113,16 +6489,16 @@
         <v>288</v>
       </c>
       <c r="D93" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="E93" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="F93" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -6133,16 +6509,16 @@
         <v>361</v>
       </c>
       <c r="D94" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="E94" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="F94" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -6153,16 +6529,16 @@
         <v>362</v>
       </c>
       <c r="D95" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="E95" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="F95" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -6172,17 +6548,17 @@
       <c r="C96" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D96" t="s">
-        <v>488</v>
+      <c r="D96" s="16" t="s">
+        <v>1347</v>
       </c>
       <c r="E96" t="s">
         <v>363</v>
       </c>
       <c r="F96" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -6193,16 +6569,16 @@
         <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>489</v>
+        <v>1348</v>
       </c>
       <c r="E97" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="F97" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -6210,19 +6586,19 @@
         <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="D98" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="E98" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="F98" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -6233,16 +6609,16 @@
         <v>365</v>
       </c>
       <c r="D99" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="E99" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="F99" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -6250,19 +6626,19 @@
         <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="D100" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="E100" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="F100" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -6273,16 +6649,16 @@
         <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="E101" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="F101" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -6292,17 +6668,17 @@
       <c r="C102" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D102" t="s">
-        <v>494</v>
+      <c r="D102" s="16" t="s">
+        <v>1349</v>
       </c>
       <c r="E102" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="F102" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -6310,19 +6686,19 @@
         <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="D103" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="E103" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="F103" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -6330,19 +6706,19 @@
         <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>822</v>
+        <v>794</v>
       </c>
       <c r="D104" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="E104" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="F104" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -6353,16 +6729,16 @@
         <v>368</v>
       </c>
       <c r="D105" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="E105" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="F105" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -6373,16 +6749,16 @@
         <v>369</v>
       </c>
       <c r="D106" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="E106" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="F106" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -6393,16 +6769,16 @@
         <v>370</v>
       </c>
       <c r="D107" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="E107" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="F107" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -6413,16 +6789,16 @@
         <v>350</v>
       </c>
       <c r="D108" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="E108" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="F108" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -6433,16 +6809,16 @@
         <v>351</v>
       </c>
       <c r="D109" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="E109" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="F109" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6453,16 +6829,16 @@
         <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="E110" t="s">
         <v>352</v>
       </c>
       <c r="F110" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6470,19 +6846,19 @@
         <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
       <c r="D111" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="E111" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="F111" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -6490,19 +6866,19 @@
         <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
       <c r="D112" t="s">
-        <v>507</v>
+        <v>1350</v>
       </c>
       <c r="E112" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="F112" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -6510,19 +6886,19 @@
         <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="D113" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E113" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="F113" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6530,19 +6906,19 @@
         <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="D114" t="s">
-        <v>509</v>
+        <v>798</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>1363</v>
       </c>
       <c r="E114" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="F114" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -6550,19 +6926,19 @@
         <v>0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="D115" t="s">
         <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="F115" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6573,16 +6949,16 @@
         <v>353</v>
       </c>
       <c r="D116" t="s">
-        <v>502</v>
+        <v>1351</v>
       </c>
       <c r="E116" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="F116" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -6593,16 +6969,16 @@
         <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="E117" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="F117" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -6613,16 +6989,16 @@
         <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="E118" t="s">
         <v>355</v>
       </c>
       <c r="F118" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -6630,19 +7006,19 @@
         <v>113</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>827</v>
+        <v>799</v>
       </c>
       <c r="D119" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="E119" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="F119" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6650,19 +7026,19 @@
         <v>114</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>828</v>
+        <v>800</v>
       </c>
       <c r="D120" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="E120" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="F120" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -6670,19 +7046,19 @@
         <v>115</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>829</v>
+        <v>801</v>
       </c>
       <c r="D121" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="E121" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="F121" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -6693,16 +7069,16 @@
         <v>371</v>
       </c>
       <c r="D122" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="E122" t="s">
         <v>371</v>
       </c>
       <c r="F122" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -6713,16 +7089,16 @@
         <v>372</v>
       </c>
       <c r="D123" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="E123" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="F123" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6733,16 +7109,16 @@
         <v>373</v>
       </c>
       <c r="D124" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="E124" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="F124" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6753,16 +7129,16 @@
         <v>374</v>
       </c>
       <c r="D125" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="E125" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="F125" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -6773,16 +7149,16 @@
         <v>375</v>
       </c>
       <c r="D126" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="E126" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="F126" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -6796,13 +7172,13 @@
         <v>377</v>
       </c>
       <c r="E127" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="F127" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -6816,13 +7192,13 @@
         <v>378</v>
       </c>
       <c r="E128" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="F128" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -6836,13 +7212,13 @@
         <v>379</v>
       </c>
       <c r="E129" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="F129" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -6850,19 +7226,19 @@
         <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="D130" t="s">
         <v>380</v>
       </c>
       <c r="E130" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="F130" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -6879,10 +7255,10 @@
         <v>338</v>
       </c>
       <c r="F131" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -6899,10 +7275,10 @@
         <v>339</v>
       </c>
       <c r="F132" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -6910,19 +7286,19 @@
         <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="D133" t="s">
         <v>383</v>
       </c>
       <c r="E133" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="F133" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -6939,10 +7315,10 @@
         <v>340</v>
       </c>
       <c r="F134" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6959,10 +7335,10 @@
         <v>341</v>
       </c>
       <c r="F135" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -6976,13 +7352,13 @@
         <v>386</v>
       </c>
       <c r="E136" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="F136" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -6999,10 +7375,10 @@
         <v>343</v>
       </c>
       <c r="F137" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -7016,13 +7392,13 @@
         <v>388</v>
       </c>
       <c r="E138" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="F138" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -7036,13 +7412,13 @@
         <v>389</v>
       </c>
       <c r="E139" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="F139" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -7056,13 +7432,13 @@
         <v>390</v>
       </c>
       <c r="E140" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="F140" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -7076,13 +7452,13 @@
         <v>391</v>
       </c>
       <c r="E141" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="F141" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -7096,13 +7472,13 @@
         <v>392</v>
       </c>
       <c r="E142" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="F142" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -7113,16 +7489,16 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>393</v>
+        <v>1352</v>
       </c>
       <c r="E143" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="F143" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -7133,16 +7509,16 @@
         <v>330</v>
       </c>
       <c r="D144" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E144" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="F144" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -7153,16 +7529,16 @@
         <v>331</v>
       </c>
       <c r="D145" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E145" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="F145" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -7173,16 +7549,16 @@
         <v>332</v>
       </c>
       <c r="D146" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E146" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="F146" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -7193,16 +7569,16 @@
         <v>333</v>
       </c>
       <c r="D147" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E147" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="F147" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -7213,16 +7589,16 @@
         <v>334</v>
       </c>
       <c r="D148" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E148" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="F148" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -7233,16 +7609,16 @@
         <v>335</v>
       </c>
       <c r="D149" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E149" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="F149" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -7253,1597 +7629,2073 @@
         <v>329</v>
       </c>
       <c r="D150" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E150" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="F150" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="C151" t="s">
+        <v>993</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E151" t="s">
+        <v>993</v>
+      </c>
+      <c r="F151" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C152" t="s">
+        <v>882</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E152" t="s">
+        <v>944</v>
+      </c>
+      <c r="F152" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="C153" t="s">
+        <v>883</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E153" t="s">
+        <v>945</v>
+      </c>
+      <c r="F153" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="C154" t="s">
+        <v>884</v>
+      </c>
+      <c r="D154" t="s">
+        <v>912</v>
+      </c>
+      <c r="E154" t="s">
+        <v>997</v>
+      </c>
+      <c r="F154" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C155" t="s">
+        <v>885</v>
+      </c>
+      <c r="D155" t="s">
+        <v>913</v>
+      </c>
+      <c r="E155" t="s">
+        <v>998</v>
+      </c>
+      <c r="F155" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="C156" t="s">
+        <v>886</v>
+      </c>
+      <c r="D156" t="s">
+        <v>914</v>
+      </c>
+      <c r="E156" t="s">
+        <v>999</v>
+      </c>
+      <c r="F156" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C157" t="s">
+        <v>887</v>
+      </c>
+      <c r="D157" t="s">
+        <v>915</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F157" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C158" t="s">
+        <v>888</v>
+      </c>
+      <c r="D158" t="s">
+        <v>916</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F158" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="C159" t="s">
+        <v>889</v>
+      </c>
+      <c r="D159" t="s">
+        <v>917</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F159" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C160" t="s">
+        <v>890</v>
+      </c>
+      <c r="D160" t="s">
+        <v>918</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F160" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="C161" t="s">
+        <v>891</v>
+      </c>
+      <c r="D161" t="s">
+        <v>919</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F161" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C162" t="s">
+        <v>892</v>
+      </c>
+      <c r="D162" t="s">
+        <v>937</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F162" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C163" t="s">
+        <v>893</v>
+      </c>
+      <c r="D163" t="s">
+        <v>920</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F163" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C164" t="s">
+        <v>894</v>
+      </c>
+      <c r="D164" t="s">
+        <v>921</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F164" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C165" t="s">
+        <v>895</v>
+      </c>
+      <c r="D165" t="s">
+        <v>922</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F165" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C166" t="s">
+        <v>896</v>
+      </c>
+      <c r="D166" t="s">
+        <v>923</v>
+      </c>
+      <c r="E166" t="s">
+        <v>946</v>
+      </c>
+      <c r="F166" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C167" t="s">
+        <v>897</v>
+      </c>
+      <c r="D167" t="s">
+        <v>924</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F167" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="C168" t="s">
+        <v>994</v>
+      </c>
+      <c r="D168" t="s">
+        <v>925</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F168" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C169" t="s">
+        <v>898</v>
+      </c>
+      <c r="D169" t="s">
+        <v>926</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F169" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="C170" t="s">
+        <v>899</v>
+      </c>
+      <c r="D170" t="s">
+        <v>927</v>
+      </c>
+      <c r="E170" t="s">
+        <v>947</v>
+      </c>
+      <c r="F170" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="C171" t="s">
+        <v>900</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F171" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="C172" t="s">
+        <v>901</v>
+      </c>
+      <c r="D172" t="s">
+        <v>928</v>
+      </c>
+      <c r="E172" t="s">
+        <v>948</v>
+      </c>
+      <c r="F172" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="C173" t="s">
+        <v>860</v>
+      </c>
+      <c r="D173" t="s">
+        <v>929</v>
+      </c>
+      <c r="E173" t="s">
+        <v>949</v>
+      </c>
+      <c r="F173" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="C174" t="s">
+        <v>902</v>
+      </c>
+      <c r="D174" t="s">
+        <v>930</v>
+      </c>
+      <c r="E174" t="s">
+        <v>902</v>
+      </c>
+      <c r="F174" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C175" t="s">
+        <v>903</v>
+      </c>
+      <c r="D175" t="s">
+        <v>931</v>
+      </c>
+      <c r="E175" t="s">
+        <v>950</v>
+      </c>
+      <c r="F175" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C176" t="s">
+        <v>904</v>
+      </c>
+      <c r="D176" t="s">
+        <v>932</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F176" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C177" t="s">
+        <v>905</v>
+      </c>
+      <c r="D177" t="s">
+        <v>933</v>
+      </c>
+      <c r="E177" t="s">
+        <v>951</v>
+      </c>
+      <c r="F177" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C178" t="s">
+        <v>995</v>
+      </c>
+      <c r="D178" t="s">
+        <v>934</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F178" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B179" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="C179" t="s">
+        <v>996</v>
+      </c>
+      <c r="D179" t="s">
+        <v>935</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F179" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="C180" t="s">
+        <v>906</v>
+      </c>
+      <c r="D180" t="s">
+        <v>936</v>
+      </c>
+      <c r="E180" t="s">
+        <v>952</v>
+      </c>
+      <c r="F180" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C181" t="s">
+        <v>892</v>
+      </c>
+      <c r="D181" t="s">
+        <v>937</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F181" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C182" t="s">
         <v>907</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D182" t="s">
+        <v>938</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F182" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C183" t="s">
+        <v>907</v>
+      </c>
+      <c r="D183" t="s">
+        <v>938</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F183" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C184" t="s">
+        <v>908</v>
+      </c>
+      <c r="D184" t="s">
+        <v>939</v>
+      </c>
+      <c r="E184" t="s">
+        <v>953</v>
+      </c>
+      <c r="F184" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C185" t="s">
+        <v>909</v>
+      </c>
+      <c r="D185" t="s">
+        <v>940</v>
+      </c>
+      <c r="E185" t="s">
+        <v>954</v>
+      </c>
+      <c r="F185" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C186" t="s">
+        <v>896</v>
+      </c>
+      <c r="D186" t="s">
+        <v>923</v>
+      </c>
+      <c r="E186" t="s">
+        <v>946</v>
+      </c>
+      <c r="F186" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C187" t="s">
+        <v>910</v>
+      </c>
+      <c r="D187" t="s">
+        <v>941</v>
+      </c>
+      <c r="E187" t="s">
+        <v>955</v>
+      </c>
+      <c r="F187" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D188" t="s">
+        <v>942</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F188" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="C189" t="s">
+        <v>911</v>
+      </c>
+      <c r="D189" t="s">
+        <v>943</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F189" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="D151" t="s">
+      <c r="B190" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="E151" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F151" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="C152" t="s">
-        <v>908</v>
-      </c>
-      <c r="D152" t="s">
-        <v>937</v>
-      </c>
-      <c r="E152" t="s">
-        <v>972</v>
-      </c>
-      <c r="F152" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="C153" t="s">
-        <v>909</v>
-      </c>
-      <c r="D153" t="s">
-        <v>938</v>
-      </c>
-      <c r="E153" t="s">
-        <v>973</v>
-      </c>
-      <c r="F153" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="C154" t="s">
-        <v>910</v>
-      </c>
-      <c r="D154" t="s">
-        <v>939</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="B192" t="s">
         <v>1024</v>
       </c>
-      <c r="F154" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="C155" t="s">
-        <v>911</v>
-      </c>
-      <c r="D155" t="s">
-        <v>940</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="C192" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="F155" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="C156" t="s">
-        <v>912</v>
-      </c>
-      <c r="D156" t="s">
-        <v>941</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="B193" t="s">
         <v>1026</v>
       </c>
-      <c r="F156" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="C157" t="s">
-        <v>913</v>
-      </c>
-      <c r="D157" t="s">
-        <v>942</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="C193" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="F157" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="C158" t="s">
-        <v>914</v>
-      </c>
-      <c r="D158" t="s">
-        <v>943</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="B194" t="s">
         <v>1028</v>
       </c>
-      <c r="F158" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="C159" t="s">
-        <v>915</v>
-      </c>
-      <c r="D159" t="s">
-        <v>944</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="C194" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="F159" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C160" t="s">
-        <v>916</v>
-      </c>
-      <c r="D160" t="s">
-        <v>945</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="B195" t="s">
         <v>1030</v>
       </c>
-      <c r="F160" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="C161" t="s">
-        <v>917</v>
-      </c>
-      <c r="D161" t="s">
-        <v>946</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F161" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="C162" t="s">
-        <v>918</v>
-      </c>
-      <c r="D162" t="s">
-        <v>947</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="C195" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="F162" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="C163" t="s">
-        <v>919</v>
-      </c>
-      <c r="D163" t="s">
-        <v>948</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="B196" t="s">
         <v>1032</v>
       </c>
-      <c r="F163" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="C164" t="s">
-        <v>920</v>
-      </c>
-      <c r="D164" t="s">
-        <v>949</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="C196" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>1033</v>
       </c>
-      <c r="F164" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C165" t="s">
-        <v>921</v>
-      </c>
-      <c r="D165" t="s">
-        <v>950</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="B197" t="s">
         <v>1034</v>
       </c>
-      <c r="F165" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="C166" t="s">
-        <v>922</v>
-      </c>
-      <c r="D166" t="s">
-        <v>951</v>
-      </c>
-      <c r="E166" t="s">
-        <v>974</v>
-      </c>
-      <c r="F166" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="C167" t="s">
-        <v>923</v>
-      </c>
-      <c r="D167" t="s">
-        <v>952</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="C197" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="F167" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="C168" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D168" t="s">
-        <v>953</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="B198" t="s">
         <v>1036</v>
       </c>
-      <c r="F168" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="C169" t="s">
-        <v>924</v>
-      </c>
-      <c r="D169" t="s">
-        <v>954</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="C198" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>1037</v>
       </c>
-      <c r="F169" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="C170" t="s">
-        <v>925</v>
-      </c>
-      <c r="D170" t="s">
-        <v>955</v>
-      </c>
-      <c r="E170" t="s">
-        <v>975</v>
-      </c>
-      <c r="F170" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="C171" t="s">
-        <v>926</v>
-      </c>
-      <c r="D171" t="s">
-        <v>956</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" t="s">
+        <v>321</v>
+      </c>
+      <c r="D199" t="s">
+        <v>416</v>
+      </c>
+      <c r="E199" t="s">
+        <v>503</v>
+      </c>
+      <c r="F199" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>1038</v>
       </c>
-      <c r="F171" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="C172" t="s">
-        <v>927</v>
-      </c>
-      <c r="D172" t="s">
-        <v>957</v>
-      </c>
-      <c r="E172" t="s">
-        <v>976</v>
-      </c>
-      <c r="F172" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="C173" t="s">
-        <v>887</v>
-      </c>
-      <c r="D173" t="s">
-        <v>958</v>
-      </c>
-      <c r="E173" t="s">
-        <v>977</v>
-      </c>
-      <c r="F173" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="C174" t="s">
-        <v>928</v>
-      </c>
-      <c r="D174" t="s">
-        <v>959</v>
-      </c>
-      <c r="E174" t="s">
-        <v>928</v>
-      </c>
-      <c r="F174" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="C175" t="s">
-        <v>929</v>
-      </c>
-      <c r="D175" t="s">
-        <v>960</v>
-      </c>
-      <c r="E175" t="s">
-        <v>978</v>
-      </c>
-      <c r="F175" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="C176" t="s">
-        <v>930</v>
-      </c>
-      <c r="D176" t="s">
-        <v>961</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="B200" t="s">
         <v>1039</v>
       </c>
-      <c r="F176" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C177" t="s">
-        <v>931</v>
-      </c>
-      <c r="D177" t="s">
-        <v>962</v>
-      </c>
-      <c r="E177" t="s">
-        <v>979</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D178" t="s">
-        <v>963</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="C200" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>1040</v>
       </c>
-      <c r="F178" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D179" t="s">
-        <v>964</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="B201" t="s">
         <v>1041</v>
       </c>
-      <c r="F179" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="C180" t="s">
-        <v>932</v>
-      </c>
-      <c r="D180" t="s">
-        <v>965</v>
-      </c>
-      <c r="E180" t="s">
-        <v>980</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="C181" t="s">
-        <v>918</v>
-      </c>
-      <c r="D181" t="s">
-        <v>966</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F181" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="C182" t="s">
-        <v>933</v>
-      </c>
-      <c r="D182" t="s">
-        <v>967</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="C201" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>1042</v>
       </c>
-      <c r="F182" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="C183" t="s">
-        <v>933</v>
-      </c>
-      <c r="D183" t="s">
-        <v>967</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F183" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="C184" t="s">
-        <v>934</v>
-      </c>
-      <c r="D184" t="s">
-        <v>968</v>
-      </c>
-      <c r="E184" t="s">
-        <v>981</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="C185" t="s">
-        <v>935</v>
-      </c>
-      <c r="D185" t="s">
-        <v>969</v>
-      </c>
-      <c r="E185" t="s">
-        <v>982</v>
-      </c>
-      <c r="F185" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="C186" t="s">
-        <v>922</v>
-      </c>
-      <c r="D186" t="s">
-        <v>951</v>
-      </c>
-      <c r="E186" t="s">
-        <v>974</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="C187" s="7" t="s">
+      <c r="B202" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B203" t="s">
         <v>1045</v>
       </c>
-      <c r="D187" t="s">
-        <v>970</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="C188" t="s">
-        <v>936</v>
-      </c>
-      <c r="D188" t="s">
-        <v>971</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
+      <c r="C203" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>1046</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B204" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>1047</v>
       </c>
-      <c r="C189" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="B205" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C207" t="s">
         <v>1123</v>
       </c>
-      <c r="F189" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="D207" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C208" t="s">
         <v>1124</v>
       </c>
-      <c r="F190" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="D208" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="F191" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="B209" s="11" t="s">
         <v>1126</v>
       </c>
-      <c r="F192" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="C209" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="F195" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="B210" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="F196" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="C210" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="F197" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B198" t="s">
-        <v>22</v>
-      </c>
-      <c r="C198" t="s">
-        <v>321</v>
-      </c>
-      <c r="D198" t="s">
-        <v>423</v>
-      </c>
-      <c r="E198" t="s">
-        <v>529</v>
-      </c>
-      <c r="F198" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="B211" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="F199" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="C211" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="F201" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B204" s="8" t="s">
+      <c r="B212" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="C204" t="s">
+      <c r="B213" s="11" t="s">
         <v>1134</v>
       </c>
-      <c r="D204" t="s">
+      <c r="C213" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="11" t="s">
         <v>1135</v>
       </c>
-      <c r="E204" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="B214" s="2" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="C214" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B215" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="C205" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="C215" t="s">
         <v>1145</v>
       </c>
-      <c r="F206" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
+      <c r="D215" t="s">
         <v>1152</v>
       </c>
-      <c r="B208" s="10" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="E215" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" s="12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="15" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="D208" t="s">
+      <c r="B218" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E218" t="s">
+        <v>747</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B220" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E221" s="18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" s="15" t="s">
         <v>1173</v>
       </c>
-      <c r="E208" t="s">
+      <c r="B222" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E222" s="14" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E223" s="18" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E224" s="14" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" s="15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B225" s="14" t="s">
         <v>1180</v>
       </c>
-      <c r="F208" t="s">
+      <c r="C225" s="14" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D225" s="14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E225" s="14" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B226" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E226" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D227" t="s">
+        <v>418</v>
+      </c>
+      <c r="E227" t="s">
+        <v>748</v>
+      </c>
+      <c r="F227" s="14" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B228" s="14" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E209" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="C228" s="14" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E228" s="14" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="15" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="10" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="B229" s="14" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E211" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F211" t="s">
+      <c r="C229" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D229" s="14" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E229" s="14" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="14" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F212" t="s">
+      <c r="B230" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E230" t="s">
+        <v>508</v>
+      </c>
+      <c r="F230" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="15" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F213" t="s">
+      <c r="B231" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E231" t="s">
+        <v>509</v>
+      </c>
+      <c r="F231" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="14" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F214" t="s">
+      <c r="B232" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E232" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F232" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="14" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="10" t="s">
+      <c r="B233" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E233" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="14" t="s">
         <v>1191</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="11" t="s">
+      <c r="B234" s="14" t="s">
         <v>1192</v>
       </c>
-      <c r="B216" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="11" t="s">
+      <c r="C234" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D234" s="14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E234" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="14" t="s">
         <v>1193</v>
       </c>
-      <c r="B217" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="11" t="s">
+      <c r="B235" s="14" t="s">
         <v>1194</v>
       </c>
-      <c r="B218" s="12" t="s">
+      <c r="C235" s="14" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D235" s="14" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E235" s="14" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="14" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E236" s="14" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E237" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="14" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E238" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="14" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E239" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E240" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="14" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E241" s="14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F241" s="14" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="14" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E242" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="14" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E243" s="14" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="14" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E244" s="14" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E245" s="14" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E246" s="14" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F246" s="14" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D247" s="14" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E247" s="14" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E248" s="14" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E249" s="18" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B250" s="14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D250" s="14" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E250" s="18" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F250" s="14" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D251" s="14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E251" s="14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F251" s="14" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="12" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B219" s="12" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="11" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="11" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B221" s="12" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="11" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B222" s="12" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="11" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B223" s="12" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="11" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="11" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="11" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B226" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="11" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B227" s="12" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="11" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="12" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B229" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="11" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B230" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="12" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="12" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B232" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="12" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B233" s="12" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="12" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="12" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B235" s="12" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="12" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B236" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="12" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B237" s="12" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="12" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B238" s="12" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="12" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B239" s="12" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="12" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="12" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="12" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="12" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="12" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B244" s="12" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="12" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="12" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B246" s="12" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="12" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="12" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="12" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="14" t="s">
         <v>1225</v>
       </c>
-      <c r="B249" s="12" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="12" t="s">
+      <c r="B252" s="14" t="s">
         <v>1226</v>
       </c>
-      <c r="B250" s="12" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="12" t="s">
+      <c r="C252" s="14" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D252" s="14" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E252" s="14" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" s="14" t="s">
         <v>1227</v>
       </c>
-      <c r="B251" s="12" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="12" t="s">
+      <c r="B253" s="14" t="s">
         <v>1228</v>
       </c>
-      <c r="B252" s="12" t="s">
-        <v>1229</v>
+      <c r="C253" s="14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E253" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -8853,6 +9705,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -9081,7 +9944,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9090,18 +9953,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9120,27 +9989,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/Bolivia/App_Translation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{BBA288CA-BBAE-4D72-9D2B-1C2581202596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94C01BCC-C716-4FFB-A927-4FEEDFECA3FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98F386-ADF2-9348-9096-355BB7D90906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="24540" yWindow="3360" windowWidth="36140" windowHeight="20720" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2697,9 +2697,6 @@
     <t>Please Confirm</t>
   </si>
   <si>
-    <t>&gt;Location not found</t>
-  </si>
-  <si>
     <t>Importar datos de enumeración</t>
   </si>
   <si>
@@ -3861,9 +3858,6 @@
     <t>Maior que ou igual</t>
   </si>
   <si>
-    <t>Adicionar condição&lt;</t>
-  </si>
-  <si>
     <t>Selecionar regra</t>
   </si>
   <si>
@@ -4171,13 +4165,19 @@
   </si>
   <si>
     <t>Razão Incompleto</t>
+  </si>
+  <si>
+    <t>Adicionar condição</t>
+  </si>
+  <si>
+    <t>Nobody home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4232,6 +4232,17 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4277,12 +4288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4290,9 +4301,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4309,6 +4317,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4626,19 +4638,19 @@
   <dimension ref="A1:F253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D227" sqref="D227"/>
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="41.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -4678,7 +4690,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4698,7 +4710,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4718,7 +4730,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -4738,7 +4750,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E6" t="s">
         <v>291</v>
@@ -4758,7 +4770,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4778,7 +4790,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4798,7 +4810,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4818,7 +4830,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4858,7 +4870,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4878,7 +4890,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4898,7 +4910,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4918,7 +4930,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4938,7 +4950,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>735</v>
       </c>
       <c r="D16" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E16" t="s">
         <v>744</v>
@@ -4958,7 +4970,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4978,7 +4990,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4998,7 +5010,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -5009,7 +5021,7 @@
         <v>736</v>
       </c>
       <c r="D19" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E19" t="s">
         <v>500</v>
@@ -5018,7 +5030,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -5029,7 +5041,7 @@
         <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E20" t="s">
         <v>745</v>
@@ -5038,7 +5050,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -5049,7 +5061,7 @@
         <v>779</v>
       </c>
       <c r="D21" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E21" t="s">
         <v>501</v>
@@ -5058,7 +5070,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -5069,7 +5081,7 @@
         <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E22" t="s">
         <v>320</v>
@@ -5078,7 +5090,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5118,7 +5130,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>805</v>
       </c>
@@ -5138,7 +5150,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>805</v>
       </c>
@@ -5158,7 +5170,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>806</v>
       </c>
@@ -5178,7 +5190,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>806</v>
       </c>
@@ -5198,7 +5210,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -5218,7 +5230,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -5238,7 +5250,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -5258,7 +5270,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -5278,7 +5290,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -5298,7 +5310,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -5318,7 +5330,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -5338,7 +5350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -5349,7 +5361,7 @@
         <v>505</v>
       </c>
       <c r="D36" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E36" t="s">
         <v>505</v>
@@ -5358,7 +5370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -5378,7 +5390,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -5389,7 +5401,7 @@
         <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E38" t="s">
         <v>750</v>
@@ -5398,7 +5410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -5418,7 +5430,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -5438,7 +5450,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -5458,7 +5470,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -5478,7 +5490,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -5498,7 +5510,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -5518,7 +5530,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -5538,7 +5550,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -5558,7 +5570,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -5578,7 +5590,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5598,7 +5610,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -5618,7 +5630,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -5638,7 +5650,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -5658,7 +5670,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -5678,7 +5690,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -5698,7 +5710,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -5709,7 +5721,7 @@
         <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E54" t="s">
         <v>515</v>
@@ -5718,7 +5730,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5729,7 +5741,7 @@
         <v>784</v>
       </c>
       <c r="D55" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E55" t="s">
         <v>516</v>
@@ -5738,7 +5750,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5749,7 +5761,7 @@
         <v>725</v>
       </c>
       <c r="D56" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E56" t="s">
         <v>752</v>
@@ -5758,7 +5770,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5778,7 +5790,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -5798,7 +5810,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -5809,7 +5821,7 @@
         <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E59" t="s">
         <v>517</v>
@@ -5818,7 +5830,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5838,7 +5850,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5858,7 +5870,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -5878,7 +5890,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -5918,7 +5930,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -5929,7 +5941,7 @@
         <v>785</v>
       </c>
       <c r="D65" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E65" t="s">
         <v>358</v>
@@ -5938,7 +5950,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5958,7 +5970,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5969,7 +5981,7 @@
         <v>786</v>
       </c>
       <c r="D67" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E67" t="s">
         <v>290</v>
@@ -5978,7 +5990,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5989,7 +6001,7 @@
         <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E68" t="s">
         <v>521</v>
@@ -5998,7 +6010,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -6018,7 +6030,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -6029,7 +6041,7 @@
         <v>802</v>
       </c>
       <c r="D70" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E70" t="s">
         <v>777</v>
@@ -6038,7 +6050,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -6049,7 +6061,7 @@
         <v>803</v>
       </c>
       <c r="D71" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E71" t="s">
         <v>778</v>
@@ -6058,7 +6070,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -6078,7 +6090,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -6098,7 +6110,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -6118,7 +6130,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -6129,7 +6141,7 @@
         <v>788</v>
       </c>
       <c r="D75" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E75" t="s">
         <v>524</v>
@@ -6138,7 +6150,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -6158,7 +6170,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -6178,7 +6190,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -6198,7 +6210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -6208,8 +6220,8 @@
       <c r="C79" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D79" s="16" t="s">
-        <v>1344</v>
+      <c r="D79" s="15" t="s">
+        <v>1342</v>
       </c>
       <c r="E79" t="s">
         <v>526</v>
@@ -6218,7 +6230,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -6228,8 +6240,8 @@
       <c r="C80" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>1345</v>
+      <c r="D80" s="15" t="s">
+        <v>1343</v>
       </c>
       <c r="E80" t="s">
         <v>527</v>
@@ -6238,7 +6250,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -6258,7 +6270,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -6278,7 +6290,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -6298,7 +6310,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -6338,7 +6350,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -6378,7 +6390,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -6398,7 +6410,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -6409,7 +6421,7 @@
         <v>792</v>
       </c>
       <c r="D89" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E89" t="s">
         <v>535</v>
@@ -6418,7 +6430,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -6438,7 +6450,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -6458,7 +6470,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -6478,7 +6490,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -6498,7 +6510,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -6518,7 +6530,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -6538,7 +6550,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -6548,8 +6560,8 @@
       <c r="C96" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>1347</v>
+      <c r="D96" s="15" t="s">
+        <v>1345</v>
       </c>
       <c r="E96" t="s">
         <v>363</v>
@@ -6558,7 +6570,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -6569,7 +6581,7 @@
         <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E97" t="s">
         <v>539</v>
@@ -6578,7 +6590,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -6598,7 +6610,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -6618,7 +6630,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -6638,7 +6650,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -6658,7 +6670,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -6668,8 +6680,8 @@
       <c r="C102" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D102" s="16" t="s">
-        <v>1349</v>
+      <c r="D102" s="15" t="s">
+        <v>1347</v>
       </c>
       <c r="E102" t="s">
         <v>765</v>
@@ -6678,7 +6690,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -6698,7 +6710,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -6718,7 +6730,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -6738,7 +6750,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -6758,7 +6770,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -6778,7 +6790,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -6798,7 +6810,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -6818,7 +6830,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6838,7 +6850,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6858,7 +6870,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -6869,7 +6881,7 @@
         <v>796</v>
       </c>
       <c r="D112" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E112" t="s">
         <v>549</v>
@@ -6878,7 +6890,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -6898,7 +6910,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6908,8 +6920,8 @@
       <c r="C114" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>1363</v>
+      <c r="D114" s="15" t="s">
+        <v>1361</v>
       </c>
       <c r="E114" t="s">
         <v>551</v>
@@ -6918,7 +6930,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -6938,7 +6950,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6949,7 +6961,7 @@
         <v>353</v>
       </c>
       <c r="D116" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E116" t="s">
         <v>552</v>
@@ -6958,7 +6970,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -6978,7 +6990,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -6998,7 +7010,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -7018,7 +7030,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -7038,7 +7050,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -7058,7 +7070,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -7078,7 +7090,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -7098,7 +7110,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -7118,7 +7130,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -7138,7 +7150,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -7158,7 +7170,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -7178,7 +7190,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -7198,7 +7210,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -7218,7 +7230,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -7238,7 +7250,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -7298,7 +7310,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -7318,7 +7330,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -7338,7 +7350,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -7358,7 +7370,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -7378,7 +7390,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -7398,7 +7410,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -7418,7 +7430,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -7438,7 +7450,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -7458,7 +7470,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -7478,7 +7490,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -7489,7 +7501,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E143" t="s">
         <v>775</v>
@@ -7498,7 +7510,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -7518,7 +7530,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -7538,7 +7550,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -7558,7 +7570,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -7578,7 +7590,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -7598,7 +7610,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -7618,7 +7630,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -7638,7 +7650,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>807</v>
       </c>
@@ -7646,19 +7658,19 @@
         <v>880</v>
       </c>
       <c r="C151" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D151" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E151" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F151" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>808</v>
       </c>
@@ -7666,19 +7678,19 @@
         <v>879</v>
       </c>
       <c r="C152" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D152" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E152" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F152" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>809</v>
       </c>
@@ -7686,19 +7698,19 @@
         <v>878</v>
       </c>
       <c r="C153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D153" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E153" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F153" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>810</v>
       </c>
@@ -7706,19 +7718,19 @@
         <v>877</v>
       </c>
       <c r="C154" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D154" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E154" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F154" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>811</v>
       </c>
@@ -7726,19 +7738,19 @@
         <v>876</v>
       </c>
       <c r="C155" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D155" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E155" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F155" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>812</v>
       </c>
@@ -7746,19 +7758,19 @@
         <v>875</v>
       </c>
       <c r="C156" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D156" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E156" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F156" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>813</v>
       </c>
@@ -7766,19 +7778,19 @@
         <v>874</v>
       </c>
       <c r="C157" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D157" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E157" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F157" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>814</v>
       </c>
@@ -7786,19 +7798,19 @@
         <v>873</v>
       </c>
       <c r="C158" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D158" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E158" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F158" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>815</v>
       </c>
@@ -7806,19 +7818,19 @@
         <v>872</v>
       </c>
       <c r="C159" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D159" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E159" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F159" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>816</v>
       </c>
@@ -7826,19 +7838,19 @@
         <v>871</v>
       </c>
       <c r="C160" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D160" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E160" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F160" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>817</v>
       </c>
@@ -7846,19 +7858,19 @@
         <v>870</v>
       </c>
       <c r="C161" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D161" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E161" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F161" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>818</v>
       </c>
@@ -7866,19 +7878,19 @@
         <v>852</v>
       </c>
       <c r="C162" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D162" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E162" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F162" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>819</v>
       </c>
@@ -7886,19 +7898,19 @@
         <v>869</v>
       </c>
       <c r="C163" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D163" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E163" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F163" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>820</v>
       </c>
@@ -7906,19 +7918,19 @@
         <v>868</v>
       </c>
       <c r="C164" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D164" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E164" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F164" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>821</v>
       </c>
@@ -7926,19 +7938,19 @@
         <v>867</v>
       </c>
       <c r="C165" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D165" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E165" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F165" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>822</v>
       </c>
@@ -7946,19 +7958,19 @@
         <v>848</v>
       </c>
       <c r="C166" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D166" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E166" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F166" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>823</v>
       </c>
@@ -7966,19 +7978,19 @@
         <v>866</v>
       </c>
       <c r="C167" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D167" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E167" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F167" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>824</v>
       </c>
@@ -7986,19 +7998,19 @@
         <v>864</v>
       </c>
       <c r="C168" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D168" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E168" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F168" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>825</v>
       </c>
@@ -8006,19 +8018,19 @@
         <v>865</v>
       </c>
       <c r="C169" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D169" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E169" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F169" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>826</v>
       </c>
@@ -8026,19 +8038,19 @@
         <v>863</v>
       </c>
       <c r="C170" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D170" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E170" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F170" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>827</v>
       </c>
@@ -8046,19 +8058,19 @@
         <v>862</v>
       </c>
       <c r="C171" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D171" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E171" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F171" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>828</v>
       </c>
@@ -8066,19 +8078,19 @@
         <v>861</v>
       </c>
       <c r="C172" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D172" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E172" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F172" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>829</v>
       </c>
@@ -8089,16 +8101,16 @@
         <v>860</v>
       </c>
       <c r="D173" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E173" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F173" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>830</v>
       </c>
@@ -8106,19 +8118,19 @@
         <v>859</v>
       </c>
       <c r="C174" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D174" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E174" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F174" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>831</v>
       </c>
@@ -8126,19 +8138,19 @@
         <v>858</v>
       </c>
       <c r="C175" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D175" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E175" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F175" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>832</v>
       </c>
@@ -8146,19 +8158,19 @@
         <v>857</v>
       </c>
       <c r="C176" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D176" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E176" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F176" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>833</v>
       </c>
@@ -8166,19 +8178,19 @@
         <v>856</v>
       </c>
       <c r="C177" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D177" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E177" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F177" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>834</v>
       </c>
@@ -8186,19 +8198,19 @@
         <v>855</v>
       </c>
       <c r="C178" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D178" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E178" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F178" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>835</v>
       </c>
@@ -8206,19 +8218,19 @@
         <v>854</v>
       </c>
       <c r="C179" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D179" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E179" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F179" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>836</v>
       </c>
@@ -8226,19 +8238,19 @@
         <v>853</v>
       </c>
       <c r="C180" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D180" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E180" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F180" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>837</v>
       </c>
@@ -8246,19 +8258,19 @@
         <v>852</v>
       </c>
       <c r="C181" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D181" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E181" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F181" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>838</v>
       </c>
@@ -8266,19 +8278,19 @@
         <v>851</v>
       </c>
       <c r="C182" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D182" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E182" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F182" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>839</v>
       </c>
@@ -8286,19 +8298,19 @@
         <v>851</v>
       </c>
       <c r="C183" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D183" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E183" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F183" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>840</v>
       </c>
@@ -8306,19 +8318,19 @@
         <v>850</v>
       </c>
       <c r="C184" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D184" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E184" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F184" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>841</v>
       </c>
@@ -8326,19 +8338,19 @@
         <v>849</v>
       </c>
       <c r="C185" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D185" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E185" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F185" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>842</v>
       </c>
@@ -8346,39 +8358,39 @@
         <v>848</v>
       </c>
       <c r="C186" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D186" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E186" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F186" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>881</v>
+      <c r="B187" s="19" t="s">
+        <v>1372</v>
       </c>
       <c r="C187" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D187" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E187" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F187" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>844</v>
       </c>
@@ -8386,19 +8398,19 @@
         <v>847</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D188" t="s">
-        <v>942</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>1017</v>
+        <v>941</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>1016</v>
       </c>
       <c r="F188" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>845</v>
       </c>
@@ -8406,201 +8418,201 @@
         <v>846</v>
       </c>
       <c r="C189" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D189" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E189" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F189" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="8" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B190" t="s">
         <v>1019</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="C190" t="s">
+      <c r="B191" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C191" t="s">
         <v>1049</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D192" t="s">
         <v>1063</v>
       </c>
-      <c r="E190" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="E192" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E194" t="s">
         <v>1076</v>
       </c>
-      <c r="E191" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="F194" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E196" t="s">
         <v>1099</v>
       </c>
-      <c r="F193" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F195" t="s">
+      <c r="F196" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B196" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>1032</v>
       </c>
-      <c r="C196" t="s">
+      <c r="B197" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C197" t="s">
         <v>1055</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>1068</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E197" t="s">
         <v>1100</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F197" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B197" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="C197" t="s">
+      <c r="B198" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C198" t="s">
         <v>1056</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>1069</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E198" t="s">
         <v>1101</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F198" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B198" t="s">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>1036</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>1037</v>
       </c>
       <c r="B199" t="s">
         <v>22</v>
@@ -8618,551 +8630,551 @@
         <v>643</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B200" t="s">
         <v>1038</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>1039</v>
       </c>
-      <c r="C200" t="s">
+      <c r="B201" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C201" t="s">
         <v>1058</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>1071</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E201" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E202" t="s">
         <v>1103</v>
       </c>
-      <c r="F200" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="F202" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E203" t="s">
         <v>1079</v>
       </c>
-      <c r="F201" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="F203" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E205" t="s">
         <v>1104</v>
       </c>
-      <c r="F202" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="F205" t="s">
         <v>1108</v>
       </c>
-      <c r="E205" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F205" t="s">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+      <c r="B206" t="s">
         <v>1110</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>1111</v>
       </c>
-      <c r="C206" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F206" t="s">
+      <c r="B207" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D207" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="E207" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>1113</v>
       </c>
-      <c r="C207" t="s">
+      <c r="B208" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C208" t="s">
         <v>1123</v>
       </c>
-      <c r="D207" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="D208" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="E208" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="D208" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="2" t="s">
+      <c r="B209" s="10" t="s">
         <v>1125</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="C209" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="C209" t="s">
+      <c r="B210" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C210" t="s">
         <v>1139</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D210" t="s">
         <v>1146</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E210" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E211" t="s">
         <v>1153</v>
       </c>
-      <c r="F209" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="F211" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="11" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B211" s="2" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="C211" t="s">
+      <c r="B212" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C212" t="s">
         <v>1141</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
         <v>1148</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E212" t="s">
         <v>1154</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F212" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B212" s="2" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
         <v>1132</v>
       </c>
-      <c r="C212" t="s">
+      <c r="B213" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C213" t="s">
         <v>1142</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
         <v>1149</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E213" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E215" t="s">
         <v>1155</v>
       </c>
-      <c r="F212" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A213" s="11" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="11" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F214" t="s">
+      <c r="F215" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F215" t="s">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="11" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="12" t="s">
+      <c r="B216" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E216" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="14" t="s">
         <v>1164</v>
       </c>
-      <c r="B216" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C216" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D216" s="14" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E216" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="F216" s="14" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" s="15" t="s">
+      <c r="B217" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E217" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="14" t="s">
         <v>1165</v>
       </c>
-      <c r="B217" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C217" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D217" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E217" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F217" s="14" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D218" s="13" t="s">
         <v>417</v>
       </c>
       <c r="E218" t="s">
         <v>747</v>
       </c>
-      <c r="F218" s="14" t="s">
+      <c r="F218" s="13" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="15" t="s">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="14" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B219" s="13" t="s">
         <v>1167</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="C219" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="13" t="s">
         <v>1168</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="B220" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E220" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F220" s="13" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C221" s="13" t="s">
         <v>1279</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D221" s="13" t="s">
         <v>1302</v>
       </c>
-      <c r="E219" s="14" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F219" s="14" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="14" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B220" s="14" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C220" s="14" t="s">
+      <c r="E221" s="17" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C222" s="13" t="s">
         <v>1280</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="D222" s="13" t="s">
         <v>1303</v>
       </c>
-      <c r="E220" s="14" t="s">
+      <c r="E222" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="F220" s="14" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221" s="15" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B221" s="14" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C221" s="14" t="s">
+      <c r="F222" s="13" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C223" s="13" t="s">
         <v>1281</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D223" s="13" t="s">
         <v>1304</v>
       </c>
-      <c r="E221" s="18" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F221" s="14" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="15" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B222" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C222" s="14" t="s">
+      <c r="E223" s="17" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C224" s="13" t="s">
         <v>1282</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D224" s="13" t="s">
         <v>1305</v>
       </c>
-      <c r="E222" s="14" t="s">
+      <c r="E224" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="F222" s="14" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="15" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B223" s="14" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D223" s="14" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E223" s="18" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F223" s="14" t="s">
+      <c r="F224" s="13" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" s="15" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B224" s="14" t="s">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="14" t="s">
         <v>1178</v>
       </c>
-      <c r="C224" s="14" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D224" s="14" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E224" s="14" t="s">
+      <c r="B225" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C225" s="13" t="s">
         <v>1261</v>
       </c>
-      <c r="F224" s="14" t="s">
+      <c r="D225" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F225" s="13" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" s="15" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B225" s="14" t="s">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="14" t="s">
         <v>1180</v>
       </c>
-      <c r="C225" s="14" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D225" s="14" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E225" s="14" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F225" s="14" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" s="15" t="s">
+      <c r="B226" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="F226" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="B226" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C226" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="D226" s="14" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E226" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="F226" s="14" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" s="15" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B227" s="14" t="s">
+      <c r="B227" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -9174,528 +9186,528 @@
       <c r="E227" t="s">
         <v>748</v>
       </c>
-      <c r="F227" s="14" t="s">
+      <c r="F227" s="13" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F228" s="13" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" s="15" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B228" s="14" t="s">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="C228" s="14" t="s">
+      <c r="B229" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E229" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="D228" s="14" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E228" s="14" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F228" s="14" t="s">
+      <c r="F229" s="13" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="15" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B229" s="14" t="s">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="13" t="s">
         <v>1186</v>
       </c>
-      <c r="C229" s="14" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D229" s="14" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E229" s="14" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F229" s="14" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" s="14" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B230" s="14" t="s">
+      <c r="B230" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D230" s="14" t="s">
+      <c r="D230" s="13" t="s">
         <v>425</v>
       </c>
       <c r="E230" t="s">
         <v>508</v>
       </c>
-      <c r="F230" s="14" t="s">
+      <c r="F230" s="13" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A231" s="15" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B231" s="14" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B231" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D231" s="14" t="s">
+      <c r="D231" s="13" t="s">
         <v>428</v>
       </c>
       <c r="E231" t="s">
         <v>509</v>
       </c>
-      <c r="F231" s="14" t="s">
+      <c r="F231" s="13" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A232" s="14" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F232" s="13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="B232" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C232" s="14" t="s">
+      <c r="B233" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="D233" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F233" s="13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C235" s="13" t="s">
         <v>1286</v>
       </c>
-      <c r="D232" s="14" t="s">
+      <c r="D235" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="E232" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="F232" s="14" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" s="14" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C233" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="D233" s="14" t="s">
+      <c r="E235" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F235" s="13" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="13" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D236" s="13" t="s">
         <v>1309</v>
       </c>
-      <c r="E233" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="F233" s="14" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A234" s="14" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B234" s="14" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C234" s="17" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D234" s="14" t="s">
+      <c r="E236" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F237" s="13" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D238" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E240" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C242" s="16" t="s">
         <v>1364</v>
       </c>
-      <c r="E234" s="17" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F234" s="14" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A235" s="14" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B235" s="14" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C235" s="14" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D235" s="14" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E235" s="14" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F235" s="14" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A236" s="14" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C236" s="14" t="s">
+      <c r="D242" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E242" s="18" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C243" s="13" t="s">
         <v>1289</v>
       </c>
-      <c r="D236" s="14" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E236" s="14" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F236" s="14" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="14" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C237" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D237" s="14" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E237" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F237" s="14" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A238" s="14" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B238" s="14" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C238" s="14" t="s">
+      <c r="D243" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F243" s="13" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C244" s="13" t="s">
         <v>1290</v>
       </c>
-      <c r="D238" s="14" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E238" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="F238" s="14" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" s="14" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B239" s="14" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C239" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="D239" s="14" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E239" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="F239" s="14" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A240" s="14" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B240" s="14" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C240" s="14" t="s">
-        <v>722</v>
-      </c>
-      <c r="D240" s="14" t="s">
+      <c r="D244" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="E240" s="18" t="s">
-        <v>749</v>
-      </c>
-      <c r="F240" s="14" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A241" s="14" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B241" s="14" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D241" s="14" t="s">
+      <c r="E244" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F244" s="13" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F245" s="13" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D246" s="13" t="s">
         <v>1316</v>
       </c>
-      <c r="E241" s="14" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F241" s="14" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="14" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B242" s="14" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C242" s="17" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D242" s="14" t="s">
+      <c r="E246" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F246" s="13" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F247" s="13" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E249" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F249" s="13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C250" s="17" t="s">
         <v>1367</v>
       </c>
-      <c r="E242" s="17" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F242" s="14" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" s="14" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D243" s="14" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E243" s="14" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F243" s="14" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" s="14" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D244" s="14" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E244" s="14" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F244" s="14" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B245" s="14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C245" s="14" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D245" s="14" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E245" s="14" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F245" s="14" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="14" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B246" s="14" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C246" s="14" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D246" s="14" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E246" s="14" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F246" s="14" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B247" s="14" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C247" s="14" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D247" s="14" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E247" s="14" t="s">
+      <c r="D250" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E250" s="17" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F250" s="13" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E251" s="13" t="s">
         <v>1274</v>
       </c>
-      <c r="F247" s="14" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A248" s="14" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B248" s="14" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C248" s="14" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E248" s="14" t="s">
+      <c r="F251" s="13" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E252" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="F248" s="14" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A249" s="14" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B249" s="14" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C249" s="14" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D249" s="14" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E249" s="18" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F249" s="14" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" s="14" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B250" s="14" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C250" s="18" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D250" s="14" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E250" s="18" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F250" s="14" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" s="14" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B251" s="14" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C251" s="14" t="s">
+      <c r="F252" s="13" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C253" s="13" t="s">
         <v>1298</v>
       </c>
-      <c r="D251" s="14" t="s">
+      <c r="D253" s="13" t="s">
         <v>1323</v>
       </c>
-      <c r="E251" s="14" t="s">
+      <c r="E253" s="13" t="s">
         <v>1276</v>
       </c>
-      <c r="F251" s="14" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A252" s="14" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B252" s="14" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C252" s="14" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D252" s="14" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E252" s="14" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F252" s="14" t="s">
+      <c r="F253" s="13" t="s">
         <v>1256</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A253" s="14" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C253" s="14" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D253" s="14" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E253" s="14" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F253" s="14" t="s">
-        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -9716,6 +9728,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -9944,15 +9965,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
@@ -9971,6 +9983,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9987,12 +10007,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98F386-ADF2-9348-9096-355BB7D90906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED514AC-FE8B-0646-93B4-CC346E0867BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="3360" windowWidth="36140" windowHeight="20720" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1369">
   <si>
     <t>Settings</t>
   </si>
@@ -2781,9 +2781,6 @@
     <t>Los datos de enumeración se han guardado en el directorio Documentos.</t>
   </si>
   <si>
-    <t>&gt;Localización no encontrada</t>
-  </si>
-  <si>
     <t>¡Oops! Por favor, seleccione una razón para incompleto</t>
   </si>
   <si>
@@ -2874,9 +2871,6 @@
     <t>Les données d'énumération ont été sauvegardées dans le répertoire Documents.</t>
   </si>
   <si>
-    <t>&gt;La configuration a été sauvegardée dans le répertoire Documents.</t>
-  </si>
-  <si>
     <t>Le domicile n'existe pas</t>
   </si>
   <si>
@@ -2916,9 +2910,6 @@
     <t>Os dados de enumeração foram guardados no diretório Documentos.</t>
   </si>
   <si>
-    <t>&gt;Localização não encontrada</t>
-  </si>
-  <si>
     <t>Пожалуйста, подтвердите</t>
   </si>
   <si>
@@ -3019,9 +3010,6 @@
   </si>
   <si>
     <t>Конфигурация была сохранена в каталог Documents.</t>
-  </si>
-  <si>
-    <t>&gt;Местонахождение не найдено</t>
   </si>
   <si>
     <t>Дом не существует</t>
@@ -4234,13 +4222,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -4637,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4648,6 +4636,9 @@
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.1640625" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4761,7 +4752,7 @@
         <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E6" t="s">
         <v>291</v>
@@ -4961,7 +4952,7 @@
         <v>735</v>
       </c>
       <c r="D16" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E16" t="s">
         <v>744</v>
@@ -5021,7 +5012,7 @@
         <v>736</v>
       </c>
       <c r="D19" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="E19" t="s">
         <v>500</v>
@@ -5041,7 +5032,7 @@
         <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E20" t="s">
         <v>745</v>
@@ -5061,7 +5052,7 @@
         <v>779</v>
       </c>
       <c r="D21" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="E21" t="s">
         <v>501</v>
@@ -5081,7 +5072,7 @@
         <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="E22" t="s">
         <v>320</v>
@@ -5361,7 +5352,7 @@
         <v>505</v>
       </c>
       <c r="D36" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E36" t="s">
         <v>505</v>
@@ -5401,7 +5392,7 @@
         <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="E38" t="s">
         <v>750</v>
@@ -5721,7 +5712,7 @@
         <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E54" t="s">
         <v>515</v>
@@ -5741,7 +5732,7 @@
         <v>784</v>
       </c>
       <c r="D55" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="E55" t="s">
         <v>516</v>
@@ -5761,7 +5752,7 @@
         <v>725</v>
       </c>
       <c r="D56" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E56" t="s">
         <v>752</v>
@@ -5821,7 +5812,7 @@
         <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="E59" t="s">
         <v>517</v>
@@ -5941,7 +5932,7 @@
         <v>785</v>
       </c>
       <c r="D65" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="E65" t="s">
         <v>358</v>
@@ -5981,7 +5972,7 @@
         <v>786</v>
       </c>
       <c r="D67" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E67" t="s">
         <v>290</v>
@@ -6001,7 +5992,7 @@
         <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="E68" t="s">
         <v>521</v>
@@ -6041,7 +6032,7 @@
         <v>802</v>
       </c>
       <c r="D70" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E70" t="s">
         <v>777</v>
@@ -6061,7 +6052,7 @@
         <v>803</v>
       </c>
       <c r="D71" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="E71" t="s">
         <v>778</v>
@@ -6141,7 +6132,7 @@
         <v>788</v>
       </c>
       <c r="D75" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E75" t="s">
         <v>524</v>
@@ -6221,7 +6212,7 @@
         <v>789</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E79" t="s">
         <v>526</v>
@@ -6241,7 +6232,7 @@
         <v>790</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="E80" t="s">
         <v>527</v>
@@ -6421,7 +6412,7 @@
         <v>792</v>
       </c>
       <c r="D89" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="E89" t="s">
         <v>535</v>
@@ -6561,7 +6552,7 @@
         <v>363</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="E96" t="s">
         <v>363</v>
@@ -6581,7 +6572,7 @@
         <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="E97" t="s">
         <v>539</v>
@@ -6681,7 +6672,7 @@
         <v>367</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="E102" t="s">
         <v>765</v>
@@ -6881,7 +6872,7 @@
         <v>796</v>
       </c>
       <c r="D112" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E112" t="s">
         <v>549</v>
@@ -6921,7 +6912,7 @@
         <v>798</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E114" t="s">
         <v>551</v>
@@ -6961,7 +6952,7 @@
         <v>353</v>
       </c>
       <c r="D116" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E116" t="s">
         <v>552</v>
@@ -7501,7 +7492,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E143" t="s">
         <v>775</v>
@@ -7658,16 +7649,16 @@
         <v>880</v>
       </c>
       <c r="C151" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D151" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="E151" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F151" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -7681,13 +7672,13 @@
         <v>881</v>
       </c>
       <c r="D152" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="E152" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F152" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -7701,13 +7692,13 @@
         <v>882</v>
       </c>
       <c r="D153" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="E153" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F153" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -7721,13 +7712,13 @@
         <v>883</v>
       </c>
       <c r="D154" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E154" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F154" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -7741,13 +7732,13 @@
         <v>884</v>
       </c>
       <c r="D155" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E155" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F155" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -7761,13 +7752,13 @@
         <v>885</v>
       </c>
       <c r="D156" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E156" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F156" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -7781,13 +7772,13 @@
         <v>886</v>
       </c>
       <c r="D157" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E157" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="F157" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -7801,13 +7792,13 @@
         <v>887</v>
       </c>
       <c r="D158" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E158" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="F158" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -7821,13 +7812,13 @@
         <v>888</v>
       </c>
       <c r="D159" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E159" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F159" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -7841,13 +7832,13 @@
         <v>889</v>
       </c>
       <c r="D160" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E160" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F160" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -7861,13 +7852,13 @@
         <v>890</v>
       </c>
       <c r="D161" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E161" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F161" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -7881,13 +7872,13 @@
         <v>891</v>
       </c>
       <c r="D162" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E162" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F162" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -7901,13 +7892,13 @@
         <v>892</v>
       </c>
       <c r="D163" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E163" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F163" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -7921,13 +7912,13 @@
         <v>893</v>
       </c>
       <c r="D164" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E164" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F164" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -7941,13 +7932,13 @@
         <v>894</v>
       </c>
       <c r="D165" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E165" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="F165" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -7961,13 +7952,13 @@
         <v>895</v>
       </c>
       <c r="D166" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E166" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F166" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -7981,13 +7972,13 @@
         <v>896</v>
       </c>
       <c r="D167" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E167" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F167" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -7998,16 +7989,16 @@
         <v>864</v>
       </c>
       <c r="C168" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D168" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E168" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F168" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -8021,13 +8012,13 @@
         <v>897</v>
       </c>
       <c r="D169" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E169" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F169" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -8041,13 +8032,13 @@
         <v>898</v>
       </c>
       <c r="D170" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E170" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F170" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -8061,13 +8052,13 @@
         <v>899</v>
       </c>
       <c r="D171" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E171" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F171" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -8081,13 +8072,13 @@
         <v>900</v>
       </c>
       <c r="D172" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E172" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F172" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -8101,13 +8092,13 @@
         <v>860</v>
       </c>
       <c r="D173" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E173" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F173" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -8121,13 +8112,13 @@
         <v>901</v>
       </c>
       <c r="D174" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E174" t="s">
         <v>901</v>
       </c>
       <c r="F174" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -8141,13 +8132,13 @@
         <v>902</v>
       </c>
       <c r="D175" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E175" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F175" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -8161,13 +8152,13 @@
         <v>903</v>
       </c>
       <c r="D176" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E176" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F176" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -8181,13 +8172,13 @@
         <v>904</v>
       </c>
       <c r="D177" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E177" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F177" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -8198,16 +8189,16 @@
         <v>855</v>
       </c>
       <c r="C178" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D178" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E178" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F178" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -8218,16 +8209,16 @@
         <v>854</v>
       </c>
       <c r="C179" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D179" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E179" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F179" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -8241,13 +8232,13 @@
         <v>905</v>
       </c>
       <c r="D180" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E180" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F180" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -8261,13 +8252,13 @@
         <v>891</v>
       </c>
       <c r="D181" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E181" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F181" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -8281,13 +8272,13 @@
         <v>906</v>
       </c>
       <c r="D182" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E182" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F182" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -8301,13 +8292,13 @@
         <v>906</v>
       </c>
       <c r="D183" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E183" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F183" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -8321,13 +8312,13 @@
         <v>907</v>
       </c>
       <c r="D184" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E184" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F184" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -8341,13 +8332,13 @@
         <v>908</v>
       </c>
       <c r="D185" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E185" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F185" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -8361,13 +8352,13 @@
         <v>895</v>
       </c>
       <c r="D186" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E186" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F186" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -8375,19 +8366,7 @@
         <v>843</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C187" t="s">
-        <v>909</v>
-      </c>
-      <c r="D187" t="s">
-        <v>940</v>
-      </c>
-      <c r="E187" t="s">
-        <v>954</v>
-      </c>
-      <c r="F187" t="s">
-        <v>989</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -8398,16 +8377,16 @@
         <v>847</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D188" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F188" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -8418,201 +8397,201 @@
         <v>846</v>
       </c>
       <c r="C189" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D189" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E189" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F189" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B190" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C190" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="D190" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E190" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F190" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C191" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D191" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E191" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="F191" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B192" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C192" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D192" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E192" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F192" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B193" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C193" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D193" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E193" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="F193" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B194" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C194" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D194" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E194" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F194" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B195" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C195" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D195" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E195" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="F195" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B196" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C196" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D196" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E196" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F196" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B197" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C197" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D197" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E197" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="F197" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B198" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C198" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D198" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E198" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F198" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B199" t="s">
         <v>22</v>
@@ -8632,327 +8611,327 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B200" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C200" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D200" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E200" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="F200" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B201" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C201" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D201" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E201" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F201" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B202" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C202" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D202" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E202" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F202" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B203" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C203" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D203" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E203" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="F203" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B204" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C204" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="D204" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E204" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F204" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C205" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D205" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E205" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F205" t="s">
         <v>1104</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B206" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C206" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D206" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E206" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F206" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B207" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D207" t="s">
         <v>1112</v>
       </c>
-      <c r="C207" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1116</v>
-      </c>
       <c r="E207" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F207" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B208" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C208" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D208" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E208" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="F208" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C209" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="D209" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E209" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F209" t="s">
         <v>1152</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C210" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D210" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E210" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F210" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C211" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D211" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E211" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F211" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C212" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D212" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E212" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F212" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C213" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D213" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E213" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="F213" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C214" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D214" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E214" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F214" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C215" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D215" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E215" t="s">
         <v>1151</v>
       </c>
-      <c r="E215" t="s">
-        <v>1155</v>
-      </c>
       <c r="F215" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>28</v>
@@ -8961,18 +8940,18 @@
         <v>303</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="E216" s="13" t="s">
         <v>303</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B217" s="13" t="s">
         <v>27</v>
@@ -8992,7 +8971,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B218" s="13" t="s">
         <v>30</v>
@@ -9012,147 +8991,147 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="F224" s="13" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F225" s="13" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B226" s="13" t="s">
         <v>29</v>
@@ -9161,7 +9140,7 @@
         <v>304</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="E226" s="13" t="s">
         <v>488</v>
@@ -9172,7 +9151,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B227" s="13" t="s">
         <v>31</v>
@@ -9187,52 +9166,52 @@
         <v>748</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="F228" s="13" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F229" s="13" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B230" s="13" t="s">
         <v>40</v>
@@ -9252,7 +9231,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>41</v>
@@ -9272,16 +9251,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="E232" s="13" t="s">
         <v>510</v>
@@ -9292,7 +9271,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>43</v>
@@ -9301,7 +9280,7 @@
         <v>782</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="E233" s="13" t="s">
         <v>511</v>
@@ -9312,67 +9291,67 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D234" s="13" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F235" s="13" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="F236" s="13" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B237" s="13" t="s">
         <v>32</v>
@@ -9381,250 +9360,250 @@
         <v>305</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E237" s="13" t="s">
         <v>305</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E238" s="13" t="s">
         <v>489</v>
       </c>
       <c r="F238" s="13" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>505</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="E239" s="13" t="s">
         <v>505</v>
       </c>
       <c r="F239" s="13" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>722</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="E240" s="17" t="s">
         <v>749</v>
       </c>
       <c r="F240" s="13" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>306</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="F241" s="13" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="E242" s="18" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="F242" s="13" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="F243" s="13" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D245" s="13" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="F245" s="13" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="F249" s="13" t="s">
         <v>682</v>
@@ -9632,82 +9611,82 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="F250" s="13" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F251" s="13" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F252" s="13" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="F253" s="13" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -9717,6 +9696,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
@@ -9725,15 +9713,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9966,6 +9945,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -9978,14 +9965,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED514AC-FE8B-0646-93B4-CC346E0867BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53567A3B-93E4-1E46-9D0F-424D17FB20C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="5120" yWindow="760" windowWidth="26400" windowHeight="20380" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1417">
   <si>
     <t>Settings</t>
   </si>
@@ -2571,18 +2571,12 @@
     <t>select_configuration</t>
   </si>
   <si>
-    <t>export_enum_data</t>
-  </si>
-  <si>
     <t>enum_saved_doc</t>
   </si>
   <si>
     <t>config_saved_doc</t>
   </si>
   <si>
-    <t>location_not_found</t>
-  </si>
-  <si>
     <t>nobody_home</t>
   </si>
   <si>
@@ -2601,12 +2595,6 @@
     <t>The configuration has been saved to the Documents directory.</t>
   </si>
   <si>
-    <t>Enumeration data has been saved to the Documents directory.</t>
-  </si>
-  <si>
-    <t>Export Enumeration Data</t>
-  </si>
-  <si>
     <t>Select a configuration</t>
   </si>
   <si>
@@ -2775,12 +2763,6 @@
     <t>Seleccione una configuración</t>
   </si>
   <si>
-    <t>Exportar datos de enumeración</t>
-  </si>
-  <si>
-    <t>Los datos de enumeración se han guardado en el directorio Documentos.</t>
-  </si>
-  <si>
     <t>¡Oops! Por favor, seleccione una razón para incompleto</t>
   </si>
   <si>
@@ -2865,12 +2847,6 @@
     <t>Sélectionner une configuration</t>
   </si>
   <si>
-    <t>Exporter les données de dénombrement</t>
-  </si>
-  <si>
-    <t>Les données d'énumération ont été sauvegardées dans le répertoire Documents.</t>
-  </si>
-  <si>
     <t>Le domicile n'existe pas</t>
   </si>
   <si>
@@ -2904,12 +2880,6 @@
     <t>Configuração de importação</t>
   </si>
   <si>
-    <t>Exportar dados de enumeração</t>
-  </si>
-  <si>
-    <t>Os dados de enumeração foram guardados no diretório Documentos.</t>
-  </si>
-  <si>
     <t>Пожалуйста, подтвердите</t>
   </si>
   <si>
@@ -3003,15 +2973,6 @@
     <t>Выберите конфигурацию</t>
   </si>
   <si>
-    <t>Экспорт данных переписи</t>
-  </si>
-  <si>
-    <t>Данные переписи были сохранены в директории Documents.</t>
-  </si>
-  <si>
-    <t>Конфигурация была сохранена в каталог Documents.</t>
-  </si>
-  <si>
     <t>Дом не существует</t>
   </si>
   <si>
@@ -4156,6 +4117,189 @@
   </si>
   <si>
     <t>Adicionar condição</t>
+  </si>
+  <si>
+    <t>Collection Teams</t>
+  </si>
+  <si>
+    <t>collection_teams</t>
+  </si>
+  <si>
+    <t>begin_field_block</t>
+  </si>
+  <si>
+    <t>Begin Field Block</t>
+  </si>
+  <si>
+    <t>save_and_end_block</t>
+  </si>
+  <si>
+    <t>Save and End Block</t>
+  </si>
+  <si>
+    <t>add_another_field</t>
+  </si>
+  <si>
+    <t>Save and Add Another Field</t>
+  </si>
+  <si>
+    <t>current_location_not_set</t>
+  </si>
+  <si>
+    <t>Current Location Not Set</t>
+  </si>
+  <si>
+    <t>option_item_name</t>
+  </si>
+  <si>
+    <t>Enter the Option Item Name</t>
+  </si>
+  <si>
+    <t>export_collection_data</t>
+  </si>
+  <si>
+    <t>Export Collection Data</t>
+  </si>
+  <si>
+    <t>import_field_data</t>
+  </si>
+  <si>
+    <t>Import Field Data</t>
+  </si>
+  <si>
+    <t>select_a_date</t>
+  </si>
+  <si>
+    <t>Select a Date</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team_name </t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>launch_survey</t>
+  </si>
+  <si>
+    <t>Launch Survey</t>
+  </si>
+  <si>
+    <t>mark_as_incomplete</t>
+  </si>
+  <si>
+    <t>Mark as Incomplete</t>
+  </si>
+  <si>
+    <t>enter_current_pin</t>
+  </si>
+  <si>
+    <t>Enter Current Pin</t>
+  </si>
+  <si>
+    <t>enter_new_pin</t>
+  </si>
+  <si>
+    <t>re_enter_new_pin</t>
+  </si>
+  <si>
+    <t>Re-Enter New PIN</t>
+  </si>
+  <si>
+    <t>select_a_time</t>
+  </si>
+  <si>
+    <t>Select a Time</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>last_updated</t>
+  </si>
+  <si>
+    <t>Last Updated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>add_image</t>
+  </si>
+  <si>
+    <t>Add Image</t>
+  </si>
+  <si>
+    <t>enumeration_areas</t>
+  </si>
+  <si>
+    <t>enter_team_name</t>
+  </si>
+  <si>
+    <t>Enter Team Name</t>
+  </si>
+  <si>
+    <t>assign_households</t>
+  </si>
+  <si>
+    <t>Assign Households</t>
+  </si>
+  <si>
+    <t>sampling_type</t>
+  </si>
+  <si>
+    <t>Sampling Type</t>
+  </si>
+  <si>
+    <t>generating_qr_code</t>
+  </si>
+  <si>
+    <t>Generating QR Code…</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>you_don_t_have_any_samples_for_this_study</t>
+  </si>
+  <si>
+    <t>You do not have any samples for this study</t>
+  </si>
+  <si>
+    <t>Configuration has been saved to the Documents directory.</t>
+  </si>
+  <si>
+    <t>Enumeration has been saved to the Documents directory.</t>
   </si>
   <si>
     <t>Nobody home</t>
@@ -4165,7 +4309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4226,13 +4370,19 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4242,24 +4392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4276,7 +4408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4289,26 +4421,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4623,16 +4743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
@@ -4641,7 +4761,7 @@
     <col min="8" max="8" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -4661,7 +4781,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -4681,7 +4801,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4701,7 +4821,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4721,7 +4841,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -4741,7 +4861,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4752,7 +4872,7 @@
         <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="E6" t="s">
         <v>291</v>
@@ -4761,7 +4881,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4781,7 +4901,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4801,7 +4921,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4821,7 +4941,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4841,7 +4961,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4861,7 +4981,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4881,7 +5001,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4901,7 +5021,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4921,7 +5041,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4941,7 +5061,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4952,7 +5072,7 @@
         <v>735</v>
       </c>
       <c r="D16" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="E16" t="s">
         <v>744</v>
@@ -4961,7 +5081,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4981,7 +5101,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -5001,7 +5121,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -5012,7 +5132,7 @@
         <v>736</v>
       </c>
       <c r="D19" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="E19" t="s">
         <v>500</v>
@@ -5021,7 +5141,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -5032,7 +5152,7 @@
         <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="E20" t="s">
         <v>745</v>
@@ -5041,7 +5161,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -5052,7 +5172,7 @@
         <v>779</v>
       </c>
       <c r="D21" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="E21" t="s">
         <v>501</v>
@@ -5061,7 +5181,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -5072,7 +5192,7 @@
         <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="E22" t="s">
         <v>320</v>
@@ -5081,7 +5201,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -5101,7 +5221,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5121,7 +5241,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>805</v>
       </c>
@@ -5141,7 +5261,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>805</v>
       </c>
@@ -5161,7 +5281,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>806</v>
       </c>
@@ -5181,7 +5301,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>806</v>
       </c>
@@ -5201,7 +5321,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -5221,7 +5341,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -5241,7 +5361,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -5261,7 +5381,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -5281,7 +5401,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -5301,7 +5421,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -5321,7 +5441,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -5341,7 +5461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -5352,7 +5472,7 @@
         <v>505</v>
       </c>
       <c r="D36" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="E36" t="s">
         <v>505</v>
@@ -5361,7 +5481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -5381,7 +5501,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -5392,7 +5512,7 @@
         <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
       <c r="E38" t="s">
         <v>750</v>
@@ -5401,7 +5521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -5421,7 +5541,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -5441,7 +5561,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -5461,7 +5581,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -5481,7 +5601,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -5501,7 +5621,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -5521,7 +5641,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -5541,7 +5661,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -5561,7 +5681,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -5581,7 +5701,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5601,7 +5721,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -5621,7 +5741,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -5641,7 +5761,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -5661,7 +5781,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -5681,7 +5801,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -5701,7 +5821,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -5712,7 +5832,7 @@
         <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
       <c r="E54" t="s">
         <v>515</v>
@@ -5721,7 +5841,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -5732,7 +5852,7 @@
         <v>784</v>
       </c>
       <c r="D55" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
       <c r="E55" t="s">
         <v>516</v>
@@ -5741,7 +5861,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5752,7 +5872,7 @@
         <v>725</v>
       </c>
       <c r="D56" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="E56" t="s">
         <v>752</v>
@@ -5761,7 +5881,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5781,7 +5901,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -5801,7 +5921,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -5812,7 +5932,7 @@
         <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="E59" t="s">
         <v>517</v>
@@ -5821,7 +5941,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5841,7 +5961,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -5861,7 +5981,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -5881,7 +6001,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5901,7 +6021,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -5921,7 +6041,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -5932,7 +6052,7 @@
         <v>785</v>
       </c>
       <c r="D65" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
       <c r="E65" t="s">
         <v>358</v>
@@ -5941,7 +6061,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -5961,7 +6081,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5972,7 +6092,7 @@
         <v>786</v>
       </c>
       <c r="D67" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
       <c r="E67" t="s">
         <v>290</v>
@@ -5981,7 +6101,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5992,7 +6112,7 @@
         <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="E68" t="s">
         <v>521</v>
@@ -6001,7 +6121,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -6021,7 +6141,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -6032,7 +6152,7 @@
         <v>802</v>
       </c>
       <c r="D70" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="E70" t="s">
         <v>777</v>
@@ -6041,7 +6161,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -6052,7 +6172,7 @@
         <v>803</v>
       </c>
       <c r="D71" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="E71" t="s">
         <v>778</v>
@@ -6061,7 +6181,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -6081,7 +6201,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -6101,7 +6221,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -6121,7 +6241,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -6132,7 +6252,7 @@
         <v>788</v>
       </c>
       <c r="D75" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="E75" t="s">
         <v>524</v>
@@ -6141,7 +6261,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -6161,7 +6281,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -6181,7 +6301,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -6201,7 +6321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -6211,8 +6331,8 @@
       <c r="C79" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>1338</v>
+      <c r="D79" s="10" t="s">
+        <v>1325</v>
       </c>
       <c r="E79" t="s">
         <v>526</v>
@@ -6221,7 +6341,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -6231,8 +6351,8 @@
       <c r="C80" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>1339</v>
+      <c r="D80" s="10" t="s">
+        <v>1326</v>
       </c>
       <c r="E80" t="s">
         <v>527</v>
@@ -6241,7 +6361,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -6261,7 +6381,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -6281,7 +6401,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -6301,7 +6421,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -6321,7 +6441,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>209</v>
       </c>
@@ -6341,7 +6461,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>210</v>
       </c>
@@ -6361,7 +6481,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -6381,7 +6501,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -6401,7 +6521,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -6412,7 +6532,7 @@
         <v>792</v>
       </c>
       <c r="D89" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="E89" t="s">
         <v>535</v>
@@ -6421,7 +6541,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -6441,7 +6561,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -6461,7 +6581,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -6481,7 +6601,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -6501,7 +6621,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -6521,7 +6641,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -6541,7 +6661,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -6551,8 +6671,8 @@
       <c r="C96" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D96" s="15" t="s">
-        <v>1341</v>
+      <c r="D96" s="10" t="s">
+        <v>1328</v>
       </c>
       <c r="E96" t="s">
         <v>363</v>
@@ -6561,7 +6681,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -6572,7 +6692,7 @@
         <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="E97" t="s">
         <v>539</v>
@@ -6581,7 +6701,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -6601,7 +6721,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -6621,7 +6741,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -6641,7 +6761,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -6661,7 +6781,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>225</v>
       </c>
@@ -6671,8 +6791,8 @@
       <c r="C102" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D102" s="15" t="s">
-        <v>1343</v>
+      <c r="D102" s="10" t="s">
+        <v>1330</v>
       </c>
       <c r="E102" t="s">
         <v>765</v>
@@ -6681,7 +6801,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -6701,7 +6821,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -6721,7 +6841,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -6741,7 +6861,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -6761,7 +6881,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -6781,7 +6901,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -6801,7 +6921,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -6821,7 +6941,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -6841,7 +6961,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6861,7 +6981,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -6872,7 +6992,7 @@
         <v>796</v>
       </c>
       <c r="D112" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="E112" t="s">
         <v>549</v>
@@ -6881,7 +7001,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -6901,7 +7021,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>237</v>
       </c>
@@ -6911,8 +7031,8 @@
       <c r="C114" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="D114" s="15" t="s">
-        <v>1357</v>
+      <c r="D114" s="10" t="s">
+        <v>1344</v>
       </c>
       <c r="E114" t="s">
         <v>551</v>
@@ -6921,7 +7041,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -6941,7 +7061,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -6952,7 +7072,7 @@
         <v>353</v>
       </c>
       <c r="D116" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="E116" t="s">
         <v>552</v>
@@ -6961,7 +7081,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -6981,7 +7101,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -7001,7 +7121,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -7021,7 +7141,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -7041,7 +7161,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -7061,7 +7181,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -7081,7 +7201,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -7101,7 +7221,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -7121,7 +7241,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -7141,7 +7261,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -7161,7 +7281,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -7181,7 +7301,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -7201,7 +7321,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -7221,7 +7341,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -7241,7 +7361,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -7261,7 +7381,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>255</v>
       </c>
@@ -7281,7 +7401,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -7301,7 +7421,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -7321,7 +7441,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -7341,7 +7461,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -7361,7 +7481,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -7381,7 +7501,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -7401,7 +7521,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -7421,7 +7541,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>263</v>
       </c>
@@ -7441,7 +7561,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>264</v>
       </c>
@@ -7461,7 +7581,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>265</v>
       </c>
@@ -7481,7 +7601,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -7492,7 +7612,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="E143" t="s">
         <v>775</v>
@@ -7501,7 +7621,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>267</v>
       </c>
@@ -7521,7 +7641,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -7541,7 +7661,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -7561,7 +7681,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -7581,7 +7701,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -7601,7 +7721,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -7621,7 +7741,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -7641,2052 +7761,2236 @@
         <v>621</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="4" t="s">
         <v>807</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C151" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="D151" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
       <c r="E151" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="F151" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="4" t="s">
         <v>808</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C152" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D152" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="E152" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F152" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="4" t="s">
         <v>809</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C153" t="s">
         <v>878</v>
       </c>
-      <c r="C153" t="s">
-        <v>882</v>
-      </c>
       <c r="D153" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
       <c r="E153" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="F153" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="4" t="s">
         <v>810</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C154" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D154" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E154" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="F154" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="4" t="s">
         <v>811</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C155" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D155" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E155" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="F155" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
         <v>812</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C156" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D156" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E156" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="F156" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
         <v>813</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C157" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D157" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E157" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="F157" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
         <v>814</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C158" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D158" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E158" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="F158" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="4" t="s">
         <v>815</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C159" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D159" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E159" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F159" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="4" t="s">
         <v>816</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C160" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D160" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="E160" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F160" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="4" t="s">
         <v>817</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C161" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D161" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="E161" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F161" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="4" t="s">
         <v>818</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C162" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D162" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E162" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="F162" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="4" t="s">
         <v>819</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C163" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D163" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="E163" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F163" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="4" t="s">
         <v>820</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C164" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D164" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E164" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="F164" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
         <v>821</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C165" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D165" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E165" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="F165" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
         <v>822</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C166" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D166" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="E166" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F166" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="4" t="s">
         <v>823</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C167" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D167" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E167" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F167" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="4" t="s">
         <v>824</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C168" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="D168" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E168" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="F168" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="4" t="s">
         <v>825</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C169" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D169" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E169" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="F169" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="4" t="s">
         <v>826</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C170" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D170" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="E170" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="F170" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="4" t="s">
         <v>827</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C171" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D171" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="E171" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="F171" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="4" t="s">
         <v>828</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C172" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D172" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E172" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F172" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="4" t="s">
         <v>829</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C173" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D173" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="E173" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="F173" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="4" t="s">
         <v>830</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C174" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D174" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="E174" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F174" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="4" t="s">
         <v>831</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C175" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D175" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E175" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F175" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="4" t="s">
         <v>832</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C176" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D176" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E176" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="F176" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="4" t="s">
         <v>833</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C177" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D177" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="E177" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F177" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="4" t="s">
         <v>834</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C178" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="D178" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E178" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="F178" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="4" t="s">
         <v>835</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C179" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="D179" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="E179" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="F179" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="4" t="s">
         <v>836</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C180" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D180" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="E180" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F180" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="4" t="s">
         <v>837</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C181" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D181" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E181" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="F181" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="4" t="s">
         <v>838</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C182" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D182" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E182" t="s">
+        <v>997</v>
+      </c>
+      <c r="F182" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D183" t="s">
+        <v>931</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="F183" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C184" t="s">
+        <v>903</v>
+      </c>
+      <c r="D184" t="s">
+        <v>932</v>
+      </c>
+      <c r="E184" t="s">
+        <v>998</v>
+      </c>
+      <c r="F184" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B189" t="s">
         <v>1010</v>
       </c>
-      <c r="F182" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+      <c r="C189" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>321</v>
+      </c>
+      <c r="D194" t="s">
+        <v>416</v>
+      </c>
+      <c r="E194" t="s">
+        <v>503</v>
+      </c>
+      <c r="F194" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" t="s">
+        <v>303</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E211" t="s">
+        <v>303</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B212" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>302</v>
+      </c>
+      <c r="D212" t="s">
+        <v>281</v>
+      </c>
+      <c r="E212" t="s">
+        <v>302</v>
+      </c>
+      <c r="F212" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B213" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D213" t="s">
+        <v>417</v>
+      </c>
+      <c r="E213" t="s">
+        <v>747</v>
+      </c>
+      <c r="F213" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B221" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221" t="s">
+        <v>304</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E221" t="s">
+        <v>488</v>
+      </c>
+      <c r="F221" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B222" t="s">
+        <v>31</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D222" t="s">
+        <v>418</v>
+      </c>
+      <c r="E222" t="s">
+        <v>748</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B225" t="s">
+        <v>40</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D225" t="s">
+        <v>425</v>
+      </c>
+      <c r="E225" t="s">
+        <v>508</v>
+      </c>
+      <c r="F225" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B226" t="s">
+        <v>41</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D226" t="s">
+        <v>428</v>
+      </c>
+      <c r="E226" t="s">
+        <v>509</v>
+      </c>
+      <c r="F226" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B227" t="s">
+        <v>42</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E227" t="s">
+        <v>510</v>
+      </c>
+      <c r="F227" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B228" t="s">
+        <v>43</v>
+      </c>
+      <c r="C228" t="s">
+        <v>782</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E228" t="s">
+        <v>511</v>
+      </c>
+      <c r="F228" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B232" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232" t="s">
+        <v>305</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E232" t="s">
+        <v>305</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E233" t="s">
+        <v>489</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C234" t="s">
+        <v>505</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E234" t="s">
+        <v>505</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C235" t="s">
+        <v>722</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E235" t="s">
+        <v>749</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C236" t="s">
+        <v>306</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F244" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="13" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="13" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="13" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="13" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B273" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="13" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="B183" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="C183" t="s">
-        <v>906</v>
-      </c>
-      <c r="D183" t="s">
-        <v>936</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F183" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+      <c r="B280" s="12" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
         <v>840</v>
       </c>
-      <c r="B184" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="C184" t="s">
-        <v>907</v>
-      </c>
-      <c r="D184" t="s">
-        <v>937</v>
-      </c>
-      <c r="E184" t="s">
-        <v>950</v>
-      </c>
-      <c r="F184" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+      <c r="B281" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
         <v>841</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="C185" t="s">
-        <v>908</v>
-      </c>
-      <c r="D185" t="s">
-        <v>938</v>
-      </c>
-      <c r="E185" t="s">
-        <v>951</v>
-      </c>
-      <c r="F185" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="C186" t="s">
-        <v>895</v>
-      </c>
-      <c r="D186" t="s">
-        <v>921</v>
-      </c>
-      <c r="E186" t="s">
-        <v>943</v>
-      </c>
-      <c r="F186" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D188" t="s">
-        <v>939</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F188" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="C189" t="s">
-        <v>909</v>
-      </c>
-      <c r="D189" t="s">
-        <v>940</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F189" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B199" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" t="s">
-        <v>321</v>
-      </c>
-      <c r="D199" t="s">
-        <v>416</v>
-      </c>
-      <c r="E199" t="s">
-        <v>503</v>
-      </c>
-      <c r="F199" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E209" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="10" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E211" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F211" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="10" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D216" s="13" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E216" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="F216" s="13" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="14" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B217" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D217" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E217" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="F217" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="14" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D218" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E218" t="s">
-        <v>747</v>
-      </c>
-      <c r="F218" s="13" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="14" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D219" s="13" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E219" s="13" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F219" s="13" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="13" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D220" s="13" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E220" s="13" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F220" s="13" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="14" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B221" s="13" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C221" s="13" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D221" s="13" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E221" s="17" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F221" s="13" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="14" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D222" s="13" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E222" s="13" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F222" s="13" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="14" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E223" s="17" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F223" s="13" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="14" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F224" s="13" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B225" s="13" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D225" s="13" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F225" s="13" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="14" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B226" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E226" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="F226" s="13" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B227" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="D227" t="s">
-        <v>418</v>
-      </c>
-      <c r="E227" t="s">
-        <v>748</v>
-      </c>
-      <c r="F227" s="13" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="14" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D228" s="13" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E228" s="13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F228" s="13" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="14" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D229" s="13" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E229" s="13" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F229" s="13" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="13" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D230" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="E230" t="s">
-        <v>508</v>
-      </c>
-      <c r="F230" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="14" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D231" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="E231" t="s">
-        <v>509</v>
-      </c>
-      <c r="F231" s="13" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="13" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D232" s="13" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E232" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="F232" s="13" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="13" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="D233" s="13" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E233" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="F233" s="13" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="13" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B234" s="13" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D234" s="13" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E234" s="16" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F234" s="13" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="13" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D235" s="13" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E235" s="13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F235" s="13" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="13" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D236" s="13" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E236" s="13" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F236" s="13" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="13" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D237" s="13" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E237" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F237" s="13" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="13" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B238" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D238" s="13" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E238" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="F238" s="13" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="D239" s="13" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E239" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="F239" s="13" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="13" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B240" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="D240" s="13" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E240" s="17" t="s">
-        <v>749</v>
-      </c>
-      <c r="F240" s="13" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="13" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D241" s="13" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E241" s="13" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F241" s="13" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="13" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D242" s="13" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E242" s="18" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F242" s="13" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="13" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D243" s="13" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E243" s="13" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F243" s="13" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="13" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D244" s="13" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E244" s="13" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F244" s="13" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="13" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B245" s="13" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D245" s="13" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E245" s="13" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F245" s="13" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="13" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D246" s="13" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E246" s="13" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F246" s="13" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D247" s="13" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E247" s="13" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F247" s="13" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="13" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D248" s="13" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E248" s="13" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="13" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D249" s="13" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E249" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F249" s="13" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="13" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C250" s="17" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E250" s="17" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F250" s="13" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="13" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D251" s="13" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E251" s="13" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F251" s="13" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="13" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E252" s="13" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F252" s="13" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="13" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B253" s="13" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D253" s="13" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E253" s="13" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F253" s="13" t="s">
-        <v>1252</v>
+      <c r="B282" t="s">
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -9696,26 +10000,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -9944,32 +10228,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9986,4 +10265,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53567A3B-93E4-1E46-9D0F-424D17FB20C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC93798B-708F-0A44-848B-08C69B2D4D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="760" windowWidth="26400" windowHeight="20380" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1535">
   <si>
     <t>Settings</t>
   </si>
@@ -4179,9 +4179,6 @@
     <t>Select</t>
   </si>
   <si>
-    <t xml:space="preserve">team_name </t>
-  </si>
-  <si>
     <t>Team Name</t>
   </si>
   <si>
@@ -4303,6 +4300,363 @@
   </si>
   <si>
     <t>Nobody home</t>
+  </si>
+  <si>
+    <t>Коллективные команды</t>
+  </si>
+  <si>
+    <t>Начало блока по полю</t>
+  </si>
+  <si>
+    <t>Сохранить и завершить блок</t>
+  </si>
+  <si>
+    <t>Сохранить и добавить другое поле</t>
+  </si>
+  <si>
+    <t>Текущее местоположение не установлено</t>
+  </si>
+  <si>
+    <t>Введите имя элемента опции</t>
+  </si>
+  <si>
+    <t>Экспорт данных коллекции</t>
+  </si>
+  <si>
+    <t>Импортировать данные поля</t>
+  </si>
+  <si>
+    <t>Выберите</t>
+  </si>
+  <si>
+    <t>Имя команды</t>
+  </si>
+  <si>
+    <t>Запустить опрос</t>
+  </si>
+  <si>
+    <t>Пометить как незавершенный</t>
+  </si>
+  <si>
+    <t>Введите текущий PIN-код</t>
+  </si>
+  <si>
+    <t>Повторный ввод нового PIN-кода</t>
+  </si>
+  <si>
+    <t>Повторно ввести новый PIN-код</t>
+  </si>
+  <si>
+    <t>Выбрать время</t>
+  </si>
+  <si>
+    <t>Широта</t>
+  </si>
+  <si>
+    <t>Долгота</t>
+  </si>
+  <si>
+    <t>Последнее обновление</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Добавить изображение</t>
+  </si>
+  <si>
+    <t>Зоны перечисления</t>
+  </si>
+  <si>
+    <t>Введите название команды</t>
+  </si>
+  <si>
+    <t>Назначить домохозяйства</t>
+  </si>
+  <si>
+    <t>Тип выборки</t>
+  </si>
+  <si>
+    <t>Генерация QR-кода...</t>
+  </si>
+  <si>
+    <t>Образцы</t>
+  </si>
+  <si>
+    <t>У вас нет образцов для этого исследования</t>
+  </si>
+  <si>
+    <t>В директорию Документы сохранен файл Перепись.</t>
+  </si>
+  <si>
+    <t>Конфигурация сохранена в каталоге Документы.</t>
+  </si>
+  <si>
+    <t>Никто не дома</t>
+  </si>
+  <si>
+    <t>Equipos de recogida</t>
+  </si>
+  <si>
+    <t>Iniciar bloque de campo</t>
+  </si>
+  <si>
+    <t>Guardar y finalizar bloque</t>
+  </si>
+  <si>
+    <t>Guardar y añadir otro campo</t>
+  </si>
+  <si>
+    <t>Ubicación actual no establecida</t>
+  </si>
+  <si>
+    <t>Introduzca el nombre de la opción</t>
+  </si>
+  <si>
+    <t>Exportar datos de recogida</t>
+  </si>
+  <si>
+    <t>Importar datos de campo</t>
+  </si>
+  <si>
+    <t>Seleccione una fecha</t>
+  </si>
+  <si>
+    <t>Seleccione</t>
+  </si>
+  <si>
+    <t>Nombre del equipo</t>
+  </si>
+  <si>
+    <t>Iniciar encuesta</t>
+  </si>
+  <si>
+    <t>Marcar como incompleta</t>
+  </si>
+  <si>
+    <t>Introducir PIN actual</t>
+  </si>
+  <si>
+    <t>Vuelva a introducir el nuevo PIN</t>
+  </si>
+  <si>
+    <t>Seleccione una hora</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Última actualización</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Añadir imagen</t>
+  </si>
+  <si>
+    <t>Áreas de Enumeración</t>
+  </si>
+  <si>
+    <t>Introducir nombre de equipo</t>
+  </si>
+  <si>
+    <t>Asignar hogares</t>
+  </si>
+  <si>
+    <t>Tipo de Muestreo</t>
+  </si>
+  <si>
+    <t>Generar Código QR...</t>
+  </si>
+  <si>
+    <t>Muestras</t>
+  </si>
+  <si>
+    <t>No tiene muestras para este estudio</t>
+  </si>
+  <si>
+    <t>Enumeración se ha guardado en el directorio Documentos.</t>
+  </si>
+  <si>
+    <t>Nadie en casa</t>
+  </si>
+  <si>
+    <t>Iniciar bloqueio de campo</t>
+  </si>
+  <si>
+    <t>Localização atual não definida</t>
+  </si>
+  <si>
+    <t>Introduzir o nome do item de opção</t>
+  </si>
+  <si>
+    <t>Importar dados de campo</t>
+  </si>
+  <si>
+    <t>Selecionar uma data</t>
+  </si>
+  <si>
+    <t>Selecionar</t>
+  </si>
+  <si>
+    <t>Marcar como Incompleto</t>
+  </si>
+  <si>
+    <t>Introduzir novamente o novo PIN</t>
+  </si>
+  <si>
+    <t>Selecionar uma hora</t>
+  </si>
+  <si>
+    <t>Última atualização</t>
+  </si>
+  <si>
+    <t>Adicionar imagem</t>
+  </si>
+  <si>
+    <t>Atribuir agregados familiares</t>
+  </si>
+  <si>
+    <t>Tipo de amostragem</t>
+  </si>
+  <si>
+    <t>Gerar código QR...</t>
+  </si>
+  <si>
+    <t>Amostras</t>
+  </si>
+  <si>
+    <t>A enumeração foi guardada no diretório Documentos.</t>
+  </si>
+  <si>
+    <t>Ninguém em casa</t>
+  </si>
+  <si>
+    <t>Équipes de collecte</t>
+  </si>
+  <si>
+    <t>Enregistrer et ajouter un autre champ</t>
+  </si>
+  <si>
+    <t>L'emplacement actuel n'est pas défini</t>
+  </si>
+  <si>
+    <t>Saisir le nom de l'élément de l'option</t>
+  </si>
+  <si>
+    <t>Exporter les données de la collection</t>
+  </si>
+  <si>
+    <t>Importer des données de champ</t>
+  </si>
+  <si>
+    <t>Sélectionner une date</t>
+  </si>
+  <si>
+    <t>Sélectionner</t>
+  </si>
+  <si>
+    <t>Nom de l'équipe</t>
+  </si>
+  <si>
+    <t>Lancer l'enquête</t>
+  </si>
+  <si>
+    <t>Marquer comme incomplet</t>
+  </si>
+  <si>
+    <t>Saisir le code PIN actuel</t>
+  </si>
+  <si>
+    <t>Sélectionner une heure</t>
+  </si>
+  <si>
+    <t>Dernière mise à jour</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Description de l'image</t>
+  </si>
+  <si>
+    <t>Ajouter une image</t>
+  </si>
+  <si>
+    <t>Saisir le nom de l'équipe</t>
+  </si>
+  <si>
+    <t>Assigner les ménages</t>
+  </si>
+  <si>
+    <t>Type d'échantillonnage</t>
+  </si>
+  <si>
+    <t>Générer un code QR...</t>
+  </si>
+  <si>
+    <t>Échantillons</t>
+  </si>
+  <si>
+    <t>Vous n'avez pas d'échantillons pour cette étude</t>
+  </si>
+  <si>
+    <t>L'énumération a été sauvegardée dans le répertoire Documents.</t>
+  </si>
+  <si>
+    <t>Configuration a été sauvegardé dans le répertoire Documents.</t>
+  </si>
+  <si>
+    <t>Personne à la maison</t>
+  </si>
+  <si>
+    <t>Début d'une série de variables</t>
+  </si>
+  <si>
+    <t>Sauvegarder et terminer la série de variables</t>
+  </si>
+  <si>
+    <t>Equipes de coleta</t>
+  </si>
+  <si>
+    <t>Salvar e terminar o bloco</t>
+  </si>
+  <si>
+    <t>Salvar e adicionar outro campo</t>
+  </si>
+  <si>
+    <t>Exportar dados de coleta</t>
+  </si>
+  <si>
+    <t>Nome da equipe</t>
+  </si>
+  <si>
+    <t>Lançar questionário</t>
+  </si>
+  <si>
+    <t>Insirar o PIN atual</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Insira nome da equipe</t>
+  </si>
+  <si>
+    <t>Não tem amostras para este estudo</t>
+  </si>
+  <si>
+    <t>team_name</t>
   </si>
 </sst>
 </file>
@@ -4382,7 +4736,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4392,6 +4746,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4408,7 +4774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4427,8 +4793,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4745,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
   <dimension ref="A1:F282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B258" sqref="B258"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5457,7 +5825,7 @@
       <c r="E35" t="s">
         <v>489</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5477,7 +5845,7 @@
       <c r="E36" t="s">
         <v>505</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5517,7 +5885,7 @@
       <c r="E38" t="s">
         <v>750</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9722,275 +10090,683 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" t="s">
+      <c r="A249" s="12" t="s">
         <v>1356</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="12" t="s">
         <v>1355</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="13" t="s">
         <v>1357</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="12" t="s">
         <v>1358</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="13" t="s">
         <v>1359</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="12" t="s">
         <v>1360</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="13" t="s">
         <v>1361</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="12" t="s">
         <v>1362</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="13" t="s">
         <v>1363</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="12" t="s">
         <v>1364</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="13" t="s">
         <v>1365</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="12" t="s">
         <v>1366</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="13" t="s">
         <v>1367</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="12" t="s">
         <v>1368</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="13" t="s">
         <v>1369</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="12" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
+      <c r="C256" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="13" t="s">
         <v>1371</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="12" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
+      <c r="C257" s="12" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="13" t="s">
         <v>1373</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="12" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="C258" s="12" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="13" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B259" s="12" t="s">
         <v>1375</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="13" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="13" t="s">
+      <c r="B260" s="12" t="s">
         <v>1377</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="13" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="13" t="s">
+      <c r="B261" s="12" t="s">
         <v>1379</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" s="12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="13" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="13" t="s">
+      <c r="B262" s="12" t="s">
         <v>1381</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" s="12" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="13" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="13" t="s">
+      <c r="B263" s="12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F263" s="12" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="13" t="s">
         <v>1383</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" s="12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F264" s="12" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="13" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="13" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="13" t="s">
+      <c r="B265" s="12" t="s">
         <v>1386</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="13" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="13" t="s">
+      <c r="B266" s="12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F266" s="12" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="13" t="s">
         <v>1388</v>
       </c>
-      <c r="B266" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="13" t="s">
+      <c r="B267" s="12" t="s">
         <v>1389</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F267" s="12" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="13" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="13" t="s">
+      <c r="B268" s="12" t="s">
         <v>1391</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" s="12" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F268" s="12" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="13" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="13" t="s">
+      <c r="B269" s="12" t="s">
         <v>1393</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F269" s="12" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="13" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="13" t="s">
+      <c r="B270" s="12" t="s">
         <v>1395</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F270" s="12" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="13" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="13" t="s">
+      <c r="B271" s="12" t="s">
         <v>1397</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" s="12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F271" s="12" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="13" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="13" t="s">
+      <c r="B272" s="12" t="s">
         <v>1399</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" s="12" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F272" s="12" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="13" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="13" t="s">
+      <c r="B273" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="F273" s="12" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="13" t="s">
         <v>1401</v>
       </c>
-      <c r="B273" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="13" t="s">
+      <c r="B274" s="12" t="s">
         <v>1402</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F274" s="12" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="13" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="13" t="s">
+      <c r="B275" s="12" t="s">
         <v>1404</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" s="12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F275" s="12" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="13" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="13" t="s">
+      <c r="B276" s="12" t="s">
         <v>1406</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" s="12" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E276" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F276" s="12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="13" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="13" t="s">
+      <c r="B277" s="12" t="s">
         <v>1408</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="13" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="13" t="s">
+      <c r="B278" s="12" t="s">
         <v>1410</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="13" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="13" t="s">
+      <c r="B279" s="14" t="s">
         <v>1412</v>
       </c>
-      <c r="B279" s="12" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+      <c r="C279" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F279" s="12" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="B280" s="12" t="s">
+      <c r="B280" s="14" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F280" s="12" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B282" s="12" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>840</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>841</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1416</v>
+      <c r="C282" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F282" s="12" t="s">
+        <v>1447</v>
       </c>
     </row>
   </sheetData>
@@ -10000,6 +10776,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -10228,15 +11013,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10249,6 +11025,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10267,26 +11051,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC93798B-708F-0A44-848B-08C69B2D4D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4611F9-E234-B945-8B79-2ED92CABD2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1533">
   <si>
     <t>Settings</t>
   </si>
@@ -1773,9 +1775,6 @@
     <t>Сбор перечислений</t>
   </si>
   <si>
-    <t>Генерировать выборку</t>
-  </si>
-  <si>
     <t>Сбор образцов</t>
   </si>
   <si>
@@ -1791,9 +1790,6 @@
     <t>Определить область перечисления</t>
   </si>
   <si>
-    <t>Определить метод отбора проб</t>
-  </si>
-  <si>
     <t>Исследования</t>
   </si>
   <si>
@@ -2010,15 +2006,9 @@
     <t>Флажок</t>
   </si>
   <si>
-    <t>Выпадающий</t>
-  </si>
-  <si>
     <t>Равно</t>
   </si>
   <si>
-    <t>БольшеТан</t>
-  </si>
-  <si>
     <t>И</t>
   </si>
   <si>
@@ -2049,21 +2039,12 @@
     <t>Перечислитель</t>
   </si>
   <si>
-    <t>Геодезист</t>
-  </si>
-  <si>
     <t>Конфигурации</t>
   </si>
   <si>
-    <t>У вас нет конфигураций</t>
-  </si>
-  <si>
     <t>У вас нет исследований для этой конфигурации</t>
   </si>
   <si>
-    <t>Сборщик данных</t>
-  </si>
-  <si>
     <t>Сканирование QR-кода</t>
   </si>
   <si>
@@ -2073,18 +2054,6 @@
     <t>Вход администратора</t>
   </si>
   <si>
-    <t>Администратор Войти</t>
-  </si>
-  <si>
-    <t>Сборщик данных Войти</t>
-  </si>
-  <si>
-    <t>Администратор Зарегистрироваться</t>
-  </si>
-  <si>
-    <t>Администратор Регистрация</t>
-  </si>
-  <si>
     <t>Регистрация сборщика данных</t>
   </si>
   <si>
@@ -2112,12 +2081,6 @@
     <t>Выберите свою роль</t>
   </si>
   <si>
-    <t>Администратор Выберите роль</t>
-  </si>
-  <si>
-    <t>Супервайзер Выберите роль</t>
-  </si>
-  <si>
     <t>Войти</t>
   </si>
   <si>
@@ -2133,9 +2096,6 @@
     <t>Введите Ваше имя</t>
   </si>
   <si>
-    <t>Вопрос о PIN-коде</t>
-  </si>
-  <si>
     <t>Забыли ответ PIN</t>
   </si>
   <si>
@@ -2163,9 +2123,6 @@
     <t>Создать поле</t>
   </si>
   <si>
-    <t>Имя конфигурации</t>
-  </si>
-  <si>
     <t>Имя исследования</t>
   </si>
   <si>
@@ -3687,9 +3644,6 @@
     <t>Configuration is missing a Team definition</t>
   </si>
   <si>
-    <t>Номер</t>
-  </si>
-  <si>
     <t>Подключено</t>
   </si>
   <si>
@@ -3711,9 +3665,6 @@
     <t>Время</t>
   </si>
   <si>
-    <t>Выпадающий список</t>
-  </si>
-  <si>
     <t>Поля</t>
   </si>
   <si>
@@ -3729,9 +3680,6 @@
     <t>% от общей численности населения</t>
   </si>
   <si>
-    <t>Равные</t>
-  </si>
-  <si>
     <t>Не равны</t>
   </si>
   <si>
@@ -3966,9 +3914,6 @@
     <t>Motif Incomplet</t>
   </si>
   <si>
-    <t>Attention !</t>
-  </si>
-  <si>
     <t>L'ajout de ce nouveau lieu est extrêmement proche d'un lieu existant.  Êtes-vous sûr de vouloir l'ajouter ?</t>
   </si>
   <si>
@@ -4368,9 +4313,6 @@
     <t>Добавить изображение</t>
   </si>
   <si>
-    <t>Зоны перечисления</t>
-  </si>
-  <si>
     <t>Введите название команды</t>
   </si>
   <si>
@@ -4654,6 +4596,60 @@
   </si>
   <si>
     <t>Não tem amostras para este estudo</t>
+  </si>
+  <si>
+    <t>Выпадающее окно</t>
+  </si>
+  <si>
+    <t>Не равно</t>
+  </si>
+  <si>
+    <t>Меньше чем</t>
+  </si>
+  <si>
+    <t>Больше чем или равно</t>
+  </si>
+  <si>
+    <t>Исследователь</t>
+  </si>
+  <si>
+    <t>У вас нет каких -либо конфигураций</t>
+  </si>
+  <si>
+    <t>Опрашивающий</t>
+  </si>
+  <si>
+    <t>Вход  Руководитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вход опрашивающего </t>
+  </si>
+  <si>
+    <t>Зарегистрироваться как Администратор</t>
+  </si>
+  <si>
+    <t>Зарегистрироваться как Руководитель</t>
+  </si>
+  <si>
+    <t>Выберите роль Администратора</t>
+  </si>
+  <si>
+    <t>Выберите роль Супервайзера</t>
+  </si>
+  <si>
+    <t>Забыли PIN-код</t>
+  </si>
+  <si>
+    <t>Конфигурация имени</t>
+  </si>
+  <si>
+    <t>Создасть выборку</t>
+  </si>
+  <si>
+    <t>Определить метод выборки</t>
+  </si>
+  <si>
+    <t>Attention!</t>
   </si>
   <si>
     <t>team_name</t>
@@ -4736,7 +4732,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4755,12 +4751,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4774,7 +4764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4796,7 +4786,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5113,7 +5102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
   <dimension ref="A1:F282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
@@ -5124,7 +5113,7 @@
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.1640625" customWidth="1"/>
+    <col min="6" max="6" width="122.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.6640625" customWidth="1"/>
     <col min="8" max="8" width="44.83203125" customWidth="1"/>
   </cols>
@@ -5157,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="D2" t="s">
         <v>278</v>
@@ -5166,7 +5155,7 @@
         <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5177,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="D3" t="s">
         <v>400</v>
@@ -5186,7 +5175,7 @@
         <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5197,7 +5186,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="D4" t="s">
         <v>402</v>
@@ -5206,7 +5195,7 @@
         <v>490</v>
       </c>
       <c r="F4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5226,7 +5215,7 @@
         <v>491</v>
       </c>
       <c r="F5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5240,13 +5229,13 @@
         <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>1307</v>
+        <v>1288</v>
       </c>
       <c r="E6" t="s">
         <v>291</v>
       </c>
       <c r="F6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5266,7 +5255,7 @@
         <v>487</v>
       </c>
       <c r="F7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5286,7 +5275,7 @@
         <v>492</v>
       </c>
       <c r="F8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5306,7 +5295,7 @@
         <v>493</v>
       </c>
       <c r="F9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5326,7 +5315,7 @@
         <v>494</v>
       </c>
       <c r="F10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5346,7 +5335,7 @@
         <v>495</v>
       </c>
       <c r="F11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5357,16 +5346,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="D12" t="s">
         <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="F12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5377,7 +5366,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="D13" t="s">
         <v>409</v>
@@ -5386,7 +5375,7 @@
         <v>496</v>
       </c>
       <c r="F13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5397,16 +5386,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="D14" t="s">
         <v>410</v>
       </c>
       <c r="E14" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="F14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5417,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="D15" t="s">
         <v>411</v>
@@ -5426,7 +5415,7 @@
         <v>497</v>
       </c>
       <c r="F15" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5437,16 +5426,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D16" t="s">
-        <v>1308</v>
+        <v>1289</v>
       </c>
       <c r="E16" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="F16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5466,7 +5455,7 @@
         <v>498</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5486,7 +5475,7 @@
         <v>499</v>
       </c>
       <c r="F18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5497,16 +5486,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="D19" t="s">
-        <v>1309</v>
+        <v>1290</v>
       </c>
       <c r="E19" t="s">
         <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5520,13 +5509,13 @@
         <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>1310</v>
+        <v>1291</v>
       </c>
       <c r="E20" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="F20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5537,16 +5526,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="D21" t="s">
-        <v>1311</v>
+        <v>1292</v>
       </c>
       <c r="E21" t="s">
         <v>501</v>
       </c>
       <c r="F21" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5560,13 +5549,13 @@
         <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>1312</v>
+        <v>1293</v>
       </c>
       <c r="E22" t="s">
         <v>320</v>
       </c>
       <c r="F22" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5586,7 +5575,7 @@
         <v>502</v>
       </c>
       <c r="F23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5606,12 +5595,12 @@
         <v>503</v>
       </c>
       <c r="F24" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -5623,15 +5612,15 @@
         <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="F25" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -5646,12 +5635,12 @@
         <v>504</v>
       </c>
       <c r="F26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -5666,12 +5655,12 @@
         <v>300</v>
       </c>
       <c r="F27" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -5686,7 +5675,7 @@
         <v>301</v>
       </c>
       <c r="F28" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5706,7 +5695,7 @@
         <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5726,7 +5715,7 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5746,7 +5735,7 @@
         <v>488</v>
       </c>
       <c r="F31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5757,16 +5746,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="D32" t="s">
         <v>417</v>
       </c>
       <c r="E32" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="F32" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5777,16 +5766,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="D33" t="s">
         <v>418</v>
       </c>
       <c r="E33" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="F33" t="s">
-        <v>652</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5806,7 +5795,7 @@
         <v>305</v>
       </c>
       <c r="F34" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5817,7 +5806,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="D35" t="s">
         <v>420</v>
@@ -5825,8 +5814,8 @@
       <c r="E35" t="s">
         <v>489</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>33</v>
+      <c r="F35" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5840,13 +5829,13 @@
         <v>505</v>
       </c>
       <c r="D36" t="s">
-        <v>1313</v>
+        <v>1294</v>
       </c>
       <c r="E36" t="s">
         <v>505</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>34</v>
+      <c r="F36" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5857,16 +5846,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="D37" t="s">
         <v>421</v>
       </c>
       <c r="E37" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F37" t="s">
-        <v>654</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5880,13 +5869,13 @@
         <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>1314</v>
+        <v>1295</v>
       </c>
       <c r="E38" t="s">
-        <v>750</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>36</v>
+        <v>735</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5906,7 +5895,7 @@
         <v>506</v>
       </c>
       <c r="F39" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5926,7 +5915,7 @@
         <v>423</v>
       </c>
       <c r="F40" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5946,7 +5935,7 @@
         <v>507</v>
       </c>
       <c r="F41" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5966,7 +5955,7 @@
         <v>508</v>
       </c>
       <c r="F42" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5986,7 +5975,7 @@
         <v>509</v>
       </c>
       <c r="F43" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6006,7 +5995,7 @@
         <v>510</v>
       </c>
       <c r="F44" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6017,7 +6006,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="D45" t="s">
         <v>427</v>
@@ -6026,7 +6015,7 @@
         <v>511</v>
       </c>
       <c r="F45" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6046,7 +6035,7 @@
         <v>313</v>
       </c>
       <c r="F46" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6066,7 +6055,7 @@
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6086,7 +6075,7 @@
         <v>314</v>
       </c>
       <c r="F48" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6097,7 +6086,7 @@
         <v>173</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="D49" t="s">
         <v>429</v>
@@ -6106,7 +6095,7 @@
         <v>315</v>
       </c>
       <c r="F49" t="s">
-        <v>665</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6123,10 +6112,10 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F50" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6137,7 +6126,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="D51" t="s">
         <v>430</v>
@@ -6146,7 +6135,7 @@
         <v>512</v>
       </c>
       <c r="F51" t="s">
-        <v>667</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6157,7 +6146,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="D52" t="s">
         <v>431</v>
@@ -6166,7 +6155,7 @@
         <v>513</v>
       </c>
       <c r="F52" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6177,7 +6166,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="D53" t="s">
         <v>432</v>
@@ -6186,7 +6175,7 @@
         <v>514</v>
       </c>
       <c r="F53" t="s">
-        <v>669</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6200,13 +6189,13 @@
         <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>1315</v>
+        <v>1296</v>
       </c>
       <c r="E54" t="s">
         <v>515</v>
       </c>
       <c r="F54" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6217,16 +6206,16 @@
         <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="D55" t="s">
-        <v>1316</v>
+        <v>1297</v>
       </c>
       <c r="E55" t="s">
         <v>516</v>
       </c>
       <c r="F55" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6237,16 +6226,16 @@
         <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D56" t="s">
-        <v>1317</v>
+        <v>1298</v>
       </c>
       <c r="E56" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="F56" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6257,16 +6246,16 @@
         <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="D57" t="s">
         <v>433</v>
       </c>
       <c r="E57" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F57" t="s">
-        <v>673</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6277,16 +6266,16 @@
         <v>54</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="D58" t="s">
         <v>434</v>
       </c>
       <c r="E58" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="F58" t="s">
-        <v>674</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6300,13 +6289,13 @@
         <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>1318</v>
+        <v>1299</v>
       </c>
       <c r="E59" t="s">
         <v>517</v>
       </c>
       <c r="F59" t="s">
-        <v>675</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6317,7 +6306,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="D60" t="s">
         <v>435</v>
@@ -6326,7 +6315,7 @@
         <v>518</v>
       </c>
       <c r="F60" t="s">
-        <v>676</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6337,7 +6326,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="D61" t="s">
         <v>436</v>
@@ -6346,7 +6335,7 @@
         <v>519</v>
       </c>
       <c r="F61" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6357,16 +6346,16 @@
         <v>58</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="D62" t="s">
         <v>437</v>
       </c>
       <c r="E62" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="F62" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6383,10 +6372,10 @@
         <v>438</v>
       </c>
       <c r="E63" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="F63" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6397,16 +6386,16 @@
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="D64" t="s">
         <v>440</v>
       </c>
       <c r="E64" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F64" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6417,16 +6406,16 @@
         <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="D65" t="s">
-        <v>1320</v>
+        <v>1301</v>
       </c>
       <c r="E65" t="s">
         <v>358</v>
       </c>
       <c r="F65" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6446,7 +6435,7 @@
         <v>520</v>
       </c>
       <c r="F66" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6457,16 +6446,16 @@
         <v>63</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="D67" t="s">
-        <v>1319</v>
+        <v>1300</v>
       </c>
       <c r="E67" t="s">
         <v>290</v>
       </c>
       <c r="F67" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6480,13 +6469,13 @@
         <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>1321</v>
+        <v>1302</v>
       </c>
       <c r="E68" t="s">
         <v>521</v>
       </c>
       <c r="F68" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6497,7 +6486,7 @@
         <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="D69" t="s">
         <v>441</v>
@@ -6506,7 +6495,7 @@
         <v>522</v>
       </c>
       <c r="F69" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6517,16 +6506,16 @@
         <v>66</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="D70" t="s">
-        <v>1322</v>
+        <v>1303</v>
       </c>
       <c r="E70" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="F70" t="s">
-        <v>686</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6537,16 +6526,16 @@
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="D71" t="s">
-        <v>1323</v>
+        <v>1304</v>
       </c>
       <c r="E71" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="F71" t="s">
-        <v>687</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6563,10 +6552,10 @@
         <v>443</v>
       </c>
       <c r="E72" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="F72" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6577,7 +6566,7 @@
         <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="D73" t="s">
         <v>442</v>
@@ -6586,7 +6575,7 @@
         <v>523</v>
       </c>
       <c r="F73" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6597,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="D74" t="s">
         <v>400</v>
@@ -6606,7 +6595,7 @@
         <v>486</v>
       </c>
       <c r="F74" t="s">
-        <v>689</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6617,16 +6606,16 @@
         <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="D75" t="s">
-        <v>1324</v>
+        <v>1305</v>
       </c>
       <c r="E75" t="s">
         <v>524</v>
       </c>
       <c r="F75" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6646,7 +6635,7 @@
         <v>525</v>
       </c>
       <c r="F76" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6657,16 +6646,16 @@
         <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="D77" t="s">
         <v>444</v>
       </c>
       <c r="E77" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="F77" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6697,16 +6686,16 @@
         <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>1325</v>
+        <v>1306</v>
       </c>
       <c r="E79" t="s">
         <v>526</v>
       </c>
       <c r="F79" t="s">
-        <v>693</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6717,16 +6706,16 @@
         <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="E80" t="s">
         <v>527</v>
       </c>
       <c r="F80" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6737,16 +6726,16 @@
         <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D81" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="E81" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="F81" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6766,7 +6755,7 @@
         <v>528</v>
       </c>
       <c r="F82" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6786,7 +6775,7 @@
         <v>529</v>
       </c>
       <c r="F83" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6806,7 +6795,7 @@
         <v>530</v>
       </c>
       <c r="F84" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6826,7 +6815,7 @@
         <v>531</v>
       </c>
       <c r="F85" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6837,7 +6826,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="D86" t="s">
         <v>450</v>
@@ -6846,7 +6835,7 @@
         <v>532</v>
       </c>
       <c r="F86" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6866,7 +6855,7 @@
         <v>533</v>
       </c>
       <c r="F87" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6886,7 +6875,7 @@
         <v>534</v>
       </c>
       <c r="F88" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6897,16 +6886,16 @@
         <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="D89" t="s">
-        <v>1327</v>
+        <v>1308</v>
       </c>
       <c r="E89" t="s">
         <v>535</v>
       </c>
       <c r="F89" t="s">
-        <v>703</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6926,7 +6915,7 @@
         <v>536</v>
       </c>
       <c r="F90" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6946,7 +6935,7 @@
         <v>537</v>
       </c>
       <c r="F91" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6966,7 +6955,7 @@
         <v>538</v>
       </c>
       <c r="F92" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6983,10 +6972,10 @@
         <v>456</v>
       </c>
       <c r="E93" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="F93" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -7003,10 +6992,10 @@
         <v>466</v>
       </c>
       <c r="E94" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="F94" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7023,10 +7012,10 @@
         <v>467</v>
       </c>
       <c r="E95" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="F95" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -7040,13 +7029,13 @@
         <v>363</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>1328</v>
+        <v>1309</v>
       </c>
       <c r="E96" t="s">
         <v>363</v>
       </c>
       <c r="F96" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7060,13 +7049,13 @@
         <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>1329</v>
+        <v>1310</v>
       </c>
       <c r="E97" t="s">
         <v>539</v>
       </c>
       <c r="F97" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7077,7 +7066,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="D98" t="s">
         <v>468</v>
@@ -7086,7 +7075,7 @@
         <v>540</v>
       </c>
       <c r="F98" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7106,7 +7095,7 @@
         <v>541</v>
       </c>
       <c r="F99" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7117,13 +7106,13 @@
         <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="D100" t="s">
         <v>470</v>
       </c>
       <c r="E100" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="F100" t="s">
         <v>572</v>
@@ -7146,7 +7135,7 @@
         <v>542</v>
       </c>
       <c r="F101" t="s">
-        <v>573</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7160,13 +7149,13 @@
         <v>367</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>1330</v>
+        <v>1311</v>
       </c>
       <c r="E102" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="F102" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7177,7 +7166,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="D103" t="s">
         <v>472</v>
@@ -7186,7 +7175,7 @@
         <v>543</v>
       </c>
       <c r="F103" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7197,16 +7186,16 @@
         <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="D104" t="s">
         <v>473</v>
       </c>
       <c r="E104" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="F104" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7226,7 +7215,7 @@
         <v>544</v>
       </c>
       <c r="F105" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7246,7 +7235,7 @@
         <v>545</v>
       </c>
       <c r="F106" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7266,7 +7255,7 @@
         <v>546</v>
       </c>
       <c r="F107" t="s">
-        <v>579</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7286,7 +7275,7 @@
         <v>547</v>
       </c>
       <c r="F108" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7306,7 +7295,7 @@
         <v>548</v>
       </c>
       <c r="F109" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7326,7 +7315,7 @@
         <v>352</v>
       </c>
       <c r="F110" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7337,16 +7326,16 @@
         <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="D111" t="s">
         <v>482</v>
       </c>
       <c r="E111" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="F111" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7357,16 +7346,16 @@
         <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="D112" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
       <c r="E112" t="s">
         <v>549</v>
       </c>
       <c r="F112" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7377,7 +7366,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="D113" t="s">
         <v>483</v>
@@ -7386,7 +7375,7 @@
         <v>550</v>
       </c>
       <c r="F113" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7397,16 +7386,16 @@
         <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="E114" t="s">
         <v>551</v>
       </c>
       <c r="F114" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7417,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="D115" t="s">
         <v>278</v>
@@ -7426,7 +7415,7 @@
         <v>485</v>
       </c>
       <c r="F115" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7440,13 +7429,13 @@
         <v>353</v>
       </c>
       <c r="D116" t="s">
-        <v>1332</v>
+        <v>1313</v>
       </c>
       <c r="E116" t="s">
         <v>552</v>
       </c>
       <c r="F116" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7463,10 +7452,10 @@
         <v>479</v>
       </c>
       <c r="E117" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="F117" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7486,7 +7475,7 @@
         <v>355</v>
       </c>
       <c r="F118" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7497,16 +7486,16 @@
         <v>113</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="D119" t="s">
         <v>458</v>
       </c>
       <c r="E119" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="F119" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7517,16 +7506,16 @@
         <v>114</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="D120" t="s">
         <v>459</v>
       </c>
       <c r="E120" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="F120" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7537,7 +7526,7 @@
         <v>115</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="D121" t="s">
         <v>460</v>
@@ -7546,7 +7535,7 @@
         <v>553</v>
       </c>
       <c r="F121" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7566,7 +7555,7 @@
         <v>371</v>
       </c>
       <c r="F122" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7586,7 +7575,7 @@
         <v>554</v>
       </c>
       <c r="F123" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7603,10 +7592,10 @@
         <v>462</v>
       </c>
       <c r="E124" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="F124" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7626,7 +7615,7 @@
         <v>555</v>
       </c>
       <c r="F125" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7646,7 +7635,7 @@
         <v>556</v>
       </c>
       <c r="F126" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7666,7 +7655,7 @@
         <v>557</v>
       </c>
       <c r="F127" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7686,7 +7675,7 @@
         <v>558</v>
       </c>
       <c r="F128" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7706,7 +7695,7 @@
         <v>559</v>
       </c>
       <c r="F129" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7717,16 +7706,16 @@
         <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="D130" t="s">
         <v>380</v>
       </c>
       <c r="E130" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="F130" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7746,7 +7735,7 @@
         <v>338</v>
       </c>
       <c r="F131" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7766,7 +7755,7 @@
         <v>339</v>
       </c>
       <c r="F132" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7777,16 +7766,16 @@
         <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="D133" t="s">
         <v>383</v>
       </c>
       <c r="E133" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F133" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7806,7 +7795,7 @@
         <v>340</v>
       </c>
       <c r="F134" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7826,7 +7815,7 @@
         <v>341</v>
       </c>
       <c r="F135" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7846,7 +7835,7 @@
         <v>560</v>
       </c>
       <c r="F136" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7866,7 +7855,7 @@
         <v>343</v>
       </c>
       <c r="F137" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7886,7 +7875,7 @@
         <v>561</v>
       </c>
       <c r="F138" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7903,10 +7892,10 @@
         <v>389</v>
       </c>
       <c r="E139" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="F139" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7926,7 +7915,7 @@
         <v>562</v>
       </c>
       <c r="F140" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7946,7 +7935,7 @@
         <v>563</v>
       </c>
       <c r="F141" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7966,7 +7955,7 @@
         <v>564</v>
       </c>
       <c r="F142" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7980,13 +7969,13 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>1333</v>
+        <v>1314</v>
       </c>
       <c r="E143" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="F143" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -8006,7 +7995,7 @@
         <v>565</v>
       </c>
       <c r="F144" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -8023,10 +8012,10 @@
         <v>394</v>
       </c>
       <c r="E145" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="F145" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -8046,7 +8035,7 @@
         <v>566</v>
       </c>
       <c r="F146" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8066,7 +8055,7 @@
         <v>567</v>
       </c>
       <c r="F147" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8086,7 +8075,7 @@
         <v>568</v>
       </c>
       <c r="F148" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8106,7 +8095,7 @@
         <v>569</v>
       </c>
       <c r="F149" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8126,872 +8115,872 @@
         <v>570</v>
       </c>
       <c r="F150" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="4" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="C151" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="D151" t="s">
-        <v>1334</v>
+        <v>1315</v>
       </c>
       <c r="E151" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="F151" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="4" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="C152" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="D152" t="s">
-        <v>1335</v>
+        <v>1316</v>
       </c>
       <c r="E152" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="F152" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="4" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="C153" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="D153" t="s">
-        <v>1336</v>
+        <v>1317</v>
       </c>
       <c r="E153" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="F153" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="4" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="C154" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="D154" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="E154" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="F154" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="4" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C155" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="D155" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="E155" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="F155" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="C156" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="D156" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="E156" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="F156" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="C157" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="D157" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="E157" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="F157" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="C158" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="D158" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="E158" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
       <c r="F158" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="4" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="C159" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="D159" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="E159" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="F159" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="4" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="C160" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="D160" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="E160" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="F160" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="4" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="C161" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="D161" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="E161" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="F161" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="4" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="C162" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="D162" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="E162" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="F162" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="4" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="C163" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="D163" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="E163" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="F163" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="4" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="C164" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="D164" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="E164" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="F164" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="C165" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="D165" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="E165" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="F165" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="C166" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="D166" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="E166" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="F166" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="4" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="C167" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D167" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="E167" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="F167" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="4" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="C168" t="s">
+        <v>961</v>
+      </c>
+      <c r="D168" t="s">
+        <v>902</v>
+      </c>
+      <c r="E168" t="s">
         <v>976</v>
       </c>
-      <c r="D168" t="s">
-        <v>917</v>
-      </c>
-      <c r="E168" t="s">
-        <v>991</v>
-      </c>
       <c r="F168" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="4" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="C169" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="D169" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="E169" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="F169" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="4" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="C170" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="D170" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="E170" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="F170" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="4" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="C171" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="D171" t="s">
-        <v>1337</v>
+        <v>1318</v>
       </c>
       <c r="E171" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="F171" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="4" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="C172" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="D172" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="E172" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="F172" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="4" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="C173" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="D173" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="E173" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="F173" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="C174" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="D174" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="E174" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="F174" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C175" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="D175" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="E175" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="F175" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="C176" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="D176" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="E176" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="F176" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="4" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="C177" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="D177" t="s">
+        <v>910</v>
+      </c>
+      <c r="E177" t="s">
         <v>925</v>
       </c>
-      <c r="E177" t="s">
-        <v>940</v>
-      </c>
       <c r="F177" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="4" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="C178" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="D178" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="E178" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="F178" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>850</v>
-      </c>
       <c r="C179" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="D179" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="E179" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="F179" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="4" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="C180" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="D180" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="E180" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="F180" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="4" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="C181" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="D181" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="E181" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="F181" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="4" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="C182" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="D182" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="E182" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
       <c r="F182" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="4" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="D183" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="F183" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="4" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="C184" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="D184" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="E184" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F184" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="4" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="B185" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="C185" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="D185" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="E185" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="F185" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="4" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="C186" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="D186" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="E186" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="F186" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="4" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="B187" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="C187" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="D187" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="E187" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="F187" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="4" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="B188" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="C188" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="D188" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="E188" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="F188" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="B189" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="C189" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="D189" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="E189" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="F189" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="4" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
       <c r="B190" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="C190" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="D190" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="E190" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="F190" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="4" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="B191" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="C191" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="D191" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="E191" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="F191" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="B192" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="C192" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="D192" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="E192" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="F192" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="4" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="B193" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="C193" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="D193" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="E193" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="F193" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="B194" t="s">
         <v>22</v>
@@ -9006,332 +8995,332 @@
         <v>503</v>
       </c>
       <c r="F194" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="B195" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="C195" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="D195" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="E195" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="F195" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="B196" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="C196" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="D196" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="E196" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="F196" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="B197" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="C197" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="D197" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="E197" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="F197" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="B198" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="C198" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="D198" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="E198" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="F198" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="B199" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="C199" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="D199" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="E199" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="F199" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="B200" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="C200" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="D200" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="E200" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="F200" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="B201" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="C201" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="D201" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="E201" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="F201" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="B202" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="C202" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="D202" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="E202" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="F202" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="B203" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="C203" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D203" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="E203" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="F203" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="C204" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D204" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="E204" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="F204" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="C205" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="D205" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="E205" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="F205" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="9" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C206" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="D206" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="E206" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="F206" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="C207" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="D207" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="E207" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="F207" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="9" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="C208" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="D208" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="E208" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="F208" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="9" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D209" t="s">
         <v>1118</v>
       </c>
-      <c r="C209" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1133</v>
-      </c>
       <c r="E209" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="F209" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D210" t="s">
         <v>1119</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1134</v>
-      </c>
       <c r="E210" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="F210" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="9" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>28</v>
@@ -9340,18 +9329,18 @@
         <v>303</v>
       </c>
       <c r="D211" t="s">
-        <v>1282</v>
+        <v>1264</v>
       </c>
       <c r="E211" t="s">
         <v>303</v>
       </c>
       <c r="F211" t="s">
-        <v>1211</v>
+        <v>647</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="4" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="B212" t="s">
         <v>27</v>
@@ -9366,172 +9355,172 @@
         <v>302</v>
       </c>
       <c r="F212" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="4" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="B213" t="s">
         <v>30</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="D213" t="s">
         <v>417</v>
       </c>
       <c r="E213" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="F213" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="4" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="B214" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="C214" t="s">
-        <v>1260</v>
+        <v>1242</v>
       </c>
       <c r="D214" t="s">
-        <v>1283</v>
+        <v>1265</v>
       </c>
       <c r="E214" t="s">
-        <v>1240</v>
+        <v>1222</v>
       </c>
       <c r="F214" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="B215" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="C215" t="s">
-        <v>1261</v>
+        <v>1243</v>
       </c>
       <c r="D215" t="s">
-        <v>1284</v>
+        <v>1266</v>
       </c>
       <c r="E215" t="s">
-        <v>1241</v>
+        <v>1223</v>
       </c>
       <c r="F215" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="4" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="B216" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="C216" t="s">
-        <v>1262</v>
+        <v>1244</v>
       </c>
       <c r="D216" t="s">
-        <v>1285</v>
+        <v>1267</v>
       </c>
       <c r="E216" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
       <c r="F216" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="4" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="B217" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="C217" t="s">
-        <v>1263</v>
+        <v>1245</v>
       </c>
       <c r="D217" t="s">
-        <v>1286</v>
+        <v>1268</v>
       </c>
       <c r="E217" t="s">
-        <v>1242</v>
+        <v>1224</v>
       </c>
       <c r="F217" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="4" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="B218" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="C218" t="s">
-        <v>1264</v>
+        <v>1246</v>
       </c>
       <c r="D218" t="s">
-        <v>1287</v>
+        <v>1269</v>
       </c>
       <c r="E218" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="F218" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="4" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="B219" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
       <c r="C219" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="D219" t="s">
-        <v>1288</v>
+        <v>1270</v>
       </c>
       <c r="E219" t="s">
-        <v>1243</v>
+        <v>1225</v>
       </c>
       <c r="F219" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="4" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="B220" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
       <c r="C220" t="s">
-        <v>1244</v>
+        <v>1226</v>
       </c>
       <c r="D220" t="s">
-        <v>1338</v>
+        <v>1319</v>
       </c>
       <c r="E220" t="s">
-        <v>1244</v>
+        <v>1226</v>
       </c>
       <c r="F220" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="4" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="B221" t="s">
         <v>29</v>
@@ -9540,78 +9529,78 @@
         <v>304</v>
       </c>
       <c r="D221" t="s">
-        <v>1339</v>
+        <v>1320</v>
       </c>
       <c r="E221" t="s">
         <v>488</v>
       </c>
       <c r="F221" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="4" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
       <c r="B222" t="s">
         <v>31</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="D222" t="s">
         <v>418</v>
       </c>
       <c r="E222" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="F222" t="s">
-        <v>1219</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="4" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="B223" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="C223" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="D223" t="s">
-        <v>1340</v>
+        <v>1321</v>
       </c>
       <c r="E223" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="F223" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="4" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="B224" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="C224" t="s">
-        <v>1266</v>
+        <v>1248</v>
       </c>
       <c r="D224" t="s">
-        <v>1341</v>
+        <v>1322</v>
       </c>
       <c r="E224" t="s">
-        <v>1246</v>
+        <v>1228</v>
       </c>
       <c r="F224" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="B225" t="s">
         <v>40</v>
@@ -9626,12 +9615,12 @@
         <v>508</v>
       </c>
       <c r="F225" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="4" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="B226" t="s">
         <v>41</v>
@@ -9646,112 +9635,112 @@
         <v>509</v>
       </c>
       <c r="F226" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="B227" t="s">
         <v>42</v>
       </c>
       <c r="C227" t="s">
-        <v>1267</v>
+        <v>1249</v>
       </c>
       <c r="D227" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="E227" t="s">
         <v>510</v>
       </c>
       <c r="F227" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="B228" t="s">
         <v>43</v>
       </c>
       <c r="C228" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="D228" t="s">
-        <v>1290</v>
+        <v>1272</v>
       </c>
       <c r="E228" t="s">
         <v>511</v>
       </c>
       <c r="F228" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="B229" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C229" t="s">
-        <v>1268</v>
+        <v>1250</v>
       </c>
       <c r="D229" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="E229" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
       <c r="F229" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="B230" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="C230" t="s">
-        <v>1269</v>
+        <v>1251</v>
       </c>
       <c r="D230" t="s">
-        <v>1291</v>
+        <v>1273</v>
       </c>
       <c r="E230" t="s">
-        <v>1248</v>
+        <v>1230</v>
       </c>
       <c r="F230" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
       <c r="B231" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
       <c r="C231" t="s">
-        <v>1270</v>
+        <v>1252</v>
       </c>
       <c r="D231" t="s">
-        <v>1292</v>
+        <v>1274</v>
       </c>
       <c r="E231" t="s">
-        <v>1249</v>
+        <v>1231</v>
       </c>
       <c r="F231" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="B232" t="s">
         <v>32</v>
@@ -9760,824 +9749,824 @@
         <v>305</v>
       </c>
       <c r="D232" t="s">
-        <v>1293</v>
+        <v>1275</v>
       </c>
       <c r="E232" t="s">
         <v>305</v>
       </c>
       <c r="F232" t="s">
-        <v>1225</v>
+        <v>650</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="B233" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="C233" t="s">
-        <v>1271</v>
+        <v>1253</v>
       </c>
       <c r="D233" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="E233" t="s">
         <v>489</v>
       </c>
       <c r="F233" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="B234" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
       <c r="C234" t="s">
         <v>505</v>
       </c>
       <c r="D234" t="s">
-        <v>1295</v>
+        <v>1277</v>
       </c>
       <c r="E234" t="s">
         <v>505</v>
       </c>
       <c r="F234" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
       <c r="B235" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
       <c r="C235" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="D235" t="s">
-        <v>1296</v>
+        <v>1278</v>
       </c>
       <c r="E235" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F235" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>1186</v>
+        <v>1171</v>
       </c>
       <c r="B236" t="s">
-        <v>1187</v>
+        <v>1172</v>
       </c>
       <c r="C236" t="s">
         <v>306</v>
       </c>
       <c r="D236" t="s">
-        <v>1297</v>
+        <v>1279</v>
       </c>
       <c r="E236" t="s">
-        <v>1250</v>
+        <v>1232</v>
       </c>
       <c r="F236" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>1188</v>
+        <v>1173</v>
       </c>
       <c r="B237" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
       <c r="C237" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="D237" t="s">
-        <v>1348</v>
+        <v>1329</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="F237" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="B238" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="C238" t="s">
-        <v>1272</v>
+        <v>1254</v>
       </c>
       <c r="D238" t="s">
-        <v>1342</v>
+        <v>1323</v>
       </c>
       <c r="E238" t="s">
-        <v>1251</v>
+        <v>1233</v>
       </c>
       <c r="F238" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="B239" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="C239" t="s">
-        <v>1273</v>
+        <v>1255</v>
       </c>
       <c r="D239" t="s">
-        <v>1298</v>
+        <v>1280</v>
       </c>
       <c r="E239" t="s">
-        <v>1252</v>
+        <v>1234</v>
       </c>
       <c r="F239" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="B240" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="C240" t="s">
-        <v>1274</v>
+        <v>1256</v>
       </c>
       <c r="D240" t="s">
-        <v>1343</v>
+        <v>1324</v>
       </c>
       <c r="E240" t="s">
-        <v>1253</v>
+        <v>1235</v>
       </c>
       <c r="F240" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
       <c r="B241" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
       <c r="C241" t="s">
-        <v>1275</v>
+        <v>1257</v>
       </c>
       <c r="D241" t="s">
-        <v>1299</v>
+        <v>1281</v>
       </c>
       <c r="E241" t="s">
-        <v>1254</v>
+        <v>1236</v>
       </c>
       <c r="F241" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
       <c r="B242" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
       <c r="C242" t="s">
-        <v>1276</v>
+        <v>1258</v>
       </c>
       <c r="D242" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
       <c r="E242" t="s">
-        <v>1255</v>
+        <v>1237</v>
       </c>
       <c r="F242" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="B243" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="C243" t="s">
-        <v>1277</v>
+        <v>1259</v>
       </c>
       <c r="D243" t="s">
-        <v>1301</v>
+        <v>1283</v>
       </c>
       <c r="E243" t="s">
-        <v>1256</v>
+        <v>1238</v>
       </c>
       <c r="F243" t="s">
-        <v>1235</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="B244" t="s">
-        <v>1202</v>
+        <v>1187</v>
       </c>
       <c r="C244" t="s">
-        <v>1278</v>
+        <v>1260</v>
       </c>
       <c r="D244" t="s">
-        <v>1302</v>
+        <v>1284</v>
       </c>
       <c r="E244" t="s">
-        <v>1278</v>
+        <v>1260</v>
       </c>
       <c r="F244" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
       <c r="B245" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
       <c r="C245" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
       <c r="D245" t="s">
-        <v>1303</v>
+        <v>1285</v>
       </c>
       <c r="E245" t="s">
-        <v>1353</v>
+        <v>1334</v>
       </c>
       <c r="F245" t="s">
-        <v>1236</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
       <c r="B246" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="C246" t="s">
-        <v>1279</v>
+        <v>1261</v>
       </c>
       <c r="D246" t="s">
-        <v>1304</v>
+        <v>1531</v>
       </c>
       <c r="E246" t="s">
-        <v>1257</v>
+        <v>1239</v>
       </c>
       <c r="F246" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="B247" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
       <c r="C247" t="s">
-        <v>1280</v>
+        <v>1262</v>
       </c>
       <c r="D247" t="s">
-        <v>1305</v>
+        <v>1286</v>
       </c>
       <c r="E247" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="F247" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="B248" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="C248" t="s">
-        <v>1281</v>
+        <v>1263</v>
       </c>
       <c r="D248" t="s">
-        <v>1306</v>
+        <v>1287</v>
       </c>
       <c r="E248" t="s">
-        <v>1259</v>
+        <v>1241</v>
       </c>
       <c r="F248" t="s">
-        <v>1239</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="12" t="s">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1448</v>
+        <v>1428</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>1524</v>
+        <v>1504</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>1416</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="13" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1449</v>
+        <v>1429</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>1522</v>
+        <v>1502</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>1479</v>
+        <v>1459</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>1417</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="13" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>1360</v>
+        <v>1341</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1450</v>
+        <v>1430</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>1523</v>
+        <v>1503</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>1418</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="13" t="s">
-        <v>1361</v>
+        <v>1342</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>1362</v>
+        <v>1343</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1451</v>
+        <v>1431</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>1497</v>
+        <v>1477</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>1526</v>
+        <v>1506</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>1419</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="13" t="s">
-        <v>1363</v>
+        <v>1344</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>1364</v>
+        <v>1345</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1452</v>
+        <v>1432</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>1498</v>
+        <v>1478</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>1420</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="13" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>1366</v>
+        <v>1347</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1453</v>
+        <v>1433</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>1499</v>
+        <v>1479</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>1481</v>
+        <v>1461</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="13" t="s">
-        <v>1367</v>
+        <v>1348</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>1368</v>
+        <v>1349</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1454</v>
+        <v>1434</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>1527</v>
+        <v>1507</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>1422</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="13" t="s">
-        <v>1369</v>
+        <v>1350</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>1370</v>
+        <v>1351</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1455</v>
+        <v>1435</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>1482</v>
+        <v>1462</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>1423</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="13" t="s">
-        <v>1371</v>
+        <v>1352</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>1372</v>
+        <v>1353</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1456</v>
+        <v>1436</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>1502</v>
+        <v>1482</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="13" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>1374</v>
+        <v>1355</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1457</v>
+        <v>1437</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>1503</v>
+        <v>1483</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>1484</v>
+        <v>1464</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>1424</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="13" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>1375</v>
+        <v>1356</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1458</v>
+        <v>1438</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>1504</v>
+        <v>1484</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>1528</v>
+        <v>1508</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>1425</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="13" t="s">
-        <v>1376</v>
+        <v>1357</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>1377</v>
+        <v>1358</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1459</v>
+        <v>1439</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>1505</v>
+        <v>1485</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>1426</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="13" t="s">
-        <v>1378</v>
+        <v>1359</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>1379</v>
+        <v>1360</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1460</v>
+        <v>1440</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>1506</v>
+        <v>1486</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>1427</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="13" t="s">
-        <v>1380</v>
+        <v>1361</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>1381</v>
+        <v>1362</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1461</v>
+        <v>1441</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>1530</v>
+        <v>1510</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>1428</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="13" t="s">
-        <v>1382</v>
+        <v>1363</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>1384</v>
+        <v>1365</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1462</v>
+        <v>1442</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>438</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>1429</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="13" t="s">
-        <v>1383</v>
+        <v>1364</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>1384</v>
+        <v>1365</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1462</v>
+        <v>1442</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>438</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>1430</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="13" t="s">
-        <v>1385</v>
+        <v>1366</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>1386</v>
+        <v>1367</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1463</v>
+        <v>1443</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>1487</v>
+        <v>1467</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>1431</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="13" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="13" t="s">
-        <v>1388</v>
+        <v>1369</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1464</v>
+        <v>1444</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>1432</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="13" t="s">
-        <v>1390</v>
+        <v>1371</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>1391</v>
+        <v>1372</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1465</v>
+        <v>1445</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>1391</v>
+        <v>1372</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>1391</v>
+        <v>1372</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>1433</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="13" t="s">
-        <v>1392</v>
+        <v>1373</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>1393</v>
+        <v>1374</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1466</v>
+        <v>1446</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>1509</v>
+        <v>1489</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>1488</v>
+        <v>1468</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>1434</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="13" t="s">
-        <v>1394</v>
+        <v>1375</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>1395</v>
+        <v>1376</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>1510</v>
+        <v>1490</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>1435</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="13" t="s">
-        <v>1396</v>
+        <v>1377</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>1397</v>
+        <v>1378</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1468</v>
+        <v>1448</v>
       </c>
       <c r="D271" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E271" s="12" t="s">
         <v>1511</v>
       </c>
-      <c r="E271" s="12" t="s">
-        <v>1531</v>
-      </c>
       <c r="F271" s="12" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="13" t="s">
-        <v>1398</v>
+        <v>1379</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>1399</v>
+        <v>1380</v>
       </c>
       <c r="C272" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E272" s="12" t="s">
         <v>1469</v>
       </c>
-      <c r="D272" s="12" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E272" s="12" t="s">
-        <v>1489</v>
-      </c>
       <c r="F272" s="12" t="s">
-        <v>1437</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="13" t="s">
-        <v>1400</v>
+        <v>1381</v>
       </c>
       <c r="B273" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1470</v>
+        <v>1450</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>478</v>
@@ -10585,188 +10574,188 @@
       <c r="E273" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="F273" s="12" t="s">
-        <v>1438</v>
+      <c r="F273" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="13" t="s">
-        <v>1401</v>
+        <v>1382</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>1402</v>
+        <v>1383</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1471</v>
+        <v>1451</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>1513</v>
+        <v>1493</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>1532</v>
+        <v>1512</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>1439</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="13" t="s">
-        <v>1403</v>
+        <v>1384</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>1404</v>
+        <v>1385</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1472</v>
+        <v>1452</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>1514</v>
+        <v>1494</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>1490</v>
+        <v>1470</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>1440</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="13" t="s">
-        <v>1405</v>
+        <v>1386</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>1406</v>
+        <v>1387</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1473</v>
+        <v>1453</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>1515</v>
+        <v>1495</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>1491</v>
+        <v>1471</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>1441</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="13" t="s">
-        <v>1407</v>
+        <v>1388</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>1408</v>
+        <v>1389</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1474</v>
+        <v>1454</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>1516</v>
+        <v>1496</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>1442</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="13" t="s">
-        <v>1409</v>
+        <v>1390</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>1410</v>
+        <v>1391</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1475</v>
+        <v>1455</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>1517</v>
+        <v>1497</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>1493</v>
+        <v>1473</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>1443</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="13" t="s">
-        <v>1411</v>
+        <v>1392</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>1412</v>
+        <v>1393</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1476</v>
+        <v>1456</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>1518</v>
+        <v>1498</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>1533</v>
+        <v>1513</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>1444</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="13" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>1414</v>
+        <v>1395</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>1519</v>
+        <v>1499</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>1494</v>
+        <v>1474</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>1445</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="12" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>1413</v>
+        <v>1394</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>1446</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="12" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>1415</v>
+        <v>1396</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>1478</v>
+        <v>1458</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>1521</v>
+        <v>1501</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>1447</v>
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -10776,15 +10765,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -11013,6 +10993,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11025,14 +11014,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11051,18 +11032,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4611F9-E234-B945-8B79-2ED92CABD2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAB1AB-17AB-9F49-960A-EB9C3E649CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="29100" yWindow="3640" windowWidth="34560" windowHeight="20400" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1582">
   <si>
     <t>Settings</t>
   </si>
@@ -4654,12 +4654,159 @@
   <si>
     <t>team_name</t>
   </si>
+  <si>
+    <t>export_enum_data</t>
+  </si>
+  <si>
+    <t>Export Enumeration Data</t>
+  </si>
+  <si>
+    <t>delete_landmark_message</t>
+  </si>
+  <si>
+    <t>Are you sure you want to permanently delete this landmark?</t>
+  </si>
+  <si>
+    <t>subaddress</t>
+  </si>
+  <si>
+    <t>Subaddress</t>
+  </si>
+  <si>
+    <t>sampled</t>
+  </si>
+  <si>
+    <t>Sampled</t>
+  </si>
+  <si>
+    <t>completed_enumeration</t>
+  </si>
+  <si>
+    <t>Completed Enumeration</t>
+  </si>
+  <si>
+    <t>incomplete_enumeration</t>
+  </si>
+  <si>
+    <t>Incomplete Enumeration</t>
+  </si>
+  <si>
+    <t>incomplete_collection</t>
+  </si>
+  <si>
+    <t>Incomplete Collection</t>
+  </si>
+  <si>
+    <t>completed_collection</t>
+  </si>
+  <si>
+    <t>Completed Collection</t>
+  </si>
+  <si>
+    <t>is_multi_family</t>
+  </si>
+  <si>
+    <t>Is this a multi family location?</t>
+  </si>
+  <si>
+    <t>multi_families</t>
+  </si>
+  <si>
+    <t>Multi Families</t>
+  </si>
+  <si>
+    <t>dismiss</t>
+  </si>
+  <si>
+    <t>Dismiss</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>launching_odk_collect_application</t>
+  </si>
+  <si>
+    <t>Launching ODK Collect Application...</t>
+  </si>
+  <si>
+    <t>Filters (combines rules)</t>
+  </si>
+  <si>
+    <t>Identify Location</t>
+  </si>
+  <si>
+    <t>delete_configuration</t>
+  </si>
+  <si>
+    <t>The current configuration will be replaced by the import.  Would you like to proceed?</t>
+  </si>
+  <si>
+    <t>total_population</t>
+  </si>
+  <si>
+    <t>Total Population Size</t>
+  </si>
+  <si>
+    <t>enter_the_total_population_size</t>
+  </si>
+  <si>
+    <t>Enter the total population size</t>
+  </si>
+  <si>
+    <t>total_population_size_error</t>
+  </si>
+  <si>
+    <t>The total population size must be greater than 0</t>
+  </si>
+  <si>
+    <t>sample_size_error</t>
+  </si>
+  <si>
+    <t>The sample size must be greater than 0</t>
+  </si>
+  <si>
+    <t>simple_random_sampling_label</t>
+  </si>
+  <si>
+    <t>cluster_sampling_label</t>
+  </si>
+  <si>
+    <t>Sample Size Per Cluster</t>
+  </si>
+  <si>
+    <t>show_enumeration_info</t>
+  </si>
+  <si>
+    <t>Show Enumeration Info</t>
+  </si>
+  <si>
+    <t>please_enter_a_name</t>
+  </si>
+  <si>
+    <t>Please enter a name for this field.</t>
+  </si>
+  <si>
+    <t>please_enter_a_subaddress</t>
+  </si>
+  <si>
+    <t>Please enter a unique sub-address.</t>
+  </si>
+  <si>
+    <t>please_select_team_boundary</t>
+  </si>
+  <si>
+    <t>Please select the team boundary.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4731,6 +4878,18 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4764,7 +4923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4786,6 +4945,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5100,10 +5262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F282"/>
+  <dimension ref="A1:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -10758,6 +10920,214 @@
         <v>1427</v>
       </c>
     </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="16" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="16" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B285" s="15" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="17" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="16" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="16" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="17" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="17" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B291" s="15" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="17" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B292" s="15" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="17" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B293" s="15" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="17" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B294" s="15" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="17" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B295" s="15" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B296" s="15" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="17" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="17" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B298" s="15" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="17" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="17" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="17" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="17" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="17" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B303" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="17" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B304" s="15" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="17" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B305" s="15" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="17" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B306" s="15" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="17" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="17" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>1581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10765,6 +11135,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
     <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
@@ -10993,27 +11383,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11030,29 +11425,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAB1AB-17AB-9F49-960A-EB9C3E649CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ED8466-DAE7-D94D-B192-5F8A30136C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="3640" windowWidth="34560" windowHeight="20400" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="31900" yWindow="4460" windowWidth="29040" windowHeight="15840" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$306</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +38,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B6A2509A-3208-40C6-8ADE-D00BFB988BD8}</author>
+  </authors>
+  <commentList>
+    <comment ref="E179" authorId="0" shapeId="0" xr:uid="{B6A2509A-3208-40C6-8ADE-D00BFB988BD8}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    There are two times when this is used: Import config from supervisor/data collector/enumerator screen. It should be 
+Importar configuração </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1673">
   <si>
     <t>Settings</t>
   </si>
@@ -425,9 +447,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Filters</t>
-  </si>
-  <si>
     <t>Rule</t>
   </si>
   <si>
@@ -1061,9 +1080,6 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Filtros</t>
-  </si>
-  <si>
     <t>Regla</t>
   </si>
   <si>
@@ -1191,9 +1207,6 @@
   </si>
   <si>
     <t>Valeur</t>
-  </si>
-  <si>
-    <t>Filtres</t>
   </si>
   <si>
     <t>Règle</t>
@@ -1868,9 +1881,6 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>Фильтры</t>
-  </si>
-  <si>
     <t>Правило</t>
   </si>
   <si>
@@ -2834,9 +2844,6 @@
     <t>Indefinido</t>
   </si>
   <si>
-    <t>Configuração de importação</t>
-  </si>
-  <si>
     <t>Пожалуйста, подтвердите</t>
   </si>
   <si>
@@ -3605,9 +3612,6 @@
     <t>new_location</t>
   </si>
   <si>
-    <t>New Location</t>
-  </si>
-  <si>
     <t>tap_the_map</t>
   </si>
   <si>
@@ -3704,9 +3708,6 @@
     <t>Текущее</t>
   </si>
   <si>
-    <t>Новое местоположение</t>
-  </si>
-  <si>
     <t>Нажмите на карту, чтобы добавить новое местоположение</t>
   </si>
   <si>
@@ -3767,9 +3768,6 @@
     <t>Atual</t>
   </si>
   <si>
-    <t>Nova localização</t>
-  </si>
-  <si>
     <t>Toque no mapa para adicionar uma nova localização</t>
   </si>
   <si>
@@ -3830,9 +3828,6 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>Nueva ubicación</t>
-  </si>
-  <si>
     <t>Pulse en el mapa para añadir una nueva ubicación</t>
   </si>
   <si>
@@ -3902,9 +3897,6 @@
     <t>Actuel</t>
   </si>
   <si>
-    <t>Nouveau lieu</t>
-  </si>
-  <si>
     <t>Tapez sur la carte pour ajouter un nouveau lieu</t>
   </si>
   <si>
@@ -4800,6 +4792,309 @@
   </si>
   <si>
     <t>Please select the team boundary.</t>
+  </si>
+  <si>
+    <t>Exporter des données de recensement</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer définitivement ce point de repère ?</t>
+  </si>
+  <si>
+    <t>Sous-adresse</t>
+  </si>
+  <si>
+    <t>Échantillonné</t>
+  </si>
+  <si>
+    <t>Dénombrement terminé</t>
+  </si>
+  <si>
+    <t>Dénombrement incomplet</t>
+  </si>
+  <si>
+    <t>Collecte incomplète</t>
+  </si>
+  <si>
+    <t>Collecte complète</t>
+  </si>
+  <si>
+    <t>S'agit-il d'un site multifamilial ?</t>
+  </si>
+  <si>
+    <t>Familles multiples</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Lancement de l'application ODK Collect...</t>
+  </si>
+  <si>
+    <t>Filtres (combine des règles)</t>
+  </si>
+  <si>
+    <t>Identifier le lieu</t>
+  </si>
+  <si>
+    <t>La configuration actuelle sera remplacée par l'importation.  Souhaitez-vous continuer ?</t>
+  </si>
+  <si>
+    <t>Taille totale de la population</t>
+  </si>
+  <si>
+    <t>Saisissez la taille totale de la population</t>
+  </si>
+  <si>
+    <t>La taille totale de la population doit être supérieure à 0</t>
+  </si>
+  <si>
+    <t>La taille de l'échantillon doit être supérieure à 0</t>
+  </si>
+  <si>
+    <t>Taille de l'échantillon par grappe</t>
+  </si>
+  <si>
+    <t>Afficher les informations sur le dénombrement</t>
+  </si>
+  <si>
+    <t>Veuillez saisir un nom pour ce champ.</t>
+  </si>
+  <si>
+    <t>Veuillez saisir une sous-adresse unique.</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le périmètre de l'équipe.</t>
+  </si>
+  <si>
+    <t>Exportar datos de enumeración</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar definitivamente este hito?</t>
+  </si>
+  <si>
+    <t>Subdirección</t>
+  </si>
+  <si>
+    <t>Muestreo</t>
+  </si>
+  <si>
+    <t>Enumeración completada</t>
+  </si>
+  <si>
+    <t>Enumeración incompleta</t>
+  </si>
+  <si>
+    <t>Colección incompleta</t>
+  </si>
+  <si>
+    <t>Recogida completa</t>
+  </si>
+  <si>
+    <t>¿Se trata de una ubicación multifamiliar?</t>
+  </si>
+  <si>
+    <t>Multifamiliar</t>
+  </si>
+  <si>
+    <t>Descartar</t>
+  </si>
+  <si>
+    <t>Borrar</t>
+  </si>
+  <si>
+    <t>Lanzamiento de la aplicación ODK Collect...</t>
+  </si>
+  <si>
+    <t>Filtros (combina reglas)</t>
+  </si>
+  <si>
+    <t>Identificar ubicación</t>
+  </si>
+  <si>
+    <t>La configuración actual será reemplazada por la importación.  ¿Desea continuar?</t>
+  </si>
+  <si>
+    <t>Tamaño total de la población</t>
+  </si>
+  <si>
+    <t>Introduzca el tamaño total de la población</t>
+  </si>
+  <si>
+    <t>El tamaño total de la población debe ser superior a 0</t>
+  </si>
+  <si>
+    <t>El tamaño de la muestra debe ser superior a 0</t>
+  </si>
+  <si>
+    <t>Tamaño total de la muestra en todas las agrupaciones</t>
+  </si>
+  <si>
+    <t>Tamaño de la muestra por conglomerado</t>
+  </si>
+  <si>
+    <t>Mostrar información de enumeración</t>
+  </si>
+  <si>
+    <t>Introduzca un nombre para este campo.</t>
+  </si>
+  <si>
+    <t>Introduzca una subdirección única.</t>
+  </si>
+  <si>
+    <t>Por favor, seleccione el límite del equipo.</t>
+  </si>
+  <si>
+    <t>Exportar dados de enumeração</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que pretende eliminar permanentemente esta referência?</t>
+  </si>
+  <si>
+    <t>Amostragem</t>
+  </si>
+  <si>
+    <t>Enumeração concluída</t>
+  </si>
+  <si>
+    <t>Enumeração Incompleta</t>
+  </si>
+  <si>
+    <t>Recolha incompleta</t>
+  </si>
+  <si>
+    <t>Recolha Completa</t>
+  </si>
+  <si>
+    <t>Este é um local multifamiliar?</t>
+  </si>
+  <si>
+    <t>Excluir</t>
+  </si>
+  <si>
+    <t>Iniciar a aplicação ODK Collect...</t>
+  </si>
+  <si>
+    <t>Filtros (combina regras)</t>
+  </si>
+  <si>
+    <t>Tamanho total da população</t>
+  </si>
+  <si>
+    <t>Introduza o tamanho total da população</t>
+  </si>
+  <si>
+    <t>O tamanho total da população tem de ser superior a 0</t>
+  </si>
+  <si>
+    <t>O tamanho da amostra deve ser maior que 0</t>
+  </si>
+  <si>
+    <t>Tamanho total da amostra em todos os clusters</t>
+  </si>
+  <si>
+    <t>Tamanho da amostra por agrupamento</t>
+  </si>
+  <si>
+    <t>Mostrar informações de enumeração</t>
+  </si>
+  <si>
+    <t>Introduza um nome para este campo.</t>
+  </si>
+  <si>
+    <t>Introduza um sub-endereço único.</t>
+  </si>
+  <si>
+    <t>Seleccione o limite da equipa.</t>
+  </si>
+  <si>
+    <t>Экспорт данных переписи населения</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите безвозвратно удалить этот ориентир?</t>
+  </si>
+  <si>
+    <t>Субадрес</t>
+  </si>
+  <si>
+    <t>Выборочный</t>
+  </si>
+  <si>
+    <t>Завершенное перечисление</t>
+  </si>
+  <si>
+    <t>Неполный сбор</t>
+  </si>
+  <si>
+    <t>Неполная коллекция</t>
+  </si>
+  <si>
+    <t>Завершенный сбор</t>
+  </si>
+  <si>
+    <t>Является ли это место проживания многосемейным?</t>
+  </si>
+  <si>
+    <t>Многосемейные</t>
+  </si>
+  <si>
+    <t>Удалить</t>
+  </si>
+  <si>
+    <t>Запуск приложения ODK Collect...</t>
+  </si>
+  <si>
+    <t>Фильтры (объединяет правила)</t>
+  </si>
+  <si>
+    <t>Идентифицировать местоположение</t>
+  </si>
+  <si>
+    <t>Текущая конфигурация будет заменена импортом.  Желаете ли вы продолжить?</t>
+  </si>
+  <si>
+    <t>Общий размер популяции</t>
+  </si>
+  <si>
+    <t>Введите общий размер популяции.</t>
+  </si>
+  <si>
+    <t>Размер генеральной совокупности должен быть больше 0</t>
+  </si>
+  <si>
+    <t>Размер выборки должен быть больше 0</t>
+  </si>
+  <si>
+    <t>Размер выборки для каждого кластера</t>
+  </si>
+  <si>
+    <t>Показать информацию о населенном пункте</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите имя для этого поля.</t>
+  </si>
+  <si>
+    <t>Укажите уникальный субадрес.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, выберите границу группы.</t>
+  </si>
+  <si>
+    <t>Importar configuração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A configuração atual será substituída pela importação. Deseja prosseguir? </t>
+  </si>
+  <si>
+    <t>Por favor, confirmar</t>
+  </si>
+  <si>
+    <t>Identificar a localização</t>
+  </si>
+  <si>
+    <t>Sub-endereço</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
   </si>
 </sst>
 </file>
@@ -4891,7 +5186,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4910,6 +5205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4923,7 +5224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4946,8 +5247,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4963,6 +5265,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Dismer, Amber (CDC/GHC/DGHP)" id="{B10A4713-F439-461F-935D-3FD7CC3B5D06}" userId="S::vic3@cdc.gov::3ba7bc6c-e8d2-4eb2-b5f3-93940c6eb839" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5260,12 +5568,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E179" dT="2023-11-08T19:15:32.70" personId="{B10A4713-F439-461F-935D-3FD7CC3B5D06}" id="{B6A2509A-3208-40C6-8ADE-D00BFB988BD8}">
+    <text xml:space="preserve">There are two times when this is used: Import config from supervisor/data collector/enumerator screen. It should be 
+Importar configuração </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F308"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
+  <dimension ref="A1:F306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241:XFD241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5282,927 +5599,927 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F8" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F9" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F11" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E14" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F14" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F15" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D16" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="E16" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E17" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F17" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E18" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F18" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D19" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="E20" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F20" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D21" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="E21" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F21" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F22" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D23" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E23" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F23" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E24" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E25" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F25" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F26" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F27" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F28" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F30" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F31" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D32" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E32" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F32" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D33" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E33" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F33" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F34" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E35" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F35" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D36" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="E36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F36" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E37" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F37" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D38" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="E38" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F38" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D39" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F39" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D40" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E40" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F40" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D41" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E41" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F41" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D42" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E42" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F42" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E43" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F43" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D44" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E44" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F44" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F45" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F46" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -6211,618 +6528,618 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F48" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D49" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F49" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D50" t="s">
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F50" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D51" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E51" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F51" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D52" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E52" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F52" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D53" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E53" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F53" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D54" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="E54" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F54" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D55" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="E55" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F55" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D56" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="E56" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F56" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E57" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F57" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D58" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E58" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F58" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D59" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E59" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F59" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E60" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F60" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D61" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E61" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F61" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E62" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F62" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E63" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F63" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D64" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E64" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F64" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D65" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="E65" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F65" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E66" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F66" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F67" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D68" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="E68" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F68" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D69" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E69" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F69" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D70" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="E70" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F70" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D71" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="E71" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F71" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E72" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F72" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D73" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E73" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F73" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D74" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E74" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F74" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D75" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="E75" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F75" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E76" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F76" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D77" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E77" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F77" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>73</v>
@@ -6842,1122 +7159,1122 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="E79" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F79" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="E80" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F80" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D81" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E81" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F81" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E82" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F82" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D83" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E83" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F83" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D84" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E84" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F84" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D85" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E85" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F85" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D86" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E86" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F86" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D87" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E87" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F87" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D88" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E88" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F88" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D89" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="E89" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F89" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D90" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E90" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F90" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D91" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E91" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F91" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D92" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E92" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F92" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D93" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E93" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F93" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D94" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E94" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F94" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E95" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F95" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="E96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F96" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D97" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="E97" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F97" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D98" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E98" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F98" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D99" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E99" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F99" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D100" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E100" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F100" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D101" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E101" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F101" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="E102" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F102" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D103" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E103" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F103" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D104" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E104" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F104" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D105" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E105" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F105" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D106" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E106" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F106" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D107" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E107" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F107" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D108" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F108" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D109" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E109" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F109" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D110" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E110" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F110" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D111" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E111" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F111" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D112" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="E112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F112" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D113" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E113" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F113" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="E114" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F114" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F115" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D116" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="E116" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F116" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D117" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E117" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F117" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D118" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E118" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F118" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D119" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E119" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F119" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D120" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E120" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F120" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E121" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F121" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D122" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E122" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F122" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D123" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E123" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F123" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D124" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E124" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F124" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D125" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E125" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F125" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D126" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E126" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F126" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D127" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E127" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F127" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D128" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E128" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F128" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D129" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E129" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F129" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D130" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E130" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F130" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D131" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E131" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F131" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D132" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E132" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F132" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D133" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E133" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F133" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D134" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E134" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F134" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7968,16 +8285,16 @@
         <v>129</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D135" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E135" t="s">
-        <v>341</v>
+        <v>557</v>
       </c>
       <c r="F135" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7988,16 +8305,16 @@
         <v>130</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D136" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E136" t="s">
-        <v>560</v>
+        <v>341</v>
       </c>
       <c r="F136" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -8011,13 +8328,13 @@
         <v>343</v>
       </c>
       <c r="D137" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E137" t="s">
-        <v>343</v>
+        <v>558</v>
       </c>
       <c r="F137" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -8028,16 +8345,16 @@
         <v>132</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D138" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E138" t="s">
-        <v>561</v>
+        <v>755</v>
       </c>
       <c r="F138" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -8048,16 +8365,16 @@
         <v>133</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D139" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E139" t="s">
-        <v>759</v>
+        <v>559</v>
       </c>
       <c r="F139" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -8068,16 +8385,16 @@
         <v>134</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D140" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E140" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F140" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -8088,16 +8405,16 @@
         <v>135</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D141" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E141" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F141" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -8108,16 +8425,16 @@
         <v>136</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D142" t="s">
-        <v>392</v>
+        <v>1304</v>
       </c>
       <c r="E142" t="s">
-        <v>564</v>
+        <v>756</v>
       </c>
       <c r="F142" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -8128,16 +8445,16 @@
         <v>137</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D143" t="s">
-        <v>1314</v>
+        <v>390</v>
       </c>
       <c r="E143" t="s">
-        <v>760</v>
+        <v>562</v>
       </c>
       <c r="F143" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -8151,13 +8468,13 @@
         <v>330</v>
       </c>
       <c r="D144" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E144" t="s">
-        <v>565</v>
+        <v>757</v>
       </c>
       <c r="F144" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -8171,13 +8488,13 @@
         <v>331</v>
       </c>
       <c r="D145" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E145" t="s">
-        <v>761</v>
+        <v>563</v>
       </c>
       <c r="F145" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -8191,13 +8508,13 @@
         <v>332</v>
       </c>
       <c r="D146" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E146" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F146" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8211,13 +8528,13 @@
         <v>333</v>
       </c>
       <c r="D147" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E147" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F147" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8231,13 +8548,13 @@
         <v>334</v>
       </c>
       <c r="D148" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E148" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F148" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8248,656 +8565,656 @@
         <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D149" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E149" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F149" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" t="s">
-        <v>273</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>329</v>
+      <c r="A150" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C150" t="s">
+        <v>955</v>
       </c>
       <c r="D150" t="s">
-        <v>399</v>
+        <v>1305</v>
       </c>
       <c r="E150" t="s">
-        <v>570</v>
+        <v>1669</v>
       </c>
       <c r="F150" t="s">
-        <v>619</v>
+        <v>922</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C151" t="s">
-        <v>960</v>
+        <v>858</v>
       </c>
       <c r="D151" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="E151" t="s">
-        <v>960</v>
+        <v>914</v>
       </c>
       <c r="F151" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C152" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D152" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="E152" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F152" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C153" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D153" t="s">
-        <v>1317</v>
+        <v>885</v>
       </c>
       <c r="E153" t="s">
-        <v>919</v>
+        <v>959</v>
       </c>
       <c r="F153" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C154" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D154" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E154" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F154" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C155" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D155" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E155" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F155" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="C156" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D156" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E156" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="F156" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C157" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D157" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E157" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F157" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C158" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D158" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E158" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F158" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C159" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D159" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E159" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F159" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C160" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D160" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E160" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="F160" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="C161" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D161" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="E161" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="F161" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="C162" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D162" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="E162" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F162" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C163" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D163" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E163" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="F163" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C164" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D164" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E164" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F164" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="C165" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D165" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E165" t="s">
-        <v>974</v>
+        <v>916</v>
       </c>
       <c r="F165" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="C166" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D166" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E166" t="s">
-        <v>920</v>
+        <v>970</v>
       </c>
       <c r="F166" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C167" t="s">
-        <v>877</v>
+        <v>956</v>
       </c>
       <c r="D167" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E167" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F167" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C168" t="s">
-        <v>961</v>
+        <v>874</v>
       </c>
       <c r="D168" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E168" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F168" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C169" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D169" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E169" t="s">
-        <v>977</v>
+        <v>917</v>
       </c>
       <c r="F169" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C170" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D170" t="s">
-        <v>904</v>
+        <v>1308</v>
       </c>
       <c r="E170" t="s">
-        <v>921</v>
+        <v>973</v>
       </c>
       <c r="F170" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>843</v>
+        <v>809</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>838</v>
       </c>
       <c r="C171" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D171" t="s">
-        <v>1318</v>
+        <v>901</v>
       </c>
       <c r="E171" t="s">
-        <v>978</v>
+        <v>918</v>
       </c>
       <c r="F171" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>842</v>
+        <v>810</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>837</v>
       </c>
       <c r="C172" t="s">
-        <v>881</v>
+        <v>837</v>
       </c>
       <c r="D172" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E172" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F172" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C173" t="s">
-        <v>841</v>
+        <v>878</v>
       </c>
       <c r="D173" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E173" t="s">
-        <v>923</v>
+        <v>878</v>
       </c>
       <c r="F173" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C174" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D174" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E174" t="s">
-        <v>882</v>
+        <v>920</v>
       </c>
       <c r="F174" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C175" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D175" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E175" t="s">
-        <v>924</v>
+        <v>974</v>
       </c>
       <c r="F175" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C176" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D176" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E176" t="s">
-        <v>979</v>
+        <v>921</v>
       </c>
       <c r="F176" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C177" t="s">
-        <v>885</v>
+        <v>957</v>
       </c>
       <c r="D177" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E177" t="s">
-        <v>925</v>
+        <v>975</v>
       </c>
       <c r="F177" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C178" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D178" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E178" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F178" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C179" t="s">
-        <v>963</v>
+        <v>882</v>
       </c>
       <c r="D179" t="s">
-        <v>912</v>
-      </c>
-      <c r="E179" t="s">
-        <v>981</v>
+        <v>909</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>1667</v>
       </c>
       <c r="F179" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C180" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="D180" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E180" t="s">
-        <v>926</v>
+        <v>966</v>
       </c>
       <c r="F180" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C181" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="D181" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E181" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="F181" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -8905,867 +9222,867 @@
         <v>823</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="C182" t="s">
-        <v>887</v>
+        <v>826</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>980</v>
       </c>
       <c r="D182" t="s">
-        <v>915</v>
-      </c>
-      <c r="E182" t="s">
-        <v>982</v>
+        <v>912</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>979</v>
       </c>
       <c r="F182" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>985</v>
+        <v>825</v>
+      </c>
+      <c r="C183" t="s">
+        <v>884</v>
       </c>
       <c r="D183" t="s">
-        <v>916</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>984</v>
+        <v>913</v>
+      </c>
+      <c r="E183" t="s">
+        <v>978</v>
       </c>
       <c r="F183" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>829</v>
+        <v>981</v>
+      </c>
+      <c r="B184" t="s">
+        <v>982</v>
       </c>
       <c r="C184" t="s">
-        <v>888</v>
+        <v>1011</v>
       </c>
       <c r="D184" t="s">
-        <v>917</v>
+        <v>1025</v>
       </c>
       <c r="E184" t="s">
-        <v>983</v>
+        <v>1058</v>
       </c>
       <c r="F184" t="s">
-        <v>959</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="B185" t="s">
-        <v>987</v>
+        <v>983</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>984</v>
       </c>
       <c r="C185" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D185" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="E185" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F185" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
+      </c>
+      <c r="B186" t="s">
+        <v>986</v>
       </c>
       <c r="C186" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D186" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="E186" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F186" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="4" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B187" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C187" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D187" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E187" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F187" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="4" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B188" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C188" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D188" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E188" t="s">
-        <v>1066</v>
+        <v>1039</v>
       </c>
       <c r="F188" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B189" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C189" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D189" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E189" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F189" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B190" t="s">
+        <v>994</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>995</v>
+      </c>
+      <c r="B191" t="s">
         <v>996</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C191" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="C190" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="4" t="s">
+      <c r="B192" t="s">
         <v>998</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C192" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
         <v>999</v>
       </c>
-      <c r="C191" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="4" t="s">
-        <v>1002</v>
-      </c>
       <c r="B193" t="s">
-        <v>1003</v>
+        <v>22</v>
       </c>
       <c r="C193" t="s">
-        <v>1024</v>
+        <v>320</v>
       </c>
       <c r="D193" t="s">
-        <v>1037</v>
+        <v>413</v>
       </c>
       <c r="E193" t="s">
-        <v>1069</v>
+        <v>500</v>
       </c>
       <c r="F193" t="s">
-        <v>1057</v>
+        <v>637</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>1001</v>
       </c>
       <c r="C194" t="s">
-        <v>321</v>
+        <v>1020</v>
       </c>
       <c r="D194" t="s">
-        <v>416</v>
+        <v>1033</v>
       </c>
       <c r="E194" t="s">
-        <v>503</v>
+        <v>1065</v>
       </c>
       <c r="F194" t="s">
-        <v>641</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B195" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C195" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D195" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E195" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="F195" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B196" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C196" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D196" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E196" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="F196" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B197" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C197" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D197" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E197" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="F197" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B198" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C198" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D198" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E198" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F198" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B199" t="s">
-        <v>1015</v>
+        <v>1068</v>
       </c>
       <c r="C199" t="s">
-        <v>1029</v>
+        <v>1069</v>
       </c>
       <c r="D199" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="E199" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="F199" t="s">
-        <v>1062</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>1014</v>
+        <v>1072</v>
       </c>
       <c r="B200" t="s">
         <v>1073</v>
       </c>
       <c r="C200" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D200" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E200" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F200" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B201" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C201" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="D201" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E201" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F201" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B202" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C202" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D202" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F202" t="s">
         <v>1084</v>
       </c>
-      <c r="E202" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1086</v>
-      </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1082</v>
+      <c r="A203" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>1088</v>
       </c>
       <c r="C203" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="D203" t="s">
-        <v>1087</v>
+        <v>1108</v>
       </c>
       <c r="E203" t="s">
-        <v>1088</v>
+        <v>1115</v>
       </c>
       <c r="F203" t="s">
-        <v>1089</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="C205" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="C204" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="C206" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="C205" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="9" t="s">
+      <c r="B207" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>1099</v>
-      </c>
       <c r="C207" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D207" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E207" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="F207" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="9" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>1103</v>
-      </c>
       <c r="C209" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D209" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E209" t="s">
         <v>1118</v>
       </c>
-      <c r="E209" t="s">
-        <v>1103</v>
-      </c>
       <c r="F209" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="2" t="s">
-        <v>1104</v>
+      <c r="A210" s="9" t="s">
+        <v>1126</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1105</v>
+        <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>1112</v>
+        <v>302</v>
       </c>
       <c r="D210" t="s">
-        <v>1119</v>
+        <v>1255</v>
       </c>
       <c r="E210" t="s">
-        <v>1123</v>
+        <v>302</v>
       </c>
       <c r="F210" t="s">
-        <v>1130</v>
+        <v>643</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="9" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>28</v>
+      <c r="A211" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B211" t="s">
+        <v>27</v>
       </c>
       <c r="C211" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D211" t="s">
-        <v>1264</v>
+        <v>280</v>
       </c>
       <c r="E211" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F211" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="4" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B212" t="s">
-        <v>27</v>
-      </c>
-      <c r="C212" t="s">
-        <v>302</v>
+        <v>30</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="D212" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
       <c r="E212" t="s">
-        <v>302</v>
+        <v>728</v>
       </c>
       <c r="F212" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="B213" t="s">
-        <v>30</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="D213" t="s">
-        <v>417</v>
-      </c>
-      <c r="E213" t="s">
-        <v>732</v>
-      </c>
-      <c r="F213" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="4" t="s">
+      <c r="B215" t="s">
         <v>1134</v>
       </c>
-      <c r="B214" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1137</v>
-      </c>
       <c r="C215" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="D215" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="E215" t="s">
-        <v>1223</v>
+        <v>1322</v>
       </c>
       <c r="F215" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B216" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C216" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="D216" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="E216" t="s">
-        <v>1332</v>
+        <v>1217</v>
       </c>
       <c r="F216" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B217" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C217" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="D217" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="E217" t="s">
-        <v>1224</v>
+        <v>1323</v>
       </c>
       <c r="F217" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="4" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B218" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C218" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D218" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="E218" t="s">
-        <v>1333</v>
+        <v>1218</v>
       </c>
       <c r="F218" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="4" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B219" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C219" t="s">
-        <v>1247</v>
+        <v>1219</v>
       </c>
       <c r="D219" t="s">
-        <v>1270</v>
+        <v>1309</v>
       </c>
       <c r="E219" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="F219" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B220" t="s">
-        <v>1147</v>
+        <v>29</v>
       </c>
       <c r="C220" t="s">
-        <v>1226</v>
+        <v>303</v>
       </c>
       <c r="D220" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="E220" t="s">
-        <v>1226</v>
+        <v>485</v>
       </c>
       <c r="F220" t="s">
-        <v>1202</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="4" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B221" t="s">
-        <v>29</v>
-      </c>
-      <c r="C221" t="s">
-        <v>304</v>
+        <v>31</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>762</v>
       </c>
       <c r="D221" t="s">
-        <v>1320</v>
+        <v>415</v>
       </c>
       <c r="E221" t="s">
-        <v>488</v>
+        <v>729</v>
       </c>
       <c r="F221" t="s">
-        <v>648</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="4" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B222" t="s">
-        <v>31</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>766</v>
+        <v>1146</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1220</v>
       </c>
       <c r="D222" t="s">
-        <v>418</v>
+        <v>1311</v>
       </c>
       <c r="E222" t="s">
-        <v>733</v>
+        <v>1220</v>
       </c>
       <c r="F222" t="s">
-        <v>1514</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B224" t="s">
+        <v>40</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D224" t="s">
+        <v>422</v>
+      </c>
+      <c r="E224" t="s">
+        <v>505</v>
+      </c>
+      <c r="F224" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="B223" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F223" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" t="s">
-        <v>1154</v>
-      </c>
       <c r="B225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>310</v>
@@ -9774,1410 +10091,1745 @@
         <v>425</v>
       </c>
       <c r="E225" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F225" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="4" t="s">
-        <v>1155</v>
+      <c r="A226" t="s">
+        <v>1151</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>311</v>
+        <v>42</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1241</v>
       </c>
       <c r="D226" t="s">
-        <v>428</v>
+        <v>1262</v>
       </c>
       <c r="E226" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F226" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>1249</v>
+        <v>763</v>
       </c>
       <c r="D227" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="E227" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F227" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>1154</v>
       </c>
       <c r="C228" t="s">
-        <v>767</v>
+        <v>1242</v>
       </c>
       <c r="D228" t="s">
-        <v>1272</v>
+        <v>1316</v>
       </c>
       <c r="E228" t="s">
-        <v>511</v>
+        <v>1222</v>
       </c>
       <c r="F228" t="s">
-        <v>657</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B229" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C229" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="D229" t="s">
-        <v>1326</v>
+        <v>1264</v>
       </c>
       <c r="E229" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="F229" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B230" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C230" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="D230" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="E230" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="F230" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B231" t="s">
-        <v>1163</v>
+        <v>32</v>
       </c>
       <c r="C231" t="s">
-        <v>1252</v>
+        <v>304</v>
       </c>
       <c r="D231" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="E231" t="s">
-        <v>1231</v>
+        <v>304</v>
       </c>
       <c r="F231" t="s">
-        <v>1207</v>
+        <v>646</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>1161</v>
       </c>
       <c r="C232" t="s">
-        <v>305</v>
+        <v>1245</v>
       </c>
       <c r="D232" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="E232" t="s">
-        <v>305</v>
+        <v>486</v>
       </c>
       <c r="F232" t="s">
-        <v>650</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B233" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C233" t="s">
-        <v>1253</v>
+        <v>502</v>
       </c>
       <c r="D233" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="E233" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="F233" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B234" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C234" t="s">
-        <v>505</v>
+        <v>703</v>
       </c>
       <c r="D234" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="E234" t="s">
-        <v>505</v>
+        <v>730</v>
       </c>
       <c r="F234" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B235" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C235" t="s">
-        <v>707</v>
+        <v>305</v>
       </c>
       <c r="D235" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="E235" t="s">
-        <v>734</v>
+        <v>1225</v>
       </c>
       <c r="F235" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B236" t="s">
-        <v>1172</v>
+        <v>1317</v>
       </c>
       <c r="C236" t="s">
-        <v>306</v>
+        <v>1318</v>
       </c>
       <c r="D236" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1232</v>
+        <v>1319</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>1325</v>
       </c>
       <c r="F236" t="s">
-        <v>1211</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B237" t="s">
-        <v>1327</v>
+        <v>1170</v>
       </c>
       <c r="C237" t="s">
-        <v>1328</v>
+        <v>1246</v>
       </c>
       <c r="D237" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>1335</v>
+        <v>1313</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1226</v>
       </c>
       <c r="F237" t="s">
-        <v>1330</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B238" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C238" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="D238" t="s">
-        <v>1323</v>
+        <v>1271</v>
       </c>
       <c r="E238" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="F238" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B239" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C239" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="D239" t="s">
-        <v>1280</v>
+        <v>1314</v>
       </c>
       <c r="E239" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="F239" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B240" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C240" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="D240" t="s">
-        <v>1324</v>
+        <v>1272</v>
       </c>
       <c r="E240" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F240" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B241" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C241" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="D241" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="E241" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="F241" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B242" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C242" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="D242" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="E242" t="s">
-        <v>1237</v>
+        <v>1251</v>
       </c>
       <c r="F242" t="s">
-        <v>1216</v>
+        <v>667</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B243" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C243" t="s">
-        <v>1259</v>
+        <v>1321</v>
       </c>
       <c r="D243" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="E243" t="s">
-        <v>1238</v>
+        <v>1324</v>
       </c>
       <c r="F243" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B244" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C244" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="D244" t="s">
-        <v>1284</v>
+        <v>1521</v>
       </c>
       <c r="E244" t="s">
-        <v>1260</v>
+        <v>1231</v>
       </c>
       <c r="F244" t="s">
-        <v>671</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B245" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C245" t="s">
-        <v>1331</v>
+        <v>1253</v>
       </c>
       <c r="D245" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="E245" t="s">
-        <v>1334</v>
+        <v>1232</v>
       </c>
       <c r="F245" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B246" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C246" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="D246" t="s">
-        <v>1531</v>
+        <v>1277</v>
       </c>
       <c r="E246" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="F246" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D247" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E247" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1220</v>
+      <c r="A247" s="12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1221</v>
+      <c r="A248" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F248" s="12" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="12" t="s">
-        <v>1337</v>
+      <c r="A249" s="13" t="s">
+        <v>1330</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>1476</v>
+        <v>1493</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="13" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>1502</v>
+        <v>1467</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>1459</v>
+        <v>1496</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="13" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>1503</v>
+        <v>1468</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>1505</v>
+        <v>1450</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="13" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>1506</v>
+        <v>1451</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="13" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>1460</v>
+        <v>1497</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="13" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="13" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>1507</v>
+        <v>1453</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>1403</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="13" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="13" t="s">
-        <v>1352</v>
+        <v>1522</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>1463</v>
+        <v>1498</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>1052</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="13" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>1464</v>
+        <v>1499</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="13" t="s">
-        <v>1532</v>
+        <v>1349</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>1508</v>
+        <v>1455</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="13" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="13" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>1486</v>
+        <v>435</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="13" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>1487</v>
+        <v>435</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>1510</v>
+        <v>1456</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="13" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>438</v>
+        <v>1478</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="13" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1442</v>
+        <v>1358</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>438</v>
+        <v>1358</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>1466</v>
+        <v>1358</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>1411</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="13" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>1488</v>
+        <v>1360</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>1467</v>
+        <v>1360</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="13" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1368</v>
+        <v>1435</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>1368</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="13" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>1370</v>
+        <v>1479</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>1370</v>
+        <v>1458</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="13" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>1372</v>
+        <v>1480</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>1372</v>
+        <v>1437</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="13" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>1468</v>
+        <v>1501</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="13" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="13" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>1378</v>
+        <v>104</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>1491</v>
+        <v>475</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F271" s="12" t="s">
-        <v>1417</v>
+        <v>545</v>
+      </c>
+      <c r="F271" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="13" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>1469</v>
+        <v>1502</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="13" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>104</v>
+        <v>1375</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>478</v>
+        <v>1484</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F273" t="s">
-        <v>579</v>
+        <v>1460</v>
+      </c>
+      <c r="F273" s="12" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="13" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>1512</v>
+        <v>1461</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="13" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="13" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="13" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B277" s="12" t="s">
-        <v>1389</v>
+        <v>1382</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>1383</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>1472</v>
+        <v>1503</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="13" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>1391</v>
+        <v>820</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>1385</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="13" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>1393</v>
+      <c r="A279" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>1384</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1456</v>
+        <v>872</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>1513</v>
+        <v>916</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="13" t="s">
-        <v>824</v>
-      </c>
-      <c r="B280" s="14" t="s">
-        <v>1395</v>
+      <c r="A280" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>1386</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="B281" s="12" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C281" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="D281" s="12" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E281" s="12" t="s">
-        <v>920</v>
-      </c>
-      <c r="F281" s="12" t="s">
-        <v>1426</v>
+      <c r="A281" s="16" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="282" spans="1:6">
-      <c r="A282" s="12" t="s">
-        <v>826</v>
-      </c>
-      <c r="B282" s="12" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C282" s="12" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D282" s="12" t="s">
-        <v>1501</v>
-      </c>
-      <c r="E282" s="12" t="s">
-        <v>1475</v>
-      </c>
-      <c r="F282" s="12" t="s">
-        <v>1427</v>
+      <c r="A282" s="16" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="17" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="17" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B285" s="15" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="16" t="s">
         <v>1533</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B286" s="15" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="16" t="s">
+      <c r="C286" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="16" t="s">
         <v>1535</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="B287" s="15" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="16" t="s">
+      <c r="C287" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="17" t="s">
         <v>1537</v>
       </c>
-      <c r="B285" s="15" t="s">
+      <c r="B288" s="15" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="17" t="s">
+      <c r="C288" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="17" t="s">
         <v>1539</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B289" s="15" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="17" t="s">
+      <c r="C289" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="17" t="s">
         <v>1541</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B290" s="15" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="16" t="s">
+      <c r="C290" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="17" t="s">
         <v>1543</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B291" s="15" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="16" t="s">
+      <c r="C291" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="17" t="s">
         <v>1545</v>
       </c>
-      <c r="B289" s="15" t="s">
+      <c r="B292" s="15" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="17" t="s">
+      <c r="C292" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="17" t="s">
         <v>1547</v>
       </c>
-      <c r="B290" s="15" t="s">
+      <c r="B293" s="15" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="17" t="s">
+      <c r="C293" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B294" s="15" t="s">
         <v>1549</v>
       </c>
-      <c r="B291" s="15" t="s">
+      <c r="C294" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B295" s="15" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="17" t="s">
+      <c r="C295" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="17" t="s">
         <v>1551</v>
       </c>
-      <c r="B292" s="15" t="s">
+      <c r="B296" s="15" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="17" t="s">
+      <c r="C296" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="17" t="s">
         <v>1553</v>
       </c>
-      <c r="B293" s="15" t="s">
+      <c r="B297" s="15" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="17" t="s">
+      <c r="C297" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="17" t="s">
         <v>1555</v>
       </c>
-      <c r="B294" s="15" t="s">
+      <c r="B298" s="15" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="17" t="s">
+      <c r="C298" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="17" t="s">
         <v>1557</v>
       </c>
-      <c r="B295" s="15" t="s">
+      <c r="B299" s="15" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B296" s="15" t="s">
+      <c r="C299" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="17" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="17" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B297" s="15" t="s">
+      <c r="B300" s="15" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="17" t="s">
+      <c r="C300" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="17" t="s">
         <v>1561</v>
       </c>
-      <c r="B298" s="15" t="s">
+      <c r="B301" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F301" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="17" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="17" t="s">
+      <c r="B302" s="15" t="s">
         <v>1563</v>
       </c>
-      <c r="B299" s="15" t="s">
+      <c r="C302" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="17" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="17" t="s">
+      <c r="B303" s="15" t="s">
         <v>1565</v>
       </c>
-      <c r="B300" s="15" t="s">
+      <c r="C303" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="17" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="17" t="s">
+      <c r="B304" s="15" t="s">
         <v>1567</v>
       </c>
-      <c r="B301" s="15" t="s">
+      <c r="C304" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="17" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="17" t="s">
+      <c r="B305" s="15" t="s">
         <v>1569</v>
       </c>
-      <c r="B302" s="15" t="s">
+      <c r="C305" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="17" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="17" t="s">
+      <c r="B306" s="15" t="s">
         <v>1571</v>
       </c>
-      <c r="B303" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="17" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B304" s="15" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="17" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B305" s="15" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="17" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B306" s="15" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="17" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B307" s="15" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="17" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B308" s="15" t="s">
-        <v>1581</v>
+      <c r="C306" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B306" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+    <TaxCatchAll xmlns="75d52bf7-d703-474f-b962-0c7320302ad7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <EISOUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <CreateNotes xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <Personnel_Updates xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <Flow xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <HHTTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <WASHTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <PublicationAwards xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <DetailsDeployments xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <UpcomingTopics xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <ERCTTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <SSUTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <UpcomingEvents xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <GDDOCTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <OpsUTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <BHATeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <Staffing xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <MeetingDate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <GRRTTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <Reminders xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <TodaysTopics xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <KudosUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <NFFormData xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <DeployUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <FromChief xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
+    <ECEPTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<FormUrls xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url">
+  <Display>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2</Display>
+  <Edit>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1</Edit>
+  <New>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0</New>
+  <MobileDisplay>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2</MobileDisplay>
+  <MobileEdit>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1</MobileEdit>
+  <MobileNew>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0</MobileNew>
+  <NewComponentId>&lt;FormUrls xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url"&gt;&lt;Display&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2&lt;/Display&gt;&lt;Edit&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1&lt;/Edit&gt;&lt;New&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0&lt;/New&gt;&lt;MobileDisplay&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2&lt;/MobileDisplay&gt;&lt;MobileEdit&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1&lt;/MobileEdit&gt;&lt;MobileNew&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0&lt;/MobileNew&gt;&lt;/FormUrls&gt;</NewComponentId>
+  <DisplayFormTarget>NewWindow</DisplayFormTarget>
+  <EditFormTarget>NewWindow</EditFormTarget>
+  <NewFormTarget>NewWindow</NewFormTarget>
+</FormUrls>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
-    <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <xsd:import namespace="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100750D7D7AF9B42A43AEE54A5FD80B27E6" ma:contentTypeVersion="61" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99ae75c5414f46de1f64891a359f5330">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xmlns:ns3="75d52bf7-d703-474f-b962-0c7320302ad7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a153df88cc657c35494faa5b2d298991" ns2:_="" ns3:_="">
+    <xsd:import namespace="0dcbd924-8c91-49b0-94f8-5fc02e396c06"/>
+    <xsd:import namespace="75d52bf7-d703-474f-b962-0c7320302ad7"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:TodaysTopics" minOccurs="0"/>
+                <xsd:element ref="ns2:Reminders" minOccurs="0"/>
+                <xsd:element ref="ns2:UpcomingTopics" minOccurs="0"/>
+                <xsd:element ref="ns2:Personnel_Updates" minOccurs="0"/>
+                <xsd:element ref="ns2:UpcomingEvents" minOccurs="0"/>
+                <xsd:element ref="ns2:PublicationAwards" minOccurs="0"/>
+                <xsd:element ref="ns2:Staffing" minOccurs="0"/>
+                <xsd:element ref="ns2:DetailsDeployments" minOccurs="0"/>
+                <xsd:element ref="ns2:FromChief" minOccurs="0"/>
+                <xsd:element ref="ns2:BHATeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:ECEPTeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:EISOUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:ERCTTeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:GDDOCTeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:GRRTTeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:HHTTeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:OpsUTeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:SSUTeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:WASHTeamUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:MeetingDate" minOccurs="0"/>
+                <xsd:element ref="ns2:CreateNotes" minOccurs="0"/>
+                <xsd:element ref="ns2:Flow" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:NFFormData" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:KudosUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:DeployUpdate" minOccurs="0"/>
+                <xsd:element ref="ns2:DeployUpdate_x003a__x0020_Deployment_x0020_start_x0020_date" minOccurs="0"/>
+                <xsd:element ref="ns2:DeployUpdate_x003a__x0020_Deployment_x0020_end_x0020_date" minOccurs="0"/>
+                <xsd:element ref="ns2:DeployUpdate_x003a__x0020_Destination_x003a__x0020_Country_x002f_Region" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11185,68 +11837,299 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0dcbd924-8c91-49b0-94f8-5fc02e396c06" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="TodaysTopics" ma:index="2" nillable="true" ma:displayName="TodaysTopics" ma:internalName="TodaysTopics" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Reminders" ma:index="3" nillable="true" ma:displayName="Reminders" ma:internalName="Reminders" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UpcomingTopics" ma:index="4" nillable="true" ma:displayName="UpcomingTopics" ma:internalName="UpcomingTopics" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Personnel_Updates" ma:index="5" nillable="true" ma:displayName="Personnel_Updates" ma:internalName="Personnel_Updates" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UpcomingEvents" ma:index="6" nillable="true" ma:displayName="UpcomingEvents" ma:internalName="UpcomingEvents" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PublicationAwards" ma:index="7" nillable="true" ma:displayName="PublicationAwards" ma:internalName="PublicationAwards" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Staffing" ma:index="8" nillable="true" ma:displayName="Staffing" ma:internalName="Staffing" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DetailsDeployments" ma:index="9" nillable="true" ma:displayName="DetailsDeployments" ma:internalName="DetailsDeployments" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="FromChief" ma:index="10" nillable="true" ma:displayName="FromChief" ma:internalName="FromChief" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BHATeamUpdate" ma:index="11" nillable="true" ma:displayName="BHATeamUpdate" ma:internalName="BHATeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ECEPTeamUpdate" ma:index="12" nillable="true" ma:displayName="ECEPTeamUpdate" ma:internalName="ECEPTeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="EISOUpdate" ma:index="13" nillable="true" ma:displayName="EISOUpdate" ma:format="Dropdown" ma:internalName="EISOUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ERCTTeamUpdate" ma:index="14" nillable="true" ma:displayName="ERCTTeamUpdate" ma:internalName="ERCTTeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="GDDOCTeamUpdate" ma:index="15" nillable="true" ma:displayName="GDDOCTeamUpdate" ma:internalName="GDDOCTeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="GRRTTeamUpdate" ma:index="16" nillable="true" ma:displayName="GRRTTeamUpdate" ma:internalName="GRRTTeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="HHTTeamUpdate" ma:index="17" nillable="true" ma:displayName="HHTTeamUpdate" ma:internalName="HHTTeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="OpsUTeamUpdate" ma:index="18" nillable="true" ma:displayName="OpsUTeamUpdate" ma:internalName="OpsUTeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SSUTeamUpdate" ma:index="19" nillable="true" ma:displayName="SSUTeamUpdate" ma:internalName="SSUTeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="WASHTeamUpdate" ma:index="20" nillable="true" ma:displayName="WASHTeamUpdate" ma:internalName="WASHTeamUpdate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MeetingDate" ma:index="21" nillable="true" ma:displayName="MeetingDate" ma:format="DateOnly" ma:internalName="MeetingDate" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CreateNotes" ma:index="22" nillable="true" ma:displayName="CreateNotes" ma:format="Dropdown" ma:internalName="CreateNotes">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Flow" ma:index="23" nillable="true" ma:displayName="Flow" ma:format="Dropdown" ma:internalName="Flow" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="25" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="26" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="27" nillable="true" ma:displayName="Location" ma:hidden="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="29" nillable="true" ma:displayName="Extracted Text" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="30" nillable="true" ma:displayName="Length (seconds)" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="NFFormData" ma:index="36" nillable="true" ma:displayName="NFFormData" ma:hidden="true" ma:internalName="NFFormData" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9353dbe8-8260-4ccf-8219-3d2995e6fa15" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="38" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="39" nillable="true" ma:displayName="Tags" ma:hidden="true" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="40" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9353dbe8-8260-4ccf-8219-3d2995e6fa15" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="43" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="44" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
+    <xsd:element name="KudosUpdate" ma:index="45" nillable="true" ma:displayName="KudosUpdate" ma:format="Dropdown" ma:list="4f0a6023-9ff4-4011-958a-94b3931a7245" ma:internalName="KudosUpdate" ma:showField="Title">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="DeployUpdate" ma:index="46" nillable="true" ma:displayName="DeployUpdate" ma:format="Dropdown" ma:list="57ee84ce-00c1-4a18-9bf2-03cd64ecc8e1" ma:internalName="DeployUpdate" ma:showField="Title">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="DeployUpdate_x003a__x0020_Deployment_x0020_start_x0020_date" ma:index="47" nillable="true" ma:displayName="DeployUpdate: Deployment start date" ma:list="57ee84ce-00c1-4a18-9bf2-03cd64ecc8e1" ma:internalName="DeployUpdate_x003a__x0020_Deployment_x0020_start_x0020_date" ma:readOnly="true" ma:showField="TravelStartDate">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="DeployUpdate_x003a__x0020_Deployment_x0020_end_x0020_date" ma:index="48" nillable="true" ma:displayName="DeployUpdate: Deployment end date" ma:list="57ee84ce-00c1-4a18-9bf2-03cd64ecc8e1" ma:internalName="DeployUpdate_x003a__x0020_Deployment_x0020_end_x0020_date" ma:readOnly="true" ma:showField="TravelEndDate">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="DeployUpdate_x003a__x0020_Destination_x003a__x0020_Country_x002f_Region" ma:index="49" nillable="true" ma:displayName="DeployUpdate: Destination: Country/Region" ma:list="57ee84ce-00c1-4a18-9bf2-03cd64ecc8e1" ma:internalName="DeployUpdate_x003a__x0020_Destination_x003a__x0020_Country_x002f_Region" ma:readOnly="true" ma:showField="CountryOrRegion">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="50" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="75d52bf7-d703-474f-b962-0c7320302ad7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="28" nillable="true" ma:displayName="Shared With Details" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+    <xsd:element name="TaxCatchAll" ma:index="41" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b9d0e997-3790-4c3a-9f19-98607d65aa24}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="75d52bf7-d703-474f-b962-0c7320302ad7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6e0cf07b-8188-4b76-8f54-3cda03d37414" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="42" nillable="true" ma:displayName="Shared With" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -11265,24 +12148,6 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ac7a555a-1de2-4586-a23d-cc6b80efef41}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6e0cf07b-8188-4b76-8f54-3cda03d37414">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -11293,8 +12158,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -11383,40 +12248,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75d52bf7-d703-474f-b962-0c7320302ad7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0dcbd924-8c91-49b0-94f8-5fc02e396c06"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5C024E-35AF-4CF6-847D-63856D9FCFAD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDDFBA8-FF97-4684-8DBF-782A9A0E4D0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{329265DA-7449-4C95-94BE-B6073D2B6CD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
-    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="0dcbd924-8c91-49b0-94f8-5fc02e396c06"/>
+    <ds:schemaRef ds:uri="75d52bf7-d703-474f-b962-0c7320302ad7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -11425,4 +12299,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ED8466-DAE7-D94D-B192-5F8A30136C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508DA2BC-DCE3-5E45-A79B-DF46E2C8EBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31900" yWindow="4460" windowWidth="29040" windowHeight="15840" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1721">
   <si>
     <t>Settings</t>
   </si>
@@ -5096,12 +5096,156 @@
   <si>
     <t>Eliminar</t>
   </si>
+  <si>
+    <t>enum_area_name_property</t>
+  </si>
+  <si>
+    <t>Enter the value of the Enumeration Area Name property</t>
+  </si>
+  <si>
+    <t>downloading_map_tiles</t>
+  </si>
+  <si>
+    <t>Downloading Map Tiles...</t>
+  </si>
+  <si>
+    <t>style_pack_download_failed</t>
+  </si>
+  <si>
+    <t>Map Style Pack Download Failed</t>
+  </si>
+  <si>
+    <t>tile_pack_download_failed</t>
+  </si>
+  <si>
+    <t>Map Tile Pack Download Failed</t>
+  </si>
+  <si>
+    <t>download_map_tiles_now</t>
+  </si>
+  <si>
+    <t>Would you like to download map tiles now?</t>
+  </si>
+  <si>
+    <t>delete_map_tile_region</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete this Map Tile Region?</t>
+  </si>
+  <si>
+    <t>import_enumeration_area</t>
+  </si>
+  <si>
+    <t>Import Enumeration Area</t>
+  </si>
+  <si>
+    <t>create_enumeration_area</t>
+  </si>
+  <si>
+    <t>Create Enumeration Area</t>
+  </si>
+  <si>
+    <t>add_household</t>
+  </si>
+  <si>
+    <t>Add Household</t>
+  </si>
+  <si>
+    <t>define_map_tile_cache_region</t>
+  </si>
+  <si>
+    <t>Define map tile cache region</t>
+  </si>
+  <si>
+    <t>download_map_tiles</t>
+  </si>
+  <si>
+    <t>Download map tiles</t>
+  </si>
+  <si>
+    <t>center_on_location</t>
+  </si>
+  <si>
+    <t>Center on location</t>
+  </si>
+  <si>
+    <t>less_than_equal</t>
+  </si>
+  <si>
+    <t>Less Than Or Equal</t>
+  </si>
+  <si>
+    <t>gps_accuracy_error</t>
+  </si>
+  <si>
+    <t>GPS accuracy is less than the required accuracy</t>
+  </si>
+  <si>
+    <t>gps_location_error</t>
+  </si>
+  <si>
+    <t>You are currently too far away from this location</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy : </t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>POOR</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>select_date_type</t>
+  </si>
+  <si>
+    <t>Please select the Date type</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>collection_saved_doc</t>
+  </si>
+  <si>
+    <t>Collection has been saved to the Documents directory</t>
+  </si>
+  <si>
+    <t>invalid_operator</t>
+  </si>
+  <si>
+    <t>The selected operator is not valid for the selected rule</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5185,6 +5329,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5224,7 +5374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5250,6 +5400,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5579,10 +5730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241:XFD241"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -11715,6 +11866,198 @@
       </c>
       <c r="F306" t="s">
         <v>1666</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="19" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="19" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B309" s="15" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="19" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B310" s="15" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="19" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B311" s="15" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="19" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B312" s="15" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="19" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="19" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B315" s="15" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="19" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="19" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B318" s="15" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="19" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B319" s="15" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="19" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="19" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="19" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B322" s="15" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="19" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B323" s="15" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="19" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B324" s="15" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="19" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B325" s="15" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="19" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B326" s="15" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="19" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B327" s="15" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="19" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="19" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B329" s="15" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="19" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B330" s="15" t="s">
+        <v>1720</v>
       </c>
     </row>
   </sheetData>
@@ -11763,18 +12106,11 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormUrls xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url">
-  <Display>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2</Display>
-  <Edit>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1</Edit>
-  <New>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0</New>
-  <MobileDisplay>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2</MobileDisplay>
-  <MobileEdit>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1</MobileEdit>
-  <MobileNew>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0</MobileNew>
-  <NewComponentId>&lt;FormUrls xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url"&gt;&lt;Display&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2&lt;/Display&gt;&lt;Edit&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1&lt;/Edit&gt;&lt;New&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0&lt;/New&gt;&lt;MobileDisplay&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2&lt;/MobileDisplay&gt;&lt;MobileEdit&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1&lt;/MobileEdit&gt;&lt;MobileNew&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0&lt;/MobileNew&gt;&lt;/FormUrls&gt;</NewComponentId>
-  <DisplayFormTarget>NewWindow</DisplayFormTarget>
-  <EditFormTarget>NewWindow</EditFormTarget>
-  <NewFormTarget>NewWindow</NewFormTarget>
-</FormUrls>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12250,11 +12586,18 @@
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<FormUrls xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url">
+  <Display>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2</Display>
+  <Edit>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1</Edit>
+  <New>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0</New>
+  <MobileDisplay>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2</MobileDisplay>
+  <MobileEdit>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1</MobileEdit>
+  <MobileNew>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0</MobileNew>
+  <NewComponentId>&lt;FormUrls xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url"&gt;&lt;Display&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2&lt;/Display&gt;&lt;Edit&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1&lt;/Edit&gt;&lt;New&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0&lt;/New&gt;&lt;MobileDisplay&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2&lt;/MobileDisplay&gt;&lt;MobileEdit&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1&lt;/MobileEdit&gt;&lt;MobileNew&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0&lt;/MobileNew&gt;&lt;/FormUrls&gt;</NewComponentId>
+  <DisplayFormTarget>NewWindow</DisplayFormTarget>
+  <EditFormTarget>NewWindow</EditFormTarget>
+  <NewFormTarget>NewWindow</NewFormTarget>
+</FormUrls>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12275,9 +12618,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5C024E-35AF-4CF6-847D-63856D9FCFAD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12302,9 +12645,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04FEE910-FEC8-48C6-9CF9-BF01BA5AD6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5C024E-35AF-4CF6-847D-63856D9FCFAD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/2024/APP- strings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508DA2BC-DCE3-5E45-A79B-DF46E2C8EBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{508DA2BC-DCE3-5E45-A79B-DF46E2C8EBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DE0C14-FF57-4F56-A6E2-134038B000E5}"/>
   <bookViews>
-    <workbookView xWindow="31900" yWindow="4460" windowWidth="29040" windowHeight="15840" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1817">
   <si>
     <t>Settings</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Other Question</t>
-  </si>
-  <si>
-    <t>Meters / KiloMeters</t>
   </si>
   <si>
     <t>Feet / Miles</t>
@@ -5239,6 +5236,297 @@
   </si>
   <si>
     <t>The selected operator is not valid for the selected rule</t>
+  </si>
+  <si>
+    <t>Meters / Kilometers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точность : </t>
+  </si>
+  <si>
+    <t>ХОРОШО</t>
+  </si>
+  <si>
+    <t>ПЛОХО</t>
+  </si>
+  <si>
+    <t>НЕИЗВЕСТНО</t>
+  </si>
+  <si>
+    <t>Легенда</t>
+  </si>
+  <si>
+    <t>Пожалуйста, выберите тип даты</t>
+  </si>
+  <si>
+    <t>Содержит</t>
+  </si>
+  <si>
+    <t>Коллекция была сохранена в каталоге Документы</t>
+  </si>
+  <si>
+    <t>Выбранный оператор не действителен для выбранного правила</t>
+  </si>
+  <si>
+    <t>Введите значение свойства "Имя области перечисления".</t>
+  </si>
+  <si>
+    <t>Загрузка плиток карты...</t>
+  </si>
+  <si>
+    <t>Загрузка пакета стилей карты не удалась</t>
+  </si>
+  <si>
+    <t>Загрузка пакета плиток карты не удалась</t>
+  </si>
+  <si>
+    <t>Вы хотите загрузить плитки карты сейчас?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите удалить этот регион картографических плиток?</t>
+  </si>
+  <si>
+    <t>Импортировать область перечисления</t>
+  </si>
+  <si>
+    <t>Создать область переписи населения</t>
+  </si>
+  <si>
+    <t>Добавить домохозяйство</t>
+  </si>
+  <si>
+    <t>Определить регион кэширования картографических плиток</t>
+  </si>
+  <si>
+    <t>Загрузить плитки карты</t>
+  </si>
+  <si>
+    <t>Центрирование по местоположению</t>
+  </si>
+  <si>
+    <t>Меньше или равно</t>
+  </si>
+  <si>
+    <t>Точность GPS меньше требуемой точности</t>
+  </si>
+  <si>
+    <t>Вы находитесь слишком далеко от этого места</t>
+  </si>
+  <si>
+    <t>Introduzca el valor de la propiedad Nombre del área de enumeración</t>
+  </si>
+  <si>
+    <t>Descargando Mosaicos de Mapa...</t>
+  </si>
+  <si>
+    <t>Fallo en la descarga del paquete de estilos de mapa</t>
+  </si>
+  <si>
+    <t>Descarga fallida del paquete de mosaicos de mapa</t>
+  </si>
+  <si>
+    <t>¿Desea descargar los mosaicos de mapa ahora?</t>
+  </si>
+  <si>
+    <t>¿Está seguro de que desea eliminar esta Región de Baldosas de Mapa?</t>
+  </si>
+  <si>
+    <t>Importar área de enumeración</t>
+  </si>
+  <si>
+    <t>Crear área de enumeración</t>
+  </si>
+  <si>
+    <t>Añadir hogar</t>
+  </si>
+  <si>
+    <t>Definir región de caché de map tiles</t>
+  </si>
+  <si>
+    <t>Descargar mosaicos de mapa</t>
+  </si>
+  <si>
+    <t>Centrar en ubicación</t>
+  </si>
+  <si>
+    <t>Menor o igual que</t>
+  </si>
+  <si>
+    <t>La precisión del GPS es inferior a la requerida</t>
+  </si>
+  <si>
+    <t>Se encuentra demasiado lejos de esta ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precisión : </t>
+  </si>
+  <si>
+    <t>BUENA</t>
+  </si>
+  <si>
+    <t>POBRE</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
+  </si>
+  <si>
+    <t>Seleccione el tipo de fecha</t>
+  </si>
+  <si>
+    <t>Contiene</t>
+  </si>
+  <si>
+    <t>La colección se ha guardado en el directorio Documentos</t>
+  </si>
+  <si>
+    <t>El operador seleccionado no es válido para la regla seleccionada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Précision : </t>
+  </si>
+  <si>
+    <t>BON</t>
+  </si>
+  <si>
+    <t>MAUVAIS</t>
+  </si>
+  <si>
+    <t>INCONNU</t>
+  </si>
+  <si>
+    <t>Légende</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le type de date</t>
+  </si>
+  <si>
+    <t>Contient</t>
+  </si>
+  <si>
+    <t>La collection a été enregistrée dans le répertoire Documents</t>
+  </si>
+  <si>
+    <t>L'opérateur sélectionné n'est pas valide pour la règle sélectionnée</t>
+  </si>
+  <si>
+    <t>Définir la région de cache des tuiles de la carte</t>
+  </si>
+  <si>
+    <t>Inférieur ou égal</t>
+  </si>
+  <si>
+    <t>La précision du GPS est inférieure à la précision requise</t>
+  </si>
+  <si>
+    <t>Vous êtes actuellement trop loin de cet emplacement</t>
+  </si>
+  <si>
+    <t>Importez une zone de dénombrement</t>
+  </si>
+  <si>
+    <t>Créez une zone de dénombrement</t>
+  </si>
+  <si>
+    <t>Ajoutez un ménage</t>
+  </si>
+  <si>
+    <t>Téléchargez les tuiles de la carte</t>
+  </si>
+  <si>
+    <t>Centrez sur l'emplacement</t>
+  </si>
+  <si>
+    <t>Téléchargement des tuiles de carte...</t>
+  </si>
+  <si>
+    <t>Échec du téléchargement du Map Style Pack</t>
+  </si>
+  <si>
+    <t>Le téléchargement du Map Tile Pack a échoué</t>
+  </si>
+  <si>
+    <t>Voulez-vous télécharger les tuiles de carte maintenant ?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer cette région de tuiles de carte ?</t>
+  </si>
+  <si>
+    <t>Saisir la valeur de la propriété Nom de la zone d'énumération</t>
+  </si>
+  <si>
+    <t>Introduzir o valor da propriedade Nome da área de enumeração</t>
+  </si>
+  <si>
+    <t>Descarregamento de Map Tiles...</t>
+  </si>
+  <si>
+    <t>Falha no download do pacote de estilos de mapa</t>
+  </si>
+  <si>
+    <t>Falha na transferência do pacote de mosaicos de mapas</t>
+  </si>
+  <si>
+    <t>Gostaria de descarregar agora as peças do mapa?</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que pretende apagar esta Região de Map Tile?</t>
+  </si>
+  <si>
+    <t>Importar área de enumeração</t>
+  </si>
+  <si>
+    <t>Criar área de enumeração</t>
+  </si>
+  <si>
+    <t>Adicionar agregado familiar</t>
+  </si>
+  <si>
+    <t>Definir região de cache de mosaicos</t>
+  </si>
+  <si>
+    <t>Descarregar mosaicos do mapa</t>
+  </si>
+  <si>
+    <t>Centrar na localização</t>
+  </si>
+  <si>
+    <t>Menor que ou igual</t>
+  </si>
+  <si>
+    <t>A precisão do GPS é inferior à precisão exigida</t>
+  </si>
+  <si>
+    <t>Está atualmente demasiado longe desta localização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precisão : </t>
+  </si>
+  <si>
+    <t>BOA</t>
+  </si>
+  <si>
+    <t>RUIM</t>
+  </si>
+  <si>
+    <t>DESCONHECIDA</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>Seleccione o tipo de data</t>
+  </si>
+  <si>
+    <t>Contém</t>
+  </si>
+  <si>
+    <t>A coleção foi guardada no diretório Documentos</t>
+  </si>
+  <si>
+    <t>O operador selecionado não é válido para a regra selecionada</t>
   </si>
 </sst>
 </file>
@@ -5732,6332 +6020,6620 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
   <dimension ref="A1:F330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="40.5" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.69921875" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="122.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" customWidth="1"/>
-    <col min="8" max="8" width="44.83203125" customWidth="1"/>
+    <col min="6" max="6" width="122.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.69921875" customWidth="1"/>
+    <col min="8" max="8" width="44.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E20" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D21" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D22" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>1720</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E25" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F32" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F33" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F35" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D36" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F36" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F37" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D38" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F38" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F39" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F44" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F46" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F49" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F50" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E51" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F51" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F52" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F53" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D54" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E54" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F54" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D55" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E55" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D56" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E56" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F56" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E57" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F57" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E58" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F58" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D59" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F59" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F60" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F61" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E62" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F62" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E63" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F63" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E64" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D65" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F65" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F66" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D67" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F67" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E68" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F68" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E69" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F69" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D70" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E70" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F70" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D71" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E71" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F71" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F72" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E73" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F73" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F74" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D75" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E75" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F75" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E76" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F76" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E77" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F77" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E79" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F79" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D81" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E81" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F81" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D82" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E82" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F82" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E83" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F83" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D84" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E84" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F84" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E85" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F85" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F86" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E87" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F87" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D88" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E88" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F88" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D89" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E89" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F89" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D91" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E91" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E92" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F92" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E93" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F93" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D94" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E94" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F94" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D95" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E95" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D97" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E97" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F97" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D98" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E98" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F98" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E99" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F99" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D100" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E100" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F100" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E101" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F101" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E102" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F102" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D103" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E103" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F103" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D104" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E104" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F104" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D105" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E105" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F105" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D106" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E106" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F106" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D107" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E107" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F107" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D108" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E108" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F108" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E109" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F109" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D110" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E110" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F110" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D111" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E111" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F111" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D112" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F112" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D113" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E113" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E114" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F114" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F115" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D116" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E116" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D117" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E117" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F117" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D118" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E118" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F118" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D119" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E119" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F119" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D120" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E120" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F120" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D121" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E121" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F121" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D122" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E122" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F122" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D123" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E123" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F123" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D124" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E124" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F124" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D125" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E125" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F125" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D126" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E126" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F126" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D127" t="s">
         <v>374</v>
       </c>
-      <c r="D127" t="s">
-        <v>375</v>
-      </c>
       <c r="E127" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F127" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D128" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E128" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F128" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E129" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F129" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E130" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F130" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D131" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E131" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F131" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D132" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E132" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D133" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E133" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F133" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D134" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E134" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F134" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D135" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E135" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F135" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D136" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F136" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D137" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E137" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F137" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D138" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E138" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F138" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D139" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E139" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F139" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D140" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E140" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F140" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D141" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E141" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F141" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D142" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E142" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F142" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E143" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F143" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D144" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E144" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F144" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D145" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E145" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F145" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D146" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E146" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F146" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D147" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E147" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F147" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D148" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E148" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F148" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D149" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E149" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F149" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C150" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D150" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E150" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F150" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C151" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D151" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E151" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F151" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C152" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D152" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E152" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F152" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C153" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D153" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E153" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F153" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C154" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D154" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E154" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F154" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C155" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D155" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E155" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F155" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C156" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D156" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E156" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F156" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C157" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D157" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E157" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F157" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C158" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D158" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E158" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F158" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C159" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D159" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E159" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F159" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C160" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D160" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E160" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F160" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C161" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D161" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E161" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F161" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C162" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D162" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E162" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F162" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C163" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D163" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E163" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F163" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C164" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D164" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E164" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F164" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C165" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D165" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E165" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F165" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C166" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D166" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E166" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F166" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C167" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D167" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E167" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F167" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C168" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D168" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E168" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F168" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C169" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D169" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E169" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F169" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C170" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D170" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E170" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F170" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C171" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D171" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E171" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F171" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C172" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D172" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E172" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F172" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C173" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D173" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E173" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F173" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C174" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D174" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E174" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F174" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C175" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D175" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E175" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F175" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C176" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D176" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E176" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F176" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C177" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D177" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E177" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F177" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C178" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D178" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E178" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F178" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C179" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D179" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F179" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C180" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D180" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E180" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F180" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C181" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D181" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E181" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F181" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D182" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F182" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="B183" s="5" t="s">
-        <v>825</v>
-      </c>
       <c r="C183" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D183" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E183" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F183" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B184" t="s">
         <v>981</v>
       </c>
-      <c r="B184" t="s">
-        <v>982</v>
-      </c>
       <c r="C184" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D184" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E184" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F184" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>984</v>
-      </c>
       <c r="C185" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D185" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E185" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F185" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B186" t="s">
         <v>985</v>
       </c>
-      <c r="B186" t="s">
-        <v>986</v>
-      </c>
       <c r="C186" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D186" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E186" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F186" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B187" t="s">
         <v>987</v>
       </c>
-      <c r="B187" t="s">
-        <v>988</v>
-      </c>
       <c r="C187" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D187" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E187" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F187" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B188" t="s">
         <v>989</v>
       </c>
-      <c r="B188" t="s">
-        <v>990</v>
-      </c>
       <c r="C188" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D188" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E188" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F188" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B189" t="s">
         <v>991</v>
       </c>
-      <c r="B189" t="s">
-        <v>992</v>
-      </c>
       <c r="C189" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D189" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E189" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F189" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B190" t="s">
         <v>993</v>
       </c>
-      <c r="B190" t="s">
-        <v>994</v>
-      </c>
       <c r="C190" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D190" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E190" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F190" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
+        <v>994</v>
+      </c>
+      <c r="B191" t="s">
         <v>995</v>
       </c>
-      <c r="B191" t="s">
-        <v>996</v>
-      </c>
       <c r="C191" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D191" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E191" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F191" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B192" t="s">
         <v>997</v>
       </c>
-      <c r="B192" t="s">
-        <v>998</v>
-      </c>
       <c r="C192" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D192" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E192" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F192" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
       </c>
       <c r="C193" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D193" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E193" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F193" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
+        <v>999</v>
+      </c>
+      <c r="B194" t="s">
         <v>1000</v>
       </c>
-      <c r="B194" t="s">
-        <v>1001</v>
-      </c>
       <c r="C194" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D194" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E194" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F194" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B195" t="s">
         <v>1002</v>
       </c>
-      <c r="B195" t="s">
-        <v>1003</v>
-      </c>
       <c r="C195" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D195" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E195" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F195" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B196" t="s">
         <v>1004</v>
       </c>
-      <c r="B196" t="s">
-        <v>1005</v>
-      </c>
       <c r="C196" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D196" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E196" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F196" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B197" t="s">
         <v>1006</v>
       </c>
-      <c r="B197" t="s">
-        <v>1007</v>
-      </c>
       <c r="C197" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D197" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E197" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F197" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B198" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C198" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D198" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E198" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F198" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B199" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C199" t="s">
         <v>1068</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>1069</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F199" t="s">
         <v>1070</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B200" t="s">
         <v>1072</v>
       </c>
-      <c r="B200" t="s">
-        <v>1073</v>
-      </c>
       <c r="C200" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D200" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E200" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F200" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B201" t="s">
         <v>1074</v>
       </c>
-      <c r="B201" t="s">
-        <v>1075</v>
-      </c>
       <c r="C201" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D201" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E201" t="s">
         <v>1079</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>1080</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B202" t="s">
         <v>1076</v>
       </c>
-      <c r="B202" t="s">
-        <v>1077</v>
-      </c>
       <c r="C202" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D202" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E202" t="s">
         <v>1082</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>1083</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>1087</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>1088</v>
-      </c>
       <c r="C203" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D203" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E203" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F203" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>1090</v>
-      </c>
       <c r="C204" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D204" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E204" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F204" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>1092</v>
-      </c>
       <c r="C205" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D205" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E205" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F205" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>1094</v>
-      </c>
       <c r="C206" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D206" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E206" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F206" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>1096</v>
-      </c>
       <c r="C207" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D207" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E207" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F207" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>1098</v>
-      </c>
       <c r="C208" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D208" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E208" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F208" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>1100</v>
-      </c>
       <c r="C209" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D209" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E209" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F209" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D210" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E210" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F210" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B211" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C211" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D211" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E211" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F211" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D212" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E212" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F212" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B213" t="s">
         <v>1129</v>
       </c>
-      <c r="B213" t="s">
-        <v>1130</v>
-      </c>
       <c r="C213" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D213" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E213" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F213" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B214" t="s">
         <v>1131</v>
       </c>
-      <c r="B214" t="s">
-        <v>1132</v>
-      </c>
       <c r="C214" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D214" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E214" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F214" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B215" t="s">
         <v>1133</v>
       </c>
-      <c r="B215" t="s">
-        <v>1134</v>
-      </c>
       <c r="C215" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D215" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E215" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F215" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B216" t="s">
         <v>1135</v>
       </c>
-      <c r="B216" t="s">
-        <v>1136</v>
-      </c>
       <c r="C216" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D216" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E216" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F216" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B217" t="s">
         <v>1137</v>
       </c>
-      <c r="B217" t="s">
-        <v>1138</v>
-      </c>
       <c r="C217" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D217" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E217" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F217" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B218" t="s">
         <v>1139</v>
       </c>
-      <c r="B218" t="s">
-        <v>1140</v>
-      </c>
       <c r="C218" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D218" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E218" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F218" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B219" t="s">
         <v>1141</v>
       </c>
-      <c r="B219" t="s">
-        <v>1142</v>
-      </c>
       <c r="C219" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D219" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E219" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F219" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C220" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D220" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E220" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F220" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D221" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E221" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F221" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B222" t="s">
         <v>1145</v>
       </c>
-      <c r="B222" t="s">
-        <v>1146</v>
-      </c>
       <c r="C222" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D222" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E222" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F222" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B223" t="s">
         <v>1147</v>
       </c>
-      <c r="B223" t="s">
-        <v>1148</v>
-      </c>
       <c r="C223" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D223" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E223" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F223" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B224" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D224" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E224" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F224" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D225" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E225" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F225" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C226" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D226" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E226" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F226" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C227" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D227" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E227" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F227" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B228" t="s">
         <v>1153</v>
       </c>
-      <c r="B228" t="s">
-        <v>1154</v>
-      </c>
       <c r="C228" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D228" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E228" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F228" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B229" t="s">
         <v>1155</v>
       </c>
-      <c r="B229" t="s">
-        <v>1156</v>
-      </c>
       <c r="C229" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D229" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E229" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F229" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B230" t="s">
         <v>1157</v>
       </c>
-      <c r="B230" t="s">
-        <v>1158</v>
-      </c>
       <c r="C230" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D230" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E230" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F230" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C231" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D231" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E231" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F231" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B232" t="s">
         <v>1160</v>
       </c>
-      <c r="B232" t="s">
-        <v>1161</v>
-      </c>
       <c r="C232" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D232" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E232" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F232" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B233" t="s">
         <v>1162</v>
       </c>
-      <c r="B233" t="s">
-        <v>1163</v>
-      </c>
       <c r="C233" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D233" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E233" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F233" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B234" t="s">
         <v>1164</v>
       </c>
-      <c r="B234" t="s">
-        <v>1165</v>
-      </c>
       <c r="C234" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D234" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E234" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F234" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B235" t="s">
         <v>1166</v>
       </c>
-      <c r="B235" t="s">
-        <v>1167</v>
-      </c>
       <c r="C235" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D235" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E235" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F235" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B236" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C236" t="s">
         <v>1317</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>1318</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F236" t="s">
         <v>1319</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B237" t="s">
         <v>1169</v>
       </c>
-      <c r="B237" t="s">
-        <v>1170</v>
-      </c>
       <c r="C237" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D237" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E237" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F237" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B238" t="s">
         <v>1171</v>
       </c>
-      <c r="B238" t="s">
-        <v>1172</v>
-      </c>
       <c r="C238" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D238" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E238" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F238" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B239" t="s">
         <v>1173</v>
       </c>
-      <c r="B239" t="s">
-        <v>1174</v>
-      </c>
       <c r="C239" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D239" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E239" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F239" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B240" t="s">
         <v>1175</v>
       </c>
-      <c r="B240" t="s">
-        <v>1176</v>
-      </c>
       <c r="C240" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D240" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E240" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F240" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B241" t="s">
         <v>1178</v>
       </c>
-      <c r="B241" t="s">
-        <v>1179</v>
-      </c>
       <c r="C241" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D241" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E241" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F241" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B242" t="s">
         <v>1180</v>
       </c>
-      <c r="B242" t="s">
-        <v>1181</v>
-      </c>
       <c r="C242" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D242" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E242" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F242" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B243" t="s">
         <v>1182</v>
       </c>
-      <c r="B243" t="s">
-        <v>1183</v>
-      </c>
       <c r="C243" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D243" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E243" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F243" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B244" t="s">
         <v>1184</v>
       </c>
-      <c r="B244" t="s">
-        <v>1185</v>
-      </c>
       <c r="C244" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D244" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E244" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F244" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B245" t="s">
         <v>1186</v>
       </c>
-      <c r="B245" t="s">
-        <v>1187</v>
-      </c>
       <c r="C245" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D245" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E245" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F245" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B246" t="s">
         <v>1188</v>
       </c>
-      <c r="B246" t="s">
-        <v>1189</v>
-      </c>
       <c r="C246" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D246" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E246" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F246" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="12" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B248" s="12" t="s">
         <v>1328</v>
       </c>
-      <c r="B248" s="12" t="s">
-        <v>1329</v>
-      </c>
       <c r="C248" s="12" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B249" s="12" t="s">
         <v>1330</v>
       </c>
-      <c r="B249" s="12" t="s">
-        <v>1331</v>
-      </c>
       <c r="C249" s="12" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B250" s="12" t="s">
         <v>1332</v>
       </c>
-      <c r="B250" s="12" t="s">
-        <v>1333</v>
-      </c>
       <c r="C250" s="12" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B251" s="12" t="s">
         <v>1334</v>
       </c>
-      <c r="B251" s="12" t="s">
-        <v>1335</v>
-      </c>
       <c r="C251" s="12" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B252" s="12" t="s">
         <v>1336</v>
       </c>
-      <c r="B252" s="12" t="s">
-        <v>1337</v>
-      </c>
       <c r="C252" s="12" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B253" s="12" t="s">
         <v>1338</v>
       </c>
-      <c r="B253" s="12" t="s">
-        <v>1339</v>
-      </c>
       <c r="C253" s="12" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B254" s="12" t="s">
         <v>1340</v>
       </c>
-      <c r="B254" s="12" t="s">
-        <v>1341</v>
-      </c>
       <c r="C254" s="12" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B255" s="12" t="s">
         <v>1342</v>
       </c>
-      <c r="B255" s="12" t="s">
-        <v>1343</v>
-      </c>
       <c r="C255" s="12" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B256" s="12" t="s">
         <v>1344</v>
       </c>
-      <c r="B256" s="12" t="s">
-        <v>1345</v>
-      </c>
       <c r="C256" s="12" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="13" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B258" s="12" t="s">
         <v>1347</v>
       </c>
-      <c r="B258" s="12" t="s">
-        <v>1348</v>
-      </c>
       <c r="C258" s="12" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B259" s="12" t="s">
         <v>1349</v>
       </c>
-      <c r="B259" s="12" t="s">
-        <v>1350</v>
-      </c>
       <c r="C259" s="12" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B260" s="12" t="s">
         <v>1351</v>
       </c>
-      <c r="B260" s="12" t="s">
-        <v>1352</v>
-      </c>
       <c r="C260" s="12" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="13" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B262" s="12" t="s">
         <v>1354</v>
       </c>
-      <c r="B262" s="12" t="s">
-        <v>1355</v>
-      </c>
       <c r="C262" s="12" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B263" s="12" t="s">
         <v>1356</v>
       </c>
-      <c r="B263" s="12" t="s">
-        <v>1357</v>
-      </c>
       <c r="C263" s="12" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="13" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B265" s="12" t="s">
         <v>1359</v>
       </c>
-      <c r="B265" s="12" t="s">
-        <v>1360</v>
-      </c>
       <c r="C265" s="12" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B266" s="12" t="s">
         <v>1361</v>
       </c>
-      <c r="B266" s="12" t="s">
-        <v>1362</v>
-      </c>
       <c r="C266" s="12" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B267" s="12" t="s">
         <v>1363</v>
       </c>
-      <c r="B267" s="12" t="s">
-        <v>1364</v>
-      </c>
       <c r="C267" s="12" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B268" s="12" t="s">
         <v>1365</v>
       </c>
-      <c r="B268" s="12" t="s">
-        <v>1366</v>
-      </c>
       <c r="C268" s="12" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B269" s="12" t="s">
         <v>1367</v>
       </c>
-      <c r="B269" s="12" t="s">
-        <v>1368</v>
-      </c>
       <c r="C269" s="12" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B270" s="12" t="s">
         <v>1369</v>
       </c>
-      <c r="B270" s="12" t="s">
-        <v>1370</v>
-      </c>
       <c r="C270" s="12" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="13" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F271" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B272" s="12" t="s">
         <v>1372</v>
       </c>
-      <c r="B272" s="12" t="s">
-        <v>1373</v>
-      </c>
       <c r="C272" s="12" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B273" s="12" t="s">
         <v>1374</v>
       </c>
-      <c r="B273" s="12" t="s">
-        <v>1375</v>
-      </c>
       <c r="C273" s="12" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B274" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="B274" s="12" t="s">
-        <v>1377</v>
-      </c>
       <c r="C274" s="12" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B275" s="12" t="s">
         <v>1378</v>
       </c>
-      <c r="B275" s="12" t="s">
-        <v>1379</v>
-      </c>
       <c r="C275" s="12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="13" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B276" s="12" t="s">
         <v>1380</v>
       </c>
-      <c r="B276" s="12" t="s">
-        <v>1381</v>
-      </c>
       <c r="C276" s="12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B277" s="14" t="s">
         <v>1382</v>
       </c>
-      <c r="B277" s="14" t="s">
-        <v>1383</v>
-      </c>
       <c r="C277" s="12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="16" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B281" s="15" t="s">
         <v>1523</v>
       </c>
-      <c r="B281" s="15" t="s">
-        <v>1524</v>
-      </c>
       <c r="C281" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D281" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E281" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F281" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="16" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B282" s="15" t="s">
         <v>1525</v>
       </c>
-      <c r="B282" s="15" t="s">
-        <v>1526</v>
-      </c>
       <c r="C282" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D282" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E282" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F282" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="16" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B283" s="15" t="s">
         <v>1527</v>
       </c>
-      <c r="B283" s="15" t="s">
-        <v>1528</v>
-      </c>
       <c r="C283" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D283" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E283" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F283" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="17" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B284" s="15" t="s">
         <v>1529</v>
       </c>
-      <c r="B284" s="15" t="s">
-        <v>1530</v>
-      </c>
       <c r="C284" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D284" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E284" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F284" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="17" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B285" s="15" t="s">
         <v>1531</v>
       </c>
-      <c r="B285" s="15" t="s">
-        <v>1532</v>
-      </c>
       <c r="C285" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D285" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E285" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F285" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="16" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B286" s="15" t="s">
         <v>1533</v>
       </c>
-      <c r="B286" s="15" t="s">
-        <v>1534</v>
-      </c>
       <c r="C286" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D286" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E286" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F286" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="16" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B287" s="15" t="s">
         <v>1535</v>
       </c>
-      <c r="B287" s="15" t="s">
-        <v>1536</v>
-      </c>
       <c r="C287" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D287" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E287" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F287" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="17" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B288" s="15" t="s">
         <v>1537</v>
       </c>
-      <c r="B288" s="15" t="s">
-        <v>1538</v>
-      </c>
       <c r="C288" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D288" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E288" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F288" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="17" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B289" s="15" t="s">
         <v>1539</v>
       </c>
-      <c r="B289" s="15" t="s">
-        <v>1540</v>
-      </c>
       <c r="C289" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D289" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E289" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F289" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="17" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B290" s="15" t="s">
         <v>1541</v>
       </c>
-      <c r="B290" s="15" t="s">
-        <v>1542</v>
-      </c>
       <c r="C290" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D290" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E290" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F290" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="17" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B291" s="15" t="s">
         <v>1543</v>
       </c>
-      <c r="B291" s="15" t="s">
-        <v>1544</v>
-      </c>
       <c r="C291" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D291" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E291" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="F291" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="17" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B292" s="15" t="s">
         <v>1545</v>
       </c>
-      <c r="B292" s="15" t="s">
-        <v>1546</v>
-      </c>
       <c r="C292" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D292" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E292" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F292" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="17" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B293" s="15" t="s">
         <v>1547</v>
       </c>
-      <c r="B293" s="15" t="s">
-        <v>1548</v>
-      </c>
       <c r="C293" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D293" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E293" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F293" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C294" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D294" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E294" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F294" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="17" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C295" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D295" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E295" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F295" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="17" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B296" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="B296" s="15" t="s">
-        <v>1552</v>
-      </c>
       <c r="C296" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D296" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E296" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F296" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="17" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B297" s="15" t="s">
         <v>1553</v>
       </c>
-      <c r="B297" s="15" t="s">
-        <v>1554</v>
-      </c>
       <c r="C297" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D297" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E297" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="F297" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="17" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B298" s="15" t="s">
         <v>1555</v>
       </c>
-      <c r="B298" s="15" t="s">
-        <v>1556</v>
-      </c>
       <c r="C298" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D298" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E298" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="F298" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="17" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B299" s="15" t="s">
         <v>1557</v>
       </c>
-      <c r="B299" s="15" t="s">
-        <v>1558</v>
-      </c>
       <c r="C299" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D299" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E299" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F299" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="17" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B300" s="15" t="s">
         <v>1559</v>
       </c>
-      <c r="B300" s="15" t="s">
-        <v>1560</v>
-      </c>
       <c r="C300" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D300" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E300" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="F300" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="17" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C301" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D301" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E301" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="F301" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="17" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B302" s="15" t="s">
         <v>1562</v>
       </c>
-      <c r="B302" s="15" t="s">
-        <v>1563</v>
-      </c>
       <c r="C302" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D302" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E302" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="F302" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="17" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B303" s="15" t="s">
         <v>1564</v>
       </c>
-      <c r="B303" s="15" t="s">
-        <v>1565</v>
-      </c>
       <c r="C303" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D303" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E303" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="F303" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="17" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B304" s="15" t="s">
         <v>1566</v>
       </c>
-      <c r="B304" s="15" t="s">
-        <v>1567</v>
-      </c>
       <c r="C304" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D304" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E304" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="F304" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="17" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B305" s="15" t="s">
         <v>1568</v>
       </c>
-      <c r="B305" s="15" t="s">
-        <v>1569</v>
-      </c>
       <c r="C305" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D305" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E305" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="F305" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="17" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B306" s="15" t="s">
         <v>1570</v>
       </c>
-      <c r="B306" s="15" t="s">
-        <v>1571</v>
-      </c>
       <c r="C306" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D306" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E306" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F306" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="19" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B307" s="15" t="s">
         <v>1673</v>
       </c>
-      <c r="B307" s="15" t="s">
-        <v>1674</v>
+      <c r="C307" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="19" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B308" s="15" t="s">
         <v>1675</v>
       </c>
-      <c r="B308" s="15" t="s">
-        <v>1676</v>
+      <c r="C308" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1731</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="19" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B309" s="15" t="s">
         <v>1677</v>
       </c>
-      <c r="B309" s="15" t="s">
-        <v>1678</v>
+      <c r="C309" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="19" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B310" s="15" t="s">
         <v>1679</v>
       </c>
-      <c r="B310" s="15" t="s">
-        <v>1680</v>
+      <c r="C310" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="19" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B311" s="15" t="s">
         <v>1681</v>
       </c>
-      <c r="B311" s="15" t="s">
-        <v>1682</v>
+      <c r="C311" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="19" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B312" s="15" t="s">
         <v>1683</v>
       </c>
-      <c r="B312" s="15" t="s">
-        <v>1684</v>
+      <c r="C312" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="19" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B313" s="15" t="s">
         <v>1685</v>
       </c>
-      <c r="B313" s="15" t="s">
-        <v>1686</v>
+      <c r="C313" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B314" s="15" t="s">
         <v>1687</v>
       </c>
-      <c r="B314" s="15" t="s">
-        <v>1688</v>
+      <c r="C314" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="19" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B315" s="15" t="s">
         <v>1689</v>
       </c>
-      <c r="B315" s="15" t="s">
-        <v>1690</v>
+      <c r="C315" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="19" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B316" s="15" t="s">
         <v>1691</v>
       </c>
-      <c r="B316" s="15" t="s">
-        <v>1692</v>
+      <c r="C316" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B317" s="15" t="s">
         <v>1693</v>
       </c>
-      <c r="B317" s="15" t="s">
-        <v>1694</v>
+      <c r="C317" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="19" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B318" s="15" t="s">
         <v>1695</v>
       </c>
-      <c r="B318" s="15" t="s">
-        <v>1696</v>
+      <c r="C318" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="19" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B319" s="15" t="s">
         <v>1697</v>
       </c>
-      <c r="B319" s="15" t="s">
-        <v>1698</v>
+      <c r="C319" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="19" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B320" s="15" t="s">
         <v>1699</v>
       </c>
-      <c r="B320" s="15" t="s">
+      <c r="C320" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="19" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="19" t="s">
+      <c r="B321" s="15" t="s">
         <v>1701</v>
       </c>
-      <c r="B321" s="15" t="s">
+      <c r="C321" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="19" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="19" t="s">
+      <c r="B322" s="15" t="s">
         <v>1703</v>
       </c>
-      <c r="B322" s="15" t="s">
+      <c r="C322" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="19" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="19" t="s">
+      <c r="B323" s="15" t="s">
         <v>1705</v>
       </c>
-      <c r="B323" s="15" t="s">
+      <c r="C323" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="19" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="19" t="s">
+      <c r="B324" s="15" t="s">
         <v>1707</v>
       </c>
-      <c r="B324" s="15" t="s">
+      <c r="C324" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="19" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="19" t="s">
+      <c r="B325" s="15" t="s">
         <v>1709</v>
       </c>
-      <c r="B325" s="15" t="s">
+      <c r="C325" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="19" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="19" t="s">
+      <c r="B326" s="15" t="s">
         <v>1711</v>
       </c>
-      <c r="B326" s="15" t="s">
+      <c r="C326" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="19" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="19" t="s">
+      <c r="B327" s="15" t="s">
         <v>1713</v>
       </c>
-      <c r="B327" s="15" t="s">
+      <c r="C327" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="19" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="19" t="s">
+      <c r="B328" s="15" t="s">
         <v>1715</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="C328" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="19" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="19" t="s">
+      <c r="B329" s="15" t="s">
         <v>1717</v>
       </c>
-      <c r="B329" s="15" t="s">
+      <c r="C329" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="19" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="19" t="s">
+      <c r="B330" s="15" t="s">
         <v>1719</v>
       </c>
-      <c r="B330" s="15" t="s">
-        <v>1720</v>
+      <c r="C330" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1729</v>
       </c>
     </row>
   </sheetData>
@@ -12069,103 +12645,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="75d52bf7-d703-474f-b962-0c7320302ad7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <EISOUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <CreateNotes xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <Personnel_Updates xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <Flow xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <HHTTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <WASHTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <PublicationAwards xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <DetailsDeployments xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <UpcomingTopics xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <ERCTTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <SSUTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <UpcomingEvents xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <GDDOCTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <OpsUTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <BHATeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <Staffing xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <MeetingDate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <GRRTTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <Reminders xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <TodaysTopics xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <KudosUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <NFFormData xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <DeployUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <FromChief xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-    <ECEPTeamUpdate xmlns="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100750D7D7AF9B42A43AEE54A5FD80B27E6" ma:contentTypeVersion="61" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99ae75c5414f46de1f64891a359f5330">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0dcbd924-8c91-49b0-94f8-5fc02e396c06" xmlns:ns3="75d52bf7-d703-474f-b962-0c7320302ad7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a153df88cc657c35494faa5b2d298991" ns2:_="" ns3:_="">
-    <xsd:import namespace="0dcbd924-8c91-49b0-94f8-5fc02e396c06"/>
-    <xsd:import namespace="75d52bf7-d703-474f-b962-0c7320302ad7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F12BE0DB4A3DF641BF113FBF1C7EA261" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="718598463bd34fa12e450bcb3a6783b8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" xmlns:ns3="6e0cf07b-8188-4b76-8f54-3cda03d37414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54cbcd1ebcb6479b13808205dc2a6520" ns2:_="" ns3:_="">
+    <xsd:import namespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <xsd:import namespace="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:TodaysTopics" minOccurs="0"/>
-                <xsd:element ref="ns2:Reminders" minOccurs="0"/>
-                <xsd:element ref="ns2:UpcomingTopics" minOccurs="0"/>
-                <xsd:element ref="ns2:Personnel_Updates" minOccurs="0"/>
-                <xsd:element ref="ns2:UpcomingEvents" minOccurs="0"/>
-                <xsd:element ref="ns2:PublicationAwards" minOccurs="0"/>
-                <xsd:element ref="ns2:Staffing" minOccurs="0"/>
-                <xsd:element ref="ns2:DetailsDeployments" minOccurs="0"/>
-                <xsd:element ref="ns2:FromChief" minOccurs="0"/>
-                <xsd:element ref="ns2:BHATeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:ECEPTeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:EISOUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:ERCTTeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:GDDOCTeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:GRRTTeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:HHTTeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:OpsUTeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:SSUTeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:WASHTeamUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:MeetingDate" minOccurs="0"/>
-                <xsd:element ref="ns2:CreateNotes" minOccurs="0"/>
-                <xsd:element ref="ns2:Flow" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:NFFormData" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:KudosUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:DeployUpdate" minOccurs="0"/>
-                <xsd:element ref="ns2:DeployUpdate_x003a__x0020_Deployment_x0020_start_x0020_date" minOccurs="0"/>
-                <xsd:element ref="ns2:DeployUpdate_x003a__x0020_Deployment_x0020_end_x0020_date" minOccurs="0"/>
-                <xsd:element ref="ns2:DeployUpdate_x003a__x0020_Destination_x003a__x0020_Country_x002f_Region" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -12173,299 +12675,68 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0dcbd924-8c91-49b0-94f8-5fc02e396c06" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="43e153a8-5ef1-4f65-aac7-dc4685f18eaa" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TodaysTopics" ma:index="2" nillable="true" ma:displayName="TodaysTopics" ma:internalName="TodaysTopics" ma:readOnly="false">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9353dbe8-8260-4ccf-8219-3d2995e6fa15" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="Reminders" ma:index="3" nillable="true" ma:displayName="Reminders" ma:internalName="Reminders" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UpcomingTopics" ma:index="4" nillable="true" ma:displayName="UpcomingTopics" ma:internalName="UpcomingTopics" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Personnel_Updates" ma:index="5" nillable="true" ma:displayName="Personnel_Updates" ma:internalName="Personnel_Updates" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UpcomingEvents" ma:index="6" nillable="true" ma:displayName="UpcomingEvents" ma:internalName="UpcomingEvents" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="PublicationAwards" ma:index="7" nillable="true" ma:displayName="PublicationAwards" ma:internalName="PublicationAwards" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Staffing" ma:index="8" nillable="true" ma:displayName="Staffing" ma:internalName="Staffing" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DetailsDeployments" ma:index="9" nillable="true" ma:displayName="DetailsDeployments" ma:internalName="DetailsDeployments" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FromChief" ma:index="10" nillable="true" ma:displayName="FromChief" ma:internalName="FromChief" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BHATeamUpdate" ma:index="11" nillable="true" ma:displayName="BHATeamUpdate" ma:internalName="BHATeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ECEPTeamUpdate" ma:index="12" nillable="true" ma:displayName="ECEPTeamUpdate" ma:internalName="ECEPTeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="EISOUpdate" ma:index="13" nillable="true" ma:displayName="EISOUpdate" ma:format="Dropdown" ma:internalName="EISOUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ERCTTeamUpdate" ma:index="14" nillable="true" ma:displayName="ERCTTeamUpdate" ma:internalName="ERCTTeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="GDDOCTeamUpdate" ma:index="15" nillable="true" ma:displayName="GDDOCTeamUpdate" ma:internalName="GDDOCTeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="GRRTTeamUpdate" ma:index="16" nillable="true" ma:displayName="GRRTTeamUpdate" ma:internalName="GRRTTeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="HHTTeamUpdate" ma:index="17" nillable="true" ma:displayName="HHTTeamUpdate" ma:internalName="HHTTeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="OpsUTeamUpdate" ma:index="18" nillable="true" ma:displayName="OpsUTeamUpdate" ma:internalName="OpsUTeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SSUTeamUpdate" ma:index="19" nillable="true" ma:displayName="SSUTeamUpdate" ma:internalName="SSUTeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="WASHTeamUpdate" ma:index="20" nillable="true" ma:displayName="WASHTeamUpdate" ma:internalName="WASHTeamUpdate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MeetingDate" ma:index="21" nillable="true" ma:displayName="MeetingDate" ma:format="DateOnly" ma:internalName="MeetingDate" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CreateNotes" ma:index="22" nillable="true" ma:displayName="CreateNotes" ma:format="Dropdown" ma:internalName="CreateNotes">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Flow" ma:index="23" nillable="true" ma:displayName="Flow" ma:format="Dropdown" ma:internalName="Flow" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="25" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="26" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="27" nillable="true" ma:displayName="Location" ma:hidden="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="29" nillable="true" ma:displayName="Extracted Text" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="30" nillable="true" ma:displayName="Length (seconds)" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="NFFormData" ma:index="36" nillable="true" ma:displayName="NFFormData" ma:hidden="true" ma:internalName="NFFormData" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="38" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="39" nillable="true" ma:displayName="Tags" ma:hidden="true" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="40" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9353dbe8-8260-4ccf-8219-3d2995e6fa15" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="43" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="44" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="KudosUpdate" ma:index="45" nillable="true" ma:displayName="KudosUpdate" ma:format="Dropdown" ma:list="4f0a6023-9ff4-4011-958a-94b3931a7245" ma:internalName="KudosUpdate" ma:showField="Title">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="DeployUpdate" ma:index="46" nillable="true" ma:displayName="DeployUpdate" ma:format="Dropdown" ma:list="57ee84ce-00c1-4a18-9bf2-03cd64ecc8e1" ma:internalName="DeployUpdate" ma:showField="Title">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="DeployUpdate_x003a__x0020_Deployment_x0020_start_x0020_date" ma:index="47" nillable="true" ma:displayName="DeployUpdate: Deployment start date" ma:list="57ee84ce-00c1-4a18-9bf2-03cd64ecc8e1" ma:internalName="DeployUpdate_x003a__x0020_Deployment_x0020_start_x0020_date" ma:readOnly="true" ma:showField="TravelStartDate">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="DeployUpdate_x003a__x0020_Deployment_x0020_end_x0020_date" ma:index="48" nillable="true" ma:displayName="DeployUpdate: Deployment end date" ma:list="57ee84ce-00c1-4a18-9bf2-03cd64ecc8e1" ma:internalName="DeployUpdate_x003a__x0020_Deployment_x0020_end_x0020_date" ma:readOnly="true" ma:showField="TravelEndDate">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="DeployUpdate_x003a__x0020_Destination_x003a__x0020_Country_x002f_Region" ma:index="49" nillable="true" ma:displayName="DeployUpdate: Destination: Country/Region" ma:list="57ee84ce-00c1-4a18-9bf2-03cd64ecc8e1" ma:internalName="DeployUpdate_x003a__x0020_Destination_x003a__x0020_Country_x002f_Region" ma:readOnly="true" ma:showField="CountryOrRegion">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="50" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="75d52bf7-d703-474f-b962-0c7320302ad7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6e0cf07b-8188-4b76-8f54-3cda03d37414" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithDetails" ma:index="28" nillable="true" ma:displayName="Shared With Details" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="41" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b9d0e997-3790-4c3a-9f19-98607d65aa24}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="75d52bf7-d703-474f-b962-0c7320302ad7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="42" nillable="true" ma:displayName="Shared With" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -12484,6 +12755,24 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ac7a555a-1de2-4586-a23d-cc6b80efef41}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6e0cf07b-8188-4b76-8f54-3cda03d37414">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -12494,8 +12783,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -12584,35 +12873,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormUrls xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url">
-  <Display>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2</Display>
-  <Edit>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1</Edit>
-  <New>FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0</New>
-  <MobileDisplay>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2</MobileDisplay>
-  <MobileEdit>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1</MobileEdit>
-  <MobileNew>FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0</MobileNew>
-  <NewComponentId>&lt;FormUrls xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url"&gt;&lt;Display&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2&lt;/Display&gt;&lt;Edit&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1&lt;/Edit&gt;&lt;New&gt;FormsApp/NFLaunch.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0&lt;/New&gt;&lt;MobileDisplay&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=2&lt;/MobileDisplay&gt;&lt;MobileEdit&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=1&lt;/MobileEdit&gt;&lt;MobileNew&gt;FormsApp/NFLaunchMobile.aspx?SPAppWebUrl=https://cdc-7e6afb45ecc86a.sharepoint.com/teams/CGH-DGHP-ERRB/FormsApp&amp;amp;SPHostUrl=https://cdc.sharepoint.com/teams/CGH-DGHP-ERRB&amp;amp;remoteAppUrl=https://formso365.nintex.com&amp;amp;ctype=0x010100750D7D7AF9B42A43AEE54A5FD80B27E6&amp;amp;wtg=/NintexFormXml/2144780449cdf710433aa7ba2c3c5925_0dcbd924-8c91-49b0-94f8-5fc02e396c06/&amp;amp;mode=0&lt;/MobileNew&gt;&lt;/FormUrls&gt;</NewComponentId>
-  <DisplayFormTarget>NewWindow</DisplayFormTarget>
-  <EditFormTarget>NewWindow</EditFormTarget>
-  <NewFormTarget>NewWindow</NewFormTarget>
-</FormUrls>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e0cf07b-8188-4b76-8f54-3cda03d37414" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="43e153a8-5ef1-4f65-aac7-dc4685f18eaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C09E5B72-CDAD-457F-9014-6406F9A098B4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75d52bf7-d703-474f-b962-0c7320302ad7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0dcbd924-8c91-49b0-94f8-5fc02e396c06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12626,28 +12921,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{329265DA-7449-4C95-94BE-B6073D2B6CD2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E20926E-9EFB-4B7E-90D4-905B08F8E59C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0dcbd924-8c91-49b0-94f8-5fc02e396c06"/>
-    <ds:schemaRef ds:uri="75d52bf7-d703-474f-b962-0c7320302ad7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="43e153a8-5ef1-4f65-aac7-dc4685f18eaa"/>
+    <ds:schemaRef ds:uri="6e0cf07b-8188-4b76-8f54-3cda03d37414"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5C024E-35AF-4CF6-847D-63856D9FCFAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms/url"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/CGH-GPSSample/Shared Documents/General/2024/APP- strings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmitchell64/Desktop/Projects/GPSSample/gpssample/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{508DA2BC-DCE3-5E45-A79B-DF46E2C8EBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DE0C14-FF57-4F56-A6E2-134038B000E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A08637-8AA4-0D41-BBD2-726DE8067B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
+    <workbookView xWindow="16220" yWindow="500" windowWidth="38860" windowHeight="23440" xr2:uid="{C8C8ACD1-4E76-7942-B525-8D880B4ECA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$303</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
     <author>tc={B6A2509A-3208-40C6-8ADE-D00BFB988BD8}</author>
   </authors>
   <commentList>
-    <comment ref="E179" authorId="0" shapeId="0" xr:uid="{B6A2509A-3208-40C6-8ADE-D00BFB988BD8}">
+    <comment ref="E178" authorId="0" shapeId="0" xr:uid="{B6A2509A-3208-40C6-8ADE-D00BFB988BD8}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="2053">
   <si>
     <t>Settings</t>
   </si>
@@ -1102,9 +1102,6 @@
   </si>
   <si>
     <t>Estudios</t>
-  </si>
-  <si>
-    <t>Áreas de enumeración</t>
   </si>
   <si>
     <t>Código de barras detectado</t>
@@ -4695,15 +4692,9 @@
     <t>is_multi_family</t>
   </si>
   <si>
-    <t>Is this a multi family location?</t>
-  </si>
-  <si>
     <t>multi_families</t>
   </si>
   <si>
-    <t>Multi Families</t>
-  </si>
-  <si>
     <t>dismiss</t>
   </si>
   <si>
@@ -4815,12 +4806,6 @@
     <t>Collecte complète</t>
   </si>
   <si>
-    <t>S'agit-il d'un site multifamilial ?</t>
-  </si>
-  <si>
-    <t>Familles multiples</t>
-  </si>
-  <si>
     <t>Supprimer</t>
   </si>
   <si>
@@ -4887,12 +4872,6 @@
     <t>Recogida completa</t>
   </si>
   <si>
-    <t>¿Se trata de una ubicación multifamiliar?</t>
-  </si>
-  <si>
-    <t>Multifamiliar</t>
-  </si>
-  <si>
     <t>Descartar</t>
   </si>
   <si>
@@ -4962,9 +4941,6 @@
     <t>Recolha Completa</t>
   </si>
   <si>
-    <t>Este é um local multifamiliar?</t>
-  </si>
-  <si>
     <t>Excluir</t>
   </si>
   <si>
@@ -5028,12 +5004,6 @@
     <t>Завершенный сбор</t>
   </si>
   <si>
-    <t>Является ли это место проживания многосемейным?</t>
-  </si>
-  <si>
-    <t>Многосемейные</t>
-  </si>
-  <si>
     <t>Удалить</t>
   </si>
   <si>
@@ -5527,13 +5497,751 @@
   </si>
   <si>
     <t>O operador selecionado não é válido para a regra selecionada</t>
+  </si>
+  <si>
+    <t>about_gpssample</t>
+  </si>
+  <si>
+    <t>About GPSSample</t>
+  </si>
+  <si>
+    <t>privacy_statement</t>
+  </si>
+  <si>
+    <t>Privacy Statement</t>
+  </si>
+  <si>
+    <t>terms_and_conditions</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>show_map</t>
+  </si>
+  <si>
+    <t>Show Map</t>
+  </si>
+  <si>
+    <t>number_of_residents</t>
+  </si>
+  <si>
+    <t>Number of Residents</t>
+  </si>
+  <si>
+    <t>end_user_license_agreement</t>
+  </si>
+  <si>
+    <t>End User License Agreement</t>
+  </si>
+  <si>
+    <t>code_of_conduct</t>
+  </si>
+  <si>
+    <t>Code of Conduct</t>
+  </si>
+  <si>
+    <t>clear_map</t>
+  </si>
+  <si>
+    <t>Are you sure you want to clear the map?</t>
+  </si>
+  <si>
+    <t>delete_point</t>
+  </si>
+  <si>
+    <t>Are you sure you want to remove the last point?</t>
+  </si>
+  <si>
+    <t>Enumeration Area</t>
+  </si>
+  <si>
+    <t>please_select_a_role</t>
+  </si>
+  <si>
+    <t>Please select a role</t>
+  </si>
+  <si>
+    <t>please_enter_your_user_name</t>
+  </si>
+  <si>
+    <t>Please enter your user name</t>
+  </si>
+  <si>
+    <t>user_name_not_found</t>
+  </si>
+  <si>
+    <t>User name not found</t>
+  </si>
+  <si>
+    <t>Multi Households</t>
+  </si>
+  <si>
+    <t>Is this a multi household location?</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>mark_status</t>
+  </si>
+  <si>
+    <t>Mark Status</t>
+  </si>
+  <si>
+    <t>not_visited</t>
+  </si>
+  <si>
+    <t>Not Visited</t>
+  </si>
+  <si>
+    <t>Incomplete Survey</t>
+  </si>
+  <si>
+    <t>Completed Survey</t>
+  </si>
+  <si>
+    <t>subaddress_is_required</t>
+  </si>
+  <si>
+    <t>Subaddress is Required</t>
+  </si>
+  <si>
+    <t>auto_increment_subaddress</t>
+  </si>
+  <si>
+    <t>Auto Increment Subaddress</t>
+  </si>
+  <si>
+    <t>allow_manual_identification_of_locations</t>
+  </si>
+  <si>
+    <t>Allow manual identification of locations</t>
+  </si>
+  <si>
+    <t>proximity_warning_enabled</t>
+  </si>
+  <si>
+    <t>Proximity Warning Enabled</t>
+  </si>
+  <si>
+    <t>encryption_password</t>
+  </si>
+  <si>
+    <t>Encryption Password</t>
+  </si>
+  <si>
+    <t>enter_encryption_password</t>
+  </si>
+  <si>
+    <t>Enter Encryption Password</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>num_enumeration_areas</t>
+  </si>
+  <si>
+    <t># Enumeration Areas:</t>
+  </si>
+  <si>
+    <t>num_hhs_enumerated</t>
+  </si>
+  <si>
+    <t># HH\'s Enumerated:</t>
+  </si>
+  <si>
+    <t>num_hhs_eligible</t>
+  </si>
+  <si>
+    <t># HH\'s Eligible:</t>
+  </si>
+  <si>
+    <t>num_hhs_sampled</t>
+  </si>
+  <si>
+    <t># HH\'s Sampled:</t>
+  </si>
+  <si>
+    <t>num_hhs_surveyed</t>
+  </si>
+  <si>
+    <t># HH\'s Surveyed:</t>
+  </si>
+  <si>
+    <t>num_hhs_remaining_to_survey</t>
+  </si>
+  <si>
+    <t># HH\'s Remaining to Survey:</t>
+  </si>
+  <si>
+    <t>decryption_failed</t>
+  </si>
+  <si>
+    <t>Decryption failed.  Please try again.</t>
+  </si>
+  <si>
+    <t>rename_or_delete</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>Would you like to Rename or Delete the Enumeration Area ?</t>
+  </si>
+  <si>
+    <t>À propos de GPSSample</t>
+  </si>
+  <si>
+    <t>Déclaration de confidentialité</t>
+  </si>
+  <si>
+    <t>Conditions d'utilisation</t>
+  </si>
+  <si>
+    <t>Afficher la carte</t>
+  </si>
+  <si>
+    <t>Nombre de résidents</t>
+  </si>
+  <si>
+    <t>Accord de licence pour l'utilisateur final</t>
+  </si>
+  <si>
+    <t>Code de conduite</t>
+  </si>
+  <si>
+    <t>Acerca de GPSSample</t>
+  </si>
+  <si>
+    <t>Declaración de privacidad</t>
+  </si>
+  <si>
+    <t>Condiciones de uso</t>
+  </si>
+  <si>
+    <t>Mostrar mapa</t>
+  </si>
+  <si>
+    <t>Número de residentes</t>
+  </si>
+  <si>
+    <t>Acuerdo de licencia de usuario final</t>
+  </si>
+  <si>
+    <t>Código de conducta</t>
+  </si>
+  <si>
+    <t>Sobre o GPSSample</t>
+  </si>
+  <si>
+    <t>Declaração de privacidade</t>
+  </si>
+  <si>
+    <t>Termos e Condições</t>
+  </si>
+  <si>
+    <t>Contrato de Licença de Utilizador Final</t>
+  </si>
+  <si>
+    <t>Código de Conduta</t>
+  </si>
+  <si>
+    <t>О компании GPSSample</t>
+  </si>
+  <si>
+    <t>Положение о конфиденциальности</t>
+  </si>
+  <si>
+    <t>Условия и положения</t>
+  </si>
+  <si>
+    <t>Показать карту</t>
+  </si>
+  <si>
+    <t>Количество жителей</t>
+  </si>
+  <si>
+    <t>Лицензионное соглашение с конечным пользователем</t>
+  </si>
+  <si>
+    <t>Кодекс поведения</t>
+  </si>
+  <si>
+    <t>Резюме</t>
+  </si>
+  <si>
+    <t># Области перечисления:</t>
+  </si>
+  <si>
+    <t># Перечисленные домохозяйства:</t>
+  </si>
+  <si>
+    <t># Домохозяйства, отвечающие критериям:</t>
+  </si>
+  <si>
+    <t># Домохозяйства, попавшие в выборку:</t>
+  </si>
+  <si>
+    <t># Обследованные домохозяйства:</t>
+  </si>
+  <si>
+    <t># Домохозяйства, оставшиеся для опроса:</t>
+  </si>
+  <si>
+    <t>Расшифровка не удалась.  Пожалуйста, попробуйте еще раз.</t>
+  </si>
+  <si>
+    <t>Вы хотите переименовать или удалить область переписи?</t>
+  </si>
+  <si>
+    <t>Переименовать</t>
+  </si>
+  <si>
+    <t>Résumé</t>
+  </si>
+  <si>
+    <t># Zones de dénombrement :</t>
+  </si>
+  <si>
+    <t># Ménages recensés :</t>
+  </si>
+  <si>
+    <t># Ménages éligibles :</t>
+  </si>
+  <si>
+    <t># Ménages échantillonnés :</t>
+  </si>
+  <si>
+    <t># Ménages restant à enquêter :</t>
+  </si>
+  <si>
+    <t>Le décodage a échoué.  Veuillez réessayer.</t>
+  </si>
+  <si>
+    <t>Souhaitez-vous renommer ou supprimer la zone de dénombrement ?</t>
+  </si>
+  <si>
+    <t>Renommer</t>
+  </si>
+  <si>
+    <t># Nombre de ménages enquêtés:</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t># Áreas de Enumeración:</t>
+  </si>
+  <si>
+    <t># Hogares censados</t>
+  </si>
+  <si>
+    <t># Hogares elegibles:</t>
+  </si>
+  <si>
+    <t># Hogares muestreados</t>
+  </si>
+  <si>
+    <t># Hogares encuestados:</t>
+  </si>
+  <si>
+    <t># Hogares pendientes de encuestar:</t>
+  </si>
+  <si>
+    <t>La desencriptación ha fallado.  Inténtelo de nuevo.</t>
+  </si>
+  <si>
+    <t>¿Desea cambiar el nombre o eliminar el área de enumeración?</t>
+  </si>
+  <si>
+    <t>Renombrar</t>
+  </si>
+  <si>
+    <t>Resumo</t>
+  </si>
+  <si>
+    <t># Áreas de Enumeração:</t>
+  </si>
+  <si>
+    <t># Agregados Familiares Enumerados:</t>
+  </si>
+  <si>
+    <t># Agregados Elegíveis:</t>
+  </si>
+  <si>
+    <t># Agregados Familiares Amostrados:</t>
+  </si>
+  <si>
+    <t># Agregados inquiridos:</t>
+  </si>
+  <si>
+    <t># Agregados que faltam inquirir:</t>
+  </si>
+  <si>
+    <t>A descodificação falhou.  Por favor, tente novamente.</t>
+  </si>
+  <si>
+    <t>Gostaria de mudar o nome ou eliminar a área de enumeração?</t>
+  </si>
+  <si>
+    <t>Mudar o nome</t>
+  </si>
+  <si>
+    <t>Tens a certeza de que queres limpar o mapa?</t>
+  </si>
+  <si>
+    <t>Tem a certeza de que pretende remover o último ponto?</t>
+  </si>
+  <si>
+    <t>Área de enumeração</t>
+  </si>
+  <si>
+    <t>Por favor, seleccione uma função</t>
+  </si>
+  <si>
+    <t>Introduza o seu nome de utilizador</t>
+  </si>
+  <si>
+    <t>Nome de utilizador não encontrado</t>
+  </si>
+  <si>
+    <t>Agregados familiares múltiplos</t>
+  </si>
+  <si>
+    <t>Este é um local com vários agregados familiares?</t>
+  </si>
+  <si>
+    <t>Amostra</t>
+  </si>
+  <si>
+    <t>Estado da marca</t>
+  </si>
+  <si>
+    <t>Não visitado</t>
+  </si>
+  <si>
+    <t>Inquérito Incompleto</t>
+  </si>
+  <si>
+    <t>Inquérito concluído</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exatidão : </t>
+  </si>
+  <si>
+    <t>O subendereço é necessário</t>
+  </si>
+  <si>
+    <t>Incremento automático do subendereço</t>
+  </si>
+  <si>
+    <t>Permitir a identificação manual de localizações</t>
+  </si>
+  <si>
+    <t>Aviso de proximidade ativado</t>
+  </si>
+  <si>
+    <t>Palavra-passe de encriptação</t>
+  </si>
+  <si>
+    <t>Introduzir palavra-passe de encriptação</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de que quieres borrar el mapa?</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de que quieres eliminar el último punto?</t>
+  </si>
+  <si>
+    <t>Área de Enumeración</t>
+  </si>
+  <si>
+    <t>Seleccione un rol</t>
+  </si>
+  <si>
+    <t>Introduzca su nombre de usuario</t>
+  </si>
+  <si>
+    <t>Nombre de usuario no encontrado</t>
+  </si>
+  <si>
+    <t>Multihogares</t>
+  </si>
+  <si>
+    <t>¿Se trata de una ubicación multihogar?</t>
+  </si>
+  <si>
+    <t>Muestra</t>
+  </si>
+  <si>
+    <t>Marca Estado</t>
+  </si>
+  <si>
+    <t>No visitado</t>
+  </si>
+  <si>
+    <t>Encuesta incompleta</t>
+  </si>
+  <si>
+    <t>Encuesta completada</t>
+  </si>
+  <si>
+    <t>Se requiere subdirección</t>
+  </si>
+  <si>
+    <t>Incremento automático de la subdirección</t>
+  </si>
+  <si>
+    <t>Permitir la identificación manual de ubicaciones</t>
+  </si>
+  <si>
+    <t>Aviso de proximidad activado</t>
+  </si>
+  <si>
+    <t>Contraseña de encriptación</t>
+  </si>
+  <si>
+    <t>Introduzca la contraseña de encriptación</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir effacer la carte ?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer le dernier point ?</t>
+  </si>
+  <si>
+    <t>Zone de dénombrement</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner un rôle</t>
+  </si>
+  <si>
+    <t>Veuillez saisir votre nom d'utilisateur</t>
+  </si>
+  <si>
+    <t>Nom d'utilisateur non trouvé</t>
+  </si>
+  <si>
+    <t>Multi-ménages</t>
+  </si>
+  <si>
+    <t>S'agit-il d'un lieu où vivent plusieurs ménages ?</t>
+  </si>
+  <si>
+    <t>Exemple</t>
+  </si>
+  <si>
+    <t>Statut de la marque</t>
+  </si>
+  <si>
+    <t>Non visitée</t>
+  </si>
+  <si>
+    <t>Enquête incomplète</t>
+  </si>
+  <si>
+    <t>Enquête terminée</t>
+  </si>
+  <si>
+    <t>La sous-adresse est requise</t>
+  </si>
+  <si>
+    <t>Incrémentation automatique de la sous-adresse</t>
+  </si>
+  <si>
+    <t>Permettre l'identification manuelle des lieux</t>
+  </si>
+  <si>
+    <t>Avertissement de proximité activé</t>
+  </si>
+  <si>
+    <t>Mot de passe de cryptage</t>
+  </si>
+  <si>
+    <t>Entrer le mot de passe de cryptage</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите очистить карту?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите удалить последнюю точку?</t>
+  </si>
+  <si>
+    <t>Зона переписи</t>
+  </si>
+  <si>
+    <t>Пожалуйста, выберите роль</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите имя пользователя</t>
+  </si>
+  <si>
+    <t>Имя пользователя не найдено</t>
+  </si>
+  <si>
+    <t>Многоквартирные дома</t>
+  </si>
+  <si>
+    <t>Является ли это место расположения несколькими домохозяйствами?</t>
+  </si>
+  <si>
+    <t>Образец</t>
+  </si>
+  <si>
+    <t>Статус отметки</t>
+  </si>
+  <si>
+    <t>Не посещен</t>
+  </si>
+  <si>
+    <t>Незавершенный опрос</t>
+  </si>
+  <si>
+    <t>Завершенный опрос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точность </t>
+  </si>
+  <si>
+    <t>Требуется субадрес</t>
+  </si>
+  <si>
+    <t>Автоматическое увеличение субадреса</t>
+  </si>
+  <si>
+    <t>Разрешить ручную идентификацию местоположений</t>
+  </si>
+  <si>
+    <t>Включено предупреждение о приближении</t>
+  </si>
+  <si>
+    <t>Пароль шифрования</t>
+  </si>
+  <si>
+    <t>Введите пароль шифрования</t>
+  </si>
+  <si>
+    <t>map_tile_boundary</t>
+  </si>
+  <si>
+    <t>Enter the length/width (Kilometers) of the desired map tile region</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>SUCCESS!</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>ERROR!</t>
+  </si>
+  <si>
+    <t>The import failed.</t>
+  </si>
+  <si>
+    <t>import_succeeded</t>
+  </si>
+  <si>
+    <t>The import was successful.</t>
+  </si>
+  <si>
+    <t>clear_map_tile_region</t>
+  </si>
+  <si>
+    <t>Clear map tile cache region</t>
+  </si>
+  <si>
+    <t>УСПЕХ!</t>
+  </si>
+  <si>
+    <t>ОШИБКА!</t>
+  </si>
+  <si>
+    <t>Импорт не удался.</t>
+  </si>
+  <si>
+    <t>Импорт прошел успешно.</t>
+  </si>
+  <si>
+    <t>Очистить кэш региона плитки карты</t>
+  </si>
+  <si>
+    <t>SUCCES !</t>
+  </si>
+  <si>
+    <t>ERREUR !</t>
+  </si>
+  <si>
+    <t>L'importation a échoué.</t>
+  </si>
+  <si>
+    <t>L'importation a réussi.</t>
+  </si>
+  <si>
+    <t>Effacer la région du cache des tuiles de la carte</t>
+  </si>
+  <si>
+    <t>¡ÉXITO!</t>
+  </si>
+  <si>
+    <t>¡ERROR!</t>
+  </si>
+  <si>
+    <t>La importación ha fallado.</t>
+  </si>
+  <si>
+    <t>La importación se ha realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Borrar región de caché de mosaico de mapa</t>
+  </si>
+  <si>
+    <t>SUCESSO!</t>
+  </si>
+  <si>
+    <t>ERRO!</t>
+  </si>
+  <si>
+    <t>A importação falhou.</t>
+  </si>
+  <si>
+    <t>A importação foi bem sucedida.</t>
+  </si>
+  <si>
+    <t>Limpar a região da cache de mosaicos do mapa</t>
+  </si>
+  <si>
+    <t>Introduza o comprimento/largura (quilómetros) da região de mosaico pretendida</t>
+  </si>
+  <si>
+    <t>Introduzca la longitud/anchura (Kilómetros) de la región de mosaico de mapa deseada</t>
+  </si>
+  <si>
+    <t>Saisir la longueur/largeur (en kilomètres) de la région souhaitée.</t>
+  </si>
+  <si>
+    <t>Введите длину/ширину (в километрах) желаемого региона картографической плитки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5623,6 +6331,11 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5662,7 +6375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5689,11 +6402,67 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF067D17"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5712,10 +6481,25 @@
 </personList>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73295AEA-8140-4EAB-A7A6-7D1875F4D7E7}" name="Table1" displayName="Table1" ref="A1:F370" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F370" xr:uid="{73295AEA-8140-4EAB-A7A6-7D1875F4D7E7}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DE67F62A-9DCA-4DFE-8C98-83B024E5D946}" name="app_name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BCDA3AB5-7BB5-4A21-ABBB-4186B52D559D}" name="GPSSample::en" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{16D0F64C-80EB-4C30-A03A-BB59134EB64F}" name="GPSSample::es"/>
+    <tableColumn id="4" xr3:uid="{92AB9E64-7EFC-4240-AFD8-B9F66981F846}" name="GPSSample::fr"/>
+    <tableColumn id="5" xr3:uid="{D2F1E767-4675-4EC5-A84C-331750B10BEB}" name="GPSSample::pt"/>
+    <tableColumn id="6" xr3:uid="{FCF0E0C0-270F-4077-A8BA-2DAFF7C2AF0A}" name="GPSSample::ru"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5753,7 +6537,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5859,7 +6643,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6001,7 +6785,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6009,7 +6793,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E179" dT="2023-11-08T19:15:32.70" personId="{B10A4713-F439-461F-935D-3FD7CC3B5D06}" id="{B6A2509A-3208-40C6-8ADE-D00BFB988BD8}">
+  <threadedComment ref="E178" dT="2023-11-08T19:15:32.70" personId="{B10A4713-F439-461F-935D-3FD7CC3B5D06}" id="{B6A2509A-3208-40C6-8ADE-D00BFB988BD8}">
     <text xml:space="preserve">There are two times when this is used: Import config from supervisor/data collector/enumerator screen. It should be 
 Importar configuração </text>
   </threadedComment>
@@ -6018,22 +6802,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD3E6CC-854C-5841-9577-D3ADD2982DB6}">
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D321" sqref="D321"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="129" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288:XFD288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="32.69921875" customWidth="1"/>
+    <col min="2" max="2" width="91.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="122.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.69921875" customWidth="1"/>
-    <col min="8" max="8" width="44.796875" customWidth="1"/>
+    <col min="6" max="6" width="122.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6050,10 +6834,10 @@
         <v>274</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6064,16 +6848,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D2" t="s">
         <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6084,16 +6868,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6104,16 +6888,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6124,16 +6908,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6147,13 +6931,13 @@
         <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E6" t="s">
         <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6167,13 +6951,13 @@
         <v>290</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6187,13 +6971,13 @@
         <v>291</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6207,13 +6991,13 @@
         <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6227,13 +7011,13 @@
         <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6247,13 +7031,13 @@
         <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6264,16 +7048,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6284,16 +7068,16 @@
         <v>11</v>
       </c>
 